--- a/Meme Agile.xlsx
+++ b/Meme Agile.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D\Git Collab\kelompok_meme_laporan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E249ECF-5A0D-4884-B4C9-5ED1BB4D05BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AB3449-1B65-4BBC-8BE0-FC6EDF078B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BD1CD595-25D7-451D-99CB-E4C06CA26580}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="59">
   <si>
     <t>Product Backlog &amp; User Story</t>
   </si>
@@ -199,22 +199,17 @@
   </si>
   <si>
     <t>sebagai [INVESTOR] saya ingin Navigation bar lebih simple agar Membantu Customer lebih mudah memakai aplikasi</t>
+  </si>
+  <si>
+    <t>Universitas Mikroskil</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -243,8 +238,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -263,6 +280,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -380,7 +403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -395,41 +418,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -455,13 +492,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1205560</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -505,13 +542,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>133351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1171575</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>87547</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -851,10 +888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C4E763-3BF0-4DCE-A690-0A0674D041AB}">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,470 +905,490 @@
     <col min="7" max="7" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C1" s="13" t="s">
+    <row r="1" spans="3:5" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C1" s="19"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+    </row>
+    <row r="2" spans="3:5" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C3" s="14" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="4" spans="3:5" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="6" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D6" s="22" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="6" t="s">
+    <row r="7" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D7" s="22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="6" t="s">
+    <row r="8" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D8" s="22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C9" s="13" t="s">
+    <row r="13" spans="3:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="D13" s="24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="D14" s="23"/>
+    </row>
+    <row r="15" spans="3:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="D15" s="23">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-    </row>
-    <row r="11" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="C11" s="15" t="s">
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="20" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="C20" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="22" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C30" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F30" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G30" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>551</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>552</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>553</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>554</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>555</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>556</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>557</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>558</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="11"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="11"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="18"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="9"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="11"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>551</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>552</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>553</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>554</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>555</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>556</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>557</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>558</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G38" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="6"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="6"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="12"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="14"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="6"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>551</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>552</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>553</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>554</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>555</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+    <row r="52" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
         <v>557</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="11"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
+      <c r="B54" s="6"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B39" s="11"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
+      <c r="B55" s="6"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="7"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
+      <c r="B56" s="15"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B41" s="9"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
+      <c r="B57" s="14"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="10"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+      <c r="B58" s="17"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B59" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="5">
+    <row r="60" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
         <v>558</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B46" s="11"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
+      <c r="B62" s="6"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="11"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
+      <c r="B63" s="6"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B48" s="7"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
+      <c r="B64" s="15"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="9"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="10" t="s">
+      <c r="B65" s="14"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B50" s="10"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
+      <c r="B66" s="17"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B67" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
+    <row r="68" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
         <v>556</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>57</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A38:B38"/>
+  <mergeCells count="21">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="A29:G29"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
   </mergeCells>
-  <pageMargins left="0.23622047244094491" right="0" top="0.74803149606299213" bottom="1.5354330708661419" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="68" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/Meme Agile.xlsx
+++ b/Meme Agile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D\Git Collab\kelompok_meme_laporan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AB3449-1B65-4BBC-8BE0-FC6EDF078B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC93ABE9-BC98-4903-BFF2-3F8B49917F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BD1CD595-25D7-451D-99CB-E4C06CA26580}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="63">
   <si>
     <t>Product Backlog &amp; User Story</t>
   </si>
@@ -202,6 +202,18 @@
   </si>
   <si>
     <t>Universitas Mikroskil</t>
+  </si>
+  <si>
+    <t>Penjelasan</t>
+  </si>
+  <si>
+    <t>TRELLO</t>
+  </si>
+  <si>
+    <t>LINK : https://trello.com/b/QrSaNWNB/memeagileecommerce</t>
+  </si>
+  <si>
+    <t>Hasil Akhir</t>
   </si>
 </sst>
 </file>
@@ -403,7 +415,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -418,55 +430,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -491,15 +507,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:colOff>781049</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1205560</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>1266825</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>27773</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -528,8 +544,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="752474" y="16316324"/>
-          <a:ext cx="6520511" cy="3781426"/>
+          <a:off x="1504949" y="24403049"/>
+          <a:ext cx="5829301" cy="3380574"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -540,16 +556,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1171575</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>87547</xdr:rowOff>
+      <xdr:colOff>1371600</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>116122</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -578,8 +594,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="695325" y="20173951"/>
-          <a:ext cx="6543675" cy="3573696"/>
+          <a:off x="1447800" y="28117801"/>
+          <a:ext cx="5991225" cy="3573696"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -888,10 +904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C4E763-3BF0-4DCE-A690-0A0674D041AB}">
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:G135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="C135" sqref="C135:D135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -905,488 +921,511 @@
     <col min="7" max="7" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:5" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C1" s="19"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-    </row>
-    <row r="2" spans="3:5" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C2" s="7" t="s">
+    <row r="1" spans="3:5" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C1" s="11"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="3:5" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="4" spans="3:5" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="8" t="s">
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="4" spans="3:5" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
     </row>
     <row r="6" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="3:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="14" spans="3:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="D14" s="23"/>
+      <c r="D14" s="9"/>
     </row>
     <row r="15" spans="3:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="D15" s="23">
+      <c r="D15" s="9">
         <v>2023</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C18" s="7" t="s">
+    <row r="18" spans="3:5" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C18" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="20" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="C20" s="9" t="s">
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+    </row>
+    <row r="20" spans="3:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="C20" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="22" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+    </row>
+    <row r="22" spans="3:5" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D22" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="11"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="23"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B50" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C50" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D50" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E50" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F50" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G50" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
         <v>551</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F51" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G51" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
         <v>552</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E52" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F52" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G52" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
         <v>553</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E53" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F53" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G53" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+    <row r="54" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
         <v>554</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E54" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F54" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G54" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+    <row r="55" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
         <v>555</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E55" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F55" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G55" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+    <row r="56" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
         <v>556</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E56" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F56" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G56" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+    <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
         <v>557</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E57" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F57" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G57" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+    <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
         <v>558</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E58" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F58" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G58" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+    <row r="61" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A61" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="6"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
+      <c r="B61" s="18"/>
+    </row>
+    <row r="62" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A62" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="6"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
+      <c r="B62" s="18"/>
+    </row>
+    <row r="63" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A63" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="12"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
+      <c r="B63" s="26"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="14"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
+      <c r="B64" s="15"/>
+    </row>
+    <row r="65" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A65" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="6"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+      <c r="B65" s="18"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B66" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
+    <row r="67" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
         <v>551</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B67" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
+    <row r="68" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
         <v>552</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B68" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
+    <row r="69" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
         <v>553</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B69" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
+    <row r="70" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
         <v>554</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B70" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
+    <row r="71" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
         <v>555</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B71" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
+    <row r="72" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
         <v>557</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B72" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
+    <row r="74" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A74" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B54" s="6"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
+      <c r="B74" s="18"/>
+    </row>
+    <row r="75" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A75" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B55" s="6"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="15" t="s">
+      <c r="B75" s="18"/>
+    </row>
+    <row r="76" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A76" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B56" s="15"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="13" t="s">
+      <c r="B76" s="24"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B57" s="14"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="17" t="s">
+      <c r="B77" s="15"/>
+    </row>
+    <row r="78" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A78" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B58" s="17"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
+      <c r="B78" s="25"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B79" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="5">
+    <row r="80" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A80" s="5">
         <v>558</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B62" s="6"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="6" t="s">
+      <c r="B82" s="16"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B63" s="6"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="15" t="s">
+      <c r="B83" s="16"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B64" s="15"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="16" t="s">
+      <c r="B84" s="13"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B65" s="14"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="17" t="s">
+      <c r="B85" s="15"/>
+    </row>
+    <row r="86" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A86" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B66" s="17"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
+      <c r="B86" s="25"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B87" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
+    <row r="88" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
         <v>556</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B88" s="1" t="s">
         <v>57</v>
       </c>
     </row>
+    <row r="90" spans="1:4" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C90" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D90" s="19"/>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C135" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D135" s="18"/>
+    </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="23">
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
     <mergeCell ref="A64:B64"/>
     <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A74:B74"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="C20:E20"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A49:G49"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="68" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Meme Agile.xlsx
+++ b/Meme Agile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D\Git Collab\kelompok_meme_laporan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC93ABE9-BC98-4903-BFF2-3F8B49917F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BDC7474-6FB0-4A07-866D-093E73FB11F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BD1CD595-25D7-451D-99CB-E4C06CA26580}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="85">
   <si>
     <t>Product Backlog &amp; User Story</t>
   </si>
@@ -214,6 +214,72 @@
   </si>
   <si>
     <t>Hasil Akhir</t>
+  </si>
+  <si>
+    <t>GITHUB</t>
+  </si>
+  <si>
+    <t>LINK : https://github.com/manus1a/kelompok_meme_laporan</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Nama Anggota</t>
+  </si>
+  <si>
+    <t>Task Yang dikerjakan</t>
+  </si>
+  <si>
+    <t>Tanggal Buat</t>
+  </si>
+  <si>
+    <t>Kendala</t>
+  </si>
+  <si>
+    <t>Waktu selesai</t>
+  </si>
+  <si>
+    <t>Daily Scrum Meeting Report</t>
+  </si>
+  <si>
+    <t>Alex Federico</t>
+  </si>
+  <si>
+    <t>Febry Christiani</t>
+  </si>
+  <si>
+    <t>Nicholas Salvadore</t>
+  </si>
+  <si>
+    <t>Membuat protoype</t>
+  </si>
+  <si>
+    <t>Mencari Bug</t>
+  </si>
+  <si>
+    <t>24 aprli</t>
+  </si>
+  <si>
+    <t>Menentukan Posisi</t>
+  </si>
+  <si>
+    <t>Menentukan UI</t>
+  </si>
+  <si>
+    <t>Menentukan Warna</t>
+  </si>
+  <si>
+    <t>Menyusun Trello</t>
+  </si>
+  <si>
+    <t>2 MEI</t>
+  </si>
+  <si>
+    <t>Bug Gambar tidak muncul</t>
+  </si>
+  <si>
+    <t>Tidak mencatat apa saja yang sudah di diskusi</t>
   </si>
 </sst>
 </file>
@@ -415,7 +481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -439,6 +505,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -451,39 +533,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -508,13 +586,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>781049</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>27773</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -558,13 +636,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>161926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1371600</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>116122</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -904,10 +982,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C4E763-3BF0-4DCE-A690-0A0674D041AB}">
-  <dimension ref="A1:G135"/>
+  <dimension ref="A1:G163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="C135" sqref="C135:D135"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,23 +1000,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:5" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C1" s="11"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="3:5" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="4" spans="3:5" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
     </row>
     <row r="6" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D6" s="8" t="s">
@@ -969,35 +1047,35 @@
       </c>
     </row>
     <row r="18" spans="3:5" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
     </row>
     <row r="20" spans="3:5" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
     </row>
     <row r="22" spans="3:5" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="11" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="49" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="23"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="26"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
@@ -1207,34 +1285,34 @@
       </c>
     </row>
     <row r="61" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A61" s="18" t="s">
+      <c r="A61" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B61" s="18"/>
+      <c r="B61" s="13"/>
     </row>
     <row r="62" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A62" s="18" t="s">
+      <c r="A62" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B62" s="18"/>
+      <c r="B62" s="13"/>
     </row>
     <row r="63" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A63" s="26" t="s">
+      <c r="A63" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B63" s="26"/>
+      <c r="B63" s="14"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="17" t="s">
+      <c r="A64" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B64" s="15"/>
+      <c r="B64" s="16"/>
     </row>
     <row r="65" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A65" s="18" t="s">
+      <c r="A65" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B65" s="18"/>
+      <c r="B65" s="13"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
@@ -1293,34 +1371,34 @@
       </c>
     </row>
     <row r="74" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A74" s="18" t="s">
+      <c r="A74" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B74" s="18"/>
+      <c r="B74" s="13"/>
     </row>
     <row r="75" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A75" s="18" t="s">
+      <c r="A75" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B75" s="18"/>
+      <c r="B75" s="13"/>
     </row>
     <row r="76" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A76" s="24" t="s">
+      <c r="A76" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B76" s="24"/>
+      <c r="B76" s="22"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="17" t="s">
+      <c r="A77" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B77" s="15"/>
+      <c r="B77" s="16"/>
     </row>
     <row r="78" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A78" s="25" t="s">
+      <c r="A78" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B78" s="25"/>
+      <c r="B78" s="21"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
@@ -1338,37 +1416,37 @@
         <v>52</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="16" t="s">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="B82" s="16"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="16" t="s">
+      <c r="B82" s="23"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="B83" s="16"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="13" t="s">
+      <c r="B83" s="23"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B84" s="13"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="14" t="s">
+      <c r="B84" s="19"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B85" s="15"/>
-    </row>
-    <row r="86" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A86" s="25" t="s">
+      <c r="B85" s="16"/>
+    </row>
+    <row r="86" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A86" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B86" s="25"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B86" s="21"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>8</v>
       </c>
@@ -1376,7 +1454,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>556</v>
       </c>
@@ -1384,32 +1462,166 @@
         <v>57</v>
       </c>
     </row>
-    <row r="90" spans="1:4" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C90" s="19" t="s">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B90" s="27"/>
+      <c r="C90" s="27"/>
+      <c r="D90" s="27"/>
+      <c r="E90" s="27"/>
+      <c r="F90" s="27"/>
+    </row>
+    <row r="91" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="5">
+        <v>1</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D92" s="28">
+        <v>45040</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F92" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="5">
+        <v>2</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F93" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="5">
+        <v>3</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D94" s="28">
+        <v>45041</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F94" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>4</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D95" s="29">
+        <v>45042</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F95" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A96" s="30">
+        <v>5</v>
+      </c>
+      <c r="B96" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C96" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D96" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F96" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="3:4" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C116" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D90" s="19"/>
-    </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B131" t="s">
+      <c r="D116" s="12"/>
+    </row>
+    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="135" spans="2:4" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C135" s="18" t="s">
+    <row r="160" spans="2:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C160" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D160" s="23"/>
+    </row>
+    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C163" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D135" s="18"/>
+      <c r="D163" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C135:D135"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
+  <mergeCells count="25">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A84:B84"/>
     <mergeCell ref="A85:B85"/>
@@ -1426,6 +1638,15 @@
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="A49:G49"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="C163:D163"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="A90:F90"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="68" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Meme Agile.xlsx
+++ b/Meme Agile.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D\Git Collab\kelompok_meme_laporan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\agile_kelompok_meme\kelompok_meme_laporan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC93ABE9-BC98-4903-BFF2-3F8B49917F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B842DDBE-D1EC-456D-B8E7-084645C1300F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BD1CD595-25D7-451D-99CB-E4C06CA26580}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BD1CD595-25D7-451D-99CB-E4C06CA26580}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -439,6 +439,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -451,38 +467,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -596,6 +596,206 @@
         <a:xfrm>
           <a:off x="1447800" y="28117801"/>
           <a:ext cx="5991225" cy="3573696"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>177249</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C235207-CE1C-E1A2-4526-8146DF2AC7E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="200025" y="37995225"/>
+          <a:ext cx="7772400" cy="4092024"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>416700</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>92850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>64275</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>61840</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2796CEF-C582-7B67-EC42-120F908C862B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8808225" y="33239850"/>
+          <a:ext cx="7772400" cy="3969490"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>109500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>15040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89D8C62C-0EA5-99D5-7105-78F67E131CC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="33256500"/>
+          <a:ext cx="7772400" cy="4096540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>35765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AE0CA1D-64A6-7780-09A6-A1D296E43F0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9010650" y="38138100"/>
+          <a:ext cx="7772400" cy="3998165"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -906,8 +1106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C4E763-3BF0-4DCE-A690-0A0674D041AB}">
   <dimension ref="A1:G135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="C135" sqref="C135:D135"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="D133" sqref="D133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,23 +1122,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:5" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C1" s="11"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="3:5" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="4" spans="3:5" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
     </row>
     <row r="6" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D6" s="8" t="s">
@@ -969,35 +1169,35 @@
       </c>
     </row>
     <row r="18" spans="3:5" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
     </row>
     <row r="20" spans="3:5" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
     </row>
     <row r="22" spans="3:5" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="11" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="49" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="23"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="26"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
@@ -1207,34 +1407,34 @@
       </c>
     </row>
     <row r="61" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A61" s="18" t="s">
+      <c r="A61" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B61" s="18"/>
+      <c r="B61" s="13"/>
     </row>
     <row r="62" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A62" s="18" t="s">
+      <c r="A62" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B62" s="18"/>
+      <c r="B62" s="13"/>
     </row>
     <row r="63" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A63" s="26" t="s">
+      <c r="A63" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B63" s="26"/>
+      <c r="B63" s="14"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="17" t="s">
+      <c r="A64" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B64" s="15"/>
+      <c r="B64" s="16"/>
     </row>
     <row r="65" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A65" s="18" t="s">
+      <c r="A65" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B65" s="18"/>
+      <c r="B65" s="13"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
@@ -1293,34 +1493,34 @@
       </c>
     </row>
     <row r="74" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A74" s="18" t="s">
+      <c r="A74" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B74" s="18"/>
+      <c r="B74" s="13"/>
     </row>
     <row r="75" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A75" s="18" t="s">
+      <c r="A75" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B75" s="18"/>
+      <c r="B75" s="13"/>
     </row>
     <row r="76" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A76" s="24" t="s">
+      <c r="A76" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B76" s="24"/>
+      <c r="B76" s="22"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="17" t="s">
+      <c r="A77" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B77" s="15"/>
+      <c r="B77" s="16"/>
     </row>
     <row r="78" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A78" s="25" t="s">
+      <c r="A78" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B78" s="25"/>
+      <c r="B78" s="21"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
@@ -1339,34 +1539,34 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="16" t="s">
+      <c r="A82" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="B82" s="16"/>
+      <c r="B82" s="23"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="16" t="s">
+      <c r="A83" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="B83" s="16"/>
+      <c r="B83" s="23"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="13" t="s">
+      <c r="A84" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B84" s="13"/>
+      <c r="B84" s="19"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="14" t="s">
+      <c r="A85" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B85" s="15"/>
+      <c r="B85" s="16"/>
     </row>
     <row r="86" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A86" s="25" t="s">
+      <c r="A86" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B86" s="25"/>
+      <c r="B86" s="21"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
@@ -1385,10 +1585,10 @@
       </c>
     </row>
     <row r="90" spans="1:4" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C90" s="19" t="s">
+      <c r="C90" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D90" s="19"/>
+      <c r="D90" s="12"/>
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
@@ -1396,20 +1596,13 @@
       </c>
     </row>
     <row r="135" spans="2:4" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C135" s="18" t="s">
+      <c r="C135" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D135" s="18"/>
+      <c r="D135" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C135:D135"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A84:B84"/>
     <mergeCell ref="A85:B85"/>
@@ -1426,6 +1619,13 @@
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="A49:G49"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="68" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Meme Agile.xlsx
+++ b/Meme Agile.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\agile_kelompok_meme\kelompok_meme_laporan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D\Git Collab\kelompok_meme_laporan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B842DDBE-D1EC-456D-B8E7-084645C1300F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6370B2-470F-488D-A01A-CAC677AEF0A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BD1CD595-25D7-451D-99CB-E4C06CA26580}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BD1CD595-25D7-451D-99CB-E4C06CA26580}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -440,42 +440,39 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -483,6 +480,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -607,15 +607,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>161</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>428626</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>182</xdr:row>
-      <xdr:rowOff>177249</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -644,8 +644,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="200025" y="37995225"/>
-          <a:ext cx="7772400" cy="4092024"/>
+          <a:off x="428626" y="36499800"/>
+          <a:ext cx="4057650" cy="2657475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -656,16 +656,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>416700</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>668162</xdr:colOff>
       <xdr:row>136</xdr:row>
-      <xdr:rowOff>92850</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>64275</xdr:colOff>
-      <xdr:row>157</xdr:row>
-      <xdr:rowOff>61840</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>49184</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -694,8 +694,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8808225" y="33239850"/>
-          <a:ext cx="7772400" cy="3969490"/>
+          <a:off x="4887737" y="33318450"/>
+          <a:ext cx="4103863" cy="2735234"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -707,15 +707,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>361950</xdr:colOff>
       <xdr:row>136</xdr:row>
-      <xdr:rowOff>109500</xdr:rowOff>
+      <xdr:rowOff>147600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>158</xdr:row>
-      <xdr:rowOff>15040</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>43391</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -744,8 +744,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="33256500"/>
-          <a:ext cx="7772400" cy="4096540"/>
+          <a:off x="361950" y="33294600"/>
+          <a:ext cx="4105275" cy="2753291"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -756,16 +756,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>162</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>752476</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>183</xdr:row>
-      <xdr:rowOff>35765</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -794,8 +794,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9010650" y="38138100"/>
-          <a:ext cx="7772400" cy="3998165"/>
+          <a:off x="4972051" y="36490276"/>
+          <a:ext cx="4057649" cy="2819400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1106,7 +1106,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C4E763-3BF0-4DCE-A690-0A0674D041AB}">
   <dimension ref="A1:G135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
       <selection activeCell="D133" sqref="D133"/>
     </sheetView>
   </sheetViews>
@@ -1122,23 +1122,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:5" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C1" s="17"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="3:5" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
     </row>
     <row r="4" spans="3:5" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
     </row>
     <row r="6" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D6" s="8" t="s">
@@ -1169,18 +1169,18 @@
       </c>
     </row>
     <row r="18" spans="3:5" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
     </row>
     <row r="20" spans="3:5" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
     </row>
     <row r="22" spans="3:5" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D22" s="11" t="s">
@@ -1189,15 +1189,15 @@
     </row>
     <row r="48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="49" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="26"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="25"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
@@ -1407,34 +1407,34 @@
       </c>
     </row>
     <row r="61" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A61" s="13" t="s">
+      <c r="A61" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B61" s="13"/>
+      <c r="B61" s="18"/>
     </row>
     <row r="62" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A62" s="13" t="s">
+      <c r="A62" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B62" s="13"/>
+      <c r="B62" s="18"/>
     </row>
     <row r="63" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A63" s="14" t="s">
+      <c r="A63" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B63" s="14"/>
+      <c r="B63" s="26"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="15" t="s">
+      <c r="A64" s="20" t="s">
         <v>43</v>
       </c>
       <c r="B64" s="16"/>
     </row>
     <row r="65" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A65" s="13" t="s">
+      <c r="A65" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B65" s="13"/>
+      <c r="B65" s="18"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
@@ -1493,34 +1493,34 @@
       </c>
     </row>
     <row r="74" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A74" s="13" t="s">
+      <c r="A74" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B74" s="13"/>
+      <c r="B74" s="18"/>
     </row>
     <row r="75" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A75" s="13" t="s">
+      <c r="A75" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B75" s="13"/>
+      <c r="B75" s="18"/>
     </row>
     <row r="76" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A76" s="22" t="s">
+      <c r="A76" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B76" s="22"/>
+      <c r="B76" s="19"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="15" t="s">
+      <c r="A77" s="20" t="s">
         <v>53</v>
       </c>
       <c r="B77" s="16"/>
     </row>
     <row r="78" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A78" s="21" t="s">
+      <c r="A78" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B78" s="21"/>
+      <c r="B78" s="17"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
@@ -1539,34 +1539,34 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="23" t="s">
+      <c r="A82" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B82" s="23"/>
+      <c r="B82" s="21"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="23" t="s">
+      <c r="A83" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="B83" s="23"/>
+      <c r="B83" s="21"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="19" t="s">
+      <c r="A84" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B84" s="19"/>
+      <c r="B84" s="14"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="20" t="s">
+      <c r="A85" s="15" t="s">
         <v>54</v>
       </c>
       <c r="B85" s="16"/>
     </row>
     <row r="86" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A86" s="21" t="s">
+      <c r="A86" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B86" s="21"/>
+      <c r="B86" s="17"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
@@ -1585,10 +1585,10 @@
       </c>
     </row>
     <row r="90" spans="1:4" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C90" s="12" t="s">
+      <c r="C90" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="D90" s="12"/>
+      <c r="D90" s="22"/>
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
@@ -1596,13 +1596,20 @@
       </c>
     </row>
     <row r="135" spans="2:4" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C135" s="13" t="s">
+      <c r="C135" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D135" s="13"/>
+      <c r="D135" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A84:B84"/>
     <mergeCell ref="A85:B85"/>
@@ -1619,13 +1626,6 @@
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="A49:G49"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C135:D135"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="68" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Meme Agile.xlsx
+++ b/Meme Agile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D\Git Collab\kelompok_meme_laporan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6370B2-470F-488D-A01A-CAC677AEF0A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819E824C-C264-41A2-81D6-12A5E95B5726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BD1CD595-25D7-451D-99CB-E4C06CA26580}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="141">
   <si>
     <t>Product Backlog &amp; User Story</t>
   </si>
@@ -214,6 +214,240 @@
   </si>
   <si>
     <t>Hasil Akhir</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Nama Anggota</t>
+  </si>
+  <si>
+    <t>Dikerjakan</t>
+  </si>
+  <si>
+    <t>Tanggal Mulai</t>
+  </si>
+  <si>
+    <t>Kendala</t>
+  </si>
+  <si>
+    <t>Waktu Selesai</t>
+  </si>
+  <si>
+    <t>Daily SCRUM Meeting Report</t>
+  </si>
+  <si>
+    <t>GITHUB</t>
+  </si>
+  <si>
+    <t>LINK : https://github.com/manus1a/kelompok_meme_laporan</t>
+  </si>
+  <si>
+    <t>Alex Federico</t>
+  </si>
+  <si>
+    <t>Febry Christiani</t>
+  </si>
+  <si>
+    <t>Nicholas Salvadore</t>
+  </si>
+  <si>
+    <t>Membuat Prototype</t>
+  </si>
+  <si>
+    <t>Mencari Bug</t>
+  </si>
+  <si>
+    <t>Membuat Laporan Trello</t>
+  </si>
+  <si>
+    <t>Menentukan UI</t>
+  </si>
+  <si>
+    <t>Menentukan Warna</t>
+  </si>
+  <si>
+    <t>Menentukan Posisi</t>
+  </si>
+  <si>
+    <t>Gambar tidak terloading</t>
+  </si>
+  <si>
+    <t>Lupa mencatat Hal yang didiskusi</t>
+  </si>
+  <si>
+    <t>Sprint Review</t>
+  </si>
+  <si>
+    <t>SPRINT 1</t>
+  </si>
+  <si>
+    <t>Completed Task</t>
+  </si>
+  <si>
+    <t>Incompleted Task</t>
+  </si>
+  <si>
+    <t>What's Next</t>
+  </si>
+  <si>
+    <t>Task 1 : Security</t>
+  </si>
+  <si>
+    <t>Task 2 : Online order</t>
+  </si>
+  <si>
+    <t>Task 3 : Location detection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task 4 : Report </t>
+  </si>
+  <si>
+    <t>Task 5 : Nontification</t>
+  </si>
+  <si>
+    <t>Task 7 : UI</t>
+  </si>
+  <si>
+    <t>Task 6 : CUSTOMER-FRIENDLY UI</t>
+  </si>
+  <si>
+    <t>Task 8 : CHECK-OUT</t>
+  </si>
+  <si>
+    <t>SPRINT 2 : Simple transaction</t>
+  </si>
+  <si>
+    <t>SPRINT 2</t>
+  </si>
+  <si>
+    <t>Sprint 3 : Navigation Bar</t>
+  </si>
+  <si>
+    <t>SPRINT 3</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>SPRINT Retrospective</t>
+  </si>
+  <si>
+    <t>What went well</t>
+  </si>
+  <si>
+    <t>What could be improved</t>
+  </si>
+  <si>
+    <t>What to stop doing</t>
+  </si>
+  <si>
+    <t>What to keep doing</t>
+  </si>
+  <si>
+    <t>What to start doing</t>
+  </si>
+  <si>
+    <t>Analysis</t>
+  </si>
+  <si>
+    <t>Actions</t>
+  </si>
+  <si>
+    <t>listing all the task to do</t>
+  </si>
+  <si>
+    <t>work management</t>
+  </si>
+  <si>
+    <t>Proscatinating</t>
+  </si>
+  <si>
+    <t>Share the workload</t>
+  </si>
+  <si>
+    <t>Designing Prototype</t>
+  </si>
+  <si>
+    <t>Better UI</t>
+  </si>
+  <si>
+    <t>Basic feature</t>
+  </si>
+  <si>
+    <t>Forget to write in Trello</t>
+  </si>
+  <si>
+    <t>Manage work</t>
+  </si>
+  <si>
+    <t>Research UI</t>
+  </si>
+  <si>
+    <t>Make a Report</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>Smoothness</t>
+  </si>
+  <si>
+    <t>Making things too complicated</t>
+  </si>
+  <si>
+    <t>Keep simple</t>
+  </si>
+  <si>
+    <t>Aplikasi Basic yang bisa melakukan hal-hal basic yang dilakukan oleh E-Commerce Seperti membeli Barang, Order, Beragam Pilihan</t>
+  </si>
+  <si>
+    <t>aplikasi dan juga cara tim profesional bekerja</t>
+  </si>
+  <si>
+    <t>Project ini merupakan project jangka pendek yang dibuat untuk mendapatkan hasil Research yang lebih mendalam tentang dunia pembuatan</t>
+  </si>
+  <si>
+    <t>Penutup</t>
+  </si>
+  <si>
+    <t>Hal yang kami dapat dari mengerjakan project ini dapat disimpulkan berhasil merasakan suasana saat bekerja dalam sebuah tim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terima kasih karena sudah membaca sampai sejauh ini. Kalau ada kata yang kurang sopan atau kurang tepat kami minta maaf </t>
+  </si>
+  <si>
+    <t>Thanks,</t>
+  </si>
+  <si>
+    <t>Meme Team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scrum adalah kerangka kerja pengembangan perangkat lunak yang berfokus pada kerja tim yang terorganisir, transparan, dan berkelanjutan </t>
+  </si>
+  <si>
+    <t>dalam memenuhi tujuan bisnis melalui iterasi singkat yang disebut Sprint.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trello adalah aplikasi manajemen proyek berbasis web yang memungkinkan pengguna membuat, mengorganisir, dan memantau daftar tugas atau proyek </t>
+  </si>
+  <si>
+    <t>dalam bentuk papan kanban yang intuitif dan mudah digunakan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">untuk menyimpan, mengelola, dan berbagi kode sumber proyek secara terbuka atau pribadi serta memfasilitasi kolaborasi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Github adalah platform kolaborasi pengembangan perangkat lunak yang menggunakan sistem kontrol versi Git, memungkinkan pengguna </t>
+  </si>
+  <si>
+    <t>antar developer pada proyek yang sama.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Figma adalah aplikasi desain berbasis web yang memungkinkan pengguna untuk membuat, berbagi, dan berkolaborasi pada desain antarmuka </t>
+  </si>
+  <si>
+    <t>pengguna (UI) dan pengalaman pengguna (UX) secara real-time.</t>
   </si>
 </sst>
 </file>
@@ -273,7 +507,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -295,6 +529,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,16 +661,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -440,39 +680,39 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -482,9 +722,46 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,13 +785,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>781049</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>27773</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -558,13 +835,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>161926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1371600</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>116122</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -608,13 +885,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>428626</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>196</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>266701</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>210</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -658,13 +935,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>668162</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>179</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>194</xdr:row>
       <xdr:rowOff>49184</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -708,13 +985,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>179</xdr:row>
       <xdr:rowOff>147600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>194</xdr:row>
       <xdr:rowOff>43391</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -758,13 +1035,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>752476</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>196</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>211</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1104,10 +1381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C4E763-3BF0-4DCE-A690-0A0674D041AB}">
-  <dimension ref="A1:G135"/>
+  <dimension ref="A1:G222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="D133" sqref="D133"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1121,511 +1398,1069 @@
     <col min="7" max="7" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:5" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C1" s="12"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-    </row>
-    <row r="2" spans="3:5" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C2" s="18" t="s">
+    <row r="1" spans="3:5" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C1" s="15"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+    </row>
+    <row r="2" spans="3:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-    </row>
-    <row r="4" spans="3:5" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="22" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+    </row>
+    <row r="4" spans="3:5" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
     </row>
     <row r="6" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="3:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="8" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="14" spans="3:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="D14" s="9"/>
+      <c r="D14" s="7"/>
     </row>
     <row r="15" spans="3:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="D15" s="9">
+      <c r="D15" s="7">
         <v>2023</v>
       </c>
     </row>
-    <row r="18" spans="3:5" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C18" s="18" t="s">
+    <row r="18" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C18" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-    </row>
-    <row r="20" spans="3:5" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="C20" s="23" t="s">
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+    </row>
+    <row r="20" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="C20" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-    </row>
-    <row r="22" spans="3:5" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D22" s="11" t="s">
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+    </row>
+    <row r="22" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D22" s="9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="49" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="24" t="s">
+    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="30" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="30"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="30" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="30"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="30" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="30"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="30"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="30" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="30"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="30" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="30"/>
+    </row>
+    <row r="42" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="30"/>
+    </row>
+    <row r="43" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="25"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="23"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B44" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C44" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D44" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E44" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="F44" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="G44" s="34" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="35">
+        <v>551</v>
+      </c>
+      <c r="B45" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="E45" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G45" s="36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="35">
+        <v>552</v>
+      </c>
+      <c r="B46" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="G46" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="35">
+        <v>553</v>
+      </c>
+      <c r="B47" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="G47" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="35">
+        <v>554</v>
+      </c>
+      <c r="B48" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F48" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="G48" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="35">
+        <v>555</v>
+      </c>
+      <c r="B49" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="G49" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="35">
+        <v>556</v>
+      </c>
+      <c r="B50" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E50" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="F50" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="G50" s="36">
+        <v>2</v>
+      </c>
+    </row>
     <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
+      <c r="A51" s="35">
+        <v>557</v>
+      </c>
+      <c r="B51" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="E51" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="F51" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="G51" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="35">
+        <v>558</v>
+      </c>
+      <c r="B52" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="E52" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F52" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="G52" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A59" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B59" s="11"/>
+    </row>
+    <row r="60" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A60" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B60" s="11"/>
+    </row>
+    <row r="61" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A61" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B61" s="12"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B62" s="14"/>
+    </row>
+    <row r="63" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A63" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B63" s="11"/>
+    </row>
+    <row r="64" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" s="33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A65" s="31">
         <v>551</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G51" s="2">
+      <c r="B65" s="32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A66" s="31">
+        <v>552</v>
+      </c>
+      <c r="B66" s="32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+      <c r="A67" s="31">
+        <v>553</v>
+      </c>
+      <c r="B67" s="32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="31">
+        <v>554</v>
+      </c>
+      <c r="B68" s="32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="31">
+        <v>555</v>
+      </c>
+      <c r="B69" s="32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A70" s="31">
+        <v>557</v>
+      </c>
+      <c r="B70" s="32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A72" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B72" s="11"/>
+    </row>
+    <row r="73" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A73" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B73" s="11"/>
+    </row>
+    <row r="74" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A74" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B74" s="19"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B75" s="14"/>
+    </row>
+    <row r="76" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A76" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B76" s="18"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>552</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G52" s="2">
+      <c r="B77" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>558</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A80" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B80" s="11"/>
+    </row>
+    <row r="81" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A81" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B81" s="11"/>
+    </row>
+    <row r="82" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A82" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B82" s="19"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B83" s="14"/>
+    </row>
+    <row r="84" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A84" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B84" s="18"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>556</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C88" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D88" s="11"/>
+    </row>
+    <row r="89" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>1</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D90" s="24">
+        <v>45039</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F90" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>2</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D91" s="24">
+        <v>45039</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F91" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>553</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G53" s="2">
+      <c r="B92" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D92" s="24">
+        <v>45041</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F92" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>4</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D93" s="24">
+        <v>45045</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F93" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>554</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G54" s="2">
+    <row r="94" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>555</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G55" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>556</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G56" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>557</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G57" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>558</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G58" s="2">
+      <c r="B94" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D94" s="24">
+        <v>45048</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F94" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A61" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B61" s="18"/>
-    </row>
-    <row r="62" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A62" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B62" s="18"/>
-    </row>
-    <row r="63" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A63" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="B63" s="26"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B64" s="16"/>
-    </row>
-    <row r="65" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A65" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B65" s="18"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>551</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>552</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>553</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>554</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>555</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <v>557</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A74" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B74" s="18"/>
-    </row>
-    <row r="75" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A75" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B75" s="18"/>
-    </row>
-    <row r="76" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A76" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B76" s="19"/>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="B77" s="16"/>
-    </row>
-    <row r="78" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A78" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B78" s="17"/>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A80" s="5">
-        <v>558</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B82" s="21"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="B83" s="21"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B84" s="14"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B85" s="16"/>
-    </row>
-    <row r="86" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A86" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B86" s="17"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
-        <v>556</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C90" s="22" t="s">
+    <row r="96" spans="1:6" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C96" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D96" s="11"/>
+    </row>
+    <row r="97" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A97" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B97" s="27"/>
+      <c r="C97" s="27"/>
+    </row>
+    <row r="98" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C100" s="1"/>
+    </row>
+    <row r="101" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+    </row>
+    <row r="102" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+    </row>
+    <row r="103" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+    </row>
+    <row r="106" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A106" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="B106" s="26"/>
+      <c r="C106" s="26"/>
+    </row>
+    <row r="107" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A110" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B110" s="26"/>
+      <c r="C110" s="26"/>
+    </row>
+    <row r="111" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A111" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C115" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D115" s="11"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B116" s="29"/>
+      <c r="C116" s="29"/>
+      <c r="D116" s="29"/>
+      <c r="E116" s="29"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B117" s="28"/>
+      <c r="C117" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="D117" s="28"/>
+      <c r="E117" s="28"/>
+    </row>
+    <row r="118" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="B121" s="29"/>
+      <c r="C121" s="29"/>
+      <c r="D121" s="29"/>
+      <c r="E121" s="29"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B122" s="28"/>
+      <c r="C122" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="D122" s="28"/>
+      <c r="E122" s="28"/>
+    </row>
+    <row r="123" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B126" s="29"/>
+      <c r="C126" s="29"/>
+      <c r="D126" s="29"/>
+      <c r="E126" s="29"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B127" s="28"/>
+      <c r="C127" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="D127" s="28"/>
+      <c r="E127" s="28"/>
+    </row>
+    <row r="128" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C131" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D90" s="22"/>
-    </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B131" t="s">
+      <c r="D131" s="11"/>
+    </row>
+    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B172" s="39" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="135" spans="2:4" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C135" s="18" t="s">
+    <row r="174" spans="2:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C174" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D174" s="11"/>
+    </row>
+    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B176" s="39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="178" spans="3:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C178" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D135" s="18"/>
+      <c r="D178" s="11"/>
+    </row>
+    <row r="214" spans="1:6" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C214" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="D214" s="38"/>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F221" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F222" t="s">
+        <v>131</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C135:D135"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
+  <mergeCells count="40">
+    <mergeCell ref="A126:E126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:E127"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A121:E121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:E122"/>
+    <mergeCell ref="A116:E116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:E117"/>
     <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A83:B83"/>
     <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
     <mergeCell ref="A75:B75"/>
     <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A72:B72"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="C20:E20"/>
-    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="C178:D178"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C174:D174"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="A110:C110"/>
+    <mergeCell ref="C115:D115"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="68" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Meme Agile.xlsx
+++ b/Meme Agile.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D\Git Collab\kelompok_meme_laporan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819E824C-C264-41A2-81D6-12A5E95B5726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F6AA95-066E-4710-B9A5-7BB816AA24AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BD1CD595-25D7-451D-99CB-E4C06CA26580}"/>
   </bookViews>
@@ -661,7 +661,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -680,64 +680,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -748,20 +691,71 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -785,13 +779,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>781049</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>27773</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -835,13 +829,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>161926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1371600</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>116122</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -885,13 +879,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>428626</xdr:colOff>
-      <xdr:row>196</xdr:row>
+      <xdr:row>199</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>266701</xdr:colOff>
-      <xdr:row>210</xdr:row>
+      <xdr:row>213</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -935,13 +929,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>668162</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>182</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>194</xdr:row>
+      <xdr:row>197</xdr:row>
       <xdr:rowOff>49184</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -985,13 +979,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>182</xdr:row>
       <xdr:rowOff>147600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>194</xdr:row>
+      <xdr:row>197</xdr:row>
       <xdr:rowOff>43391</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1035,13 +1029,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>752476</xdr:colOff>
-      <xdr:row>196</xdr:row>
+      <xdr:row>199</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>211</xdr:row>
+      <xdr:row>214</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1381,10 +1375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C4E763-3BF0-4DCE-A690-0A0674D041AB}">
-  <dimension ref="A1:G222"/>
+  <dimension ref="A1:G225"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1399,23 +1393,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:5" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C1" s="15"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="3:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
     </row>
     <row r="4" spans="3:5" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
     </row>
     <row r="6" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D6" s="6" t="s">
@@ -1446,18 +1440,18 @@
       </c>
     </row>
     <row r="18" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
     </row>
     <row r="20" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
     </row>
     <row r="22" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D22" s="9" t="s">
@@ -1465,38 +1459,38 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="11" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
+      <c r="A25" s="11"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="11" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="11" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
+      <c r="A28" s="11"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="11" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="11" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="30"/>
+      <c r="A31" s="11"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -1504,12 +1498,12 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="11" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="30"/>
+      <c r="A34" s="11"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -1517,17 +1511,17 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="11" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="11" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="30"/>
+      <c r="A38" s="11"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -1535,349 +1529,349 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="30" t="s">
+      <c r="A40" s="11" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="30"/>
+      <c r="A41" s="11"/>
     </row>
     <row r="42" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="30"/>
+      <c r="A42" s="11"/>
     </row>
     <row r="43" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="22" t="s">
+      <c r="A43" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="23"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="34"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="34" t="s">
+      <c r="A44" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="34" t="s">
+      <c r="B44" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="34" t="s">
+      <c r="C44" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="34" t="s">
+      <c r="D44" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E44" s="34" t="s">
+      <c r="E44" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F44" s="34" t="s">
+      <c r="F44" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G44" s="34" t="s">
+      <c r="G44" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="35">
+      <c r="A45" s="1">
         <v>551</v>
       </c>
-      <c r="B45" s="35" t="s">
+      <c r="B45" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="35" t="s">
+      <c r="C45" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="36" t="s">
+      <c r="D45" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E45" s="35" t="s">
+      <c r="E45" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F45" s="36" t="s">
+      <c r="F45" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="G45" s="36">
+      <c r="G45" s="16">
         <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="35">
+      <c r="A46" s="1">
         <v>552</v>
       </c>
-      <c r="B46" s="35" t="s">
+      <c r="B46" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="35" t="s">
+      <c r="C46" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D46" s="36" t="s">
+      <c r="D46" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E46" s="36" t="s">
+      <c r="E46" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F46" s="36" t="s">
+      <c r="F46" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G46" s="36">
+      <c r="G46" s="16">
         <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="35">
+      <c r="A47" s="1">
         <v>553</v>
       </c>
-      <c r="B47" s="35" t="s">
+      <c r="B47" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C47" s="35" t="s">
+      <c r="C47" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D47" s="36" t="s">
+      <c r="D47" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E47" s="36" t="s">
+      <c r="E47" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F47" s="36" t="s">
+      <c r="F47" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G47" s="36">
+      <c r="G47" s="16">
         <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="35">
+      <c r="A48" s="1">
         <v>554</v>
       </c>
-      <c r="B48" s="35" t="s">
+      <c r="B48" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="35" t="s">
+      <c r="C48" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D48" s="36" t="s">
+      <c r="D48" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E48" s="36" t="s">
+      <c r="E48" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F48" s="36" t="s">
+      <c r="F48" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G48" s="36">
+      <c r="G48" s="16">
         <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="35">
+      <c r="A49" s="1">
         <v>555</v>
       </c>
-      <c r="B49" s="35" t="s">
+      <c r="B49" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="35" t="s">
+      <c r="C49" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D49" s="36" t="s">
+      <c r="D49" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E49" s="36" t="s">
+      <c r="E49" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F49" s="36" t="s">
+      <c r="F49" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G49" s="36">
+      <c r="G49" s="16">
         <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="35">
+      <c r="A50" s="1">
         <v>556</v>
       </c>
-      <c r="B50" s="35" t="s">
+      <c r="B50" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C50" s="35" t="s">
+      <c r="C50" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D50" s="36" t="s">
+      <c r="D50" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E50" s="36" t="s">
+      <c r="E50" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F50" s="36" t="s">
+      <c r="F50" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G50" s="36">
+      <c r="G50" s="16">
         <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="35">
+      <c r="A51" s="1">
         <v>557</v>
       </c>
-      <c r="B51" s="35" t="s">
+      <c r="B51" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="35" t="s">
+      <c r="C51" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D51" s="36" t="s">
+      <c r="D51" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E51" s="36" t="s">
+      <c r="E51" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F51" s="36" t="s">
+      <c r="F51" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G51" s="36">
+      <c r="G51" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="35">
+      <c r="A52" s="1">
         <v>558</v>
       </c>
-      <c r="B52" s="35" t="s">
+      <c r="B52" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C52" s="35" t="s">
+      <c r="C52" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D52" s="36" t="s">
+      <c r="D52" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="36" t="s">
+      <c r="E52" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F52" s="36" t="s">
+      <c r="F52" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G52" s="36">
+      <c r="G52" s="16">
         <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="B59" s="11"/>
+      <c r="B59" s="28"/>
     </row>
     <row r="60" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B60" s="11"/>
+      <c r="B60" s="28"/>
     </row>
     <row r="61" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A61" s="12" t="s">
+      <c r="A61" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="B61" s="12"/>
+      <c r="B61" s="35"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="13" t="s">
+      <c r="A62" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="B62" s="14"/>
+      <c r="B62" s="26"/>
     </row>
     <row r="63" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A63" s="11" t="s">
+      <c r="A63" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B63" s="11"/>
+      <c r="B63" s="28"/>
     </row>
     <row r="64" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="33" t="s">
+      <c r="A64" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B64" s="33" t="s">
+      <c r="B64" s="14" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A65" s="31">
+      <c r="A65" s="12">
         <v>551</v>
       </c>
-      <c r="B65" s="32" t="s">
+      <c r="B65" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A66" s="31">
+      <c r="A66" s="12">
         <v>552</v>
       </c>
-      <c r="B66" s="32" t="s">
+      <c r="B66" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="63" x14ac:dyDescent="0.25">
-      <c r="A67" s="31">
+      <c r="A67" s="12">
         <v>553</v>
       </c>
-      <c r="B67" s="32" t="s">
+      <c r="B67" s="13" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="31">
+      <c r="A68" s="12">
         <v>554</v>
       </c>
-      <c r="B68" s="32" t="s">
+      <c r="B68" s="13" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="31">
+      <c r="A69" s="12">
         <v>555</v>
       </c>
-      <c r="B69" s="32" t="s">
+      <c r="B69" s="13" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A70" s="31">
+      <c r="A70" s="12">
         <v>557</v>
       </c>
-      <c r="B70" s="32" t="s">
+      <c r="B70" s="13" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A72" s="11" t="s">
+      <c r="A72" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="B72" s="11"/>
+      <c r="B72" s="28"/>
     </row>
     <row r="73" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A73" s="11" t="s">
+      <c r="A73" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B73" s="11"/>
+      <c r="B73" s="28"/>
     </row>
     <row r="74" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A74" s="19" t="s">
+      <c r="A74" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B74" s="19"/>
+      <c r="B74" s="24"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="13" t="s">
+      <c r="A75" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="B75" s="14"/>
+      <c r="B75" s="26"/>
     </row>
     <row r="76" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A76" s="18" t="s">
+      <c r="A76" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B76" s="18"/>
+      <c r="B76" s="27"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
@@ -1896,34 +1890,34 @@
       </c>
     </row>
     <row r="80" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A80" s="11" t="s">
+      <c r="A80" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="B80" s="11"/>
+      <c r="B80" s="28"/>
     </row>
     <row r="81" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A81" s="11" t="s">
+      <c r="A81" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="B81" s="11"/>
+      <c r="B81" s="28"/>
     </row>
     <row r="82" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A82" s="19" t="s">
+      <c r="A82" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B82" s="19"/>
+      <c r="B82" s="24"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="17" t="s">
+      <c r="A83" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B83" s="14"/>
+      <c r="B83" s="26"/>
     </row>
     <row r="84" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A84" s="18" t="s">
+      <c r="A84" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B84" s="18"/>
+      <c r="B84" s="27"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
@@ -1942,10 +1936,10 @@
       </c>
     </row>
     <row r="88" spans="1:6" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C88" s="11" t="s">
+      <c r="C88" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="D88" s="11"/>
+      <c r="D88" s="28"/>
     </row>
     <row r="89" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
@@ -1977,7 +1971,7 @@
       <c r="C90" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D90" s="24">
+      <c r="D90" s="10">
         <v>45039</v>
       </c>
       <c r="E90" s="1" t="s">
@@ -1997,7 +1991,7 @@
       <c r="C91" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D91" s="24">
+      <c r="D91" s="10">
         <v>45039</v>
       </c>
       <c r="E91" s="1" t="s">
@@ -2017,7 +2011,7 @@
       <c r="C92" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D92" s="24">
+      <c r="D92" s="10">
         <v>45041</v>
       </c>
       <c r="E92" s="1" t="s">
@@ -2037,7 +2031,7 @@
       <c r="C93" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D93" s="24">
+      <c r="D93" s="10">
         <v>45045</v>
       </c>
       <c r="E93" s="1" t="s">
@@ -2057,7 +2051,7 @@
       <c r="C94" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D94" s="24">
+      <c r="D94" s="10">
         <v>45048</v>
       </c>
       <c r="E94" s="1" t="s">
@@ -2067,370 +2061,410 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:6" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C96" s="11" t="s">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>6</v>
+      </c>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>7</v>
+      </c>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>8</v>
+      </c>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+    </row>
+    <row r="99" spans="1:6" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C99" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="D96" s="11"/>
-    </row>
-    <row r="97" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A97" s="27" t="s">
+      <c r="D99" s="28"/>
+    </row>
+    <row r="100" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A100" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="B97" s="27"/>
-      <c r="C97" s="27"/>
-    </row>
-    <row r="98" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
+      <c r="B100" s="36"/>
+      <c r="C100" s="36"/>
+    </row>
+    <row r="101" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B101" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C101" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
+    <row r="102" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B102" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C102" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
+    <row r="103" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B103" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C100" s="1"/>
-    </row>
-    <row r="101" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
+      <c r="C103" s="1"/>
+    </row>
+    <row r="104" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-    </row>
-    <row r="102" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-    </row>
-    <row r="103" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="106" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="26" t="s">
+    <row r="105" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+    </row>
+    <row r="106" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+    </row>
+    <row r="109" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A109" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="B106" s="26"/>
-      <c r="C106" s="26"/>
-    </row>
-    <row r="107" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="25" t="s">
+      <c r="B109" s="37"/>
+      <c r="C109" s="37"/>
+    </row>
+    <row r="110" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B110" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C110" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
+    <row r="111" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B111" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C111" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="26" t="s">
+    <row r="113" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A113" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="B110" s="26"/>
-      <c r="C110" s="26"/>
-    </row>
-    <row r="111" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A111" s="25" t="s">
+      <c r="B113" s="37"/>
+      <c r="C113" s="37"/>
+    </row>
+    <row r="114" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B114" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C114" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
+    <row r="115" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B115" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C115" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="115" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C115" s="11" t="s">
+    <row r="118" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C118" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="D115" s="11"/>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="29" t="s">
+      <c r="D118" s="28"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="B116" s="29"/>
-      <c r="C116" s="29"/>
-      <c r="D116" s="29"/>
-      <c r="E116" s="29"/>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="28" t="s">
+      <c r="B119" s="19"/>
+      <c r="C119" s="19"/>
+      <c r="D119" s="19"/>
+      <c r="E119" s="19"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="B117" s="28"/>
-      <c r="C117" s="28" t="s">
+      <c r="B120" s="20"/>
+      <c r="C120" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D117" s="28"/>
-      <c r="E117" s="28"/>
-    </row>
-    <row r="118" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
+      <c r="D120" s="20"/>
+      <c r="E120" s="20"/>
+    </row>
+    <row r="121" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B121" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C121" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="D121" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E118" s="1" t="s">
+      <c r="E121" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
+    <row r="122" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B122" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C122" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="D122" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E119" s="1" t="s">
+      <c r="E122" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="29" t="s">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B121" s="29"/>
-      <c r="C121" s="29"/>
-      <c r="D121" s="29"/>
-      <c r="E121" s="29"/>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="28" t="s">
+      <c r="B124" s="19"/>
+      <c r="C124" s="19"/>
+      <c r="D124" s="19"/>
+      <c r="E124" s="19"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="B122" s="28"/>
-      <c r="C122" s="28" t="s">
+      <c r="B125" s="20"/>
+      <c r="C125" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D122" s="28"/>
-      <c r="E122" s="28"/>
-    </row>
-    <row r="123" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
+      <c r="D125" s="20"/>
+      <c r="E125" s="20"/>
+    </row>
+    <row r="126" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B126" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C126" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="D126" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E123" s="1" t="s">
+      <c r="E126" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
+    <row r="127" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B127" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C127" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D124" s="1" t="s">
+      <c r="D127" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E124" s="1" t="s">
+      <c r="E127" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="29" t="s">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="B126" s="29"/>
-      <c r="C126" s="29"/>
-      <c r="D126" s="29"/>
-      <c r="E126" s="29"/>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="28" t="s">
+      <c r="B129" s="19"/>
+      <c r="C129" s="19"/>
+      <c r="D129" s="19"/>
+      <c r="E129" s="19"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="B127" s="28"/>
-      <c r="C127" s="28" t="s">
+      <c r="B130" s="20"/>
+      <c r="C130" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D127" s="28"/>
-      <c r="E127" s="28"/>
-    </row>
-    <row r="128" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
+      <c r="D130" s="20"/>
+      <c r="E130" s="20"/>
+    </row>
+    <row r="131" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B131" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="C131" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D128" s="1" t="s">
+      <c r="D131" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E128" s="1" t="s">
+      <c r="E131" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
+    <row r="132" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B132" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C132" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="D132" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E129" s="1" t="s">
+      <c r="E132" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="131" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C131" s="11" t="s">
+    <row r="134" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C134" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="D131" s="11"/>
-    </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B172" s="39" t="s">
+      <c r="D134" s="28"/>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B175" s="18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="174" spans="2:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C174" s="11" t="s">
+    <row r="177" spans="2:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C177" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="D174" s="11"/>
-    </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B176" s="39" t="s">
+      <c r="D177" s="28"/>
+    </row>
+    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B179" s="18" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="178" spans="3:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C178" s="11" t="s">
+    <row r="181" spans="2:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C181" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="D178" s="11"/>
-    </row>
-    <row r="214" spans="1:6" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C214" s="38" t="s">
+      <c r="D181" s="28"/>
+    </row>
+    <row r="217" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C217" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="D214" s="38"/>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
+      <c r="D217" s="21"/>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F221" t="s">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F224" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F222" t="s">
+    <row r="225" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F225" t="s">
         <v>131</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A126:E126"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="C127:E127"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="A121:E121"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="C122:E122"/>
-    <mergeCell ref="A116:E116"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="C117:E117"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C177:D177"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="A109:C109"/>
+    <mergeCell ref="A113:C113"/>
+    <mergeCell ref="A119:E119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:E120"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A82:B82"/>
     <mergeCell ref="A83:B83"/>
@@ -2444,23 +2478,13 @@
     <mergeCell ref="A72:B72"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="C131:D131"/>
-    <mergeCell ref="C178:D178"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C174:D174"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A106:C106"/>
-    <mergeCell ref="A110:C110"/>
-    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="A129:E129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:E130"/>
+    <mergeCell ref="C217:D217"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:E125"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="68" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Meme Agile.xlsx
+++ b/Meme Agile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D\Git Collab\kelompok_meme_laporan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F6AA95-066E-4710-B9A5-7BB816AA24AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F179AFBC-AB82-4A29-82C9-49695E922FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BD1CD595-25D7-451D-99CB-E4C06CA26580}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="145">
   <si>
     <t>Product Backlog &amp; User Story</t>
   </si>
@@ -448,6 +448,18 @@
   </si>
   <si>
     <t>pengguna (UI) dan pengalaman pengguna (UX) secara real-time.</t>
+  </si>
+  <si>
+    <t>Task 9 : More Item</t>
+  </si>
+  <si>
+    <t>Task 10 : Upgraded UI</t>
+  </si>
+  <si>
+    <t>Task 11 : Compile into Apk</t>
+  </si>
+  <si>
+    <t>SPRINT 4</t>
   </si>
 </sst>
 </file>
@@ -661,7 +673,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -699,62 +711,65 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -779,13 +794,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>781049</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>27773</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -829,13 +844,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>161926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1371600</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>178</xdr:row>
       <xdr:rowOff>116122</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -879,13 +894,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>428626</xdr:colOff>
-      <xdr:row>199</xdr:row>
+      <xdr:row>205</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>266701</xdr:colOff>
-      <xdr:row>213</xdr:row>
+      <xdr:row>219</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -929,13 +944,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>668162</xdr:colOff>
-      <xdr:row>182</xdr:row>
+      <xdr:row>188</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>197</xdr:row>
+      <xdr:row>203</xdr:row>
       <xdr:rowOff>49184</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -979,13 +994,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>182</xdr:row>
+      <xdr:row>188</xdr:row>
       <xdr:rowOff>147600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>197</xdr:row>
+      <xdr:row>203</xdr:row>
       <xdr:rowOff>43391</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1029,13 +1044,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>752476</xdr:colOff>
-      <xdr:row>199</xdr:row>
+      <xdr:row>205</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>214</xdr:row>
+      <xdr:row>220</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1375,10 +1390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C4E763-3BF0-4DCE-A690-0A0674D041AB}">
-  <dimension ref="A1:G225"/>
+  <dimension ref="A1:G231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1393,23 +1408,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:5" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C1" s="22"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="3:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
     </row>
     <row r="4" spans="3:5" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="6" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D6" s="6" t="s">
@@ -1440,18 +1455,18 @@
       </c>
     </row>
     <row r="18" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
     </row>
     <row r="20" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
     </row>
     <row r="22" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D22" s="9" t="s">
@@ -1540,15 +1555,15 @@
       <c r="A42" s="11"/>
     </row>
     <row r="43" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="33" t="s">
+      <c r="A43" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="34"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="22"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
@@ -1758,34 +1773,34 @@
       </c>
     </row>
     <row r="59" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A59" s="28" t="s">
+      <c r="A59" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B59" s="28"/>
+      <c r="B59" s="19"/>
     </row>
     <row r="60" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A60" s="28" t="s">
+      <c r="A60" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B60" s="28"/>
+      <c r="B60" s="19"/>
     </row>
     <row r="61" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A61" s="35" t="s">
+      <c r="A61" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B61" s="35"/>
+      <c r="B61" s="23"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="29" t="s">
+      <c r="A62" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B62" s="26"/>
+      <c r="B62" s="25"/>
     </row>
     <row r="63" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A63" s="28" t="s">
+      <c r="A63" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B63" s="28"/>
+      <c r="B63" s="19"/>
     </row>
     <row r="64" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
@@ -1844,34 +1859,34 @@
       </c>
     </row>
     <row r="72" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A72" s="28" t="s">
+      <c r="A72" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B72" s="28"/>
+      <c r="B72" s="19"/>
     </row>
     <row r="73" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A73" s="28" t="s">
+      <c r="A73" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B73" s="28"/>
+      <c r="B73" s="19"/>
     </row>
     <row r="74" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A74" s="24" t="s">
+      <c r="A74" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B74" s="24"/>
+      <c r="B74" s="32"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="29" t="s">
+      <c r="A75" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="B75" s="26"/>
+      <c r="B75" s="25"/>
     </row>
     <row r="76" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A76" s="27" t="s">
+      <c r="A76" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B76" s="27"/>
+      <c r="B76" s="34"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
@@ -1890,34 +1905,34 @@
       </c>
     </row>
     <row r="80" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A80" s="28" t="s">
+      <c r="A80" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B80" s="28"/>
+      <c r="B80" s="19"/>
     </row>
     <row r="81" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A81" s="28" t="s">
+      <c r="A81" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B81" s="28"/>
+      <c r="B81" s="19"/>
     </row>
     <row r="82" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A82" s="24" t="s">
+      <c r="A82" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B82" s="24"/>
+      <c r="B82" s="32"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="25" t="s">
+      <c r="A83" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B83" s="26"/>
+      <c r="B83" s="25"/>
     </row>
     <row r="84" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A84" s="27" t="s">
+      <c r="A84" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B84" s="27"/>
+      <c r="B84" s="34"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
@@ -1936,10 +1951,10 @@
       </c>
     </row>
     <row r="88" spans="1:6" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C88" s="28" t="s">
+      <c r="C88" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D88" s="28"/>
+      <c r="D88" s="19"/>
     </row>
     <row r="89" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
@@ -2092,17 +2107,17 @@
       <c r="F97" s="1"/>
     </row>
     <row r="99" spans="1:6" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C99" s="28" t="s">
+      <c r="C99" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="D99" s="28"/>
+      <c r="D99" s="19"/>
     </row>
     <row r="100" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A100" s="36" t="s">
+      <c r="A100" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="B100" s="36"/>
-      <c r="C100" s="36"/>
+      <c r="B100" s="26"/>
+      <c r="C100" s="26"/>
     </row>
     <row r="101" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
@@ -2164,11 +2179,11 @@
       <c r="C107" s="1"/>
     </row>
     <row r="109" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="37" t="s">
+      <c r="A109" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="B109" s="37"/>
-      <c r="C109" s="37"/>
+      <c r="B109" s="27"/>
+      <c r="C109" s="27"/>
     </row>
     <row r="110" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
@@ -2193,11 +2208,11 @@
       </c>
     </row>
     <row r="113" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="37" t="s">
+      <c r="A113" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="B113" s="37"/>
-      <c r="C113" s="37"/>
+      <c r="B113" s="27"/>
+      <c r="C113" s="27"/>
     </row>
     <row r="114" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
@@ -2218,253 +2233,288 @@
         <v>100</v>
       </c>
       <c r="C115" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C118" s="28" t="s">
+      <c r="C116" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="38"/>
+      <c r="B118" s="38"/>
+      <c r="C118" s="38"/>
+    </row>
+    <row r="119" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A119" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="B119" s="27"/>
+      <c r="C119" s="27"/>
+    </row>
+    <row r="120" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C124" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="D118" s="28"/>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="19" t="s">
+      <c r="D124" s="19"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="B119" s="19"/>
-      <c r="C119" s="19"/>
-      <c r="D119" s="19"/>
-      <c r="E119" s="19"/>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="20" t="s">
+      <c r="B125" s="28"/>
+      <c r="C125" s="28"/>
+      <c r="D125" s="28"/>
+      <c r="E125" s="28"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="B120" s="20"/>
-      <c r="C120" s="20" t="s">
+      <c r="B126" s="29"/>
+      <c r="C126" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="D120" s="20"/>
-      <c r="E120" s="20"/>
-    </row>
-    <row r="121" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="B124" s="19"/>
-      <c r="C124" s="19"/>
-      <c r="D124" s="19"/>
-      <c r="E124" s="19"/>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="B125" s="20"/>
-      <c r="C125" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="D125" s="20"/>
-      <c r="E125" s="20"/>
-    </row>
-    <row r="126" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>106</v>
-      </c>
+      <c r="D126" s="29"/>
+      <c r="E126" s="29"/>
     </row>
     <row r="127" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="B129" s="19"/>
-      <c r="C129" s="19"/>
-      <c r="D129" s="19"/>
-      <c r="E129" s="19"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="20" t="s">
+      <c r="A130" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B130" s="28"/>
+      <c r="C130" s="28"/>
+      <c r="D130" s="28"/>
+      <c r="E130" s="28"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="B130" s="20"/>
-      <c r="C130" s="20" t="s">
+      <c r="B131" s="29"/>
+      <c r="C131" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="D130" s="20"/>
-      <c r="E130" s="20"/>
-    </row>
-    <row r="131" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>106</v>
-      </c>
+      <c r="D131" s="29"/>
+      <c r="E131" s="29"/>
     </row>
     <row r="132" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B135" s="28"/>
+      <c r="C135" s="28"/>
+      <c r="D135" s="28"/>
+      <c r="E135" s="28"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="B136" s="29"/>
+      <c r="C136" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D136" s="29"/>
+      <c r="E136" s="29"/>
+    </row>
+    <row r="137" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B138" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="C138" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D132" s="1" t="s">
+      <c r="D138" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E132" s="1" t="s">
+      <c r="E138" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="134" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C134" s="28" t="s">
+    <row r="140" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C140" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D134" s="28"/>
-    </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B175" s="18" t="s">
+      <c r="D140" s="19"/>
+    </row>
+    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B181" s="18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="177" spans="2:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C177" s="28" t="s">
+    <row r="183" spans="2:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C183" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="D177" s="28"/>
-    </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B179" s="18" t="s">
+      <c r="D183" s="19"/>
+    </row>
+    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B185" s="18" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="181" spans="2:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C181" s="28" t="s">
+    <row r="187" spans="2:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C187" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="D181" s="28"/>
-    </row>
-    <row r="217" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C217" s="21" t="s">
+      <c r="D187" s="19"/>
+    </row>
+    <row r="223" spans="3:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C223" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="D217" s="21"/>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
+      <c r="D223" s="37"/>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F224" t="s">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F230" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="225" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F225" t="s">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F231" t="s">
         <v>131</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C177:D177"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="A100:C100"/>
-    <mergeCell ref="A109:C109"/>
+  <mergeCells count="41">
+    <mergeCell ref="C223:D223"/>
+    <mergeCell ref="A130:E130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:E131"/>
     <mergeCell ref="A113:C113"/>
-    <mergeCell ref="A119:E119"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="C120:E120"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A82:B82"/>
     <mergeCell ref="A83:B83"/>
@@ -2478,13 +2528,29 @@
     <mergeCell ref="A72:B72"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A129:E129"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="C130:E130"/>
-    <mergeCell ref="C217:D217"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="C125:E125"/>
+    <mergeCell ref="C187:D187"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C183:D183"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="A109:C109"/>
+    <mergeCell ref="A119:C119"/>
+    <mergeCell ref="A125:E125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:E126"/>
+    <mergeCell ref="A135:E135"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="C140:D140"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:E136"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="68" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Meme Agile.xlsx
+++ b/Meme Agile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D\Git Collab\kelompok_meme_laporan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F179AFBC-AB82-4A29-82C9-49695E922FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E130FE8-39F3-4EFA-BBE4-85217C3F9452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BD1CD595-25D7-451D-99CB-E4C06CA26580}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="151">
   <si>
     <t>Product Backlog &amp; User Story</t>
   </si>
@@ -460,6 +460,24 @@
   </si>
   <si>
     <t>SPRINT 4</t>
+  </si>
+  <si>
+    <t>SPRINT 5</t>
+  </si>
+  <si>
+    <t>SPRINT 6</t>
+  </si>
+  <si>
+    <t>Planning</t>
+  </si>
+  <si>
+    <t>Effectiveness</t>
+  </si>
+  <si>
+    <t>procastinating</t>
+  </si>
+  <si>
+    <t>discussion</t>
   </si>
 </sst>
 </file>
@@ -673,7 +691,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -711,9 +729,57 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -723,53 +789,23 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -794,13 +830,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>781049</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>27773</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -844,13 +880,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>161926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1371600</xdr:colOff>
-      <xdr:row>178</xdr:row>
+      <xdr:row>193</xdr:row>
       <xdr:rowOff>116122</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -894,13 +930,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>428626</xdr:colOff>
-      <xdr:row>205</xdr:row>
+      <xdr:row>220</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>266701</xdr:colOff>
-      <xdr:row>219</xdr:row>
+      <xdr:row>234</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -944,13 +980,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>668162</xdr:colOff>
-      <xdr:row>188</xdr:row>
+      <xdr:row>203</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>203</xdr:row>
+      <xdr:row>218</xdr:row>
       <xdr:rowOff>49184</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -994,13 +1030,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>188</xdr:row>
+      <xdr:row>203</xdr:row>
       <xdr:rowOff>147600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>203</xdr:row>
+      <xdr:row>218</xdr:row>
       <xdr:rowOff>43391</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1044,13 +1080,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>752476</xdr:colOff>
-      <xdr:row>205</xdr:row>
+      <xdr:row>220</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>220</xdr:row>
+      <xdr:row>235</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1390,10 +1426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C4E763-3BF0-4DCE-A690-0A0674D041AB}">
-  <dimension ref="A1:G231"/>
+  <dimension ref="A1:G246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="A120" sqref="A120"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="F143" sqref="F143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1408,23 +1444,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:5" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C1" s="30"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="3:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="4" spans="3:5" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
     </row>
     <row r="6" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D6" s="6" t="s">
@@ -1455,18 +1491,18 @@
       </c>
     </row>
     <row r="18" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
     </row>
     <row r="20" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
     </row>
     <row r="22" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D22" s="9" t="s">
@@ -1555,15 +1591,15 @@
       <c r="A42" s="11"/>
     </row>
     <row r="43" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="21" t="s">
+      <c r="A43" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="22"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="38"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
@@ -1773,34 +1809,34 @@
       </c>
     </row>
     <row r="59" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A59" s="19" t="s">
+      <c r="A59" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B59" s="19"/>
+      <c r="B59" s="30"/>
     </row>
     <row r="60" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A60" s="19" t="s">
+      <c r="A60" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="B60" s="19"/>
+      <c r="B60" s="30"/>
     </row>
     <row r="61" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A61" s="23" t="s">
+      <c r="A61" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="B61" s="23"/>
+      <c r="B61" s="34"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="24" t="s">
+      <c r="A62" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B62" s="25"/>
+      <c r="B62" s="28"/>
     </row>
     <row r="63" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A63" s="19" t="s">
+      <c r="A63" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="B63" s="19"/>
+      <c r="B63" s="30"/>
     </row>
     <row r="64" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
@@ -1859,34 +1895,34 @@
       </c>
     </row>
     <row r="72" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A72" s="19" t="s">
+      <c r="A72" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B72" s="19"/>
+      <c r="B72" s="30"/>
     </row>
     <row r="73" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A73" s="19" t="s">
+      <c r="A73" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="B73" s="19"/>
+      <c r="B73" s="30"/>
     </row>
     <row r="74" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A74" s="32" t="s">
+      <c r="A74" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B74" s="32"/>
+      <c r="B74" s="26"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="24" t="s">
+      <c r="A75" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B75" s="25"/>
+      <c r="B75" s="28"/>
     </row>
     <row r="76" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A76" s="34" t="s">
+      <c r="A76" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B76" s="34"/>
+      <c r="B76" s="29"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
@@ -1905,34 +1941,34 @@
       </c>
     </row>
     <row r="80" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A80" s="19" t="s">
+      <c r="A80" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B80" s="19"/>
+      <c r="B80" s="30"/>
     </row>
     <row r="81" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A81" s="19" t="s">
+      <c r="A81" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="B81" s="19"/>
+      <c r="B81" s="30"/>
     </row>
     <row r="82" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A82" s="32" t="s">
+      <c r="A82" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B82" s="32"/>
+      <c r="B82" s="26"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="33" t="s">
+      <c r="A83" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="B83" s="25"/>
+      <c r="B83" s="28"/>
     </row>
     <row r="84" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A84" s="34" t="s">
+      <c r="A84" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B84" s="34"/>
+      <c r="B84" s="29"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
@@ -1951,10 +1987,10 @@
       </c>
     </row>
     <row r="88" spans="1:6" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C88" s="19" t="s">
+      <c r="C88" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="D88" s="19"/>
+      <c r="D88" s="30"/>
     </row>
     <row r="89" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
@@ -2107,17 +2143,17 @@
       <c r="F97" s="1"/>
     </row>
     <row r="99" spans="1:6" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C99" s="19" t="s">
+      <c r="C99" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="D99" s="19"/>
+      <c r="D99" s="30"/>
     </row>
     <row r="100" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A100" s="26" t="s">
+      <c r="A100" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="B100" s="26"/>
-      <c r="C100" s="26"/>
+      <c r="B100" s="35"/>
+      <c r="C100" s="35"/>
     </row>
     <row r="101" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
@@ -2179,11 +2215,11 @@
       <c r="C107" s="1"/>
     </row>
     <row r="109" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="27" t="s">
+      <c r="A109" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="B109" s="27"/>
-      <c r="C109" s="27"/>
+      <c r="B109" s="23"/>
+      <c r="C109" s="23"/>
     </row>
     <row r="110" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
@@ -2208,11 +2244,11 @@
       </c>
     </row>
     <row r="113" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="27" t="s">
+      <c r="A113" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="B113" s="27"/>
-      <c r="C113" s="27"/>
+      <c r="B113" s="23"/>
+      <c r="C113" s="23"/>
     </row>
     <row r="114" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
@@ -2255,16 +2291,16 @@
       </c>
     </row>
     <row r="118" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="38"/>
-      <c r="B118" s="38"/>
-      <c r="C118" s="38"/>
+      <c r="A118" s="19"/>
+      <c r="B118" s="19"/>
+      <c r="C118" s="19"/>
     </row>
     <row r="119" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="27" t="s">
+      <c r="A119" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="B119" s="27"/>
-      <c r="C119" s="27"/>
+      <c r="B119" s="23"/>
+      <c r="C119" s="23"/>
     </row>
     <row r="120" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
@@ -2287,30 +2323,30 @@
       </c>
     </row>
     <row r="124" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C124" s="19" t="s">
+      <c r="C124" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="D124" s="19"/>
+      <c r="D124" s="30"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="28" t="s">
+      <c r="A125" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="B125" s="28"/>
-      <c r="C125" s="28"/>
-      <c r="D125" s="28"/>
-      <c r="E125" s="28"/>
+      <c r="B125" s="21"/>
+      <c r="C125" s="21"/>
+      <c r="D125" s="21"/>
+      <c r="E125" s="21"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="29" t="s">
+      <c r="A126" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="B126" s="29"/>
-      <c r="C126" s="29" t="s">
+      <c r="B126" s="22"/>
+      <c r="C126" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="D126" s="29"/>
-      <c r="E126" s="29"/>
+      <c r="D126" s="22"/>
+      <c r="E126" s="22"/>
     </row>
     <row r="127" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
@@ -2347,24 +2383,24 @@
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="28" t="s">
+      <c r="A130" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="B130" s="28"/>
-      <c r="C130" s="28"/>
-      <c r="D130" s="28"/>
-      <c r="E130" s="28"/>
+      <c r="B130" s="21"/>
+      <c r="C130" s="21"/>
+      <c r="D130" s="21"/>
+      <c r="E130" s="21"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="29" t="s">
+      <c r="A131" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="B131" s="29"/>
-      <c r="C131" s="29" t="s">
+      <c r="B131" s="22"/>
+      <c r="C131" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="D131" s="29"/>
-      <c r="E131" s="29"/>
+      <c r="D131" s="22"/>
+      <c r="E131" s="22"/>
     </row>
     <row r="132" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
@@ -2401,24 +2437,24 @@
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="28" t="s">
+      <c r="A135" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="B135" s="28"/>
-      <c r="C135" s="28"/>
-      <c r="D135" s="28"/>
-      <c r="E135" s="28"/>
+      <c r="B135" s="40"/>
+      <c r="C135" s="40"/>
+      <c r="D135" s="40"/>
+      <c r="E135" s="41"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="29" t="s">
+      <c r="A136" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="B136" s="29"/>
-      <c r="C136" s="29" t="s">
+      <c r="B136" s="44"/>
+      <c r="C136" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="D136" s="29"/>
-      <c r="E136" s="29"/>
+      <c r="D136" s="43"/>
+      <c r="E136" s="44"/>
     </row>
     <row r="137" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
@@ -2454,67 +2490,232 @@
         <v>119</v>
       </c>
     </row>
-    <row r="140" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C140" s="19" t="s">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="B140" s="40"/>
+      <c r="C140" s="40"/>
+      <c r="D140" s="40"/>
+      <c r="E140" s="41"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="B141" s="44"/>
+      <c r="C141" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="D141" s="43"/>
+      <c r="E141" s="44"/>
+    </row>
+    <row r="142" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="B145" s="40"/>
+      <c r="C145" s="40"/>
+      <c r="D145" s="40"/>
+      <c r="E145" s="41"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="B146" s="44"/>
+      <c r="C146" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="D146" s="43"/>
+      <c r="E146" s="44"/>
+    </row>
+    <row r="147" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="1"/>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="B150" s="40"/>
+      <c r="C150" s="40"/>
+      <c r="D150" s="40"/>
+      <c r="E150" s="41"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="B151" s="44"/>
+      <c r="C151" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="D151" s="43"/>
+      <c r="E151" s="44"/>
+    </row>
+    <row r="152" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="1"/>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
+    </row>
+    <row r="155" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C155" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="D140" s="19"/>
-    </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B181" s="18" t="s">
+      <c r="D155" s="30"/>
+    </row>
+    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B196" s="18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="183" spans="2:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C183" s="19" t="s">
+    <row r="198" spans="2:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C198" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="D183" s="19"/>
-    </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B185" s="18" t="s">
+      <c r="D198" s="30"/>
+    </row>
+    <row r="200" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B200" s="18" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="187" spans="2:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C187" s="19" t="s">
+    <row r="202" spans="2:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C202" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="D187" s="19"/>
-    </row>
-    <row r="223" spans="3:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C223" s="37" t="s">
+      <c r="D202" s="30"/>
+    </row>
+    <row r="238" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C238" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="D223" s="37"/>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
+      <c r="D238" s="20"/>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F230" t="s">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F245" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F231" t="s">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F246" t="s">
         <v>131</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="C223:D223"/>
-    <mergeCell ref="A130:E130"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="C131:E131"/>
-    <mergeCell ref="A113:C113"/>
+  <mergeCells count="50">
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="C151:E151"/>
+    <mergeCell ref="A145:E145"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="C146:E146"/>
+    <mergeCell ref="A140:E140"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="C141:E141"/>
+    <mergeCell ref="A135:E135"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:E136"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C198:D198"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="A109:C109"/>
+    <mergeCell ref="A119:C119"/>
+    <mergeCell ref="A125:E125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:E126"/>
+    <mergeCell ref="A150:E150"/>
+    <mergeCell ref="C124:D124"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A82:B82"/>
     <mergeCell ref="A83:B83"/>
@@ -2528,29 +2729,15 @@
     <mergeCell ref="A72:B72"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C187:D187"/>
     <mergeCell ref="A59:B59"/>
     <mergeCell ref="A60:B60"/>
     <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C183:D183"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="A100:C100"/>
-    <mergeCell ref="A109:C109"/>
-    <mergeCell ref="A119:C119"/>
-    <mergeCell ref="A125:E125"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="C126:E126"/>
-    <mergeCell ref="A135:E135"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="C140:D140"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="C136:E136"/>
+    <mergeCell ref="C238:D238"/>
+    <mergeCell ref="A130:E130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:E131"/>
+    <mergeCell ref="A113:C113"/>
+    <mergeCell ref="C202:D202"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="68" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Meme Agile.xlsx
+++ b/Meme Agile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D\Git Collab\kelompok_meme_laporan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E130FE8-39F3-4EFA-BBE4-85217C3F9452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFEA6490-78E2-4BC2-A144-B3840A0576EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BD1CD595-25D7-451D-99CB-E4C06CA26580}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="153">
   <si>
     <t>Product Backlog &amp; User Story</t>
   </si>
@@ -478,6 +478,12 @@
   </si>
   <si>
     <t>discussion</t>
+  </si>
+  <si>
+    <t>Menambah Item</t>
+  </si>
+  <si>
+    <t>Terlalu banyak item untuk dipilih</t>
   </si>
 </sst>
 </file>
@@ -732,80 +738,80 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1428,8 +1434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C4E763-3BF0-4DCE-A690-0A0674D041AB}">
   <dimension ref="A1:G246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="F143" sqref="F143"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1444,23 +1450,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:5" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C1" s="24"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="3:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
     </row>
     <row r="4" spans="3:5" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
     </row>
     <row r="6" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D6" s="6" t="s">
@@ -1491,18 +1497,18 @@
       </c>
     </row>
     <row r="18" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
     </row>
     <row r="20" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
     </row>
     <row r="22" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D22" s="9" t="s">
@@ -1591,15 +1597,15 @@
       <c r="A42" s="11"/>
     </row>
     <row r="43" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="37" t="s">
+      <c r="A43" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="38"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="23"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
@@ -1809,34 +1815,34 @@
       </c>
     </row>
     <row r="59" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A59" s="30" t="s">
+      <c r="A59" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B59" s="30"/>
+      <c r="B59" s="20"/>
     </row>
     <row r="60" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A60" s="30" t="s">
+      <c r="A60" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B60" s="30"/>
+      <c r="B60" s="20"/>
     </row>
     <row r="61" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A61" s="34" t="s">
+      <c r="A61" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="B61" s="34"/>
+      <c r="B61" s="43"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="31" t="s">
+      <c r="A62" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B62" s="28"/>
+      <c r="B62" s="31"/>
     </row>
     <row r="63" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A63" s="30" t="s">
+      <c r="A63" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B63" s="30"/>
+      <c r="B63" s="20"/>
     </row>
     <row r="64" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
@@ -1895,34 +1901,34 @@
       </c>
     </row>
     <row r="72" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A72" s="30" t="s">
+      <c r="A72" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B72" s="30"/>
+      <c r="B72" s="20"/>
     </row>
     <row r="73" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A73" s="30" t="s">
+      <c r="A73" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B73" s="30"/>
+      <c r="B73" s="20"/>
     </row>
     <row r="74" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A74" s="26" t="s">
+      <c r="A74" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="B74" s="26"/>
+      <c r="B74" s="38"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="31" t="s">
+      <c r="A75" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="B75" s="28"/>
+      <c r="B75" s="31"/>
     </row>
     <row r="76" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A76" s="29" t="s">
+      <c r="A76" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="B76" s="29"/>
+      <c r="B76" s="40"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
@@ -1941,34 +1947,34 @@
       </c>
     </row>
     <row r="80" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A80" s="30" t="s">
+      <c r="A80" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B80" s="30"/>
+      <c r="B80" s="20"/>
     </row>
     <row r="81" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A81" s="30" t="s">
+      <c r="A81" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B81" s="30"/>
+      <c r="B81" s="20"/>
     </row>
     <row r="82" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A82" s="26" t="s">
+      <c r="A82" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="B82" s="26"/>
+      <c r="B82" s="38"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="27" t="s">
+      <c r="A83" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B83" s="28"/>
+      <c r="B83" s="31"/>
     </row>
     <row r="84" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A84" s="29" t="s">
+      <c r="A84" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="B84" s="29"/>
+      <c r="B84" s="40"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
@@ -1987,10 +1993,10 @@
       </c>
     </row>
     <row r="88" spans="1:6" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C88" s="30" t="s">
+      <c r="C88" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D88" s="30"/>
+      <c r="D88" s="20"/>
     </row>
     <row r="89" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
@@ -2112,15 +2118,25 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>6</v>
       </c>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="10"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
+      <c r="B95" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D95" s="10">
+        <v>45107</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F95" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
@@ -2143,17 +2159,17 @@
       <c r="F97" s="1"/>
     </row>
     <row r="99" spans="1:6" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C99" s="30" t="s">
+      <c r="C99" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="D99" s="30"/>
+      <c r="D99" s="20"/>
     </row>
     <row r="100" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A100" s="35" t="s">
+      <c r="A100" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="B100" s="35"/>
-      <c r="C100" s="35"/>
+      <c r="B100" s="32"/>
+      <c r="C100" s="32"/>
     </row>
     <row r="101" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
@@ -2215,11 +2231,11 @@
       <c r="C107" s="1"/>
     </row>
     <row r="109" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="23" t="s">
+      <c r="A109" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B109" s="23"/>
-      <c r="C109" s="23"/>
+      <c r="B109" s="33"/>
+      <c r="C109" s="33"/>
     </row>
     <row r="110" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
@@ -2244,11 +2260,11 @@
       </c>
     </row>
     <row r="113" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="23" t="s">
+      <c r="A113" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="B113" s="23"/>
-      <c r="C113" s="23"/>
+      <c r="B113" s="33"/>
+      <c r="C113" s="33"/>
     </row>
     <row r="114" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
@@ -2296,11 +2312,11 @@
       <c r="C118" s="19"/>
     </row>
     <row r="119" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="23" t="s">
+      <c r="A119" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="B119" s="23"/>
-      <c r="C119" s="23"/>
+      <c r="B119" s="33"/>
+      <c r="C119" s="33"/>
     </row>
     <row r="120" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
@@ -2323,30 +2339,30 @@
       </c>
     </row>
     <row r="124" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C124" s="30" t="s">
+      <c r="C124" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="D124" s="30"/>
+      <c r="D124" s="20"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="21" t="s">
+      <c r="A125" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="B125" s="21"/>
-      <c r="C125" s="21"/>
-      <c r="D125" s="21"/>
-      <c r="E125" s="21"/>
+      <c r="B125" s="34"/>
+      <c r="C125" s="34"/>
+      <c r="D125" s="34"/>
+      <c r="E125" s="34"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="22" t="s">
+      <c r="A126" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="B126" s="22"/>
-      <c r="C126" s="22" t="s">
+      <c r="B126" s="35"/>
+      <c r="C126" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="D126" s="22"/>
-      <c r="E126" s="22"/>
+      <c r="D126" s="35"/>
+      <c r="E126" s="35"/>
     </row>
     <row r="127" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
@@ -2383,24 +2399,24 @@
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="21" t="s">
+      <c r="A130" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="B130" s="21"/>
-      <c r="C130" s="21"/>
-      <c r="D130" s="21"/>
-      <c r="E130" s="21"/>
+      <c r="B130" s="34"/>
+      <c r="C130" s="34"/>
+      <c r="D130" s="34"/>
+      <c r="E130" s="34"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="22" t="s">
+      <c r="A131" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="B131" s="22"/>
-      <c r="C131" s="22" t="s">
+      <c r="B131" s="35"/>
+      <c r="C131" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="D131" s="22"/>
-      <c r="E131" s="22"/>
+      <c r="D131" s="35"/>
+      <c r="E131" s="35"/>
     </row>
     <row r="132" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
@@ -2437,24 +2453,24 @@
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="39" t="s">
+      <c r="A135" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="B135" s="40"/>
-      <c r="C135" s="40"/>
-      <c r="D135" s="40"/>
-      <c r="E135" s="41"/>
+      <c r="B135" s="28"/>
+      <c r="C135" s="28"/>
+      <c r="D135" s="28"/>
+      <c r="E135" s="29"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="42" t="s">
+      <c r="A136" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="B136" s="44"/>
-      <c r="C136" s="42" t="s">
+      <c r="B136" s="25"/>
+      <c r="C136" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="D136" s="43"/>
-      <c r="E136" s="44"/>
+      <c r="D136" s="26"/>
+      <c r="E136" s="25"/>
     </row>
     <row r="137" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
@@ -2491,24 +2507,24 @@
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="39" t="s">
+      <c r="A140" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="B140" s="40"/>
-      <c r="C140" s="40"/>
-      <c r="D140" s="40"/>
-      <c r="E140" s="41"/>
+      <c r="B140" s="28"/>
+      <c r="C140" s="28"/>
+      <c r="D140" s="28"/>
+      <c r="E140" s="29"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="42" t="s">
+      <c r="A141" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="B141" s="44"/>
-      <c r="C141" s="42" t="s">
+      <c r="B141" s="25"/>
+      <c r="C141" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="D141" s="43"/>
-      <c r="E141" s="44"/>
+      <c r="D141" s="26"/>
+      <c r="E141" s="25"/>
     </row>
     <row r="142" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
@@ -2545,24 +2561,24 @@
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="39" t="s">
+      <c r="A145" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="B145" s="40"/>
-      <c r="C145" s="40"/>
-      <c r="D145" s="40"/>
-      <c r="E145" s="41"/>
+      <c r="B145" s="28"/>
+      <c r="C145" s="28"/>
+      <c r="D145" s="28"/>
+      <c r="E145" s="29"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="42" t="s">
+      <c r="A146" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="B146" s="44"/>
-      <c r="C146" s="42" t="s">
+      <c r="B146" s="25"/>
+      <c r="C146" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="D146" s="43"/>
-      <c r="E146" s="44"/>
+      <c r="D146" s="26"/>
+      <c r="E146" s="25"/>
     </row>
     <row r="147" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
@@ -2589,24 +2605,24 @@
       <c r="E148" s="1"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="39" t="s">
+      <c r="A150" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="B150" s="40"/>
-      <c r="C150" s="40"/>
-      <c r="D150" s="40"/>
-      <c r="E150" s="41"/>
+      <c r="B150" s="28"/>
+      <c r="C150" s="28"/>
+      <c r="D150" s="28"/>
+      <c r="E150" s="29"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="42" t="s">
+      <c r="A151" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="B151" s="44"/>
-      <c r="C151" s="42" t="s">
+      <c r="B151" s="25"/>
+      <c r="C151" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="D151" s="43"/>
-      <c r="E151" s="44"/>
+      <c r="D151" s="26"/>
+      <c r="E151" s="25"/>
     </row>
     <row r="152" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
@@ -2633,10 +2649,10 @@
       <c r="E153" s="1"/>
     </row>
     <row r="155" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C155" s="30" t="s">
+      <c r="C155" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D155" s="30"/>
+      <c r="D155" s="20"/>
     </row>
     <row r="196" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B196" s="18" t="s">
@@ -2644,10 +2660,10 @@
       </c>
     </row>
     <row r="198" spans="2:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C198" s="30" t="s">
+      <c r="C198" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="D198" s="30"/>
+      <c r="D198" s="20"/>
     </row>
     <row r="200" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B200" s="18" t="s">
@@ -2655,16 +2671,16 @@
       </c>
     </row>
     <row r="202" spans="2:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C202" s="30" t="s">
+      <c r="C202" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D202" s="30"/>
+      <c r="D202" s="20"/>
     </row>
     <row r="238" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C238" s="20" t="s">
+      <c r="C238" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="D238" s="20"/>
+      <c r="D238" s="44"/>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
@@ -2688,6 +2704,40 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="C238:D238"/>
+    <mergeCell ref="A130:E130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:E131"/>
+    <mergeCell ref="A113:C113"/>
+    <mergeCell ref="C202:D202"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C198:D198"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="A109:C109"/>
+    <mergeCell ref="A119:C119"/>
+    <mergeCell ref="A125:E125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:E126"/>
+    <mergeCell ref="A150:E150"/>
+    <mergeCell ref="C124:D124"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="A43:G43"/>
@@ -2704,40 +2754,6 @@
     <mergeCell ref="A136:B136"/>
     <mergeCell ref="C136:E136"/>
     <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C198:D198"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="A100:C100"/>
-    <mergeCell ref="A109:C109"/>
-    <mergeCell ref="A119:C119"/>
-    <mergeCell ref="A125:E125"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="C126:E126"/>
-    <mergeCell ref="A150:E150"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C238:D238"/>
-    <mergeCell ref="A130:E130"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="C131:E131"/>
-    <mergeCell ref="A113:C113"/>
-    <mergeCell ref="C202:D202"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="68" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Meme Agile.xlsx
+++ b/Meme Agile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D\Git Collab\kelompok_meme_laporan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFEA6490-78E2-4BC2-A144-B3840A0576EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C4CA20-D5F2-4219-AB02-4BD296AB56AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BD1CD595-25D7-451D-99CB-E4C06CA26580}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="163">
   <si>
     <t>Product Backlog &amp; User Story</t>
   </si>
@@ -484,6 +484,36 @@
   </si>
   <si>
     <t>Terlalu banyak item untuk dipilih</t>
+  </si>
+  <si>
+    <t>Mengupgrade UI</t>
+  </si>
+  <si>
+    <t>Design yang pas sangat sulit ditemukan</t>
+  </si>
+  <si>
+    <t>Tester</t>
+  </si>
+  <si>
+    <t>Belum di optimisasi</t>
+  </si>
+  <si>
+    <t>Membuat Laporan Trello dan PDF</t>
+  </si>
+  <si>
+    <t>Mengumpulkan semua diskusi menjadi 1</t>
+  </si>
+  <si>
+    <t>Mengupgrade Navigation Bar</t>
+  </si>
+  <si>
+    <t>Menambah Card</t>
+  </si>
+  <si>
+    <t>Bug Visual</t>
+  </si>
+  <si>
+    <t>Tidak bisa di Click</t>
   </si>
 </sst>
 </file>
@@ -738,9 +768,63 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -758,60 +842,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -836,13 +866,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>781049</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>173</xdr:row>
+      <xdr:row>176</xdr:row>
       <xdr:rowOff>27773</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -886,13 +916,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>177</xdr:row>
       <xdr:rowOff>161926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1371600</xdr:colOff>
-      <xdr:row>193</xdr:row>
+      <xdr:row>196</xdr:row>
       <xdr:rowOff>116122</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -936,13 +966,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>428626</xdr:colOff>
-      <xdr:row>220</xdr:row>
+      <xdr:row>223</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>266701</xdr:colOff>
-      <xdr:row>234</xdr:row>
+      <xdr:row>237</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -986,13 +1016,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>668162</xdr:colOff>
-      <xdr:row>203</xdr:row>
+      <xdr:row>206</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>218</xdr:row>
+      <xdr:row>221</xdr:row>
       <xdr:rowOff>49184</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1036,13 +1066,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>203</xdr:row>
+      <xdr:row>206</xdr:row>
       <xdr:rowOff>147600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>218</xdr:row>
+      <xdr:row>221</xdr:row>
       <xdr:rowOff>43391</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1086,13 +1116,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>752476</xdr:colOff>
-      <xdr:row>220</xdr:row>
+      <xdr:row>223</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>235</xdr:row>
+      <xdr:row>238</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1432,10 +1462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C4E763-3BF0-4DCE-A690-0A0674D041AB}">
-  <dimension ref="A1:G246"/>
+  <dimension ref="A1:G249"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="F96" sqref="F96"/>
+      <selection activeCell="G99" sqref="G99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1450,23 +1480,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:5" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C1" s="36"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="3:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="4" spans="3:5" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
     </row>
     <row r="6" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D6" s="6" t="s">
@@ -1497,18 +1527,18 @@
       </c>
     </row>
     <row r="18" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
     </row>
     <row r="20" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
     </row>
     <row r="22" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D22" s="9" t="s">
@@ -1597,15 +1627,15 @@
       <c r="A42" s="11"/>
     </row>
     <row r="43" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="22" t="s">
+      <c r="A43" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="23"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="41"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
@@ -1815,34 +1845,34 @@
       </c>
     </row>
     <row r="59" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A59" s="20" t="s">
+      <c r="A59" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B59" s="20"/>
+      <c r="B59" s="24"/>
     </row>
     <row r="60" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A60" s="20" t="s">
+      <c r="A60" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B60" s="20"/>
+      <c r="B60" s="24"/>
     </row>
     <row r="61" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A61" s="43" t="s">
+      <c r="A61" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="B61" s="43"/>
+      <c r="B61" s="34"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="30" t="s">
+      <c r="A62" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B62" s="31"/>
+      <c r="B62" s="29"/>
     </row>
     <row r="63" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A63" s="20" t="s">
+      <c r="A63" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B63" s="20"/>
+      <c r="B63" s="24"/>
     </row>
     <row r="64" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
@@ -1901,34 +1931,34 @@
       </c>
     </row>
     <row r="72" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A72" s="20" t="s">
+      <c r="A72" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B72" s="20"/>
+      <c r="B72" s="24"/>
     </row>
     <row r="73" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A73" s="20" t="s">
+      <c r="A73" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B73" s="20"/>
+      <c r="B73" s="24"/>
     </row>
     <row r="74" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A74" s="38" t="s">
+      <c r="A74" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B74" s="38"/>
+      <c r="B74" s="27"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="30" t="s">
+      <c r="A75" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B75" s="31"/>
+      <c r="B75" s="29"/>
     </row>
     <row r="76" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A76" s="40" t="s">
+      <c r="A76" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="B76" s="40"/>
+      <c r="B76" s="30"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
@@ -1947,34 +1977,34 @@
       </c>
     </row>
     <row r="80" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A80" s="20" t="s">
+      <c r="A80" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B80" s="20"/>
+      <c r="B80" s="24"/>
     </row>
     <row r="81" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A81" s="20" t="s">
+      <c r="A81" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B81" s="20"/>
+      <c r="B81" s="24"/>
     </row>
     <row r="82" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A82" s="38" t="s">
+      <c r="A82" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B82" s="38"/>
+      <c r="B82" s="27"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="39" t="s">
+      <c r="A83" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B83" s="31"/>
+      <c r="B83" s="29"/>
     </row>
     <row r="84" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A84" s="40" t="s">
+      <c r="A84" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="B84" s="40"/>
+      <c r="B84" s="30"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
@@ -1993,10 +2023,10 @@
       </c>
     </row>
     <row r="88" spans="1:6" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C88" s="20" t="s">
+      <c r="C88" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D88" s="20"/>
+      <c r="D88" s="24"/>
     </row>
     <row r="89" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
@@ -2129,7 +2159,7 @@
         <v>151</v>
       </c>
       <c r="D95" s="10">
-        <v>45107</v>
+        <v>45079</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>152</v>
@@ -2138,578 +2168,680 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>7</v>
       </c>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="10"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
+      <c r="B96" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D96" s="10">
+        <v>45088</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F96" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>8</v>
       </c>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="10"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-    </row>
-    <row r="99" spans="1:6" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C99" s="20" t="s">
+      <c r="B97" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D97" s="10">
+        <v>45095</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F97" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>9</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D98" s="10">
+        <v>45098</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F98" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>10</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D99" s="10">
+        <v>45102</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F99" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>11</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D100" s="10">
+        <v>45112</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F100" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C102" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="D99" s="20"/>
-    </row>
-    <row r="100" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A100" s="32" t="s">
+      <c r="D102" s="24"/>
+    </row>
+    <row r="103" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A103" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="B100" s="32"/>
-      <c r="C100" s="32"/>
-    </row>
-    <row r="101" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
+      <c r="B103" s="35"/>
+      <c r="C103" s="35"/>
+    </row>
+    <row r="104" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B104" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C104" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C103" s="1"/>
-    </row>
-    <row r="104" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
     </row>
     <row r="105" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
+        <v>88</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="106" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B106" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
     </row>
-    <row r="109" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="33" t="s">
+    <row r="108" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+    </row>
+    <row r="109" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+    </row>
+    <row r="112" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A112" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="B109" s="33"/>
-      <c r="C109" s="33"/>
-    </row>
-    <row r="110" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
+      <c r="B112" s="23"/>
+      <c r="C112" s="23"/>
+    </row>
+    <row r="113" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B113" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C113" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
+    <row r="114" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B114" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C114" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="33" t="s">
+    <row r="116" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A116" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="B113" s="33"/>
-      <c r="C113" s="33"/>
-    </row>
-    <row r="114" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
+      <c r="B116" s="23"/>
+      <c r="C116" s="23"/>
+    </row>
+    <row r="117" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B117" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C117" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
+    <row r="118" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B118" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C118" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A116" s="1"/>
-      <c r="B116" s="1" t="s">
+    <row r="119" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A119" s="1"/>
+      <c r="B119" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C119" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="1"/>
-      <c r="B117" s="1" t="s">
+    <row r="120" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120" s="1"/>
+      <c r="B120" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C120" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="19"/>
-      <c r="B118" s="19"/>
-      <c r="C118" s="19"/>
-    </row>
-    <row r="119" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="33" t="s">
+    <row r="121" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="19"/>
+      <c r="B121" s="19"/>
+      <c r="C121" s="19"/>
+    </row>
+    <row r="122" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A122" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="B119" s="33"/>
-      <c r="C119" s="33"/>
-    </row>
-    <row r="120" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
+      <c r="B122" s="23"/>
+      <c r="C122" s="23"/>
+    </row>
+    <row r="123" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B123" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C123" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="1"/>
-      <c r="B121" s="1" t="s">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="1"/>
+      <c r="B124" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C124" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="124" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C124" s="20" t="s">
+    <row r="127" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C127" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="D124" s="20"/>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="34" t="s">
+      <c r="D127" s="24"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="B125" s="34"/>
-      <c r="C125" s="34"/>
-      <c r="D125" s="34"/>
-      <c r="E125" s="34"/>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="35" t="s">
+      <c r="B128" s="21"/>
+      <c r="C128" s="21"/>
+      <c r="D128" s="21"/>
+      <c r="E128" s="21"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="B126" s="35"/>
-      <c r="C126" s="35" t="s">
+      <c r="B129" s="22"/>
+      <c r="C129" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="D126" s="35"/>
-      <c r="E126" s="35"/>
-    </row>
-    <row r="127" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
+      <c r="D129" s="22"/>
+      <c r="E129" s="22"/>
+    </row>
+    <row r="130" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B130" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C130" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="D130" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E127" s="1" t="s">
+      <c r="E130" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
+    <row r="131" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B131" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="C131" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D128" s="1" t="s">
+      <c r="D131" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E128" s="1" t="s">
+      <c r="E131" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="34" t="s">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="B130" s="34"/>
-      <c r="C130" s="34"/>
-      <c r="D130" s="34"/>
-      <c r="E130" s="34"/>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="35" t="s">
+      <c r="B133" s="21"/>
+      <c r="C133" s="21"/>
+      <c r="D133" s="21"/>
+      <c r="E133" s="21"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="B131" s="35"/>
-      <c r="C131" s="35" t="s">
+      <c r="B134" s="22"/>
+      <c r="C134" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="D131" s="35"/>
-      <c r="E131" s="35"/>
-    </row>
-    <row r="132" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
+      <c r="D134" s="22"/>
+      <c r="E134" s="22"/>
+    </row>
+    <row r="135" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B135" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="C135" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D132" s="1" t="s">
+      <c r="D135" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E132" s="1" t="s">
+      <c r="E135" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
+    <row r="136" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B136" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="C136" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D133" s="1" t="s">
+      <c r="D136" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E133" s="1" t="s">
+      <c r="E136" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="27" t="s">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="B135" s="28"/>
-      <c r="C135" s="28"/>
-      <c r="D135" s="28"/>
-      <c r="E135" s="29"/>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="24" t="s">
+      <c r="B138" s="37"/>
+      <c r="C138" s="37"/>
+      <c r="D138" s="37"/>
+      <c r="E138" s="38"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="B136" s="25"/>
-      <c r="C136" s="24" t="s">
+      <c r="B139" s="43"/>
+      <c r="C139" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="D136" s="26"/>
-      <c r="E136" s="25"/>
-    </row>
-    <row r="137" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
+      <c r="D139" s="44"/>
+      <c r="E139" s="43"/>
+    </row>
+    <row r="140" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="B140" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="C140" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D137" s="1" t="s">
+      <c r="D140" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E137" s="1" t="s">
+      <c r="E140" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
+    <row r="141" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="B141" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="C141" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D138" s="1" t="s">
+      <c r="D141" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E138" s="1" t="s">
+      <c r="E141" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="27" t="s">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="B140" s="28"/>
-      <c r="C140" s="28"/>
-      <c r="D140" s="28"/>
-      <c r="E140" s="29"/>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="24" t="s">
+      <c r="B143" s="37"/>
+      <c r="C143" s="37"/>
+      <c r="D143" s="37"/>
+      <c r="E143" s="38"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="B141" s="25"/>
-      <c r="C141" s="24" t="s">
+      <c r="B144" s="43"/>
+      <c r="C144" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="D141" s="26"/>
-      <c r="E141" s="25"/>
-    </row>
-    <row r="142" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
+      <c r="D144" s="44"/>
+      <c r="E144" s="43"/>
+    </row>
+    <row r="145" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="B145" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="C145" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D142" s="1" t="s">
+      <c r="D145" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E142" s="1" t="s">
+      <c r="E145" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="B146" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="C146" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D143" s="1" t="s">
+      <c r="D146" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E143" s="1" t="s">
+      <c r="E146" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="27" t="s">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="B145" s="28"/>
-      <c r="C145" s="28"/>
-      <c r="D145" s="28"/>
-      <c r="E145" s="29"/>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="24" t="s">
+      <c r="B148" s="37"/>
+      <c r="C148" s="37"/>
+      <c r="D148" s="37"/>
+      <c r="E148" s="38"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="B146" s="25"/>
-      <c r="C146" s="24" t="s">
+      <c r="B149" s="43"/>
+      <c r="C149" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="D146" s="26"/>
-      <c r="E146" s="25"/>
-    </row>
-    <row r="147" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
+      <c r="D149" s="44"/>
+      <c r="E149" s="43"/>
+    </row>
+    <row r="150" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="B150" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="C150" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D147" s="1" t="s">
+      <c r="D150" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E147" s="1" t="s">
+      <c r="E150" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="1"/>
-      <c r="B148" s="1"/>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
-      <c r="E148" s="1"/>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="27" t="s">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="1"/>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="B150" s="28"/>
-      <c r="C150" s="28"/>
-      <c r="D150" s="28"/>
-      <c r="E150" s="29"/>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="24" t="s">
+      <c r="B153" s="37"/>
+      <c r="C153" s="37"/>
+      <c r="D153" s="37"/>
+      <c r="E153" s="38"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="B151" s="25"/>
-      <c r="C151" s="24" t="s">
+      <c r="B154" s="43"/>
+      <c r="C154" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="D151" s="26"/>
-      <c r="E151" s="25"/>
-    </row>
-    <row r="152" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
+      <c r="D154" s="44"/>
+      <c r="E154" s="43"/>
+    </row>
+    <row r="155" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="B155" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C152" s="1" t="s">
+      <c r="C155" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D152" s="1" t="s">
+      <c r="D155" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E152" s="1" t="s">
+      <c r="E155" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="1"/>
-      <c r="B153" s="1"/>
-      <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
-      <c r="E153" s="1"/>
-    </row>
-    <row r="155" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C155" s="20" t="s">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="1"/>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+    </row>
+    <row r="158" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C158" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="D155" s="20"/>
-    </row>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B196" s="18" t="s">
+      <c r="D158" s="24"/>
+    </row>
+    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B199" s="18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="198" spans="2:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C198" s="20" t="s">
+    <row r="201" spans="2:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C201" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D198" s="20"/>
-    </row>
-    <row r="200" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B200" s="18" t="s">
+      <c r="D201" s="24"/>
+    </row>
+    <row r="203" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B203" s="18" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="202" spans="2:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C202" s="20" t="s">
+    <row r="205" spans="2:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C205" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D202" s="20"/>
-    </row>
-    <row r="238" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C238" s="44" t="s">
+      <c r="D205" s="24"/>
+    </row>
+    <row r="241" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C241" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="D238" s="44"/>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
+      <c r="D241" s="20"/>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F245" t="s">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F248" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F246" t="s">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F249" t="s">
         <v>131</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="C238:D238"/>
-    <mergeCell ref="A130:E130"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="C131:E131"/>
-    <mergeCell ref="A113:C113"/>
-    <mergeCell ref="C202:D202"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="C158:D158"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="C154:E154"/>
+    <mergeCell ref="A148:E148"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="C149:E149"/>
+    <mergeCell ref="A143:E143"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="C144:E144"/>
+    <mergeCell ref="A138:E138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="C139:E139"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C201:D201"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="A112:C112"/>
+    <mergeCell ref="A122:C122"/>
+    <mergeCell ref="A128:E128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:E129"/>
+    <mergeCell ref="A153:E153"/>
+    <mergeCell ref="C127:D127"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A82:B82"/>
     <mergeCell ref="A83:B83"/>
@@ -2726,34 +2858,12 @@
     <mergeCell ref="A59:B59"/>
     <mergeCell ref="A60:B60"/>
     <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C198:D198"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="A100:C100"/>
-    <mergeCell ref="A109:C109"/>
-    <mergeCell ref="A119:C119"/>
-    <mergeCell ref="A125:E125"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="C126:E126"/>
-    <mergeCell ref="A150:E150"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="A151:B151"/>
-    <mergeCell ref="C151:E151"/>
-    <mergeCell ref="A145:E145"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="C146:E146"/>
-    <mergeCell ref="A140:E140"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="C141:E141"/>
-    <mergeCell ref="A135:E135"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="C136:E136"/>
-    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C241:D241"/>
+    <mergeCell ref="A133:E133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:E134"/>
+    <mergeCell ref="A116:C116"/>
+    <mergeCell ref="C205:D205"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="68" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Meme Agile.xlsx
+++ b/Meme Agile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D\Git Collab\kelompok_meme_laporan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C4CA20-D5F2-4219-AB02-4BD296AB56AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96969F4-10B3-4A75-93AA-F11454479080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BD1CD595-25D7-451D-99CB-E4C06CA26580}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="165">
   <si>
     <t>Product Backlog &amp; User Story</t>
   </si>
@@ -514,6 +514,12 @@
   </si>
   <si>
     <t>Tidak bisa di Click</t>
+  </si>
+  <si>
+    <t>SPRINT 7</t>
+  </si>
+  <si>
+    <t>SPRINT 8</t>
   </si>
 </sst>
 </file>
@@ -768,80 +774,80 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -866,13 +872,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>781049</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>176</xdr:row>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>27773</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -916,13 +922,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>177</xdr:row>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>161926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1371600</xdr:colOff>
-      <xdr:row>196</xdr:row>
+      <xdr:row>209</xdr:row>
       <xdr:rowOff>116122</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -966,13 +972,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>428626</xdr:colOff>
-      <xdr:row>223</xdr:row>
+      <xdr:row>236</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>266701</xdr:colOff>
-      <xdr:row>237</xdr:row>
+      <xdr:row>250</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1016,13 +1022,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>668162</xdr:colOff>
-      <xdr:row>206</xdr:row>
+      <xdr:row>219</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>221</xdr:row>
+      <xdr:row>234</xdr:row>
       <xdr:rowOff>49184</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1066,13 +1072,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>206</xdr:row>
+      <xdr:row>219</xdr:row>
       <xdr:rowOff>147600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>221</xdr:row>
+      <xdr:row>234</xdr:row>
       <xdr:rowOff>43391</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1116,13 +1122,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>752476</xdr:colOff>
-      <xdr:row>223</xdr:row>
+      <xdr:row>236</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>238</xdr:row>
+      <xdr:row>251</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1462,10 +1468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C4E763-3BF0-4DCE-A690-0A0674D041AB}">
-  <dimension ref="A1:G249"/>
+  <dimension ref="A1:G262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="G99" sqref="G99"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1480,23 +1486,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:5" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C1" s="25"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="3:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
     </row>
     <row r="4" spans="3:5" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
     </row>
     <row r="6" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D6" s="6" t="s">
@@ -1527,18 +1533,18 @@
       </c>
     </row>
     <row r="18" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
     </row>
     <row r="20" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="C20" s="39" t="s">
+      <c r="C20" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
     </row>
     <row r="22" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D22" s="9" t="s">
@@ -1627,15 +1633,15 @@
       <c r="A42" s="11"/>
     </row>
     <row r="43" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="40" t="s">
+      <c r="A43" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="40"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="40"/>
-      <c r="G43" s="41"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="23"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
@@ -1844,1026 +1850,1153 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A59" s="24" t="s">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>559</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>560</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>561</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+    </row>
+    <row r="62" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A62" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B59" s="24"/>
-    </row>
-    <row r="60" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A60" s="24" t="s">
+      <c r="B62" s="20"/>
+    </row>
+    <row r="63" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A63" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B60" s="24"/>
-    </row>
-    <row r="61" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A61" s="34" t="s">
+      <c r="B63" s="20"/>
+    </row>
+    <row r="64" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A64" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="B61" s="34"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="31" t="s">
+      <c r="B64" s="43"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B62" s="29"/>
-    </row>
-    <row r="63" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A63" s="24" t="s">
+      <c r="B65" s="31"/>
+    </row>
+    <row r="66" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A66" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B63" s="24"/>
-    </row>
-    <row r="64" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="14" t="s">
+      <c r="B66" s="20"/>
+    </row>
+    <row r="67" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B64" s="14" t="s">
+      <c r="B67" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A65" s="12">
+    <row r="68" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A68" s="12">
         <v>551</v>
       </c>
-      <c r="B65" s="13" t="s">
+      <c r="B68" s="13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A66" s="12">
+    <row r="69" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A69" s="12">
         <v>552</v>
       </c>
-      <c r="B66" s="13" t="s">
+      <c r="B69" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="63" x14ac:dyDescent="0.25">
-      <c r="A67" s="12">
+    <row r="70" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+      <c r="A70" s="12">
         <v>553</v>
       </c>
-      <c r="B67" s="13" t="s">
+      <c r="B70" s="13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="12">
+    <row r="71" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="12">
         <v>554</v>
       </c>
-      <c r="B68" s="13" t="s">
+      <c r="B71" s="13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="12">
+    <row r="72" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="12">
         <v>555</v>
       </c>
-      <c r="B69" s="13" t="s">
+      <c r="B72" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A70" s="12">
+    <row r="73" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A73" s="12">
         <v>557</v>
       </c>
-      <c r="B70" s="13" t="s">
+      <c r="B73" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A72" s="24" t="s">
+    <row r="75" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A75" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B72" s="24"/>
-    </row>
-    <row r="73" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A73" s="24" t="s">
+      <c r="B75" s="20"/>
+    </row>
+    <row r="76" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A76" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B73" s="24"/>
-    </row>
-    <row r="74" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A74" s="27" t="s">
+      <c r="B76" s="20"/>
+    </row>
+    <row r="77" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A77" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="B74" s="27"/>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="31" t="s">
+      <c r="B77" s="38"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="B75" s="29"/>
-    </row>
-    <row r="76" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A76" s="30" t="s">
+      <c r="B78" s="31"/>
+    </row>
+    <row r="79" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A79" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="B76" s="30"/>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+      <c r="B79" s="40"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B80" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A78" s="3">
+    <row r="81" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
         <v>558</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B81" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A80" s="24" t="s">
+    <row r="83" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A83" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B80" s="24"/>
-    </row>
-    <row r="81" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A81" s="24" t="s">
+      <c r="B83" s="20"/>
+    </row>
+    <row r="84" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A84" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B81" s="24"/>
-    </row>
-    <row r="82" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A82" s="27" t="s">
+      <c r="B84" s="20"/>
+    </row>
+    <row r="85" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A85" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="B82" s="27"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="28" t="s">
+      <c r="B85" s="38"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B83" s="29"/>
-    </row>
-    <row r="84" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A84" s="30" t="s">
+      <c r="B86" s="31"/>
+    </row>
+    <row r="87" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A87" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="B84" s="30"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
+      <c r="B87" s="40"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B88" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
+    <row r="89" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
         <v>556</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B89" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="88" spans="1:6" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C88" s="24" t="s">
+    <row r="91" spans="1:6" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C91" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D88" s="24"/>
-    </row>
-    <row r="89" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
+      <c r="D91" s="20"/>
+    </row>
+    <row r="92" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B92" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C92" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D92" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="E92" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="F92" s="1" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
-        <v>1</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D90" s="10">
-        <v>45039</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F90" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
-        <v>2</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D91" s="10">
-        <v>45039</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F91" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
-        <v>3</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D92" s="10">
-        <v>45041</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F92" s="1">
-        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D93" s="10">
-        <v>45045</v>
+        <v>45039</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F93" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D94" s="10">
-        <v>45048</v>
+        <v>45039</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F94" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="D95" s="10">
-        <v>45079</v>
+        <v>45041</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>152</v>
+        <v>80</v>
       </c>
       <c r="F95" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="D96" s="10">
-        <v>45088</v>
+        <v>45045</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>154</v>
+        <v>81</v>
       </c>
       <c r="F96" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>155</v>
+        <v>77</v>
       </c>
       <c r="D97" s="10">
-        <v>45095</v>
+        <v>45048</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>156</v>
+        <v>82</v>
       </c>
       <c r="F97" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D98" s="10">
-        <v>45098</v>
+        <v>45079</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="F98" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D99" s="10">
-        <v>45102</v>
+        <v>45088</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="F99" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
+        <v>8</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D100" s="10">
+        <v>45095</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F100" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>9</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D101" s="10">
+        <v>45098</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F101" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>10</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D102" s="10">
+        <v>45102</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F102" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
         <v>11</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B103" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C103" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D100" s="10">
+      <c r="D103" s="10">
         <v>45112</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="E103" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F100" s="1">
+      <c r="F103" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:6" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C102" s="24" t="s">
+    <row r="105" spans="1:6" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C105" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="D102" s="24"/>
-    </row>
-    <row r="103" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A103" s="35" t="s">
+      <c r="D105" s="20"/>
+    </row>
+    <row r="106" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A106" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="B103" s="35"/>
-      <c r="C103" s="35"/>
-    </row>
-    <row r="104" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
+      <c r="B106" s="32"/>
+      <c r="C106" s="32"/>
+    </row>
+    <row r="107" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B107" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C107" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C106" s="1"/>
-    </row>
-    <row r="107" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
     </row>
     <row r="108" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
+        <v>88</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="109" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B109" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
     </row>
-    <row r="112" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="23" t="s">
+    <row r="111" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+    </row>
+    <row r="112" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+    </row>
+    <row r="115" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A115" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B112" s="23"/>
-      <c r="C112" s="23"/>
-    </row>
-    <row r="113" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+      <c r="B115" s="33"/>
+      <c r="C115" s="33"/>
+    </row>
+    <row r="116" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B116" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C116" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
+    <row r="117" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B117" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C117" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="23" t="s">
+    <row r="119" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A119" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="B116" s="23"/>
-      <c r="C116" s="23"/>
-    </row>
-    <row r="117" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
+      <c r="B119" s="33"/>
+      <c r="C119" s="33"/>
+    </row>
+    <row r="120" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B120" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C120" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
+    <row r="121" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B121" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C121" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A119" s="1"/>
-      <c r="B119" s="1" t="s">
+    <row r="122" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A122" s="1"/>
+      <c r="B122" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C122" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A120" s="1"/>
-      <c r="B120" s="1" t="s">
+    <row r="123" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A123" s="1"/>
+      <c r="B123" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C123" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="19"/>
-      <c r="B121" s="19"/>
-      <c r="C121" s="19"/>
-    </row>
-    <row r="122" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="23" t="s">
+    <row r="124" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="19"/>
+      <c r="B124" s="19"/>
+      <c r="C124" s="19"/>
+    </row>
+    <row r="125" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A125" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="B122" s="23"/>
-      <c r="C122" s="23"/>
-    </row>
-    <row r="123" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
+      <c r="B125" s="33"/>
+      <c r="C125" s="33"/>
+    </row>
+    <row r="126" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B126" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C126" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="1"/>
-      <c r="B124" s="1" t="s">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="1"/>
+      <c r="B127" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C127" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="127" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C127" s="24" t="s">
+    <row r="130" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C130" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="D127" s="24"/>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="21" t="s">
+      <c r="D130" s="20"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="B128" s="21"/>
-      <c r="C128" s="21"/>
-      <c r="D128" s="21"/>
-      <c r="E128" s="21"/>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="22" t="s">
+      <c r="B131" s="34"/>
+      <c r="C131" s="34"/>
+      <c r="D131" s="34"/>
+      <c r="E131" s="34"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="B129" s="22"/>
-      <c r="C129" s="22" t="s">
+      <c r="B132" s="35"/>
+      <c r="C132" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="D129" s="22"/>
-      <c r="E129" s="22"/>
-    </row>
-    <row r="130" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
+      <c r="D132" s="35"/>
+      <c r="E132" s="35"/>
+    </row>
+    <row r="133" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B133" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="C133" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="D133" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E130" s="1" t="s">
+      <c r="E133" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
+    <row r="134" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B134" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="C134" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="D134" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E131" s="1" t="s">
+      <c r="E134" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="21" t="s">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="B133" s="21"/>
-      <c r="C133" s="21"/>
-      <c r="D133" s="21"/>
-      <c r="E133" s="21"/>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="22" t="s">
+      <c r="B136" s="34"/>
+      <c r="C136" s="34"/>
+      <c r="D136" s="34"/>
+      <c r="E136" s="34"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="B134" s="22"/>
-      <c r="C134" s="22" t="s">
+      <c r="B137" s="35"/>
+      <c r="C137" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="D134" s="22"/>
-      <c r="E134" s="22"/>
-    </row>
-    <row r="135" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
+      <c r="D137" s="35"/>
+      <c r="E137" s="35"/>
+    </row>
+    <row r="138" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B138" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="C138" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="D138" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E135" s="1" t="s">
+      <c r="E138" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
+    <row r="139" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="B139" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="C139" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D136" s="1" t="s">
+      <c r="D139" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E136" s="1" t="s">
+      <c r="E139" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="36" t="s">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="B138" s="37"/>
-      <c r="C138" s="37"/>
-      <c r="D138" s="37"/>
-      <c r="E138" s="38"/>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="42" t="s">
+      <c r="B141" s="28"/>
+      <c r="C141" s="28"/>
+      <c r="D141" s="28"/>
+      <c r="E141" s="29"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="B139" s="43"/>
-      <c r="C139" s="42" t="s">
+      <c r="B142" s="25"/>
+      <c r="C142" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="D139" s="44"/>
-      <c r="E139" s="43"/>
-    </row>
-    <row r="140" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
+      <c r="D142" s="26"/>
+      <c r="E142" s="25"/>
+    </row>
+    <row r="143" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B143" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="C143" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D140" s="1" t="s">
+      <c r="D143" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E140" s="1" t="s">
+      <c r="E143" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
+    <row r="144" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B144" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="C144" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D141" s="1" t="s">
+      <c r="D144" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E141" s="1" t="s">
+      <c r="E144" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="36" t="s">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="B143" s="37"/>
-      <c r="C143" s="37"/>
-      <c r="D143" s="37"/>
-      <c r="E143" s="38"/>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="42" t="s">
+      <c r="B146" s="28"/>
+      <c r="C146" s="28"/>
+      <c r="D146" s="28"/>
+      <c r="E146" s="29"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="B144" s="43"/>
-      <c r="C144" s="42" t="s">
+      <c r="B147" s="25"/>
+      <c r="C147" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="D144" s="44"/>
-      <c r="E144" s="43"/>
-    </row>
-    <row r="145" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
+      <c r="D147" s="26"/>
+      <c r="E147" s="25"/>
+    </row>
+    <row r="148" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B148" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="C148" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D145" s="1" t="s">
+      <c r="D148" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E145" s="1" t="s">
+      <c r="E148" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="B149" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="C149" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D146" s="1" t="s">
+      <c r="D149" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E146" s="1" t="s">
+      <c r="E149" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="36" t="s">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="B148" s="37"/>
-      <c r="C148" s="37"/>
-      <c r="D148" s="37"/>
-      <c r="E148" s="38"/>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="42" t="s">
+      <c r="B151" s="28"/>
+      <c r="C151" s="28"/>
+      <c r="D151" s="28"/>
+      <c r="E151" s="29"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="B149" s="43"/>
-      <c r="C149" s="42" t="s">
+      <c r="B152" s="25"/>
+      <c r="C152" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="D149" s="44"/>
-      <c r="E149" s="43"/>
-    </row>
-    <row r="150" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
+      <c r="D152" s="26"/>
+      <c r="E152" s="25"/>
+    </row>
+    <row r="153" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="B153" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="C153" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D150" s="1" t="s">
+      <c r="D153" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E150" s="1" t="s">
+      <c r="E153" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="1"/>
-      <c r="B151" s="1"/>
-      <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
-      <c r="E151" s="1"/>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="36" t="s">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="1"/>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="B153" s="37"/>
-      <c r="C153" s="37"/>
-      <c r="D153" s="37"/>
-      <c r="E153" s="38"/>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="42" t="s">
+      <c r="B156" s="28"/>
+      <c r="C156" s="28"/>
+      <c r="D156" s="28"/>
+      <c r="E156" s="29"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="B154" s="43"/>
-      <c r="C154" s="42" t="s">
+      <c r="B157" s="25"/>
+      <c r="C157" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="D154" s="44"/>
-      <c r="E154" s="43"/>
-    </row>
-    <row r="155" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
+      <c r="D157" s="26"/>
+      <c r="E157" s="25"/>
+    </row>
+    <row r="158" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="B158" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="C158" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D155" s="1" t="s">
+      <c r="D158" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E155" s="1" t="s">
+      <c r="E158" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="1"/>
-      <c r="B156" s="1"/>
-      <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
-      <c r="E156" s="1"/>
-    </row>
-    <row r="158" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C158" s="24" t="s">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="1"/>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="B161" s="28"/>
+      <c r="C161" s="28"/>
+      <c r="D161" s="28"/>
+      <c r="E161" s="29"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B162" s="25"/>
+      <c r="C162" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="D162" s="26"/>
+      <c r="E162" s="25"/>
+    </row>
+    <row r="163" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="1"/>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="B166" s="28"/>
+      <c r="C166" s="28"/>
+      <c r="D166" s="28"/>
+      <c r="E166" s="29"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B167" s="25"/>
+      <c r="C167" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="D167" s="26"/>
+      <c r="E167" s="25"/>
+    </row>
+    <row r="168" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="1"/>
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+      <c r="E169" s="1"/>
+    </row>
+    <row r="171" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C171" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D158" s="24"/>
-    </row>
-    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B199" s="18" t="s">
+      <c r="D171" s="20"/>
+    </row>
+    <row r="212" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B212" s="18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="201" spans="2:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C201" s="24" t="s">
+    <row r="214" spans="2:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C214" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="D201" s="24"/>
-    </row>
-    <row r="203" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B203" s="18" t="s">
+      <c r="D214" s="20"/>
+    </row>
+    <row r="216" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B216" s="18" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="205" spans="2:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C205" s="24" t="s">
+    <row r="218" spans="2:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C218" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D205" s="24"/>
-    </row>
-    <row r="241" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C241" s="20" t="s">
+      <c r="D218" s="20"/>
+    </row>
+    <row r="254" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C254" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="D241" s="20"/>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
+      <c r="D254" s="44"/>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F248" t="s">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F261" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F249" t="s">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F262" t="s">
         <v>131</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="56">
+    <mergeCell ref="C254:D254"/>
+    <mergeCell ref="A136:E136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:E137"/>
+    <mergeCell ref="A119:C119"/>
+    <mergeCell ref="C218:D218"/>
+    <mergeCell ref="A161:E161"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="C162:E162"/>
+    <mergeCell ref="A156:E156"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="C157:E157"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="A115:C115"/>
+    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="A131:E131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:E132"/>
+    <mergeCell ref="A166:E166"/>
+    <mergeCell ref="C130:D130"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="A43:G43"/>
-    <mergeCell ref="C158:D158"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="C154:E154"/>
-    <mergeCell ref="A148:E148"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="C149:E149"/>
-    <mergeCell ref="A143:E143"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="C144:E144"/>
-    <mergeCell ref="A138:E138"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="C139:E139"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C201:D201"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="A103:C103"/>
-    <mergeCell ref="A112:C112"/>
-    <mergeCell ref="A122:C122"/>
-    <mergeCell ref="A128:E128"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="C129:E129"/>
-    <mergeCell ref="A153:E153"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C241:D241"/>
-    <mergeCell ref="A133:E133"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="C134:E134"/>
-    <mergeCell ref="A116:C116"/>
-    <mergeCell ref="C205:D205"/>
+    <mergeCell ref="C171:D171"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="C167:E167"/>
+    <mergeCell ref="A151:E151"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="C152:E152"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="C147:E147"/>
+    <mergeCell ref="A141:E141"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="C142:E142"/>
+    <mergeCell ref="A65:B65"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="68" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Meme Agile.xlsx
+++ b/Meme Agile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D\Git Collab\kelompok_meme_laporan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96969F4-10B3-4A75-93AA-F11454479080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204C188E-5CC3-4BBB-81ED-ED7E3FB6C039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BD1CD595-25D7-451D-99CB-E4C06CA26580}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="167">
   <si>
     <t>Product Backlog &amp; User Story</t>
   </si>
@@ -520,6 +520,12 @@
   </si>
   <si>
     <t>SPRINT 8</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>Sprint 5</t>
   </si>
 </sst>
 </file>
@@ -774,9 +780,72 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -784,69 +853,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -872,13 +878,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>781049</xdr:colOff>
-      <xdr:row>171</xdr:row>
+      <xdr:row>188</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>189</xdr:row>
+      <xdr:row>206</xdr:row>
       <xdr:rowOff>27773</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -922,13 +928,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>190</xdr:row>
+      <xdr:row>207</xdr:row>
       <xdr:rowOff>161926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1371600</xdr:colOff>
-      <xdr:row>209</xdr:row>
+      <xdr:row>226</xdr:row>
       <xdr:rowOff>116122</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -972,13 +978,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>428626</xdr:colOff>
-      <xdr:row>236</xdr:row>
+      <xdr:row>253</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>266701</xdr:colOff>
-      <xdr:row>250</xdr:row>
+      <xdr:row>267</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1022,13 +1028,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>668162</xdr:colOff>
-      <xdr:row>219</xdr:row>
+      <xdr:row>236</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>234</xdr:row>
+      <xdr:row>251</xdr:row>
       <xdr:rowOff>49184</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1072,13 +1078,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>219</xdr:row>
+      <xdr:row>236</xdr:row>
       <xdr:rowOff>147600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>234</xdr:row>
+      <xdr:row>251</xdr:row>
       <xdr:rowOff>43391</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1122,13 +1128,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>752476</xdr:colOff>
-      <xdr:row>236</xdr:row>
+      <xdr:row>253</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>251</xdr:row>
+      <xdr:row>268</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1468,10 +1474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C4E763-3BF0-4DCE-A690-0A0674D041AB}">
-  <dimension ref="A1:G262"/>
+  <dimension ref="A1:G279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1486,23 +1492,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:5" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C1" s="36"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
     </row>
     <row r="2" spans="3:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="4" spans="3:5" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
     </row>
     <row r="6" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D6" s="6" t="s">
@@ -1533,18 +1539,18 @@
       </c>
     </row>
     <row r="18" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
     </row>
     <row r="20" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
     </row>
     <row r="22" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D22" s="9" t="s">
@@ -1633,15 +1639,15 @@
       <c r="A42" s="11"/>
     </row>
     <row r="43" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="22" t="s">
+      <c r="A43" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="23"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="44"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
@@ -1884,34 +1890,34 @@
       <c r="G55" s="16"/>
     </row>
     <row r="62" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A62" s="20" t="s">
+      <c r="A62" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B62" s="20"/>
+      <c r="B62" s="24"/>
     </row>
     <row r="63" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A63" s="20" t="s">
+      <c r="A63" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B63" s="20"/>
+      <c r="B63" s="24"/>
     </row>
     <row r="64" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A64" s="43" t="s">
+      <c r="A64" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B64" s="43"/>
+      <c r="B64" s="40"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="30" t="s">
+      <c r="A65" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B65" s="31"/>
+      <c r="B65" s="35"/>
     </row>
     <row r="66" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A66" s="20" t="s">
+      <c r="A66" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B66" s="20"/>
+      <c r="B66" s="24"/>
     </row>
     <row r="67" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
@@ -1970,34 +1976,34 @@
       </c>
     </row>
     <row r="75" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A75" s="20" t="s">
+      <c r="A75" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B75" s="20"/>
+      <c r="B75" s="24"/>
     </row>
     <row r="76" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A76" s="20" t="s">
+      <c r="A76" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B76" s="20"/>
+      <c r="B76" s="24"/>
     </row>
     <row r="77" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A77" s="38" t="s">
+      <c r="A77" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B77" s="38"/>
+      <c r="B77" s="33"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="30" t="s">
+      <c r="A78" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="B78" s="31"/>
+      <c r="B78" s="35"/>
     </row>
     <row r="79" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A79" s="40" t="s">
+      <c r="A79" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B79" s="40"/>
+      <c r="B79" s="36"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
@@ -2007,7 +2013,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>558</v>
       </c>
@@ -2015,37 +2021,37 @@
         <v>52</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A83" s="20" t="s">
+    <row r="83" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A83" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B83" s="20"/>
-    </row>
-    <row r="84" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A84" s="20" t="s">
+      <c r="B83" s="24"/>
+    </row>
+    <row r="84" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A84" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B84" s="20"/>
-    </row>
-    <row r="85" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A85" s="38" t="s">
+      <c r="B84" s="24"/>
+    </row>
+    <row r="85" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A85" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B85" s="38"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="39" t="s">
+      <c r="B85" s="33"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="B86" s="31"/>
-    </row>
-    <row r="87" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A87" s="40" t="s">
+      <c r="B86" s="35"/>
+    </row>
+    <row r="87" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A87" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B87" s="40"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B87" s="36"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>8</v>
       </c>
@@ -2053,7 +2059,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>556</v>
       </c>
@@ -2061,942 +2067,1036 @@
         <v>57</v>
       </c>
     </row>
-    <row r="91" spans="1:6" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C91" s="20" t="s">
+    <row r="91" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A91" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B91" s="24"/>
+    </row>
+    <row r="92" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A92" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="B92" s="24"/>
+    </row>
+    <row r="93" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A93" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B93" s="33"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="34"/>
+      <c r="B94" s="35"/>
+    </row>
+    <row r="95" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A95" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B95" s="36"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+    </row>
+    <row r="100" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A100" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B100" s="24"/>
+    </row>
+    <row r="101" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A101" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="B101" s="24"/>
+    </row>
+    <row r="102" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A102" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B102" s="33"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="34"/>
+      <c r="B103" s="35"/>
+    </row>
+    <row r="104" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A104" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B104" s="36"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+    </row>
+    <row r="108" spans="1:6" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C108" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D91" s="20"/>
-    </row>
-    <row r="92" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+      <c r="D108" s="24"/>
+    </row>
+    <row r="109" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B109" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C109" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D109" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="E109" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F92" s="1" t="s">
+      <c r="F109" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
+    <row r="110" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
         <v>1</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B110" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C110" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D93" s="10">
+      <c r="D110" s="10">
         <v>45039</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="E110" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F93" s="1">
+      <c r="F110" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
+    <row r="111" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
         <v>2</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B111" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C111" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D94" s="10">
+      <c r="D111" s="10">
         <v>45039</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="E111" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F94" s="1">
+      <c r="F111" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
+    <row r="112" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
         <v>3</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B112" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C112" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D95" s="10">
+      <c r="D112" s="10">
         <v>45041</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="E112" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F95" s="1">
+      <c r="F112" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
+    <row r="113" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
         <v>4</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B113" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C113" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D96" s="10">
+      <c r="D113" s="10">
         <v>45045</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="E113" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F96" s="1">
+      <c r="F113" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
+    <row r="114" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
         <v>5</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B114" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C114" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D97" s="10">
+      <c r="D114" s="10">
         <v>45048</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="E114" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F97" s="1">
+      <c r="F114" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
+    <row r="115" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
         <v>6</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B115" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C115" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D98" s="10">
+      <c r="D115" s="10">
         <v>45079</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="E115" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F98" s="1">
+      <c r="F115" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
+    <row r="116" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
         <v>7</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B116" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C116" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D99" s="10">
+      <c r="D116" s="10">
         <v>45088</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="E116" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F99" s="1">
+      <c r="F116" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
         <v>8</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B117" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C117" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D100" s="10">
+      <c r="D117" s="10">
         <v>45095</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="E117" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="F100" s="1">
+      <c r="F117" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
+    <row r="118" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
         <v>9</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B118" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C118" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D101" s="10">
+      <c r="D118" s="10">
         <v>45098</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="E118" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="F101" s="1">
+      <c r="F118" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="1">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
         <v>10</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B119" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C119" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D102" s="10">
+      <c r="D119" s="10">
         <v>45102</v>
       </c>
-      <c r="E102" s="1" t="s">
+      <c r="E119" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="F102" s="1">
+      <c r="F119" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A103" s="1">
+    <row r="120" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
         <v>11</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B120" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C120" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D103" s="10">
+      <c r="D120" s="10">
         <v>45112</v>
       </c>
-      <c r="E103" s="1" t="s">
+      <c r="E120" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F103" s="1">
+      <c r="F120" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:6" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C105" s="20" t="s">
+    <row r="122" spans="1:6" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C122" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="D105" s="20"/>
-    </row>
-    <row r="106" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A106" s="32" t="s">
+      <c r="D122" s="24"/>
+    </row>
+    <row r="123" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A123" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="B106" s="32"/>
-      <c r="C106" s="32"/>
-    </row>
-    <row r="107" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
+      <c r="B123" s="41"/>
+      <c r="C123" s="41"/>
+    </row>
+    <row r="124" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B124" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C124" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
+    <row r="125" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B125" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C125" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
+    <row r="126" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B126" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C109" s="1"/>
-    </row>
-    <row r="110" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
+      <c r="C126" s="1"/>
+    </row>
+    <row r="127" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-    </row>
-    <row r="111" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+    </row>
+    <row r="128" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-    </row>
-    <row r="112" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+    </row>
+    <row r="129" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-    </row>
-    <row r="115" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="33" t="s">
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+    </row>
+    <row r="132" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A132" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="B115" s="33"/>
-      <c r="C115" s="33"/>
-    </row>
-    <row r="116" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
+      <c r="B132" s="23"/>
+      <c r="C132" s="23"/>
+    </row>
+    <row r="133" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B133" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C133" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
+    <row r="134" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B134" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C134" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="33" t="s">
+    <row r="136" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A136" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="B119" s="33"/>
-      <c r="C119" s="33"/>
-    </row>
-    <row r="120" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
+      <c r="B136" s="23"/>
+      <c r="C136" s="23"/>
+    </row>
+    <row r="137" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B137" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C137" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
+    <row r="138" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B138" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C138" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A122" s="1"/>
-      <c r="B122" s="1" t="s">
+    <row r="139" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A139" s="1"/>
+      <c r="B139" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C139" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A123" s="1"/>
-      <c r="B123" s="1" t="s">
+    <row r="140" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A140" s="1"/>
+      <c r="B140" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C140" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="19"/>
-      <c r="B124" s="19"/>
-      <c r="C124" s="19"/>
-    </row>
-    <row r="125" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="33" t="s">
+    <row r="141" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="19"/>
+      <c r="B141" s="19"/>
+      <c r="C141" s="19"/>
+    </row>
+    <row r="142" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A142" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="B125" s="33"/>
-      <c r="C125" s="33"/>
-    </row>
-    <row r="126" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
+      <c r="B142" s="23"/>
+      <c r="C142" s="23"/>
+    </row>
+    <row r="143" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B143" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C143" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="1"/>
-      <c r="B127" s="1" t="s">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C144" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="130" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C130" s="20" t="s">
+    <row r="147" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C147" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="D130" s="20"/>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="34" t="s">
+      <c r="D147" s="24"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="B131" s="34"/>
-      <c r="C131" s="34"/>
-      <c r="D131" s="34"/>
-      <c r="E131" s="34"/>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="35" t="s">
+      <c r="B148" s="21"/>
+      <c r="C148" s="21"/>
+      <c r="D148" s="21"/>
+      <c r="E148" s="21"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="B132" s="35"/>
-      <c r="C132" s="35" t="s">
+      <c r="B149" s="22"/>
+      <c r="C149" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="D132" s="35"/>
-      <c r="E132" s="35"/>
-    </row>
-    <row r="133" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
+      <c r="D149" s="22"/>
+      <c r="E149" s="22"/>
+    </row>
+    <row r="150" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B150" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="C150" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D133" s="1" t="s">
+      <c r="D150" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E133" s="1" t="s">
+      <c r="E150" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
+    <row r="151" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B151" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="C151" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D134" s="1" t="s">
+      <c r="D151" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E134" s="1" t="s">
+      <c r="E151" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="34" t="s">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="B136" s="34"/>
-      <c r="C136" s="34"/>
-      <c r="D136" s="34"/>
-      <c r="E136" s="34"/>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="35" t="s">
+      <c r="B153" s="21"/>
+      <c r="C153" s="21"/>
+      <c r="D153" s="21"/>
+      <c r="E153" s="21"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="B137" s="35"/>
-      <c r="C137" s="35" t="s">
+      <c r="B154" s="22"/>
+      <c r="C154" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="D137" s="35"/>
-      <c r="E137" s="35"/>
-    </row>
-    <row r="138" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
+      <c r="D154" s="22"/>
+      <c r="E154" s="22"/>
+    </row>
+    <row r="155" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="B155" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="C155" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D138" s="1" t="s">
+      <c r="D155" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E138" s="1" t="s">
+      <c r="E155" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
+    <row r="156" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B156" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="C156" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D139" s="1" t="s">
+      <c r="D156" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E139" s="1" t="s">
+      <c r="E156" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="27" t="s">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="B141" s="28"/>
-      <c r="C141" s="28"/>
-      <c r="D141" s="28"/>
-      <c r="E141" s="29"/>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="24" t="s">
+      <c r="B158" s="26"/>
+      <c r="C158" s="26"/>
+      <c r="D158" s="26"/>
+      <c r="E158" s="27"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="B142" s="25"/>
-      <c r="C142" s="24" t="s">
+      <c r="B159" s="29"/>
+      <c r="C159" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="D142" s="26"/>
-      <c r="E142" s="25"/>
-    </row>
-    <row r="143" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
+      <c r="D159" s="30"/>
+      <c r="E159" s="29"/>
+    </row>
+    <row r="160" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="B160" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="C160" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D143" s="1" t="s">
+      <c r="D160" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E143" s="1" t="s">
+      <c r="E160" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
+    <row r="161" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B161" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="C161" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D144" s="1" t="s">
+      <c r="D161" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E144" s="1" t="s">
+      <c r="E161" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="27" t="s">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="B146" s="28"/>
-      <c r="C146" s="28"/>
-      <c r="D146" s="28"/>
-      <c r="E146" s="29"/>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="24" t="s">
+      <c r="B163" s="26"/>
+      <c r="C163" s="26"/>
+      <c r="D163" s="26"/>
+      <c r="E163" s="27"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="B147" s="25"/>
-      <c r="C147" s="24" t="s">
+      <c r="B164" s="29"/>
+      <c r="C164" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="D147" s="26"/>
-      <c r="E147" s="25"/>
-    </row>
-    <row r="148" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
+      <c r="D164" s="30"/>
+      <c r="E164" s="29"/>
+    </row>
+    <row r="165" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="B165" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="C165" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D148" s="1" t="s">
+      <c r="D165" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E148" s="1" t="s">
+      <c r="E165" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="B166" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="C166" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D149" s="1" t="s">
+      <c r="D166" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E149" s="1" t="s">
+      <c r="E166" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="27" t="s">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="B151" s="28"/>
-      <c r="C151" s="28"/>
-      <c r="D151" s="28"/>
-      <c r="E151" s="29"/>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="24" t="s">
+      <c r="B168" s="26"/>
+      <c r="C168" s="26"/>
+      <c r="D168" s="26"/>
+      <c r="E168" s="27"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="B152" s="25"/>
-      <c r="C152" s="24" t="s">
+      <c r="B169" s="29"/>
+      <c r="C169" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="D152" s="26"/>
-      <c r="E152" s="25"/>
-    </row>
-    <row r="153" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
+      <c r="D169" s="30"/>
+      <c r="E169" s="29"/>
+    </row>
+    <row r="170" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="B170" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="C170" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D153" s="1" t="s">
+      <c r="D170" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E153" s="1" t="s">
+      <c r="E170" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="1"/>
-      <c r="B154" s="1"/>
-      <c r="C154" s="1"/>
-      <c r="D154" s="1"/>
-      <c r="E154" s="1"/>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="27" t="s">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="1"/>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="1"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="B156" s="28"/>
-      <c r="C156" s="28"/>
-      <c r="D156" s="28"/>
-      <c r="E156" s="29"/>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="24" t="s">
+      <c r="B173" s="26"/>
+      <c r="C173" s="26"/>
+      <c r="D173" s="26"/>
+      <c r="E173" s="27"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="B157" s="25"/>
-      <c r="C157" s="24" t="s">
+      <c r="B174" s="29"/>
+      <c r="C174" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="D157" s="26"/>
-      <c r="E157" s="25"/>
-    </row>
-    <row r="158" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
+      <c r="D174" s="30"/>
+      <c r="E174" s="29"/>
+    </row>
+    <row r="175" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="B175" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C158" s="1" t="s">
+      <c r="C175" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D158" s="1" t="s">
+      <c r="D175" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E158" s="1" t="s">
+      <c r="E175" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="1"/>
-      <c r="B159" s="1"/>
-      <c r="C159" s="1"/>
-      <c r="D159" s="1"/>
-      <c r="E159" s="1"/>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="27" t="s">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="1"/>
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+      <c r="E176" s="1"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="B161" s="28"/>
-      <c r="C161" s="28"/>
-      <c r="D161" s="28"/>
-      <c r="E161" s="29"/>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="24" t="s">
+      <c r="B178" s="26"/>
+      <c r="C178" s="26"/>
+      <c r="D178" s="26"/>
+      <c r="E178" s="27"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="B162" s="25"/>
-      <c r="C162" s="24" t="s">
+      <c r="B179" s="29"/>
+      <c r="C179" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="D162" s="26"/>
-      <c r="E162" s="25"/>
-    </row>
-    <row r="163" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
+      <c r="D179" s="30"/>
+      <c r="E179" s="29"/>
+    </row>
+    <row r="180" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="B180" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C163" s="1" t="s">
+      <c r="C180" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D163" s="1" t="s">
+      <c r="D180" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E163" s="1" t="s">
+      <c r="E180" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="1"/>
-      <c r="B164" s="1"/>
-      <c r="C164" s="1"/>
-      <c r="D164" s="1"/>
-      <c r="E164" s="1"/>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="27" t="s">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="1"/>
+      <c r="B181" s="1"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+      <c r="E181" s="1"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="B166" s="28"/>
-      <c r="C166" s="28"/>
-      <c r="D166" s="28"/>
-      <c r="E166" s="29"/>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="24" t="s">
+      <c r="B183" s="26"/>
+      <c r="C183" s="26"/>
+      <c r="D183" s="26"/>
+      <c r="E183" s="27"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="B167" s="25"/>
-      <c r="C167" s="24" t="s">
+      <c r="B184" s="29"/>
+      <c r="C184" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="D167" s="26"/>
-      <c r="E167" s="25"/>
-    </row>
-    <row r="168" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
+      <c r="D184" s="30"/>
+      <c r="E184" s="29"/>
+    </row>
+    <row r="185" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="B185" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C168" s="1" t="s">
+      <c r="C185" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D168" s="1" t="s">
+      <c r="D185" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E168" s="1" t="s">
+      <c r="E185" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="1"/>
-      <c r="B169" s="1"/>
-      <c r="C169" s="1"/>
-      <c r="D169" s="1"/>
-      <c r="E169" s="1"/>
-    </row>
-    <row r="171" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C171" s="20" t="s">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="1"/>
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
+      <c r="D186" s="1"/>
+      <c r="E186" s="1"/>
+    </row>
+    <row r="188" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C188" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="D171" s="20"/>
-    </row>
-    <row r="212" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B212" s="18" t="s">
+      <c r="D188" s="24"/>
+    </row>
+    <row r="229" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B229" s="18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="214" spans="2:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C214" s="20" t="s">
+    <row r="231" spans="2:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C231" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D214" s="20"/>
-    </row>
-    <row r="216" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B216" s="18" t="s">
+      <c r="D231" s="24"/>
+    </row>
+    <row r="233" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B233" s="18" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="218" spans="2:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C218" s="20" t="s">
+    <row r="235" spans="2:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C235" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D218" s="20"/>
-    </row>
-    <row r="254" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C254" s="44" t="s">
+      <c r="D235" s="24"/>
+    </row>
+    <row r="271" spans="3:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C271" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="D254" s="44"/>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
+      <c r="D271" s="20"/>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F261" t="s">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F278" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F262" t="s">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F279" t="s">
         <v>131</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="56">
-    <mergeCell ref="C254:D254"/>
-    <mergeCell ref="A136:E136"/>
-    <mergeCell ref="A137:B137"/>
-    <mergeCell ref="C137:E137"/>
-    <mergeCell ref="A119:C119"/>
-    <mergeCell ref="C218:D218"/>
-    <mergeCell ref="A161:E161"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="C162:E162"/>
-    <mergeCell ref="A156:E156"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="C157:E157"/>
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="66">
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A84:B84"/>
     <mergeCell ref="A85:B85"/>
     <mergeCell ref="A86:B86"/>
     <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="C188:D188"/>
+    <mergeCell ref="A184:B184"/>
+    <mergeCell ref="C184:E184"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:B169"/>
+    <mergeCell ref="C169:E169"/>
+    <mergeCell ref="A163:E163"/>
+    <mergeCell ref="A164:B164"/>
+    <mergeCell ref="C164:E164"/>
+    <mergeCell ref="A158:E158"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="C159:E159"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="C231:D231"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="A123:C123"/>
+    <mergeCell ref="A132:C132"/>
+    <mergeCell ref="A142:C142"/>
+    <mergeCell ref="A148:E148"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="C149:E149"/>
+    <mergeCell ref="A183:E183"/>
+    <mergeCell ref="C147:D147"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A104:B104"/>
     <mergeCell ref="A76:B76"/>
     <mergeCell ref="A77:B77"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A101:B101"/>
     <mergeCell ref="A75:B75"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="A62:B62"/>
     <mergeCell ref="A63:B63"/>
     <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="A106:C106"/>
-    <mergeCell ref="A115:C115"/>
-    <mergeCell ref="A125:C125"/>
-    <mergeCell ref="A131:E131"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="C132:E132"/>
-    <mergeCell ref="A166:E166"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="C171:D171"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="C167:E167"/>
-    <mergeCell ref="A151:E151"/>
-    <mergeCell ref="A152:B152"/>
-    <mergeCell ref="C152:E152"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="A147:B147"/>
-    <mergeCell ref="C147:E147"/>
-    <mergeCell ref="A141:E141"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="C142:E142"/>
-    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C271:D271"/>
+    <mergeCell ref="A153:E153"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="C154:E154"/>
+    <mergeCell ref="A136:C136"/>
+    <mergeCell ref="C235:D235"/>
+    <mergeCell ref="A178:E178"/>
+    <mergeCell ref="A179:B179"/>
+    <mergeCell ref="C179:E179"/>
+    <mergeCell ref="A173:E173"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="C174:E174"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="68" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Meme Agile.xlsx
+++ b/Meme Agile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D\Git Collab\kelompok_meme_laporan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204C188E-5CC3-4BBB-81ED-ED7E3FB6C039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A7ACC0-2B85-4738-91D5-6614886D27CF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BD1CD595-25D7-451D-99CB-E4C06CA26580}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{BD1CD595-25D7-451D-99CB-E4C06CA26580}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="168">
   <si>
     <t>Product Backlog &amp; User Story</t>
   </si>
@@ -526,6 +526,9 @@
   </si>
   <si>
     <t>Sprint 5</t>
+  </si>
+  <si>
+    <t>Sebagai [Investor] ingin mengupgrade UI agar dapat berkompetisi dengan persaingan yang ada pada industri</t>
   </si>
 </sst>
 </file>
@@ -739,7 +742,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -780,8 +783,59 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -789,51 +843,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -843,16 +858,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1476,8 +1482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C4E763-3BF0-4DCE-A690-0A0674D041AB}">
   <dimension ref="A1:G279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1492,23 +1498,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:5" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C1" s="31"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="3:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
     </row>
     <row r="4" spans="3:5" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
     </row>
     <row r="6" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D6" s="6" t="s">
@@ -1539,18 +1545,18 @@
       </c>
     </row>
     <row r="18" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
     </row>
     <row r="20" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
     </row>
     <row r="22" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D22" s="9" t="s">
@@ -1639,15 +1645,15 @@
       <c r="A42" s="11"/>
     </row>
     <row r="43" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="43" t="s">
+      <c r="A43" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="43"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="44"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="28"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
@@ -1890,34 +1896,34 @@
       <c r="G55" s="16"/>
     </row>
     <row r="62" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A62" s="24" t="s">
+      <c r="A62" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B62" s="24"/>
+      <c r="B62" s="22"/>
     </row>
     <row r="63" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A63" s="24" t="s">
+      <c r="A63" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B63" s="24"/>
+      <c r="B63" s="22"/>
     </row>
     <row r="64" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A64" s="40" t="s">
+      <c r="A64" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="B64" s="40"/>
+      <c r="B64" s="44"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="37" t="s">
+      <c r="A65" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="B65" s="35"/>
+      <c r="B65" s="25"/>
     </row>
     <row r="66" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A66" s="24" t="s">
+      <c r="A66" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B66" s="24"/>
+      <c r="B66" s="22"/>
     </row>
     <row r="67" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
@@ -1976,34 +1982,34 @@
       </c>
     </row>
     <row r="75" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A75" s="24" t="s">
+      <c r="A75" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B75" s="24"/>
+      <c r="B75" s="22"/>
     </row>
     <row r="76" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A76" s="24" t="s">
+      <c r="A76" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B76" s="24"/>
+      <c r="B76" s="22"/>
     </row>
     <row r="77" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A77" s="33" t="s">
+      <c r="A77" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B77" s="33"/>
+      <c r="B77" s="23"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="37" t="s">
+      <c r="A78" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="B78" s="35"/>
+      <c r="B78" s="25"/>
     </row>
     <row r="79" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A79" s="36" t="s">
+      <c r="A79" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B79" s="36"/>
+      <c r="B79" s="21"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
@@ -2022,34 +2028,34 @@
       </c>
     </row>
     <row r="83" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A83" s="24" t="s">
+      <c r="A83" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B83" s="24"/>
+      <c r="B83" s="22"/>
     </row>
     <row r="84" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A84" s="24" t="s">
+      <c r="A84" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="B84" s="24"/>
+      <c r="B84" s="22"/>
     </row>
     <row r="85" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A85" s="33" t="s">
+      <c r="A85" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B85" s="33"/>
+      <c r="B85" s="23"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="34" t="s">
+      <c r="A86" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B86" s="35"/>
+      <c r="B86" s="25"/>
     </row>
     <row r="87" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A87" s="36" t="s">
+      <c r="A87" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B87" s="36"/>
+      <c r="B87" s="21"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
@@ -2068,32 +2074,32 @@
       </c>
     </row>
     <row r="91" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A91" s="24" t="s">
+      <c r="A91" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B91" s="24"/>
+      <c r="B91" s="22"/>
     </row>
     <row r="92" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A92" s="24" t="s">
+      <c r="A92" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="B92" s="24"/>
+      <c r="B92" s="22"/>
     </row>
     <row r="93" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A93" s="33" t="s">
+      <c r="A93" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B93" s="33"/>
+      <c r="B93" s="23"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="34"/>
-      <c r="B94" s="35"/>
+      <c r="A94" s="24"/>
+      <c r="B94" s="25"/>
     </row>
     <row r="95" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A95" s="36" t="s">
+      <c r="A95" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B95" s="36"/>
+      <c r="B95" s="21"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
@@ -2103,41 +2109,45 @@
         <v>45</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
+    <row r="97" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>557</v>
+      </c>
+      <c r="B97" s="20" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
     </row>
     <row r="100" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A100" s="24" t="s">
+      <c r="A100" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B100" s="24"/>
+      <c r="B100" s="22"/>
     </row>
     <row r="101" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A101" s="24" t="s">
+      <c r="A101" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="B101" s="24"/>
+      <c r="B101" s="22"/>
     </row>
     <row r="102" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A102" s="33" t="s">
+      <c r="A102" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B102" s="33"/>
+      <c r="B102" s="23"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="34"/>
-      <c r="B103" s="35"/>
+      <c r="A103" s="24"/>
+      <c r="B103" s="25"/>
     </row>
     <row r="104" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A104" s="36" t="s">
+      <c r="A104" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B104" s="36"/>
+      <c r="B104" s="21"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
@@ -2152,10 +2162,10 @@
       <c r="B106" s="1"/>
     </row>
     <row r="108" spans="1:6" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C108" s="24" t="s">
+      <c r="C108" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="D108" s="24"/>
+      <c r="D108" s="22"/>
     </row>
     <row r="109" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
@@ -2398,17 +2408,17 @@
       </c>
     </row>
     <row r="122" spans="1:6" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C122" s="24" t="s">
+      <c r="C122" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="D122" s="24"/>
+      <c r="D122" s="22"/>
     </row>
     <row r="123" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A123" s="41" t="s">
+      <c r="A123" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="B123" s="41"/>
-      <c r="C123" s="41"/>
+      <c r="B123" s="36"/>
+      <c r="C123" s="36"/>
     </row>
     <row r="124" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
@@ -2470,11 +2480,11 @@
       <c r="C130" s="1"/>
     </row>
     <row r="132" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="23" t="s">
+      <c r="A132" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="B132" s="23"/>
-      <c r="C132" s="23"/>
+      <c r="B132" s="37"/>
+      <c r="C132" s="37"/>
     </row>
     <row r="133" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
@@ -2499,11 +2509,11 @@
       </c>
     </row>
     <row r="136" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="23" t="s">
+      <c r="A136" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="B136" s="23"/>
-      <c r="C136" s="23"/>
+      <c r="B136" s="37"/>
+      <c r="C136" s="37"/>
     </row>
     <row r="137" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
@@ -2551,11 +2561,11 @@
       <c r="C141" s="19"/>
     </row>
     <row r="142" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A142" s="23" t="s">
+      <c r="A142" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="B142" s="23"/>
-      <c r="C142" s="23"/>
+      <c r="B142" s="37"/>
+      <c r="C142" s="37"/>
     </row>
     <row r="143" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
@@ -2578,30 +2588,30 @@
       </c>
     </row>
     <row r="147" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C147" s="24" t="s">
+      <c r="C147" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="D147" s="24"/>
+      <c r="D147" s="22"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="21" t="s">
+      <c r="A148" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="B148" s="21"/>
-      <c r="C148" s="21"/>
-      <c r="D148" s="21"/>
-      <c r="E148" s="21"/>
+      <c r="B148" s="38"/>
+      <c r="C148" s="38"/>
+      <c r="D148" s="38"/>
+      <c r="E148" s="38"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="22" t="s">
+      <c r="A149" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="B149" s="22"/>
-      <c r="C149" s="22" t="s">
+      <c r="B149" s="39"/>
+      <c r="C149" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="D149" s="22"/>
-      <c r="E149" s="22"/>
+      <c r="D149" s="39"/>
+      <c r="E149" s="39"/>
     </row>
     <row r="150" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
@@ -2638,24 +2648,24 @@
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="21" t="s">
+      <c r="A153" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="B153" s="21"/>
-      <c r="C153" s="21"/>
-      <c r="D153" s="21"/>
-      <c r="E153" s="21"/>
+      <c r="B153" s="38"/>
+      <c r="C153" s="38"/>
+      <c r="D153" s="38"/>
+      <c r="E153" s="38"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="22" t="s">
+      <c r="A154" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="B154" s="22"/>
-      <c r="C154" s="22" t="s">
+      <c r="B154" s="39"/>
+      <c r="C154" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="D154" s="22"/>
-      <c r="E154" s="22"/>
+      <c r="D154" s="39"/>
+      <c r="E154" s="39"/>
     </row>
     <row r="155" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
@@ -2692,24 +2702,24 @@
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="25" t="s">
+      <c r="A158" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="B158" s="26"/>
-      <c r="C158" s="26"/>
-      <c r="D158" s="26"/>
-      <c r="E158" s="27"/>
+      <c r="B158" s="33"/>
+      <c r="C158" s="33"/>
+      <c r="D158" s="33"/>
+      <c r="E158" s="34"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="28" t="s">
+      <c r="A159" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="B159" s="29"/>
-      <c r="C159" s="28" t="s">
+      <c r="B159" s="30"/>
+      <c r="C159" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="D159" s="30"/>
-      <c r="E159" s="29"/>
+      <c r="D159" s="31"/>
+      <c r="E159" s="30"/>
     </row>
     <row r="160" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
@@ -2746,24 +2756,24 @@
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="25" t="s">
+      <c r="A163" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="B163" s="26"/>
-      <c r="C163" s="26"/>
-      <c r="D163" s="26"/>
-      <c r="E163" s="27"/>
+      <c r="B163" s="33"/>
+      <c r="C163" s="33"/>
+      <c r="D163" s="33"/>
+      <c r="E163" s="34"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="28" t="s">
+      <c r="A164" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="B164" s="29"/>
-      <c r="C164" s="28" t="s">
+      <c r="B164" s="30"/>
+      <c r="C164" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="D164" s="30"/>
-      <c r="E164" s="29"/>
+      <c r="D164" s="31"/>
+      <c r="E164" s="30"/>
     </row>
     <row r="165" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
@@ -2800,24 +2810,24 @@
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="25" t="s">
+      <c r="A168" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="B168" s="26"/>
-      <c r="C168" s="26"/>
-      <c r="D168" s="26"/>
-      <c r="E168" s="27"/>
+      <c r="B168" s="33"/>
+      <c r="C168" s="33"/>
+      <c r="D168" s="33"/>
+      <c r="E168" s="34"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="28" t="s">
+      <c r="A169" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="B169" s="29"/>
-      <c r="C169" s="28" t="s">
+      <c r="B169" s="30"/>
+      <c r="C169" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="D169" s="30"/>
-      <c r="E169" s="29"/>
+      <c r="D169" s="31"/>
+      <c r="E169" s="30"/>
     </row>
     <row r="170" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
@@ -2844,24 +2854,24 @@
       <c r="E171" s="1"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="25" t="s">
+      <c r="A173" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="B173" s="26"/>
-      <c r="C173" s="26"/>
-      <c r="D173" s="26"/>
-      <c r="E173" s="27"/>
+      <c r="B173" s="33"/>
+      <c r="C173" s="33"/>
+      <c r="D173" s="33"/>
+      <c r="E173" s="34"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="28" t="s">
+      <c r="A174" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="B174" s="29"/>
-      <c r="C174" s="28" t="s">
+      <c r="B174" s="30"/>
+      <c r="C174" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="D174" s="30"/>
-      <c r="E174" s="29"/>
+      <c r="D174" s="31"/>
+      <c r="E174" s="30"/>
     </row>
     <row r="175" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
@@ -2888,24 +2898,24 @@
       <c r="E176" s="1"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="25" t="s">
+      <c r="A178" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="B178" s="26"/>
-      <c r="C178" s="26"/>
-      <c r="D178" s="26"/>
-      <c r="E178" s="27"/>
+      <c r="B178" s="33"/>
+      <c r="C178" s="33"/>
+      <c r="D178" s="33"/>
+      <c r="E178" s="34"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="28" t="s">
+      <c r="A179" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="B179" s="29"/>
-      <c r="C179" s="28" t="s">
+      <c r="B179" s="30"/>
+      <c r="C179" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="D179" s="30"/>
-      <c r="E179" s="29"/>
+      <c r="D179" s="31"/>
+      <c r="E179" s="30"/>
     </row>
     <row r="180" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
@@ -2932,24 +2942,24 @@
       <c r="E181" s="1"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="25" t="s">
+      <c r="A183" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="B183" s="26"/>
-      <c r="C183" s="26"/>
-      <c r="D183" s="26"/>
-      <c r="E183" s="27"/>
+      <c r="B183" s="33"/>
+      <c r="C183" s="33"/>
+      <c r="D183" s="33"/>
+      <c r="E183" s="34"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="28" t="s">
+      <c r="A184" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="B184" s="29"/>
-      <c r="C184" s="28" t="s">
+      <c r="B184" s="30"/>
+      <c r="C184" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="D184" s="30"/>
-      <c r="E184" s="29"/>
+      <c r="D184" s="31"/>
+      <c r="E184" s="30"/>
     </row>
     <row r="185" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
@@ -2976,10 +2986,10 @@
       <c r="E186" s="1"/>
     </row>
     <row r="188" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C188" s="24" t="s">
+      <c r="C188" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="D188" s="24"/>
+      <c r="D188" s="22"/>
     </row>
     <row r="229" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B229" s="18" t="s">
@@ -2987,10 +2997,10 @@
       </c>
     </row>
     <row r="231" spans="2:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C231" s="24" t="s">
+      <c r="C231" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D231" s="24"/>
+      <c r="D231" s="22"/>
     </row>
     <row r="233" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B233" s="18" t="s">
@@ -2998,16 +3008,16 @@
       </c>
     </row>
     <row r="235" spans="2:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C235" s="24" t="s">
+      <c r="C235" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D235" s="24"/>
+      <c r="D235" s="22"/>
     </row>
     <row r="271" spans="3:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C271" s="20" t="s">
+      <c r="C271" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="D271" s="20"/>
+      <c r="D271" s="45"/>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
@@ -3031,12 +3041,50 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C271:D271"/>
+    <mergeCell ref="A153:E153"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="C154:E154"/>
+    <mergeCell ref="A136:C136"/>
+    <mergeCell ref="C235:D235"/>
+    <mergeCell ref="A178:E178"/>
+    <mergeCell ref="A179:B179"/>
+    <mergeCell ref="C179:E179"/>
+    <mergeCell ref="A173:E173"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="C174:E174"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="C231:D231"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="A123:C123"/>
+    <mergeCell ref="A132:C132"/>
+    <mergeCell ref="A142:C142"/>
+    <mergeCell ref="A148:E148"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="C149:E149"/>
+    <mergeCell ref="A183:E183"/>
+    <mergeCell ref="C147:D147"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:B94"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="A43:G43"/>
@@ -3053,50 +3101,12 @@
     <mergeCell ref="A159:B159"/>
     <mergeCell ref="C159:E159"/>
     <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="C231:D231"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="A123:C123"/>
-    <mergeCell ref="A132:C132"/>
-    <mergeCell ref="A142:C142"/>
-    <mergeCell ref="A148:E148"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="C149:E149"/>
-    <mergeCell ref="A183:E183"/>
-    <mergeCell ref="C147:D147"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C271:D271"/>
-    <mergeCell ref="A153:E153"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="C154:E154"/>
-    <mergeCell ref="A136:C136"/>
-    <mergeCell ref="C235:D235"/>
-    <mergeCell ref="A178:E178"/>
-    <mergeCell ref="A179:B179"/>
-    <mergeCell ref="C179:E179"/>
-    <mergeCell ref="A173:E173"/>
-    <mergeCell ref="A174:B174"/>
-    <mergeCell ref="C174:E174"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="68" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Meme Agile.xlsx
+++ b/Meme Agile.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13843d8ee8f93238/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A7ACC0-2B85-4738-91D5-6614886D27CF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{C5A7ACC0-2B85-4738-91D5-6614886D27CF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{B07900E1-E27A-4F64-A43A-E3D9414961CF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{BD1CD595-25D7-451D-99CB-E4C06CA26580}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="169">
   <si>
     <t>Product Backlog &amp; User Story</t>
   </si>
@@ -529,6 +529,9 @@
   </si>
   <si>
     <t>Sebagai [Investor] ingin mengupgrade UI agar dapat berkompetisi dengan persaingan yang ada pada industri</t>
+  </si>
+  <si>
+    <t>Sebagai [Customer] ingin navigation bar yang lebih mudah unutk dilihat agar tidak salah menekan dan membuang waktu saat membeli</t>
   </si>
 </sst>
 </file>
@@ -742,7 +745,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -786,19 +789,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -808,57 +865,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1483,7 +1489,7 @@
   <dimension ref="A1:G279"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A90" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+      <selection activeCell="A106" sqref="A106:B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1498,23 +1504,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:5" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C1" s="40"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="3:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
     </row>
     <row r="4" spans="3:5" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
     </row>
     <row r="6" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D6" s="6" t="s">
@@ -1545,18 +1551,18 @@
       </c>
     </row>
     <row r="18" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
     </row>
     <row r="20" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
     </row>
     <row r="22" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D22" s="9" t="s">
@@ -1645,15 +1651,15 @@
       <c r="A42" s="11"/>
     </row>
     <row r="43" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="27" t="s">
+      <c r="A43" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="28"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="46"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
@@ -1896,34 +1902,34 @@
       <c r="G55" s="16"/>
     </row>
     <row r="62" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A62" s="22" t="s">
+      <c r="A62" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="B62" s="22"/>
+      <c r="B62" s="26"/>
     </row>
     <row r="63" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A63" s="22" t="s">
+      <c r="A63" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B63" s="22"/>
+      <c r="B63" s="26"/>
     </row>
     <row r="64" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A64" s="44" t="s">
+      <c r="A64" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="B64" s="44"/>
+      <c r="B64" s="42"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="35" t="s">
+      <c r="A65" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="B65" s="25"/>
+      <c r="B65" s="37"/>
     </row>
     <row r="66" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A66" s="22" t="s">
+      <c r="A66" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B66" s="22"/>
+      <c r="B66" s="26"/>
     </row>
     <row r="67" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
@@ -1982,34 +1988,34 @@
       </c>
     </row>
     <row r="75" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A75" s="22" t="s">
+      <c r="A75" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="B75" s="22"/>
+      <c r="B75" s="26"/>
     </row>
     <row r="76" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A76" s="22" t="s">
+      <c r="A76" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="B76" s="22"/>
+      <c r="B76" s="26"/>
     </row>
     <row r="77" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A77" s="23" t="s">
+      <c r="A77" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="B77" s="23"/>
+      <c r="B77" s="35"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="35" t="s">
+      <c r="A78" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="B78" s="25"/>
+      <c r="B78" s="37"/>
     </row>
     <row r="79" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A79" s="21" t="s">
+      <c r="A79" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="B79" s="21"/>
+      <c r="B79" s="38"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
@@ -2028,34 +2034,34 @@
       </c>
     </row>
     <row r="83" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A83" s="22" t="s">
+      <c r="A83" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="B83" s="22"/>
+      <c r="B83" s="26"/>
     </row>
     <row r="84" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A84" s="22" t="s">
+      <c r="A84" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="B84" s="22"/>
+      <c r="B84" s="26"/>
     </row>
     <row r="85" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A85" s="23" t="s">
+      <c r="A85" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="B85" s="23"/>
+      <c r="B85" s="35"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="24" t="s">
+      <c r="A86" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="B86" s="25"/>
+      <c r="B86" s="37"/>
     </row>
     <row r="87" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A87" s="21" t="s">
+      <c r="A87" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="B87" s="21"/>
+      <c r="B87" s="38"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
@@ -2074,32 +2080,32 @@
       </c>
     </row>
     <row r="91" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A91" s="22" t="s">
+      <c r="A91" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="B91" s="22"/>
+      <c r="B91" s="26"/>
     </row>
     <row r="92" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A92" s="22" t="s">
+      <c r="A92" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="B92" s="22"/>
+      <c r="B92" s="26"/>
     </row>
     <row r="93" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A93" s="23" t="s">
+      <c r="A93" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="B93" s="23"/>
+      <c r="B93" s="35"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="24"/>
-      <c r="B94" s="25"/>
+      <c r="A94" s="36"/>
+      <c r="B94" s="37"/>
     </row>
     <row r="95" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A95" s="21" t="s">
+      <c r="A95" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="B95" s="21"/>
+      <c r="B95" s="38"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
@@ -2117,37 +2123,41 @@
         <v>167</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
+    <row r="98" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>556</v>
+      </c>
+      <c r="B98" s="21" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="100" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A100" s="22" t="s">
+      <c r="A100" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="B100" s="22"/>
+      <c r="B100" s="26"/>
     </row>
     <row r="101" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A101" s="22" t="s">
+      <c r="A101" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="B101" s="22"/>
+      <c r="B101" s="26"/>
     </row>
     <row r="102" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A102" s="23" t="s">
+      <c r="A102" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="B102" s="23"/>
+      <c r="B102" s="35"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="24"/>
-      <c r="B103" s="25"/>
+      <c r="A103" s="36"/>
+      <c r="B103" s="37"/>
     </row>
     <row r="104" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A104" s="21" t="s">
+      <c r="A104" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="B104" s="21"/>
+      <c r="B104" s="38"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
@@ -2159,13 +2169,13 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
+      <c r="B106" s="21"/>
     </row>
     <row r="108" spans="1:6" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C108" s="22" t="s">
+      <c r="C108" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="D108" s="22"/>
+      <c r="D108" s="26"/>
     </row>
     <row r="109" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
@@ -2408,17 +2418,17 @@
       </c>
     </row>
     <row r="122" spans="1:6" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C122" s="22" t="s">
+      <c r="C122" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="D122" s="22"/>
+      <c r="D122" s="26"/>
     </row>
     <row r="123" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A123" s="36" t="s">
+      <c r="A123" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="B123" s="36"/>
-      <c r="C123" s="36"/>
+      <c r="B123" s="43"/>
+      <c r="C123" s="43"/>
     </row>
     <row r="124" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
@@ -2480,11 +2490,11 @@
       <c r="C130" s="1"/>
     </row>
     <row r="132" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="37" t="s">
+      <c r="A132" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="B132" s="37"/>
-      <c r="C132" s="37"/>
+      <c r="B132" s="25"/>
+      <c r="C132" s="25"/>
     </row>
     <row r="133" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
@@ -2509,11 +2519,11 @@
       </c>
     </row>
     <row r="136" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="37" t="s">
+      <c r="A136" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="B136" s="37"/>
-      <c r="C136" s="37"/>
+      <c r="B136" s="25"/>
+      <c r="C136" s="25"/>
     </row>
     <row r="137" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
@@ -2561,11 +2571,11 @@
       <c r="C141" s="19"/>
     </row>
     <row r="142" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A142" s="37" t="s">
+      <c r="A142" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="B142" s="37"/>
-      <c r="C142" s="37"/>
+      <c r="B142" s="25"/>
+      <c r="C142" s="25"/>
     </row>
     <row r="143" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
@@ -2588,30 +2598,30 @@
       </c>
     </row>
     <row r="147" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C147" s="22" t="s">
+      <c r="C147" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="D147" s="22"/>
+      <c r="D147" s="26"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="38" t="s">
+      <c r="A148" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="B148" s="38"/>
-      <c r="C148" s="38"/>
-      <c r="D148" s="38"/>
-      <c r="E148" s="38"/>
+      <c r="B148" s="23"/>
+      <c r="C148" s="23"/>
+      <c r="D148" s="23"/>
+      <c r="E148" s="23"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="39" t="s">
+      <c r="A149" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="B149" s="39"/>
-      <c r="C149" s="39" t="s">
+      <c r="B149" s="24"/>
+      <c r="C149" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="D149" s="39"/>
-      <c r="E149" s="39"/>
+      <c r="D149" s="24"/>
+      <c r="E149" s="24"/>
     </row>
     <row r="150" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
@@ -2648,24 +2658,24 @@
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="38" t="s">
+      <c r="A153" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="B153" s="38"/>
-      <c r="C153" s="38"/>
-      <c r="D153" s="38"/>
-      <c r="E153" s="38"/>
+      <c r="B153" s="23"/>
+      <c r="C153" s="23"/>
+      <c r="D153" s="23"/>
+      <c r="E153" s="23"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="39" t="s">
+      <c r="A154" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="B154" s="39"/>
-      <c r="C154" s="39" t="s">
+      <c r="B154" s="24"/>
+      <c r="C154" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="D154" s="39"/>
-      <c r="E154" s="39"/>
+      <c r="D154" s="24"/>
+      <c r="E154" s="24"/>
     </row>
     <row r="155" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
@@ -2702,24 +2712,24 @@
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="32" t="s">
+      <c r="A158" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="B158" s="33"/>
-      <c r="C158" s="33"/>
-      <c r="D158" s="33"/>
-      <c r="E158" s="34"/>
+      <c r="B158" s="28"/>
+      <c r="C158" s="28"/>
+      <c r="D158" s="28"/>
+      <c r="E158" s="29"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="29" t="s">
+      <c r="A159" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="B159" s="30"/>
-      <c r="C159" s="29" t="s">
+      <c r="B159" s="31"/>
+      <c r="C159" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="D159" s="31"/>
-      <c r="E159" s="30"/>
+      <c r="D159" s="32"/>
+      <c r="E159" s="31"/>
     </row>
     <row r="160" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
@@ -2756,24 +2766,24 @@
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="32" t="s">
+      <c r="A163" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="B163" s="33"/>
-      <c r="C163" s="33"/>
-      <c r="D163" s="33"/>
-      <c r="E163" s="34"/>
+      <c r="B163" s="28"/>
+      <c r="C163" s="28"/>
+      <c r="D163" s="28"/>
+      <c r="E163" s="29"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="29" t="s">
+      <c r="A164" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="B164" s="30"/>
-      <c r="C164" s="29" t="s">
+      <c r="B164" s="31"/>
+      <c r="C164" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="D164" s="31"/>
-      <c r="E164" s="30"/>
+      <c r="D164" s="32"/>
+      <c r="E164" s="31"/>
     </row>
     <row r="165" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
@@ -2810,24 +2820,24 @@
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="32" t="s">
+      <c r="A168" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="B168" s="33"/>
-      <c r="C168" s="33"/>
-      <c r="D168" s="33"/>
-      <c r="E168" s="34"/>
+      <c r="B168" s="28"/>
+      <c r="C168" s="28"/>
+      <c r="D168" s="28"/>
+      <c r="E168" s="29"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="29" t="s">
+      <c r="A169" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="B169" s="30"/>
-      <c r="C169" s="29" t="s">
+      <c r="B169" s="31"/>
+      <c r="C169" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="D169" s="31"/>
-      <c r="E169" s="30"/>
+      <c r="D169" s="32"/>
+      <c r="E169" s="31"/>
     </row>
     <row r="170" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
@@ -2854,24 +2864,24 @@
       <c r="E171" s="1"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="32" t="s">
+      <c r="A173" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="B173" s="33"/>
-      <c r="C173" s="33"/>
-      <c r="D173" s="33"/>
-      <c r="E173" s="34"/>
+      <c r="B173" s="28"/>
+      <c r="C173" s="28"/>
+      <c r="D173" s="28"/>
+      <c r="E173" s="29"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="29" t="s">
+      <c r="A174" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="B174" s="30"/>
-      <c r="C174" s="29" t="s">
+      <c r="B174" s="31"/>
+      <c r="C174" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="D174" s="31"/>
-      <c r="E174" s="30"/>
+      <c r="D174" s="32"/>
+      <c r="E174" s="31"/>
     </row>
     <row r="175" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
@@ -2898,24 +2908,24 @@
       <c r="E176" s="1"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="32" t="s">
+      <c r="A178" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="B178" s="33"/>
-      <c r="C178" s="33"/>
-      <c r="D178" s="33"/>
-      <c r="E178" s="34"/>
+      <c r="B178" s="28"/>
+      <c r="C178" s="28"/>
+      <c r="D178" s="28"/>
+      <c r="E178" s="29"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="29" t="s">
+      <c r="A179" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="B179" s="30"/>
-      <c r="C179" s="29" t="s">
+      <c r="B179" s="31"/>
+      <c r="C179" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="D179" s="31"/>
-      <c r="E179" s="30"/>
+      <c r="D179" s="32"/>
+      <c r="E179" s="31"/>
     </row>
     <row r="180" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
@@ -2942,24 +2952,24 @@
       <c r="E181" s="1"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="32" t="s">
+      <c r="A183" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="B183" s="33"/>
-      <c r="C183" s="33"/>
-      <c r="D183" s="33"/>
-      <c r="E183" s="34"/>
+      <c r="B183" s="28"/>
+      <c r="C183" s="28"/>
+      <c r="D183" s="28"/>
+      <c r="E183" s="29"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="29" t="s">
+      <c r="A184" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="B184" s="30"/>
-      <c r="C184" s="29" t="s">
+      <c r="B184" s="31"/>
+      <c r="C184" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="D184" s="31"/>
-      <c r="E184" s="30"/>
+      <c r="D184" s="32"/>
+      <c r="E184" s="31"/>
     </row>
     <row r="185" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
@@ -2986,10 +2996,10 @@
       <c r="E186" s="1"/>
     </row>
     <row r="188" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C188" s="22" t="s">
+      <c r="C188" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="D188" s="22"/>
+      <c r="D188" s="26"/>
     </row>
     <row r="229" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B229" s="18" t="s">
@@ -2997,10 +3007,10 @@
       </c>
     </row>
     <row r="231" spans="2:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C231" s="22" t="s">
+      <c r="C231" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="D231" s="22"/>
+      <c r="D231" s="26"/>
     </row>
     <row r="233" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B233" s="18" t="s">
@@ -3008,16 +3018,16 @@
       </c>
     </row>
     <row r="235" spans="2:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C235" s="22" t="s">
+      <c r="C235" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="D235" s="22"/>
+      <c r="D235" s="26"/>
     </row>
     <row r="271" spans="3:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C271" s="45" t="s">
+      <c r="C271" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="D271" s="45"/>
+      <c r="D271" s="22"/>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
@@ -3041,18 +3051,44 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="C271:D271"/>
-    <mergeCell ref="A153:E153"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="C154:E154"/>
-    <mergeCell ref="A136:C136"/>
-    <mergeCell ref="C235:D235"/>
-    <mergeCell ref="A178:E178"/>
-    <mergeCell ref="A179:B179"/>
-    <mergeCell ref="C179:E179"/>
-    <mergeCell ref="A173:E173"/>
-    <mergeCell ref="A174:B174"/>
-    <mergeCell ref="C174:E174"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="C188:D188"/>
+    <mergeCell ref="A184:B184"/>
+    <mergeCell ref="C184:E184"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:B169"/>
+    <mergeCell ref="C169:E169"/>
+    <mergeCell ref="A163:E163"/>
+    <mergeCell ref="A164:B164"/>
+    <mergeCell ref="C164:E164"/>
+    <mergeCell ref="A158:E158"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="C159:E159"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="C231:D231"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="A123:C123"/>
+    <mergeCell ref="A132:C132"/>
+    <mergeCell ref="A142:C142"/>
+    <mergeCell ref="A148:E148"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="C149:E149"/>
+    <mergeCell ref="A183:E183"/>
+    <mergeCell ref="C147:D147"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:B94"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A102:B102"/>
     <mergeCell ref="A103:B103"/>
@@ -3069,44 +3105,18 @@
     <mergeCell ref="A62:B62"/>
     <mergeCell ref="A63:B63"/>
     <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="C231:D231"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="A123:C123"/>
-    <mergeCell ref="A132:C132"/>
-    <mergeCell ref="A142:C142"/>
-    <mergeCell ref="A148:E148"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="C149:E149"/>
-    <mergeCell ref="A183:E183"/>
-    <mergeCell ref="C147:D147"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="C188:D188"/>
-    <mergeCell ref="A184:B184"/>
-    <mergeCell ref="C184:E184"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:B169"/>
-    <mergeCell ref="C169:E169"/>
-    <mergeCell ref="A163:E163"/>
-    <mergeCell ref="A164:B164"/>
-    <mergeCell ref="C164:E164"/>
-    <mergeCell ref="A158:E158"/>
-    <mergeCell ref="A159:B159"/>
-    <mergeCell ref="C159:E159"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C271:D271"/>
+    <mergeCell ref="A153:E153"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="C154:E154"/>
+    <mergeCell ref="A136:C136"/>
+    <mergeCell ref="C235:D235"/>
+    <mergeCell ref="A178:E178"/>
+    <mergeCell ref="A179:B179"/>
+    <mergeCell ref="C179:E179"/>
+    <mergeCell ref="A173:E173"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="C174:E174"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="68" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Meme Agile.xlsx
+++ b/Meme Agile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13843d8ee8f93238/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D\Git Collab\kelompok_meme_laporan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{C5A7ACC0-2B85-4738-91D5-6614886D27CF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{B07900E1-E27A-4F64-A43A-E3D9414961CF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F229D5-BCDB-4DE3-BD58-07AFEA72BA16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{BD1CD595-25D7-451D-99CB-E4C06CA26580}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BD1CD595-25D7-451D-99CB-E4C06CA26580}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -745,7 +745,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -786,66 +786,69 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -855,16 +858,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1488,8 +1482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C4E763-3BF0-4DCE-A690-0A0674D041AB}">
   <dimension ref="A1:G279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A106" sqref="A106:B106"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1504,23 +1498,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:5" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C1" s="33"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="3:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
     </row>
     <row r="4" spans="3:5" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
     </row>
     <row r="6" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D6" s="6" t="s">
@@ -1551,18 +1545,18 @@
       </c>
     </row>
     <row r="18" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
     </row>
     <row r="20" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
     </row>
     <row r="22" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D22" s="9" t="s">
@@ -1651,15 +1645,15 @@
       <c r="A42" s="11"/>
     </row>
     <row r="43" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="45" t="s">
+      <c r="A43" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="45"/>
-      <c r="C43" s="45"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="45"/>
-      <c r="F43" s="45"/>
-      <c r="G43" s="46"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="27"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
@@ -1902,34 +1896,34 @@
       <c r="G55" s="16"/>
     </row>
     <row r="62" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A62" s="26" t="s">
+      <c r="A62" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B62" s="26"/>
+      <c r="B62" s="21"/>
     </row>
     <row r="63" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A63" s="26" t="s">
+      <c r="A63" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B63" s="26"/>
+      <c r="B63" s="21"/>
     </row>
     <row r="64" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A64" s="42" t="s">
+      <c r="A64" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="B64" s="42"/>
+      <c r="B64" s="43"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="39" t="s">
+      <c r="A65" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B65" s="37"/>
+      <c r="B65" s="24"/>
     </row>
     <row r="66" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A66" s="26" t="s">
+      <c r="A66" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B66" s="26"/>
+      <c r="B66" s="21"/>
     </row>
     <row r="67" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
@@ -1988,34 +1982,34 @@
       </c>
     </row>
     <row r="75" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A75" s="26" t="s">
+      <c r="A75" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B75" s="26"/>
+      <c r="B75" s="21"/>
     </row>
     <row r="76" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A76" s="26" t="s">
+      <c r="A76" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="B76" s="26"/>
+      <c r="B76" s="21"/>
     </row>
     <row r="77" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A77" s="35" t="s">
+      <c r="A77" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B77" s="35"/>
+      <c r="B77" s="22"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="39" t="s">
+      <c r="A78" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="B78" s="37"/>
+      <c r="B78" s="24"/>
     </row>
     <row r="79" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A79" s="38" t="s">
+      <c r="A79" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B79" s="38"/>
+      <c r="B79" s="20"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
@@ -2034,34 +2028,34 @@
       </c>
     </row>
     <row r="83" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A83" s="26" t="s">
+      <c r="A83" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B83" s="26"/>
+      <c r="B83" s="21"/>
     </row>
     <row r="84" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A84" s="26" t="s">
+      <c r="A84" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="B84" s="26"/>
+      <c r="B84" s="21"/>
     </row>
     <row r="85" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A85" s="35" t="s">
+      <c r="A85" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B85" s="35"/>
+      <c r="B85" s="22"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="36" t="s">
+      <c r="A86" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B86" s="37"/>
+      <c r="B86" s="24"/>
     </row>
     <row r="87" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A87" s="38" t="s">
+      <c r="A87" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B87" s="38"/>
+      <c r="B87" s="20"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
@@ -2080,32 +2074,32 @@
       </c>
     </row>
     <row r="91" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A91" s="26" t="s">
+      <c r="A91" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B91" s="26"/>
+      <c r="B91" s="21"/>
     </row>
     <row r="92" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A92" s="26" t="s">
+      <c r="A92" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="B92" s="26"/>
+      <c r="B92" s="21"/>
     </row>
     <row r="93" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A93" s="35" t="s">
+      <c r="A93" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B93" s="35"/>
+      <c r="B93" s="22"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="36"/>
-      <c r="B94" s="37"/>
+      <c r="A94" s="23"/>
+      <c r="B94" s="24"/>
     </row>
     <row r="95" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A95" s="38" t="s">
+      <c r="A95" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B95" s="38"/>
+      <c r="B95" s="20"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
@@ -2117,47 +2111,47 @@
     </row>
     <row r="97" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>557</v>
-      </c>
-      <c r="B97" s="20" t="s">
+        <v>559</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>556</v>
-      </c>
-      <c r="B98" s="21" t="s">
+        <v>560</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A100" s="26" t="s">
+      <c r="A100" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B100" s="26"/>
+      <c r="B100" s="21"/>
     </row>
     <row r="101" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A101" s="26" t="s">
+      <c r="A101" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="B101" s="26"/>
+      <c r="B101" s="21"/>
     </row>
     <row r="102" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A102" s="35" t="s">
+      <c r="A102" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B102" s="35"/>
+      <c r="B102" s="22"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="36"/>
-      <c r="B103" s="37"/>
+      <c r="A103" s="23"/>
+      <c r="B103" s="24"/>
     </row>
     <row r="104" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A104" s="38" t="s">
+      <c r="A104" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B104" s="38"/>
+      <c r="B104" s="20"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
@@ -2168,14 +2162,16 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="1"/>
-      <c r="B106" s="21"/>
+      <c r="A106" s="1">
+        <v>561</v>
+      </c>
+      <c r="B106" s="1"/>
     </row>
     <row r="108" spans="1:6" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C108" s="26" t="s">
+      <c r="C108" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D108" s="26"/>
+      <c r="D108" s="21"/>
     </row>
     <row r="109" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
@@ -2418,17 +2414,17 @@
       </c>
     </row>
     <row r="122" spans="1:6" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C122" s="26" t="s">
+      <c r="C122" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="D122" s="26"/>
+      <c r="D122" s="21"/>
     </row>
     <row r="123" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A123" s="43" t="s">
+      <c r="A123" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="B123" s="43"/>
-      <c r="C123" s="43"/>
+      <c r="B123" s="35"/>
+      <c r="C123" s="35"/>
     </row>
     <row r="124" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
@@ -2490,11 +2486,11 @@
       <c r="C130" s="1"/>
     </row>
     <row r="132" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="25" t="s">
+      <c r="A132" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="B132" s="25"/>
-      <c r="C132" s="25"/>
+      <c r="B132" s="36"/>
+      <c r="C132" s="36"/>
     </row>
     <row r="133" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
@@ -2519,11 +2515,11 @@
       </c>
     </row>
     <row r="136" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="25" t="s">
+      <c r="A136" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="B136" s="25"/>
-      <c r="C136" s="25"/>
+      <c r="B136" s="36"/>
+      <c r="C136" s="36"/>
     </row>
     <row r="137" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
@@ -2571,11 +2567,11 @@
       <c r="C141" s="19"/>
     </row>
     <row r="142" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A142" s="25" t="s">
+      <c r="A142" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="B142" s="25"/>
-      <c r="C142" s="25"/>
+      <c r="B142" s="36"/>
+      <c r="C142" s="36"/>
     </row>
     <row r="143" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
@@ -2598,30 +2594,30 @@
       </c>
     </row>
     <row r="147" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C147" s="26" t="s">
+      <c r="C147" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="D147" s="26"/>
+      <c r="D147" s="21"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="23" t="s">
+      <c r="A148" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="B148" s="23"/>
-      <c r="C148" s="23"/>
-      <c r="D148" s="23"/>
-      <c r="E148" s="23"/>
+      <c r="B148" s="37"/>
+      <c r="C148" s="37"/>
+      <c r="D148" s="37"/>
+      <c r="E148" s="37"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="24" t="s">
+      <c r="A149" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="B149" s="24"/>
-      <c r="C149" s="24" t="s">
+      <c r="B149" s="38"/>
+      <c r="C149" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="D149" s="24"/>
-      <c r="E149" s="24"/>
+      <c r="D149" s="38"/>
+      <c r="E149" s="38"/>
     </row>
     <row r="150" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
@@ -2658,24 +2654,24 @@
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="23" t="s">
+      <c r="A153" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="B153" s="23"/>
-      <c r="C153" s="23"/>
-      <c r="D153" s="23"/>
-      <c r="E153" s="23"/>
+      <c r="B153" s="37"/>
+      <c r="C153" s="37"/>
+      <c r="D153" s="37"/>
+      <c r="E153" s="37"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="24" t="s">
+      <c r="A154" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="B154" s="24"/>
-      <c r="C154" s="24" t="s">
+      <c r="B154" s="38"/>
+      <c r="C154" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="D154" s="24"/>
-      <c r="E154" s="24"/>
+      <c r="D154" s="38"/>
+      <c r="E154" s="38"/>
     </row>
     <row r="155" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
@@ -2712,24 +2708,24 @@
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="27" t="s">
+      <c r="A158" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="B158" s="28"/>
-      <c r="C158" s="28"/>
-      <c r="D158" s="28"/>
-      <c r="E158" s="29"/>
+      <c r="B158" s="32"/>
+      <c r="C158" s="32"/>
+      <c r="D158" s="32"/>
+      <c r="E158" s="33"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="30" t="s">
+      <c r="A159" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="B159" s="31"/>
-      <c r="C159" s="30" t="s">
+      <c r="B159" s="29"/>
+      <c r="C159" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="D159" s="32"/>
-      <c r="E159" s="31"/>
+      <c r="D159" s="30"/>
+      <c r="E159" s="29"/>
     </row>
     <row r="160" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
@@ -2766,24 +2762,24 @@
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="27" t="s">
+      <c r="A163" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="B163" s="28"/>
-      <c r="C163" s="28"/>
-      <c r="D163" s="28"/>
-      <c r="E163" s="29"/>
+      <c r="B163" s="32"/>
+      <c r="C163" s="32"/>
+      <c r="D163" s="32"/>
+      <c r="E163" s="33"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="30" t="s">
+      <c r="A164" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="B164" s="31"/>
-      <c r="C164" s="30" t="s">
+      <c r="B164" s="29"/>
+      <c r="C164" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="D164" s="32"/>
-      <c r="E164" s="31"/>
+      <c r="D164" s="30"/>
+      <c r="E164" s="29"/>
     </row>
     <row r="165" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
@@ -2820,24 +2816,24 @@
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="27" t="s">
+      <c r="A168" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="B168" s="28"/>
-      <c r="C168" s="28"/>
-      <c r="D168" s="28"/>
-      <c r="E168" s="29"/>
+      <c r="B168" s="32"/>
+      <c r="C168" s="32"/>
+      <c r="D168" s="32"/>
+      <c r="E168" s="33"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="30" t="s">
+      <c r="A169" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="B169" s="31"/>
-      <c r="C169" s="30" t="s">
+      <c r="B169" s="29"/>
+      <c r="C169" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="D169" s="32"/>
-      <c r="E169" s="31"/>
+      <c r="D169" s="30"/>
+      <c r="E169" s="29"/>
     </row>
     <row r="170" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
@@ -2864,24 +2860,24 @@
       <c r="E171" s="1"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="27" t="s">
+      <c r="A173" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="B173" s="28"/>
-      <c r="C173" s="28"/>
-      <c r="D173" s="28"/>
-      <c r="E173" s="29"/>
+      <c r="B173" s="32"/>
+      <c r="C173" s="32"/>
+      <c r="D173" s="32"/>
+      <c r="E173" s="33"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="30" t="s">
+      <c r="A174" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="B174" s="31"/>
-      <c r="C174" s="30" t="s">
+      <c r="B174" s="29"/>
+      <c r="C174" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="D174" s="32"/>
-      <c r="E174" s="31"/>
+      <c r="D174" s="30"/>
+      <c r="E174" s="29"/>
     </row>
     <row r="175" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
@@ -2908,24 +2904,24 @@
       <c r="E176" s="1"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="27" t="s">
+      <c r="A178" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="B178" s="28"/>
-      <c r="C178" s="28"/>
-      <c r="D178" s="28"/>
-      <c r="E178" s="29"/>
+      <c r="B178" s="32"/>
+      <c r="C178" s="32"/>
+      <c r="D178" s="32"/>
+      <c r="E178" s="33"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="30" t="s">
+      <c r="A179" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="B179" s="31"/>
-      <c r="C179" s="30" t="s">
+      <c r="B179" s="29"/>
+      <c r="C179" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="D179" s="32"/>
-      <c r="E179" s="31"/>
+      <c r="D179" s="30"/>
+      <c r="E179" s="29"/>
     </row>
     <row r="180" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
@@ -2952,24 +2948,24 @@
       <c r="E181" s="1"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="27" t="s">
+      <c r="A183" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="B183" s="28"/>
-      <c r="C183" s="28"/>
-      <c r="D183" s="28"/>
-      <c r="E183" s="29"/>
+      <c r="B183" s="32"/>
+      <c r="C183" s="32"/>
+      <c r="D183" s="32"/>
+      <c r="E183" s="33"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="30" t="s">
+      <c r="A184" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="B184" s="31"/>
-      <c r="C184" s="30" t="s">
+      <c r="B184" s="29"/>
+      <c r="C184" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="D184" s="32"/>
-      <c r="E184" s="31"/>
+      <c r="D184" s="30"/>
+      <c r="E184" s="29"/>
     </row>
     <row r="185" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
@@ -2996,10 +2992,10 @@
       <c r="E186" s="1"/>
     </row>
     <row r="188" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C188" s="26" t="s">
+      <c r="C188" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D188" s="26"/>
+      <c r="D188" s="21"/>
     </row>
     <row r="229" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B229" s="18" t="s">
@@ -3007,10 +3003,10 @@
       </c>
     </row>
     <row r="231" spans="2:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C231" s="26" t="s">
+      <c r="C231" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="D231" s="26"/>
+      <c r="D231" s="21"/>
     </row>
     <row r="233" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B233" s="18" t="s">
@@ -3018,16 +3014,16 @@
       </c>
     </row>
     <row r="235" spans="2:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C235" s="26" t="s">
+      <c r="C235" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D235" s="26"/>
+      <c r="D235" s="21"/>
     </row>
     <row r="271" spans="3:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C271" s="22" t="s">
+      <c r="C271" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="D271" s="22"/>
+      <c r="D271" s="44"/>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
@@ -3051,12 +3047,50 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C271:D271"/>
+    <mergeCell ref="A153:E153"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="C154:E154"/>
+    <mergeCell ref="A136:C136"/>
+    <mergeCell ref="C235:D235"/>
+    <mergeCell ref="A178:E178"/>
+    <mergeCell ref="A179:B179"/>
+    <mergeCell ref="C179:E179"/>
+    <mergeCell ref="A173:E173"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="C174:E174"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="C231:D231"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="A123:C123"/>
+    <mergeCell ref="A132:C132"/>
+    <mergeCell ref="A142:C142"/>
+    <mergeCell ref="A148:E148"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="C149:E149"/>
+    <mergeCell ref="A183:E183"/>
+    <mergeCell ref="C147:D147"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:B94"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="A43:G43"/>
@@ -3073,50 +3107,12 @@
     <mergeCell ref="A159:B159"/>
     <mergeCell ref="C159:E159"/>
     <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="C231:D231"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="A123:C123"/>
-    <mergeCell ref="A132:C132"/>
-    <mergeCell ref="A142:C142"/>
-    <mergeCell ref="A148:E148"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="C149:E149"/>
-    <mergeCell ref="A183:E183"/>
-    <mergeCell ref="C147:D147"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C271:D271"/>
-    <mergeCell ref="A153:E153"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="C154:E154"/>
-    <mergeCell ref="A136:C136"/>
-    <mergeCell ref="C235:D235"/>
-    <mergeCell ref="A178:E178"/>
-    <mergeCell ref="A179:B179"/>
-    <mergeCell ref="C179:E179"/>
-    <mergeCell ref="A173:E173"/>
-    <mergeCell ref="A174:B174"/>
-    <mergeCell ref="C174:E174"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="68" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Meme Agile.xlsx
+++ b/Meme Agile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D\Git Collab\kelompok_meme_laporan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\github\kelompok_meme_laporan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F229D5-BCDB-4DE3-BD58-07AFEA72BA16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C73BD9-75AF-405F-A30F-219EB860ECF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BD1CD595-25D7-451D-99CB-E4C06CA26580}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BD1CD595-25D7-451D-99CB-E4C06CA26580}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="171">
   <si>
     <t>Product Backlog &amp; User Story</t>
   </si>
@@ -532,6 +532,12 @@
   </si>
   <si>
     <t>Sebagai [Customer] ingin navigation bar yang lebih mudah unutk dilihat agar tidak salah menekan dan membuang waktu saat membeli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meningkatkan peforma ui </t>
+  </si>
+  <si>
+    <t>Membantu Customer proses pesan aplikasi</t>
   </si>
 </sst>
 </file>
@@ -786,19 +792,70 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -808,57 +865,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1482,180 +1488,180 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C4E763-3BF0-4DCE-A690-0A0674D041AB}">
   <dimension ref="A1:G279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" customWidth="1"/>
+    <col min="2" max="2" width="35.7265625" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" customWidth="1"/>
+    <col min="4" max="4" width="27.7265625" customWidth="1"/>
+    <col min="5" max="5" width="21.54296875" customWidth="1"/>
+    <col min="6" max="6" width="13.26953125" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:5" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C1" s="39"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-    </row>
-    <row r="2" spans="3:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C2" s="21" t="s">
+    <row r="1" spans="3:5" s="4" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="C1" s="31"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+    </row>
+    <row r="2" spans="3:5" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="C2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-    </row>
-    <row r="4" spans="3:5" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="42" t="s">
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+    </row>
+    <row r="4" spans="3:5" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C4" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-    </row>
-    <row r="6" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+    </row>
+    <row r="6" spans="3:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D6" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D7" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D8" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="3:5" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="D13" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="3:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:5" ht="21" x14ac:dyDescent="0.5">
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="3:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:5" ht="21" x14ac:dyDescent="0.5">
       <c r="D15" s="7">
         <v>2023</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C18" s="21" t="s">
+    <row r="18" spans="1:5" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="C18" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-    </row>
-    <row r="20" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="C20" s="25" t="s">
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+    </row>
+    <row r="20" spans="1:5" ht="23.5" x14ac:dyDescent="0.35">
+      <c r="C20" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-    </row>
-    <row r="22" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+    </row>
+    <row r="22" spans="1:5" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="D22" s="9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="11"/>
     </row>
-    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="11"/>
     </row>
-    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="11"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="11"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="11"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="11"/>
     </row>
-    <row r="42" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="11"/>
     </row>
-    <row r="43" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="26" t="s">
+    <row r="43" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A43" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="27"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="44"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="15" t="s">
         <v>8</v>
       </c>
@@ -1678,7 +1684,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>551</v>
       </c>
@@ -1701,7 +1707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>552</v>
       </c>
@@ -1724,7 +1730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>553</v>
       </c>
@@ -1747,7 +1753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>554</v>
       </c>
@@ -1770,7 +1776,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>555</v>
       </c>
@@ -1793,7 +1799,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>556</v>
       </c>
@@ -1816,7 +1822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>557</v>
       </c>
@@ -1839,7 +1845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>558</v>
       </c>
@@ -1862,18 +1868,30 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>559</v>
       </c>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G53" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>560</v>
       </c>
@@ -1884,7 +1902,7 @@
       <c r="F54" s="16"/>
       <c r="G54" s="16"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>561</v>
       </c>
@@ -1895,37 +1913,37 @@
       <c r="F55" s="16"/>
       <c r="G55" s="16"/>
     </row>
-    <row r="62" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A62" s="21" t="s">
+    <row r="62" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A62" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B62" s="21"/>
-    </row>
-    <row r="63" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A63" s="21" t="s">
+      <c r="B62" s="24"/>
+    </row>
+    <row r="63" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A63" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B63" s="21"/>
-    </row>
-    <row r="64" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A64" s="43" t="s">
+      <c r="B63" s="24"/>
+    </row>
+    <row r="64" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A64" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B64" s="43"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="34" t="s">
+      <c r="B64" s="40"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B65" s="24"/>
-    </row>
-    <row r="66" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A66" s="21" t="s">
+      <c r="B65" s="35"/>
+    </row>
+    <row r="66" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A66" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B66" s="21"/>
-    </row>
-    <row r="67" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B66" s="24"/>
+    </row>
+    <row r="67" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="14" t="s">
         <v>8</v>
       </c>
@@ -1933,7 +1951,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A68" s="12">
         <v>551</v>
       </c>
@@ -1941,7 +1959,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A69" s="12">
         <v>552</v>
       </c>
@@ -1949,7 +1967,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="62" x14ac:dyDescent="0.35">
       <c r="A70" s="12">
         <v>553</v>
       </c>
@@ -1957,7 +1975,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="62" x14ac:dyDescent="0.35">
       <c r="A71" s="12">
         <v>554</v>
       </c>
@@ -1965,7 +1983,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A72" s="12">
         <v>555</v>
       </c>
@@ -1973,7 +1991,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A73" s="12">
         <v>557</v>
       </c>
@@ -1981,37 +1999,37 @@
         <v>51</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A75" s="21" t="s">
+    <row r="75" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A75" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B75" s="21"/>
-    </row>
-    <row r="76" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A76" s="21" t="s">
+      <c r="B75" s="24"/>
+    </row>
+    <row r="76" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A76" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B76" s="21"/>
-    </row>
-    <row r="77" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A77" s="22" t="s">
+      <c r="B76" s="24"/>
+    </row>
+    <row r="77" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A77" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B77" s="22"/>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="34" t="s">
+      <c r="B77" s="33"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="B78" s="24"/>
-    </row>
-    <row r="79" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A79" s="20" t="s">
+      <c r="B78" s="35"/>
+    </row>
+    <row r="79" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A79" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B79" s="20"/>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B79" s="36"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>8</v>
       </c>
@@ -2019,7 +2037,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>558</v>
       </c>
@@ -2027,37 +2045,37 @@
         <v>52</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A83" s="21" t="s">
+    <row r="83" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A83" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B83" s="21"/>
-    </row>
-    <row r="84" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A84" s="21" t="s">
+      <c r="B83" s="24"/>
+    </row>
+    <row r="84" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A84" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B84" s="21"/>
-    </row>
-    <row r="85" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A85" s="22" t="s">
+      <c r="B84" s="24"/>
+    </row>
+    <row r="85" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A85" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B85" s="22"/>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="23" t="s">
+      <c r="B85" s="33"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="B86" s="24"/>
-    </row>
-    <row r="87" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A87" s="20" t="s">
+      <c r="B86" s="35"/>
+    </row>
+    <row r="87" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A87" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B87" s="20"/>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B87" s="36"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
         <v>8</v>
       </c>
@@ -2065,7 +2083,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>556</v>
       </c>
@@ -2073,35 +2091,35 @@
         <v>57</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A91" s="21" t="s">
+    <row r="91" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A91" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B91" s="21"/>
-    </row>
-    <row r="92" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A92" s="21" t="s">
+      <c r="B91" s="24"/>
+    </row>
+    <row r="92" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A92" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="B92" s="21"/>
-    </row>
-    <row r="93" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A93" s="22" t="s">
+      <c r="B92" s="24"/>
+    </row>
+    <row r="93" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A93" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B93" s="22"/>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="23"/>
-      <c r="B94" s="24"/>
-    </row>
-    <row r="95" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A95" s="20" t="s">
+      <c r="B93" s="33"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" s="34"/>
+      <c r="B94" s="35"/>
+    </row>
+    <row r="95" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A95" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B95" s="20"/>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B95" s="36"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
         <v>8</v>
       </c>
@@ -2109,7 +2127,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>559</v>
       </c>
@@ -2117,7 +2135,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>560</v>
       </c>
@@ -2125,35 +2143,35 @@
         <v>168</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A100" s="21" t="s">
+    <row r="100" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A100" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B100" s="21"/>
-    </row>
-    <row r="101" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A101" s="21" t="s">
+      <c r="B100" s="24"/>
+    </row>
+    <row r="101" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A101" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="B101" s="21"/>
-    </row>
-    <row r="102" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A102" s="22" t="s">
+      <c r="B101" s="24"/>
+    </row>
+    <row r="102" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A102" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B102" s="22"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="23"/>
-      <c r="B103" s="24"/>
-    </row>
-    <row r="104" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A104" s="20" t="s">
+      <c r="B102" s="33"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A103" s="34"/>
+      <c r="B103" s="35"/>
+    </row>
+    <row r="104" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A104" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B104" s="20"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B104" s="36"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
         <v>8</v>
       </c>
@@ -2161,19 +2179,19 @@
         <v>45</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>561</v>
       </c>
       <c r="B106" s="1"/>
     </row>
-    <row r="108" spans="1:6" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C108" s="21" t="s">
+    <row r="108" spans="1:6" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="C108" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D108" s="21"/>
-    </row>
-    <row r="109" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="D108" s="24"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>63</v>
       </c>
@@ -2193,7 +2211,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>1</v>
       </c>
@@ -2213,7 +2231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>2</v>
       </c>
@@ -2233,7 +2251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>3</v>
       </c>
@@ -2253,7 +2271,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>4</v>
       </c>
@@ -2273,7 +2291,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>5</v>
       </c>
@@ -2293,7 +2311,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>6</v>
       </c>
@@ -2313,7 +2331,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>7</v>
       </c>
@@ -2333,7 +2351,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>8</v>
       </c>
@@ -2353,7 +2371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>9</v>
       </c>
@@ -2373,7 +2391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>10</v>
       </c>
@@ -2393,7 +2411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>11</v>
       </c>
@@ -2413,20 +2431,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:6" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C122" s="21" t="s">
+    <row r="122" spans="1:6" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="C122" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="D122" s="21"/>
-    </row>
-    <row r="123" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A123" s="35" t="s">
+      <c r="D122" s="24"/>
+    </row>
+    <row r="123" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A123" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="B123" s="35"/>
-      <c r="C123" s="35"/>
-    </row>
-    <row r="124" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B123" s="41"/>
+      <c r="C123" s="41"/>
+    </row>
+    <row r="124" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
         <v>85</v>
       </c>
@@ -2437,7 +2455,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
         <v>88</v>
       </c>
@@ -2448,7 +2466,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
         <v>89</v>
       </c>
@@ -2457,42 +2475,42 @@
       </c>
       <c r="C126" s="1"/>
     </row>
-    <row r="127" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
     </row>
-    <row r="128" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
     </row>
-    <row r="129" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
     </row>
-    <row r="132" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="36" t="s">
+    <row r="132" spans="1:3" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A132" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="B132" s="36"/>
-      <c r="C132" s="36"/>
-    </row>
-    <row r="133" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B132" s="23"/>
+      <c r="C132" s="23"/>
+    </row>
+    <row r="133" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
         <v>85</v>
       </c>
@@ -2503,7 +2521,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
         <v>95</v>
       </c>
@@ -2514,14 +2532,14 @@
         <v>98</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="36" t="s">
+    <row r="136" spans="1:3" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A136" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="B136" s="36"/>
-      <c r="C136" s="36"/>
-    </row>
-    <row r="137" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B136" s="23"/>
+      <c r="C136" s="23"/>
+    </row>
+    <row r="137" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
         <v>85</v>
       </c>
@@ -2532,7 +2550,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
         <v>94</v>
       </c>
@@ -2543,7 +2561,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A139" s="1"/>
       <c r="B139" s="1" t="s">
         <v>100</v>
@@ -2552,7 +2570,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A140" s="1"/>
       <c r="B140" s="1" t="s">
         <v>100</v>
@@ -2561,19 +2579,19 @@
         <v>143</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="19"/>
       <c r="B141" s="19"/>
       <c r="C141" s="19"/>
     </row>
-    <row r="142" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A142" s="36" t="s">
+    <row r="142" spans="1:3" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A142" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="B142" s="36"/>
-      <c r="C142" s="36"/>
-    </row>
-    <row r="143" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B142" s="23"/>
+      <c r="C142" s="23"/>
+    </row>
+    <row r="143" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
         <v>85</v>
       </c>
@@ -2584,7 +2602,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" s="1"/>
       <c r="B144" s="1" t="s">
         <v>100</v>
@@ -2593,33 +2611,33 @@
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C147" s="21" t="s">
+    <row r="147" spans="1:5" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="C147" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="D147" s="21"/>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="37" t="s">
+      <c r="D147" s="24"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A148" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="B148" s="37"/>
-      <c r="C148" s="37"/>
-      <c r="D148" s="37"/>
-      <c r="E148" s="37"/>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="38" t="s">
+      <c r="B148" s="21"/>
+      <c r="C148" s="21"/>
+      <c r="D148" s="21"/>
+      <c r="E148" s="21"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A149" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="B149" s="38"/>
-      <c r="C149" s="38" t="s">
+      <c r="B149" s="22"/>
+      <c r="C149" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="D149" s="38"/>
-      <c r="E149" s="38"/>
-    </row>
-    <row r="150" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D149" s="22"/>
+      <c r="E149" s="22"/>
+    </row>
+    <row r="150" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
         <v>102</v>
       </c>
@@ -2636,7 +2654,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
         <v>109</v>
       </c>
@@ -2653,27 +2671,27 @@
         <v>113</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="37" t="s">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A153" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="B153" s="37"/>
-      <c r="C153" s="37"/>
-      <c r="D153" s="37"/>
-      <c r="E153" s="37"/>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="38" t="s">
+      <c r="B153" s="21"/>
+      <c r="C153" s="21"/>
+      <c r="D153" s="21"/>
+      <c r="E153" s="21"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A154" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="B154" s="38"/>
-      <c r="C154" s="38" t="s">
+      <c r="B154" s="22"/>
+      <c r="C154" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="D154" s="38"/>
-      <c r="E154" s="38"/>
-    </row>
-    <row r="155" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D154" s="22"/>
+      <c r="E154" s="22"/>
+    </row>
+    <row r="155" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
         <v>102</v>
       </c>
@@ -2690,7 +2708,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
         <v>115</v>
       </c>
@@ -2707,16 +2725,16 @@
         <v>118</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="31" t="s">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A158" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="B158" s="32"/>
-      <c r="C158" s="32"/>
-      <c r="D158" s="32"/>
-      <c r="E158" s="33"/>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B158" s="26"/>
+      <c r="C158" s="26"/>
+      <c r="D158" s="26"/>
+      <c r="E158" s="27"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" s="28" t="s">
         <v>107</v>
       </c>
@@ -2727,7 +2745,7 @@
       <c r="D159" s="30"/>
       <c r="E159" s="29"/>
     </row>
-    <row r="160" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
         <v>102</v>
       </c>
@@ -2744,7 +2762,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
         <v>120</v>
       </c>
@@ -2761,16 +2779,16 @@
         <v>119</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="31" t="s">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A163" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="B163" s="32"/>
-      <c r="C163" s="32"/>
-      <c r="D163" s="32"/>
-      <c r="E163" s="33"/>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B163" s="26"/>
+      <c r="C163" s="26"/>
+      <c r="D163" s="26"/>
+      <c r="E163" s="27"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" s="28" t="s">
         <v>107</v>
       </c>
@@ -2781,7 +2799,7 @@
       <c r="D164" s="30"/>
       <c r="E164" s="29"/>
     </row>
-    <row r="165" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
         <v>102</v>
       </c>
@@ -2798,7 +2816,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
         <v>147</v>
       </c>
@@ -2815,16 +2833,16 @@
         <v>119</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="31" t="s">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A168" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="B168" s="32"/>
-      <c r="C168" s="32"/>
-      <c r="D168" s="32"/>
-      <c r="E168" s="33"/>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B168" s="26"/>
+      <c r="C168" s="26"/>
+      <c r="D168" s="26"/>
+      <c r="E168" s="27"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" s="28" t="s">
         <v>107</v>
       </c>
@@ -2835,7 +2853,7 @@
       <c r="D169" s="30"/>
       <c r="E169" s="29"/>
     </row>
-    <row r="170" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
         <v>102</v>
       </c>
@@ -2852,23 +2870,23 @@
         <v>106</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="31" t="s">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A173" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="B173" s="32"/>
-      <c r="C173" s="32"/>
-      <c r="D173" s="32"/>
-      <c r="E173" s="33"/>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B173" s="26"/>
+      <c r="C173" s="26"/>
+      <c r="D173" s="26"/>
+      <c r="E173" s="27"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" s="28" t="s">
         <v>107</v>
       </c>
@@ -2879,7 +2897,7 @@
       <c r="D174" s="30"/>
       <c r="E174" s="29"/>
     </row>
-    <row r="175" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
         <v>102</v>
       </c>
@@ -2896,23 +2914,23 @@
         <v>106</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="31" t="s">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A178" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="B178" s="32"/>
-      <c r="C178" s="32"/>
-      <c r="D178" s="32"/>
-      <c r="E178" s="33"/>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B178" s="26"/>
+      <c r="C178" s="26"/>
+      <c r="D178" s="26"/>
+      <c r="E178" s="27"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" s="28" t="s">
         <v>107</v>
       </c>
@@ -2923,7 +2941,7 @@
       <c r="D179" s="30"/>
       <c r="E179" s="29"/>
     </row>
-    <row r="180" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
         <v>102</v>
       </c>
@@ -2940,23 +2958,23 @@
         <v>106</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="31" t="s">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A183" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="B183" s="32"/>
-      <c r="C183" s="32"/>
-      <c r="D183" s="32"/>
-      <c r="E183" s="33"/>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B183" s="26"/>
+      <c r="C183" s="26"/>
+      <c r="D183" s="26"/>
+      <c r="E183" s="27"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" s="28" t="s">
         <v>107</v>
       </c>
@@ -2967,7 +2985,7 @@
       <c r="D184" s="30"/>
       <c r="E184" s="29"/>
     </row>
-    <row r="185" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
         <v>102</v>
       </c>
@@ -2984,81 +3002,107 @@
         <v>106</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
     </row>
-    <row r="188" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C188" s="21" t="s">
+    <row r="188" spans="1:5" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="C188" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="D188" s="21"/>
-    </row>
-    <row r="229" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D188" s="24"/>
+    </row>
+    <row r="229" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B229" s="18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="231" spans="2:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C231" s="21" t="s">
+    <row r="231" spans="2:4" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="C231" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D231" s="21"/>
-    </row>
-    <row r="233" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D231" s="24"/>
+    </row>
+    <row r="233" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B233" s="18" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="235" spans="2:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C235" s="21" t="s">
+    <row r="235" spans="2:4" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="C235" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D235" s="21"/>
-    </row>
-    <row r="271" spans="3:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C271" s="44" t="s">
+      <c r="D235" s="24"/>
+    </row>
+    <row r="271" spans="3:4" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C271" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="D271" s="44"/>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D271" s="20"/>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F278" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F279" t="s">
         <v>131</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="C271:D271"/>
-    <mergeCell ref="A153:E153"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="C154:E154"/>
-    <mergeCell ref="A136:C136"/>
-    <mergeCell ref="C235:D235"/>
-    <mergeCell ref="A178:E178"/>
-    <mergeCell ref="A179:B179"/>
-    <mergeCell ref="C179:E179"/>
-    <mergeCell ref="A173:E173"/>
-    <mergeCell ref="A174:B174"/>
-    <mergeCell ref="C174:E174"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="C188:D188"/>
+    <mergeCell ref="A184:B184"/>
+    <mergeCell ref="C184:E184"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:B169"/>
+    <mergeCell ref="C169:E169"/>
+    <mergeCell ref="A163:E163"/>
+    <mergeCell ref="A164:B164"/>
+    <mergeCell ref="C164:E164"/>
+    <mergeCell ref="A158:E158"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="C159:E159"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="C231:D231"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="A123:C123"/>
+    <mergeCell ref="A132:C132"/>
+    <mergeCell ref="A142:C142"/>
+    <mergeCell ref="A148:E148"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="C149:E149"/>
+    <mergeCell ref="A183:E183"/>
+    <mergeCell ref="C147:D147"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:B94"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A102:B102"/>
     <mergeCell ref="A103:B103"/>
@@ -3075,44 +3119,18 @@
     <mergeCell ref="A62:B62"/>
     <mergeCell ref="A63:B63"/>
     <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="C231:D231"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="A123:C123"/>
-    <mergeCell ref="A132:C132"/>
-    <mergeCell ref="A142:C142"/>
-    <mergeCell ref="A148:E148"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="C149:E149"/>
-    <mergeCell ref="A183:E183"/>
-    <mergeCell ref="C147:D147"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="C188:D188"/>
-    <mergeCell ref="A184:B184"/>
-    <mergeCell ref="C184:E184"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:B169"/>
-    <mergeCell ref="C169:E169"/>
-    <mergeCell ref="A163:E163"/>
-    <mergeCell ref="A164:B164"/>
-    <mergeCell ref="C164:E164"/>
-    <mergeCell ref="A158:E158"/>
-    <mergeCell ref="A159:B159"/>
-    <mergeCell ref="C159:E159"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C271:D271"/>
+    <mergeCell ref="A153:E153"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="C154:E154"/>
+    <mergeCell ref="A136:C136"/>
+    <mergeCell ref="C235:D235"/>
+    <mergeCell ref="A178:E178"/>
+    <mergeCell ref="A179:B179"/>
+    <mergeCell ref="C179:E179"/>
+    <mergeCell ref="A173:E173"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="C174:E174"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="68" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Meme Agile.xlsx
+++ b/Meme Agile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\github\kelompok_meme_laporan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C73BD9-75AF-405F-A30F-219EB860ECF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4B62FC-9F1F-482D-9D2D-040F2A732E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BD1CD595-25D7-451D-99CB-E4C06CA26580}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="173">
   <si>
     <t>Product Backlog &amp; User Story</t>
   </si>
@@ -538,6 +538,12 @@
   </si>
   <si>
     <t>Membantu Customer proses pesan aplikasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> agar tidak salah menekan dan membuang waktu saat membeli</t>
+  </si>
+  <si>
+    <t>Ingin Navigation Bar lebih mudah liat</t>
   </si>
 </sst>
 </file>
@@ -792,8 +798,56 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -801,51 +855,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -855,16 +870,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1488,8 +1494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C4E763-3BF0-4DCE-A690-0A0674D041AB}">
   <dimension ref="A1:G279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1504,23 +1510,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:5" s="4" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="C1" s="31"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="3:5" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
     </row>
     <row r="4" spans="3:5" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
     </row>
     <row r="6" spans="3:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D6" s="6" t="s">
@@ -1551,18 +1557,18 @@
       </c>
     </row>
     <row r="18" spans="1:5" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
     </row>
     <row r="20" spans="1:5" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
     </row>
     <row r="22" spans="1:5" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="D22" s="9" t="s">
@@ -1651,15 +1657,15 @@
       <c r="A42" s="11"/>
     </row>
     <row r="43" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A43" s="43" t="s">
+      <c r="A43" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="43"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="44"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="27"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="15" t="s">
@@ -1891,16 +1897,28 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>560</v>
       </c>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
+      <c r="B54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G54" s="16">
+        <v>5</v>
+      </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
@@ -1914,34 +1932,34 @@
       <c r="G55" s="16"/>
     </row>
     <row r="62" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A62" s="24" t="s">
+      <c r="A62" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B62" s="24"/>
+      <c r="B62" s="21"/>
     </row>
     <row r="63" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A63" s="24" t="s">
+      <c r="A63" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B63" s="24"/>
+      <c r="B63" s="21"/>
     </row>
     <row r="64" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A64" s="40" t="s">
+      <c r="A64" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="B64" s="40"/>
+      <c r="B64" s="43"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="37" t="s">
+      <c r="A65" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B65" s="35"/>
+      <c r="B65" s="24"/>
     </row>
     <row r="66" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A66" s="24" t="s">
+      <c r="A66" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B66" s="24"/>
+      <c r="B66" s="21"/>
     </row>
     <row r="67" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="14" t="s">
@@ -2000,34 +2018,34 @@
       </c>
     </row>
     <row r="75" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A75" s="24" t="s">
+      <c r="A75" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B75" s="24"/>
+      <c r="B75" s="21"/>
     </row>
     <row r="76" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A76" s="24" t="s">
+      <c r="A76" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="B76" s="24"/>
+      <c r="B76" s="21"/>
     </row>
     <row r="77" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A77" s="33" t="s">
+      <c r="A77" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B77" s="33"/>
+      <c r="B77" s="22"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" s="37" t="s">
+      <c r="A78" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="B78" s="35"/>
+      <c r="B78" s="24"/>
     </row>
     <row r="79" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A79" s="36" t="s">
+      <c r="A79" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B79" s="36"/>
+      <c r="B79" s="20"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
@@ -2046,34 +2064,34 @@
       </c>
     </row>
     <row r="83" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A83" s="24" t="s">
+      <c r="A83" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B83" s="24"/>
+      <c r="B83" s="21"/>
     </row>
     <row r="84" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A84" s="24" t="s">
+      <c r="A84" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="B84" s="24"/>
+      <c r="B84" s="21"/>
     </row>
     <row r="85" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A85" s="33" t="s">
+      <c r="A85" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B85" s="33"/>
+      <c r="B85" s="22"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" s="34" t="s">
+      <c r="A86" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B86" s="35"/>
+      <c r="B86" s="24"/>
     </row>
     <row r="87" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A87" s="36" t="s">
+      <c r="A87" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B87" s="36"/>
+      <c r="B87" s="20"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
@@ -2092,32 +2110,32 @@
       </c>
     </row>
     <row r="91" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A91" s="24" t="s">
+      <c r="A91" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B91" s="24"/>
+      <c r="B91" s="21"/>
     </row>
     <row r="92" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A92" s="24" t="s">
+      <c r="A92" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="B92" s="24"/>
+      <c r="B92" s="21"/>
     </row>
     <row r="93" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A93" s="33" t="s">
+      <c r="A93" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B93" s="33"/>
+      <c r="B93" s="22"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94" s="34"/>
-      <c r="B94" s="35"/>
+      <c r="A94" s="23"/>
+      <c r="B94" s="24"/>
     </row>
     <row r="95" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A95" s="36" t="s">
+      <c r="A95" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B95" s="36"/>
+      <c r="B95" s="20"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
@@ -2144,32 +2162,32 @@
       </c>
     </row>
     <row r="100" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A100" s="24" t="s">
+      <c r="A100" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B100" s="24"/>
+      <c r="B100" s="21"/>
     </row>
     <row r="101" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A101" s="24" t="s">
+      <c r="A101" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="B101" s="24"/>
+      <c r="B101" s="21"/>
     </row>
     <row r="102" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A102" s="33" t="s">
+      <c r="A102" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B102" s="33"/>
+      <c r="B102" s="22"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A103" s="34"/>
-      <c r="B103" s="35"/>
+      <c r="A103" s="23"/>
+      <c r="B103" s="24"/>
     </row>
     <row r="104" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A104" s="36" t="s">
+      <c r="A104" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B104" s="36"/>
+      <c r="B104" s="20"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
@@ -2186,10 +2204,10 @@
       <c r="B106" s="1"/>
     </row>
     <row r="108" spans="1:6" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="C108" s="24" t="s">
+      <c r="C108" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D108" s="24"/>
+      <c r="D108" s="21"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
@@ -2432,17 +2450,17 @@
       </c>
     </row>
     <row r="122" spans="1:6" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="C122" s="24" t="s">
+      <c r="C122" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="D122" s="24"/>
+      <c r="D122" s="21"/>
     </row>
     <row r="123" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A123" s="41" t="s">
+      <c r="A123" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="B123" s="41"/>
-      <c r="C123" s="41"/>
+      <c r="B123" s="35"/>
+      <c r="C123" s="35"/>
     </row>
     <row r="124" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
@@ -2504,11 +2522,11 @@
       <c r="C130" s="1"/>
     </row>
     <row r="132" spans="1:3" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A132" s="23" t="s">
+      <c r="A132" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="B132" s="23"/>
-      <c r="C132" s="23"/>
+      <c r="B132" s="36"/>
+      <c r="C132" s="36"/>
     </row>
     <row r="133" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
@@ -2533,11 +2551,11 @@
       </c>
     </row>
     <row r="136" spans="1:3" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A136" s="23" t="s">
+      <c r="A136" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="B136" s="23"/>
-      <c r="C136" s="23"/>
+      <c r="B136" s="36"/>
+      <c r="C136" s="36"/>
     </row>
     <row r="137" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
@@ -2585,11 +2603,11 @@
       <c r="C141" s="19"/>
     </row>
     <row r="142" spans="1:3" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A142" s="23" t="s">
+      <c r="A142" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="B142" s="23"/>
-      <c r="C142" s="23"/>
+      <c r="B142" s="36"/>
+      <c r="C142" s="36"/>
     </row>
     <row r="143" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
@@ -2612,30 +2630,30 @@
       </c>
     </row>
     <row r="147" spans="1:5" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="C147" s="24" t="s">
+      <c r="C147" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="D147" s="24"/>
+      <c r="D147" s="21"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A148" s="21" t="s">
+      <c r="A148" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="B148" s="21"/>
-      <c r="C148" s="21"/>
-      <c r="D148" s="21"/>
-      <c r="E148" s="21"/>
+      <c r="B148" s="37"/>
+      <c r="C148" s="37"/>
+      <c r="D148" s="37"/>
+      <c r="E148" s="37"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A149" s="22" t="s">
+      <c r="A149" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="B149" s="22"/>
-      <c r="C149" s="22" t="s">
+      <c r="B149" s="38"/>
+      <c r="C149" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="D149" s="22"/>
-      <c r="E149" s="22"/>
+      <c r="D149" s="38"/>
+      <c r="E149" s="38"/>
     </row>
     <row r="150" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
@@ -2672,24 +2690,24 @@
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A153" s="21" t="s">
+      <c r="A153" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="B153" s="21"/>
-      <c r="C153" s="21"/>
-      <c r="D153" s="21"/>
-      <c r="E153" s="21"/>
+      <c r="B153" s="37"/>
+      <c r="C153" s="37"/>
+      <c r="D153" s="37"/>
+      <c r="E153" s="37"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A154" s="22" t="s">
+      <c r="A154" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="B154" s="22"/>
-      <c r="C154" s="22" t="s">
+      <c r="B154" s="38"/>
+      <c r="C154" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="D154" s="22"/>
-      <c r="E154" s="22"/>
+      <c r="D154" s="38"/>
+      <c r="E154" s="38"/>
     </row>
     <row r="155" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
@@ -2726,13 +2744,13 @@
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A158" s="25" t="s">
+      <c r="A158" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="B158" s="26"/>
-      <c r="C158" s="26"/>
-      <c r="D158" s="26"/>
-      <c r="E158" s="27"/>
+      <c r="B158" s="32"/>
+      <c r="C158" s="32"/>
+      <c r="D158" s="32"/>
+      <c r="E158" s="33"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" s="28" t="s">
@@ -2780,13 +2798,13 @@
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A163" s="25" t="s">
+      <c r="A163" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="B163" s="26"/>
-      <c r="C163" s="26"/>
-      <c r="D163" s="26"/>
-      <c r="E163" s="27"/>
+      <c r="B163" s="32"/>
+      <c r="C163" s="32"/>
+      <c r="D163" s="32"/>
+      <c r="E163" s="33"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" s="28" t="s">
@@ -2834,13 +2852,13 @@
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A168" s="25" t="s">
+      <c r="A168" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="B168" s="26"/>
-      <c r="C168" s="26"/>
-      <c r="D168" s="26"/>
-      <c r="E168" s="27"/>
+      <c r="B168" s="32"/>
+      <c r="C168" s="32"/>
+      <c r="D168" s="32"/>
+      <c r="E168" s="33"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" s="28" t="s">
@@ -2878,13 +2896,13 @@
       <c r="E171" s="1"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A173" s="25" t="s">
+      <c r="A173" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="B173" s="26"/>
-      <c r="C173" s="26"/>
-      <c r="D173" s="26"/>
-      <c r="E173" s="27"/>
+      <c r="B173" s="32"/>
+      <c r="C173" s="32"/>
+      <c r="D173" s="32"/>
+      <c r="E173" s="33"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" s="28" t="s">
@@ -2922,13 +2940,13 @@
       <c r="E176" s="1"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A178" s="25" t="s">
+      <c r="A178" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="B178" s="26"/>
-      <c r="C178" s="26"/>
-      <c r="D178" s="26"/>
-      <c r="E178" s="27"/>
+      <c r="B178" s="32"/>
+      <c r="C178" s="32"/>
+      <c r="D178" s="32"/>
+      <c r="E178" s="33"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" s="28" t="s">
@@ -2966,13 +2984,13 @@
       <c r="E181" s="1"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A183" s="25" t="s">
+      <c r="A183" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="B183" s="26"/>
-      <c r="C183" s="26"/>
-      <c r="D183" s="26"/>
-      <c r="E183" s="27"/>
+      <c r="B183" s="32"/>
+      <c r="C183" s="32"/>
+      <c r="D183" s="32"/>
+      <c r="E183" s="33"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" s="28" t="s">
@@ -3010,10 +3028,10 @@
       <c r="E186" s="1"/>
     </row>
     <row r="188" spans="1:5" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="C188" s="24" t="s">
+      <c r="C188" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D188" s="24"/>
+      <c r="D188" s="21"/>
     </row>
     <row r="229" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B229" s="18" t="s">
@@ -3021,10 +3039,10 @@
       </c>
     </row>
     <row r="231" spans="2:4" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="C231" s="24" t="s">
+      <c r="C231" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="D231" s="24"/>
+      <c r="D231" s="21"/>
     </row>
     <row r="233" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B233" s="18" t="s">
@@ -3032,16 +3050,16 @@
       </c>
     </row>
     <row r="235" spans="2:4" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="C235" s="24" t="s">
+      <c r="C235" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D235" s="24"/>
+      <c r="D235" s="21"/>
     </row>
     <row r="271" spans="3:4" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C271" s="20" t="s">
+      <c r="C271" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="D271" s="20"/>
+      <c r="D271" s="44"/>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
@@ -3065,12 +3083,50 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C271:D271"/>
+    <mergeCell ref="A153:E153"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="C154:E154"/>
+    <mergeCell ref="A136:C136"/>
+    <mergeCell ref="C235:D235"/>
+    <mergeCell ref="A178:E178"/>
+    <mergeCell ref="A179:B179"/>
+    <mergeCell ref="C179:E179"/>
+    <mergeCell ref="A173:E173"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="C174:E174"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="C231:D231"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="A123:C123"/>
+    <mergeCell ref="A132:C132"/>
+    <mergeCell ref="A142:C142"/>
+    <mergeCell ref="A148:E148"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="C149:E149"/>
+    <mergeCell ref="A183:E183"/>
+    <mergeCell ref="C147:D147"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:B94"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="A43:G43"/>
@@ -3087,50 +3143,12 @@
     <mergeCell ref="A159:B159"/>
     <mergeCell ref="C159:E159"/>
     <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="C231:D231"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="A123:C123"/>
-    <mergeCell ref="A132:C132"/>
-    <mergeCell ref="A142:C142"/>
-    <mergeCell ref="A148:E148"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="C149:E149"/>
-    <mergeCell ref="A183:E183"/>
-    <mergeCell ref="C147:D147"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C271:D271"/>
-    <mergeCell ref="A153:E153"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="C154:E154"/>
-    <mergeCell ref="A136:C136"/>
-    <mergeCell ref="C235:D235"/>
-    <mergeCell ref="A178:E178"/>
-    <mergeCell ref="A179:B179"/>
-    <mergeCell ref="C179:E179"/>
-    <mergeCell ref="A173:E173"/>
-    <mergeCell ref="A174:B174"/>
-    <mergeCell ref="C174:E174"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="68" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Meme Agile.xlsx
+++ b/Meme Agile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\github\kelompok_meme_laporan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4B62FC-9F1F-482D-9D2D-040F2A732E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A274BC-5B1C-4EC9-86D4-4758CCE2C727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BD1CD595-25D7-451D-99CB-E4C06CA26580}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="174">
   <si>
     <t>Product Backlog &amp; User Story</t>
   </si>
@@ -544,6 +544,9 @@
   </si>
   <si>
     <t>Ingin Navigation Bar lebih mudah liat</t>
+  </si>
+  <si>
+    <t>Sebagai [Investor] ingin UI menggunakan widget Card agar memiliki daya tarik yang kuat</t>
   </si>
 </sst>
 </file>
@@ -798,19 +801,70 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -820,57 +874,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1494,8 +1497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C4E763-3BF0-4DCE-A690-0A0674D041AB}">
   <dimension ref="A1:G279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1510,23 +1513,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:5" s="4" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="C1" s="39"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
     </row>
     <row r="2" spans="3:5" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="4" spans="3:5" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
     </row>
     <row r="6" spans="3:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D6" s="6" t="s">
@@ -1557,18 +1560,18 @@
       </c>
     </row>
     <row r="18" spans="1:5" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
     </row>
     <row r="20" spans="1:5" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
     </row>
     <row r="22" spans="1:5" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="D22" s="9" t="s">
@@ -1657,15 +1660,15 @@
       <c r="A42" s="11"/>
     </row>
     <row r="43" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A43" s="26" t="s">
+      <c r="A43" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="27"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="44"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="15" t="s">
@@ -1932,34 +1935,34 @@
       <c r="G55" s="16"/>
     </row>
     <row r="62" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A62" s="21" t="s">
+      <c r="A62" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B62" s="21"/>
+      <c r="B62" s="24"/>
     </row>
     <row r="63" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A63" s="21" t="s">
+      <c r="A63" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B63" s="21"/>
+      <c r="B63" s="24"/>
     </row>
     <row r="64" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A64" s="43" t="s">
+      <c r="A64" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B64" s="43"/>
+      <c r="B64" s="40"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="34" t="s">
+      <c r="A65" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B65" s="24"/>
+      <c r="B65" s="35"/>
     </row>
     <row r="66" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A66" s="21" t="s">
+      <c r="A66" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B66" s="21"/>
+      <c r="B66" s="24"/>
     </row>
     <row r="67" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="14" t="s">
@@ -2018,34 +2021,34 @@
       </c>
     </row>
     <row r="75" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A75" s="21" t="s">
+      <c r="A75" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B75" s="21"/>
+      <c r="B75" s="24"/>
     </row>
     <row r="76" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A76" s="21" t="s">
+      <c r="A76" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B76" s="21"/>
+      <c r="B76" s="24"/>
     </row>
     <row r="77" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A77" s="22" t="s">
+      <c r="A77" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B77" s="22"/>
+      <c r="B77" s="33"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" s="34" t="s">
+      <c r="A78" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="B78" s="24"/>
+      <c r="B78" s="35"/>
     </row>
     <row r="79" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A79" s="20" t="s">
+      <c r="A79" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B79" s="20"/>
+      <c r="B79" s="36"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
@@ -2064,34 +2067,34 @@
       </c>
     </row>
     <row r="83" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A83" s="21" t="s">
+      <c r="A83" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B83" s="21"/>
+      <c r="B83" s="24"/>
     </row>
     <row r="84" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A84" s="21" t="s">
+      <c r="A84" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B84" s="21"/>
+      <c r="B84" s="24"/>
     </row>
     <row r="85" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A85" s="22" t="s">
+      <c r="A85" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B85" s="22"/>
+      <c r="B85" s="33"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" s="23" t="s">
+      <c r="A86" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="B86" s="24"/>
+      <c r="B86" s="35"/>
     </row>
     <row r="87" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A87" s="20" t="s">
+      <c r="A87" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B87" s="20"/>
+      <c r="B87" s="36"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
@@ -2110,32 +2113,32 @@
       </c>
     </row>
     <row r="91" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A91" s="21" t="s">
+      <c r="A91" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B91" s="21"/>
+      <c r="B91" s="24"/>
     </row>
     <row r="92" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A92" s="21" t="s">
+      <c r="A92" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="B92" s="21"/>
+      <c r="B92" s="24"/>
     </row>
     <row r="93" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A93" s="22" t="s">
+      <c r="A93" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B93" s="22"/>
+      <c r="B93" s="33"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94" s="23"/>
-      <c r="B94" s="24"/>
+      <c r="A94" s="34"/>
+      <c r="B94" s="35"/>
     </row>
     <row r="95" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A95" s="20" t="s">
+      <c r="A95" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B95" s="20"/>
+      <c r="B95" s="36"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
@@ -2162,32 +2165,32 @@
       </c>
     </row>
     <row r="100" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A100" s="21" t="s">
+      <c r="A100" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B100" s="21"/>
+      <c r="B100" s="24"/>
     </row>
     <row r="101" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A101" s="21" t="s">
+      <c r="A101" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="B101" s="21"/>
+      <c r="B101" s="24"/>
     </row>
     <row r="102" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A102" s="22" t="s">
+      <c r="A102" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B102" s="22"/>
+      <c r="B102" s="33"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A103" s="23"/>
-      <c r="B103" s="24"/>
+      <c r="A103" s="34"/>
+      <c r="B103" s="35"/>
     </row>
     <row r="104" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A104" s="20" t="s">
+      <c r="A104" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B104" s="20"/>
+      <c r="B104" s="36"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
@@ -2197,17 +2200,19 @@
         <v>45</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>561</v>
       </c>
-      <c r="B106" s="1"/>
+      <c r="B106" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="108" spans="1:6" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="C108" s="21" t="s">
+      <c r="C108" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D108" s="21"/>
+      <c r="D108" s="24"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
@@ -2450,17 +2455,17 @@
       </c>
     </row>
     <row r="122" spans="1:6" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="C122" s="21" t="s">
+      <c r="C122" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="D122" s="21"/>
+      <c r="D122" s="24"/>
     </row>
     <row r="123" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A123" s="35" t="s">
+      <c r="A123" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="B123" s="35"/>
-      <c r="C123" s="35"/>
+      <c r="B123" s="41"/>
+      <c r="C123" s="41"/>
     </row>
     <row r="124" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
@@ -2522,11 +2527,11 @@
       <c r="C130" s="1"/>
     </row>
     <row r="132" spans="1:3" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A132" s="36" t="s">
+      <c r="A132" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="B132" s="36"/>
-      <c r="C132" s="36"/>
+      <c r="B132" s="23"/>
+      <c r="C132" s="23"/>
     </row>
     <row r="133" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
@@ -2551,11 +2556,11 @@
       </c>
     </row>
     <row r="136" spans="1:3" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A136" s="36" t="s">
+      <c r="A136" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="B136" s="36"/>
-      <c r="C136" s="36"/>
+      <c r="B136" s="23"/>
+      <c r="C136" s="23"/>
     </row>
     <row r="137" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
@@ -2603,11 +2608,11 @@
       <c r="C141" s="19"/>
     </row>
     <row r="142" spans="1:3" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A142" s="36" t="s">
+      <c r="A142" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="B142" s="36"/>
-      <c r="C142" s="36"/>
+      <c r="B142" s="23"/>
+      <c r="C142" s="23"/>
     </row>
     <row r="143" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
@@ -2630,30 +2635,30 @@
       </c>
     </row>
     <row r="147" spans="1:5" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="C147" s="21" t="s">
+      <c r="C147" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="D147" s="21"/>
+      <c r="D147" s="24"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A148" s="37" t="s">
+      <c r="A148" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="B148" s="37"/>
-      <c r="C148" s="37"/>
-      <c r="D148" s="37"/>
-      <c r="E148" s="37"/>
+      <c r="B148" s="21"/>
+      <c r="C148" s="21"/>
+      <c r="D148" s="21"/>
+      <c r="E148" s="21"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A149" s="38" t="s">
+      <c r="A149" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="B149" s="38"/>
-      <c r="C149" s="38" t="s">
+      <c r="B149" s="22"/>
+      <c r="C149" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="D149" s="38"/>
-      <c r="E149" s="38"/>
+      <c r="D149" s="22"/>
+      <c r="E149" s="22"/>
     </row>
     <row r="150" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
@@ -2690,24 +2695,24 @@
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A153" s="37" t="s">
+      <c r="A153" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="B153" s="37"/>
-      <c r="C153" s="37"/>
-      <c r="D153" s="37"/>
-      <c r="E153" s="37"/>
+      <c r="B153" s="21"/>
+      <c r="C153" s="21"/>
+      <c r="D153" s="21"/>
+      <c r="E153" s="21"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A154" s="38" t="s">
+      <c r="A154" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="B154" s="38"/>
-      <c r="C154" s="38" t="s">
+      <c r="B154" s="22"/>
+      <c r="C154" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="D154" s="38"/>
-      <c r="E154" s="38"/>
+      <c r="D154" s="22"/>
+      <c r="E154" s="22"/>
     </row>
     <row r="155" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
@@ -2744,13 +2749,13 @@
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A158" s="31" t="s">
+      <c r="A158" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="B158" s="32"/>
-      <c r="C158" s="32"/>
-      <c r="D158" s="32"/>
-      <c r="E158" s="33"/>
+      <c r="B158" s="26"/>
+      <c r="C158" s="26"/>
+      <c r="D158" s="26"/>
+      <c r="E158" s="27"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" s="28" t="s">
@@ -2798,13 +2803,13 @@
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A163" s="31" t="s">
+      <c r="A163" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="B163" s="32"/>
-      <c r="C163" s="32"/>
-      <c r="D163" s="32"/>
-      <c r="E163" s="33"/>
+      <c r="B163" s="26"/>
+      <c r="C163" s="26"/>
+      <c r="D163" s="26"/>
+      <c r="E163" s="27"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" s="28" t="s">
@@ -2852,13 +2857,13 @@
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A168" s="31" t="s">
+      <c r="A168" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="B168" s="32"/>
-      <c r="C168" s="32"/>
-      <c r="D168" s="32"/>
-      <c r="E168" s="33"/>
+      <c r="B168" s="26"/>
+      <c r="C168" s="26"/>
+      <c r="D168" s="26"/>
+      <c r="E168" s="27"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" s="28" t="s">
@@ -2896,13 +2901,13 @@
       <c r="E171" s="1"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A173" s="31" t="s">
+      <c r="A173" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="B173" s="32"/>
-      <c r="C173" s="32"/>
-      <c r="D173" s="32"/>
-      <c r="E173" s="33"/>
+      <c r="B173" s="26"/>
+      <c r="C173" s="26"/>
+      <c r="D173" s="26"/>
+      <c r="E173" s="27"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" s="28" t="s">
@@ -2940,13 +2945,13 @@
       <c r="E176" s="1"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A178" s="31" t="s">
+      <c r="A178" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="B178" s="32"/>
-      <c r="C178" s="32"/>
-      <c r="D178" s="32"/>
-      <c r="E178" s="33"/>
+      <c r="B178" s="26"/>
+      <c r="C178" s="26"/>
+      <c r="D178" s="26"/>
+      <c r="E178" s="27"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" s="28" t="s">
@@ -2984,13 +2989,13 @@
       <c r="E181" s="1"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A183" s="31" t="s">
+      <c r="A183" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="B183" s="32"/>
-      <c r="C183" s="32"/>
-      <c r="D183" s="32"/>
-      <c r="E183" s="33"/>
+      <c r="B183" s="26"/>
+      <c r="C183" s="26"/>
+      <c r="D183" s="26"/>
+      <c r="E183" s="27"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" s="28" t="s">
@@ -3028,10 +3033,10 @@
       <c r="E186" s="1"/>
     </row>
     <row r="188" spans="1:5" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="C188" s="21" t="s">
+      <c r="C188" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="D188" s="21"/>
+      <c r="D188" s="24"/>
     </row>
     <row r="229" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B229" s="18" t="s">
@@ -3039,10 +3044,10 @@
       </c>
     </row>
     <row r="231" spans="2:4" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="C231" s="21" t="s">
+      <c r="C231" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D231" s="21"/>
+      <c r="D231" s="24"/>
     </row>
     <row r="233" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B233" s="18" t="s">
@@ -3050,16 +3055,16 @@
       </c>
     </row>
     <row r="235" spans="2:4" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="C235" s="21" t="s">
+      <c r="C235" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D235" s="21"/>
+      <c r="D235" s="24"/>
     </row>
     <row r="271" spans="3:4" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C271" s="44" t="s">
+      <c r="C271" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="D271" s="44"/>
+      <c r="D271" s="20"/>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
@@ -3083,18 +3088,44 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="C271:D271"/>
-    <mergeCell ref="A153:E153"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="C154:E154"/>
-    <mergeCell ref="A136:C136"/>
-    <mergeCell ref="C235:D235"/>
-    <mergeCell ref="A178:E178"/>
-    <mergeCell ref="A179:B179"/>
-    <mergeCell ref="C179:E179"/>
-    <mergeCell ref="A173:E173"/>
-    <mergeCell ref="A174:B174"/>
-    <mergeCell ref="C174:E174"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="C188:D188"/>
+    <mergeCell ref="A184:B184"/>
+    <mergeCell ref="C184:E184"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:B169"/>
+    <mergeCell ref="C169:E169"/>
+    <mergeCell ref="A163:E163"/>
+    <mergeCell ref="A164:B164"/>
+    <mergeCell ref="C164:E164"/>
+    <mergeCell ref="A158:E158"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="C159:E159"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="C231:D231"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="A123:C123"/>
+    <mergeCell ref="A132:C132"/>
+    <mergeCell ref="A142:C142"/>
+    <mergeCell ref="A148:E148"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="C149:E149"/>
+    <mergeCell ref="A183:E183"/>
+    <mergeCell ref="C147:D147"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:B94"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A102:B102"/>
     <mergeCell ref="A103:B103"/>
@@ -3111,44 +3142,18 @@
     <mergeCell ref="A62:B62"/>
     <mergeCell ref="A63:B63"/>
     <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="C231:D231"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="A123:C123"/>
-    <mergeCell ref="A132:C132"/>
-    <mergeCell ref="A142:C142"/>
-    <mergeCell ref="A148:E148"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="C149:E149"/>
-    <mergeCell ref="A183:E183"/>
-    <mergeCell ref="C147:D147"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="C188:D188"/>
-    <mergeCell ref="A184:B184"/>
-    <mergeCell ref="C184:E184"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:B169"/>
-    <mergeCell ref="C169:E169"/>
-    <mergeCell ref="A163:E163"/>
-    <mergeCell ref="A164:B164"/>
-    <mergeCell ref="C164:E164"/>
-    <mergeCell ref="A158:E158"/>
-    <mergeCell ref="A159:B159"/>
-    <mergeCell ref="C159:E159"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C271:D271"/>
+    <mergeCell ref="A153:E153"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="C154:E154"/>
+    <mergeCell ref="A136:C136"/>
+    <mergeCell ref="C235:D235"/>
+    <mergeCell ref="A178:E178"/>
+    <mergeCell ref="A179:B179"/>
+    <mergeCell ref="C179:E179"/>
+    <mergeCell ref="A173:E173"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="C174:E174"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="68" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Meme Agile.xlsx
+++ b/Meme Agile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\github\kelompok_meme_laporan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A274BC-5B1C-4EC9-86D4-4758CCE2C727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1637F228-2439-4AA8-97AC-F2CFAA50613A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BD1CD595-25D7-451D-99CB-E4C06CA26580}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="177">
   <si>
     <t>Product Backlog &amp; User Story</t>
   </si>
@@ -547,6 +547,15 @@
   </si>
   <si>
     <t>Sebagai [Investor] ingin UI menggunakan widget Card agar memiliki daya tarik yang kuat</t>
+  </si>
+  <si>
+    <t>Ingin UI ada Widget CARD</t>
+  </si>
+  <si>
+    <t>ada daya tarik yang kuat</t>
+  </si>
+  <si>
+    <t>Strong</t>
   </si>
 </sst>
 </file>
@@ -801,8 +810,56 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -810,51 +867,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -864,16 +882,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1497,8 +1506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C4E763-3BF0-4DCE-A690-0A0674D041AB}">
   <dimension ref="A1:G279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1513,23 +1522,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:5" s="4" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="C1" s="31"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="3:5" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
     </row>
     <row r="4" spans="3:5" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
     </row>
     <row r="6" spans="3:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D6" s="6" t="s">
@@ -1560,18 +1569,18 @@
       </c>
     </row>
     <row r="18" spans="1:5" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
     </row>
     <row r="20" spans="1:5" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
     </row>
     <row r="22" spans="1:5" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="D22" s="9" t="s">
@@ -1660,15 +1669,15 @@
       <c r="A42" s="11"/>
     </row>
     <row r="43" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A43" s="43" t="s">
+      <c r="A43" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="43"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="44"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="27"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="15" t="s">
@@ -1927,42 +1936,54 @@
       <c r="A55" s="1">
         <v>561</v>
       </c>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
+      <c r="B55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="G55" s="16">
+        <v>5</v>
+      </c>
     </row>
     <row r="62" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A62" s="24" t="s">
+      <c r="A62" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B62" s="24"/>
+      <c r="B62" s="21"/>
     </row>
     <row r="63" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A63" s="24" t="s">
+      <c r="A63" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B63" s="24"/>
+      <c r="B63" s="21"/>
     </row>
     <row r="64" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A64" s="40" t="s">
+      <c r="A64" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="B64" s="40"/>
+      <c r="B64" s="43"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="37" t="s">
+      <c r="A65" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B65" s="35"/>
+      <c r="B65" s="24"/>
     </row>
     <row r="66" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A66" s="24" t="s">
+      <c r="A66" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B66" s="24"/>
+      <c r="B66" s="21"/>
     </row>
     <row r="67" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="14" t="s">
@@ -2021,34 +2042,34 @@
       </c>
     </row>
     <row r="75" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A75" s="24" t="s">
+      <c r="A75" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B75" s="24"/>
+      <c r="B75" s="21"/>
     </row>
     <row r="76" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A76" s="24" t="s">
+      <c r="A76" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="B76" s="24"/>
+      <c r="B76" s="21"/>
     </row>
     <row r="77" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A77" s="33" t="s">
+      <c r="A77" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B77" s="33"/>
+      <c r="B77" s="22"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" s="37" t="s">
+      <c r="A78" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="B78" s="35"/>
+      <c r="B78" s="24"/>
     </row>
     <row r="79" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A79" s="36" t="s">
+      <c r="A79" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B79" s="36"/>
+      <c r="B79" s="20"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
@@ -2067,34 +2088,34 @@
       </c>
     </row>
     <row r="83" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A83" s="24" t="s">
+      <c r="A83" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B83" s="24"/>
+      <c r="B83" s="21"/>
     </row>
     <row r="84" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A84" s="24" t="s">
+      <c r="A84" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="B84" s="24"/>
+      <c r="B84" s="21"/>
     </row>
     <row r="85" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A85" s="33" t="s">
+      <c r="A85" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B85" s="33"/>
+      <c r="B85" s="22"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" s="34" t="s">
+      <c r="A86" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B86" s="35"/>
+      <c r="B86" s="24"/>
     </row>
     <row r="87" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A87" s="36" t="s">
+      <c r="A87" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B87" s="36"/>
+      <c r="B87" s="20"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
@@ -2113,32 +2134,32 @@
       </c>
     </row>
     <row r="91" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A91" s="24" t="s">
+      <c r="A91" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B91" s="24"/>
+      <c r="B91" s="21"/>
     </row>
     <row r="92" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A92" s="24" t="s">
+      <c r="A92" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="B92" s="24"/>
+      <c r="B92" s="21"/>
     </row>
     <row r="93" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A93" s="33" t="s">
+      <c r="A93" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B93" s="33"/>
+      <c r="B93" s="22"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94" s="34"/>
-      <c r="B94" s="35"/>
+      <c r="A94" s="23"/>
+      <c r="B94" s="24"/>
     </row>
     <row r="95" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A95" s="36" t="s">
+      <c r="A95" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B95" s="36"/>
+      <c r="B95" s="20"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
@@ -2165,32 +2186,32 @@
       </c>
     </row>
     <row r="100" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A100" s="24" t="s">
+      <c r="A100" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B100" s="24"/>
+      <c r="B100" s="21"/>
     </row>
     <row r="101" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A101" s="24" t="s">
+      <c r="A101" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="B101" s="24"/>
+      <c r="B101" s="21"/>
     </row>
     <row r="102" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A102" s="33" t="s">
+      <c r="A102" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B102" s="33"/>
+      <c r="B102" s="22"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A103" s="34"/>
-      <c r="B103" s="35"/>
+      <c r="A103" s="23"/>
+      <c r="B103" s="24"/>
     </row>
     <row r="104" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A104" s="36" t="s">
+      <c r="A104" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B104" s="36"/>
+      <c r="B104" s="20"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
@@ -2209,10 +2230,10 @@
       </c>
     </row>
     <row r="108" spans="1:6" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="C108" s="24" t="s">
+      <c r="C108" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D108" s="24"/>
+      <c r="D108" s="21"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
@@ -2455,17 +2476,17 @@
       </c>
     </row>
     <row r="122" spans="1:6" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="C122" s="24" t="s">
+      <c r="C122" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="D122" s="24"/>
+      <c r="D122" s="21"/>
     </row>
     <row r="123" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A123" s="41" t="s">
+      <c r="A123" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="B123" s="41"/>
-      <c r="C123" s="41"/>
+      <c r="B123" s="35"/>
+      <c r="C123" s="35"/>
     </row>
     <row r="124" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
@@ -2527,11 +2548,11 @@
       <c r="C130" s="1"/>
     </row>
     <row r="132" spans="1:3" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A132" s="23" t="s">
+      <c r="A132" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="B132" s="23"/>
-      <c r="C132" s="23"/>
+      <c r="B132" s="36"/>
+      <c r="C132" s="36"/>
     </row>
     <row r="133" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
@@ -2556,11 +2577,11 @@
       </c>
     </row>
     <row r="136" spans="1:3" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A136" s="23" t="s">
+      <c r="A136" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="B136" s="23"/>
-      <c r="C136" s="23"/>
+      <c r="B136" s="36"/>
+      <c r="C136" s="36"/>
     </row>
     <row r="137" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
@@ -2608,11 +2629,11 @@
       <c r="C141" s="19"/>
     </row>
     <row r="142" spans="1:3" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A142" s="23" t="s">
+      <c r="A142" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="B142" s="23"/>
-      <c r="C142" s="23"/>
+      <c r="B142" s="36"/>
+      <c r="C142" s="36"/>
     </row>
     <row r="143" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
@@ -2635,30 +2656,30 @@
       </c>
     </row>
     <row r="147" spans="1:5" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="C147" s="24" t="s">
+      <c r="C147" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="D147" s="24"/>
+      <c r="D147" s="21"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A148" s="21" t="s">
+      <c r="A148" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="B148" s="21"/>
-      <c r="C148" s="21"/>
-      <c r="D148" s="21"/>
-      <c r="E148" s="21"/>
+      <c r="B148" s="37"/>
+      <c r="C148" s="37"/>
+      <c r="D148" s="37"/>
+      <c r="E148" s="37"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A149" s="22" t="s">
+      <c r="A149" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="B149" s="22"/>
-      <c r="C149" s="22" t="s">
+      <c r="B149" s="38"/>
+      <c r="C149" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="D149" s="22"/>
-      <c r="E149" s="22"/>
+      <c r="D149" s="38"/>
+      <c r="E149" s="38"/>
     </row>
     <row r="150" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
@@ -2695,24 +2716,24 @@
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A153" s="21" t="s">
+      <c r="A153" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="B153" s="21"/>
-      <c r="C153" s="21"/>
-      <c r="D153" s="21"/>
-      <c r="E153" s="21"/>
+      <c r="B153" s="37"/>
+      <c r="C153" s="37"/>
+      <c r="D153" s="37"/>
+      <c r="E153" s="37"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A154" s="22" t="s">
+      <c r="A154" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="B154" s="22"/>
-      <c r="C154" s="22" t="s">
+      <c r="B154" s="38"/>
+      <c r="C154" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="D154" s="22"/>
-      <c r="E154" s="22"/>
+      <c r="D154" s="38"/>
+      <c r="E154" s="38"/>
     </row>
     <row r="155" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
@@ -2749,13 +2770,13 @@
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A158" s="25" t="s">
+      <c r="A158" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="B158" s="26"/>
-      <c r="C158" s="26"/>
-      <c r="D158" s="26"/>
-      <c r="E158" s="27"/>
+      <c r="B158" s="32"/>
+      <c r="C158" s="32"/>
+      <c r="D158" s="32"/>
+      <c r="E158" s="33"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" s="28" t="s">
@@ -2803,13 +2824,13 @@
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A163" s="25" t="s">
+      <c r="A163" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="B163" s="26"/>
-      <c r="C163" s="26"/>
-      <c r="D163" s="26"/>
-      <c r="E163" s="27"/>
+      <c r="B163" s="32"/>
+      <c r="C163" s="32"/>
+      <c r="D163" s="32"/>
+      <c r="E163" s="33"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" s="28" t="s">
@@ -2857,13 +2878,13 @@
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A168" s="25" t="s">
+      <c r="A168" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="B168" s="26"/>
-      <c r="C168" s="26"/>
-      <c r="D168" s="26"/>
-      <c r="E168" s="27"/>
+      <c r="B168" s="32"/>
+      <c r="C168" s="32"/>
+      <c r="D168" s="32"/>
+      <c r="E168" s="33"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" s="28" t="s">
@@ -2901,13 +2922,13 @@
       <c r="E171" s="1"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A173" s="25" t="s">
+      <c r="A173" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="B173" s="26"/>
-      <c r="C173" s="26"/>
-      <c r="D173" s="26"/>
-      <c r="E173" s="27"/>
+      <c r="B173" s="32"/>
+      <c r="C173" s="32"/>
+      <c r="D173" s="32"/>
+      <c r="E173" s="33"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" s="28" t="s">
@@ -2945,13 +2966,13 @@
       <c r="E176" s="1"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A178" s="25" t="s">
+      <c r="A178" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="B178" s="26"/>
-      <c r="C178" s="26"/>
-      <c r="D178" s="26"/>
-      <c r="E178" s="27"/>
+      <c r="B178" s="32"/>
+      <c r="C178" s="32"/>
+      <c r="D178" s="32"/>
+      <c r="E178" s="33"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" s="28" t="s">
@@ -2989,13 +3010,13 @@
       <c r="E181" s="1"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A183" s="25" t="s">
+      <c r="A183" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="B183" s="26"/>
-      <c r="C183" s="26"/>
-      <c r="D183" s="26"/>
-      <c r="E183" s="27"/>
+      <c r="B183" s="32"/>
+      <c r="C183" s="32"/>
+      <c r="D183" s="32"/>
+      <c r="E183" s="33"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" s="28" t="s">
@@ -3033,10 +3054,10 @@
       <c r="E186" s="1"/>
     </row>
     <row r="188" spans="1:5" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="C188" s="24" t="s">
+      <c r="C188" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D188" s="24"/>
+      <c r="D188" s="21"/>
     </row>
     <row r="229" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B229" s="18" t="s">
@@ -3044,10 +3065,10 @@
       </c>
     </row>
     <row r="231" spans="2:4" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="C231" s="24" t="s">
+      <c r="C231" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="D231" s="24"/>
+      <c r="D231" s="21"/>
     </row>
     <row r="233" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B233" s="18" t="s">
@@ -3055,16 +3076,16 @@
       </c>
     </row>
     <row r="235" spans="2:4" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="C235" s="24" t="s">
+      <c r="C235" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D235" s="24"/>
+      <c r="D235" s="21"/>
     </row>
     <row r="271" spans="3:4" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C271" s="20" t="s">
+      <c r="C271" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="D271" s="20"/>
+      <c r="D271" s="44"/>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
@@ -3088,12 +3109,50 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C271:D271"/>
+    <mergeCell ref="A153:E153"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="C154:E154"/>
+    <mergeCell ref="A136:C136"/>
+    <mergeCell ref="C235:D235"/>
+    <mergeCell ref="A178:E178"/>
+    <mergeCell ref="A179:B179"/>
+    <mergeCell ref="C179:E179"/>
+    <mergeCell ref="A173:E173"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="C174:E174"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="C231:D231"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="A123:C123"/>
+    <mergeCell ref="A132:C132"/>
+    <mergeCell ref="A142:C142"/>
+    <mergeCell ref="A148:E148"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="C149:E149"/>
+    <mergeCell ref="A183:E183"/>
+    <mergeCell ref="C147:D147"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:B94"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="A43:G43"/>
@@ -3110,50 +3169,12 @@
     <mergeCell ref="A159:B159"/>
     <mergeCell ref="C159:E159"/>
     <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="C231:D231"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="A123:C123"/>
-    <mergeCell ref="A132:C132"/>
-    <mergeCell ref="A142:C142"/>
-    <mergeCell ref="A148:E148"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="C149:E149"/>
-    <mergeCell ref="A183:E183"/>
-    <mergeCell ref="C147:D147"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C271:D271"/>
-    <mergeCell ref="A153:E153"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="C154:E154"/>
-    <mergeCell ref="A136:C136"/>
-    <mergeCell ref="C235:D235"/>
-    <mergeCell ref="A178:E178"/>
-    <mergeCell ref="A179:B179"/>
-    <mergeCell ref="C179:E179"/>
-    <mergeCell ref="A173:E173"/>
-    <mergeCell ref="A174:B174"/>
-    <mergeCell ref="C174:E174"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="68" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Meme Agile.xlsx
+++ b/Meme Agile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\github\kelompok_meme_laporan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1637F228-2439-4AA8-97AC-F2CFAA50613A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11158B5E-12A5-46C9-A10C-B8DA74C69CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BD1CD595-25D7-451D-99CB-E4C06CA26580}"/>
   </bookViews>
@@ -810,19 +810,70 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -832,57 +883,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1506,8 +1506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C4E763-3BF0-4DCE-A690-0A0674D041AB}">
   <dimension ref="A1:G279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView tabSelected="1" topLeftCell="A291" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I237" sqref="I237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1522,23 +1522,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:5" s="4" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="C1" s="39"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
     </row>
     <row r="2" spans="3:5" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="4" spans="3:5" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
     </row>
     <row r="6" spans="3:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D6" s="6" t="s">
@@ -1569,18 +1569,18 @@
       </c>
     </row>
     <row r="18" spans="1:5" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
     </row>
     <row r="20" spans="1:5" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
     </row>
     <row r="22" spans="1:5" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="D22" s="9" t="s">
@@ -1669,15 +1669,15 @@
       <c r="A42" s="11"/>
     </row>
     <row r="43" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A43" s="26" t="s">
+      <c r="A43" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="27"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="44"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="15" t="s">
@@ -1956,34 +1956,34 @@
       </c>
     </row>
     <row r="62" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A62" s="21" t="s">
+      <c r="A62" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B62" s="21"/>
+      <c r="B62" s="24"/>
     </row>
     <row r="63" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A63" s="21" t="s">
+      <c r="A63" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B63" s="21"/>
+      <c r="B63" s="24"/>
     </row>
     <row r="64" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A64" s="43" t="s">
+      <c r="A64" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B64" s="43"/>
+      <c r="B64" s="40"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="34" t="s">
+      <c r="A65" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B65" s="24"/>
+      <c r="B65" s="35"/>
     </row>
     <row r="66" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A66" s="21" t="s">
+      <c r="A66" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B66" s="21"/>
+      <c r="B66" s="24"/>
     </row>
     <row r="67" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="14" t="s">
@@ -2042,34 +2042,34 @@
       </c>
     </row>
     <row r="75" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A75" s="21" t="s">
+      <c r="A75" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B75" s="21"/>
+      <c r="B75" s="24"/>
     </row>
     <row r="76" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A76" s="21" t="s">
+      <c r="A76" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B76" s="21"/>
+      <c r="B76" s="24"/>
     </row>
     <row r="77" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A77" s="22" t="s">
+      <c r="A77" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B77" s="22"/>
+      <c r="B77" s="33"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" s="34" t="s">
+      <c r="A78" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="B78" s="24"/>
+      <c r="B78" s="35"/>
     </row>
     <row r="79" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A79" s="20" t="s">
+      <c r="A79" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B79" s="20"/>
+      <c r="B79" s="36"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
@@ -2088,34 +2088,34 @@
       </c>
     </row>
     <row r="83" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A83" s="21" t="s">
+      <c r="A83" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B83" s="21"/>
+      <c r="B83" s="24"/>
     </row>
     <row r="84" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A84" s="21" t="s">
+      <c r="A84" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B84" s="21"/>
+      <c r="B84" s="24"/>
     </row>
     <row r="85" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A85" s="22" t="s">
+      <c r="A85" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B85" s="22"/>
+      <c r="B85" s="33"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" s="23" t="s">
+      <c r="A86" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="B86" s="24"/>
+      <c r="B86" s="35"/>
     </row>
     <row r="87" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A87" s="20" t="s">
+      <c r="A87" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B87" s="20"/>
+      <c r="B87" s="36"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
@@ -2134,32 +2134,32 @@
       </c>
     </row>
     <row r="91" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A91" s="21" t="s">
+      <c r="A91" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B91" s="21"/>
+      <c r="B91" s="24"/>
     </row>
     <row r="92" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A92" s="21" t="s">
+      <c r="A92" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="B92" s="21"/>
+      <c r="B92" s="24"/>
     </row>
     <row r="93" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A93" s="22" t="s">
+      <c r="A93" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B93" s="22"/>
+      <c r="B93" s="33"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94" s="23"/>
-      <c r="B94" s="24"/>
+      <c r="A94" s="34"/>
+      <c r="B94" s="35"/>
     </row>
     <row r="95" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A95" s="20" t="s">
+      <c r="A95" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B95" s="20"/>
+      <c r="B95" s="36"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
@@ -2186,32 +2186,32 @@
       </c>
     </row>
     <row r="100" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A100" s="21" t="s">
+      <c r="A100" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B100" s="21"/>
+      <c r="B100" s="24"/>
     </row>
     <row r="101" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A101" s="21" t="s">
+      <c r="A101" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="B101" s="21"/>
+      <c r="B101" s="24"/>
     </row>
     <row r="102" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A102" s="22" t="s">
+      <c r="A102" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B102" s="22"/>
+      <c r="B102" s="33"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A103" s="23"/>
-      <c r="B103" s="24"/>
+      <c r="A103" s="34"/>
+      <c r="B103" s="35"/>
     </row>
     <row r="104" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A104" s="20" t="s">
+      <c r="A104" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B104" s="20"/>
+      <c r="B104" s="36"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
@@ -2230,10 +2230,10 @@
       </c>
     </row>
     <row r="108" spans="1:6" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="C108" s="21" t="s">
+      <c r="C108" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D108" s="21"/>
+      <c r="D108" s="24"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
@@ -2476,17 +2476,17 @@
       </c>
     </row>
     <row r="122" spans="1:6" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="C122" s="21" t="s">
+      <c r="C122" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="D122" s="21"/>
+      <c r="D122" s="24"/>
     </row>
     <row r="123" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A123" s="35" t="s">
+      <c r="A123" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="B123" s="35"/>
-      <c r="C123" s="35"/>
+      <c r="B123" s="41"/>
+      <c r="C123" s="41"/>
     </row>
     <row r="124" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
@@ -2548,11 +2548,11 @@
       <c r="C130" s="1"/>
     </row>
     <row r="132" spans="1:3" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A132" s="36" t="s">
+      <c r="A132" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="B132" s="36"/>
-      <c r="C132" s="36"/>
+      <c r="B132" s="23"/>
+      <c r="C132" s="23"/>
     </row>
     <row r="133" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
@@ -2577,11 +2577,11 @@
       </c>
     </row>
     <row r="136" spans="1:3" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A136" s="36" t="s">
+      <c r="A136" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="B136" s="36"/>
-      <c r="C136" s="36"/>
+      <c r="B136" s="23"/>
+      <c r="C136" s="23"/>
     </row>
     <row r="137" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
@@ -2629,11 +2629,11 @@
       <c r="C141" s="19"/>
     </row>
     <row r="142" spans="1:3" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A142" s="36" t="s">
+      <c r="A142" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="B142" s="36"/>
-      <c r="C142" s="36"/>
+      <c r="B142" s="23"/>
+      <c r="C142" s="23"/>
     </row>
     <row r="143" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
@@ -2656,30 +2656,30 @@
       </c>
     </row>
     <row r="147" spans="1:5" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="C147" s="21" t="s">
+      <c r="C147" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="D147" s="21"/>
+      <c r="D147" s="24"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A148" s="37" t="s">
+      <c r="A148" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="B148" s="37"/>
-      <c r="C148" s="37"/>
-      <c r="D148" s="37"/>
-      <c r="E148" s="37"/>
+      <c r="B148" s="21"/>
+      <c r="C148" s="21"/>
+      <c r="D148" s="21"/>
+      <c r="E148" s="21"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A149" s="38" t="s">
+      <c r="A149" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="B149" s="38"/>
-      <c r="C149" s="38" t="s">
+      <c r="B149" s="22"/>
+      <c r="C149" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="D149" s="38"/>
-      <c r="E149" s="38"/>
+      <c r="D149" s="22"/>
+      <c r="E149" s="22"/>
     </row>
     <row r="150" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
@@ -2716,24 +2716,24 @@
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A153" s="37" t="s">
+      <c r="A153" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="B153" s="37"/>
-      <c r="C153" s="37"/>
-      <c r="D153" s="37"/>
-      <c r="E153" s="37"/>
+      <c r="B153" s="21"/>
+      <c r="C153" s="21"/>
+      <c r="D153" s="21"/>
+      <c r="E153" s="21"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A154" s="38" t="s">
+      <c r="A154" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="B154" s="38"/>
-      <c r="C154" s="38" t="s">
+      <c r="B154" s="22"/>
+      <c r="C154" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="D154" s="38"/>
-      <c r="E154" s="38"/>
+      <c r="D154" s="22"/>
+      <c r="E154" s="22"/>
     </row>
     <row r="155" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
@@ -2770,13 +2770,13 @@
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A158" s="31" t="s">
+      <c r="A158" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="B158" s="32"/>
-      <c r="C158" s="32"/>
-      <c r="D158" s="32"/>
-      <c r="E158" s="33"/>
+      <c r="B158" s="26"/>
+      <c r="C158" s="26"/>
+      <c r="D158" s="26"/>
+      <c r="E158" s="27"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" s="28" t="s">
@@ -2824,13 +2824,13 @@
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A163" s="31" t="s">
+      <c r="A163" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="B163" s="32"/>
-      <c r="C163" s="32"/>
-      <c r="D163" s="32"/>
-      <c r="E163" s="33"/>
+      <c r="B163" s="26"/>
+      <c r="C163" s="26"/>
+      <c r="D163" s="26"/>
+      <c r="E163" s="27"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" s="28" t="s">
@@ -2878,13 +2878,13 @@
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A168" s="31" t="s">
+      <c r="A168" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="B168" s="32"/>
-      <c r="C168" s="32"/>
-      <c r="D168" s="32"/>
-      <c r="E168" s="33"/>
+      <c r="B168" s="26"/>
+      <c r="C168" s="26"/>
+      <c r="D168" s="26"/>
+      <c r="E168" s="27"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" s="28" t="s">
@@ -2922,13 +2922,13 @@
       <c r="E171" s="1"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A173" s="31" t="s">
+      <c r="A173" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="B173" s="32"/>
-      <c r="C173" s="32"/>
-      <c r="D173" s="32"/>
-      <c r="E173" s="33"/>
+      <c r="B173" s="26"/>
+      <c r="C173" s="26"/>
+      <c r="D173" s="26"/>
+      <c r="E173" s="27"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" s="28" t="s">
@@ -2966,13 +2966,13 @@
       <c r="E176" s="1"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A178" s="31" t="s">
+      <c r="A178" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="B178" s="32"/>
-      <c r="C178" s="32"/>
-      <c r="D178" s="32"/>
-      <c r="E178" s="33"/>
+      <c r="B178" s="26"/>
+      <c r="C178" s="26"/>
+      <c r="D178" s="26"/>
+      <c r="E178" s="27"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" s="28" t="s">
@@ -3010,13 +3010,13 @@
       <c r="E181" s="1"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A183" s="31" t="s">
+      <c r="A183" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="B183" s="32"/>
-      <c r="C183" s="32"/>
-      <c r="D183" s="32"/>
-      <c r="E183" s="33"/>
+      <c r="B183" s="26"/>
+      <c r="C183" s="26"/>
+      <c r="D183" s="26"/>
+      <c r="E183" s="27"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" s="28" t="s">
@@ -3054,38 +3054,40 @@
       <c r="E186" s="1"/>
     </row>
     <row r="188" spans="1:5" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="C188" s="21" t="s">
+      <c r="C188" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="D188" s="21"/>
+      <c r="D188" s="24"/>
     </row>
     <row r="229" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B229" s="18" t="s">
         <v>61</v>
       </c>
+      <c r="C229" s="18"/>
     </row>
     <row r="231" spans="2:4" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="C231" s="21" t="s">
+      <c r="C231" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D231" s="21"/>
+      <c r="D231" s="24"/>
     </row>
     <row r="233" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B233" s="18" t="s">
         <v>71</v>
       </c>
+      <c r="C233" s="18"/>
     </row>
     <row r="235" spans="2:4" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="C235" s="21" t="s">
+      <c r="C235" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D235" s="21"/>
+      <c r="D235" s="24"/>
     </row>
     <row r="271" spans="3:4" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C271" s="44" t="s">
+      <c r="C271" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="D271" s="44"/>
+      <c r="D271" s="20"/>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
@@ -3109,18 +3111,44 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="C271:D271"/>
-    <mergeCell ref="A153:E153"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="C154:E154"/>
-    <mergeCell ref="A136:C136"/>
-    <mergeCell ref="C235:D235"/>
-    <mergeCell ref="A178:E178"/>
-    <mergeCell ref="A179:B179"/>
-    <mergeCell ref="C179:E179"/>
-    <mergeCell ref="A173:E173"/>
-    <mergeCell ref="A174:B174"/>
-    <mergeCell ref="C174:E174"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="C188:D188"/>
+    <mergeCell ref="A184:B184"/>
+    <mergeCell ref="C184:E184"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:B169"/>
+    <mergeCell ref="C169:E169"/>
+    <mergeCell ref="A163:E163"/>
+    <mergeCell ref="A164:B164"/>
+    <mergeCell ref="C164:E164"/>
+    <mergeCell ref="A158:E158"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="C159:E159"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="C231:D231"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="A123:C123"/>
+    <mergeCell ref="A132:C132"/>
+    <mergeCell ref="A142:C142"/>
+    <mergeCell ref="A148:E148"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="C149:E149"/>
+    <mergeCell ref="A183:E183"/>
+    <mergeCell ref="C147:D147"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:B94"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A102:B102"/>
     <mergeCell ref="A103:B103"/>
@@ -3137,44 +3165,18 @@
     <mergeCell ref="A62:B62"/>
     <mergeCell ref="A63:B63"/>
     <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="C231:D231"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="A123:C123"/>
-    <mergeCell ref="A132:C132"/>
-    <mergeCell ref="A142:C142"/>
-    <mergeCell ref="A148:E148"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="C149:E149"/>
-    <mergeCell ref="A183:E183"/>
-    <mergeCell ref="C147:D147"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="C188:D188"/>
-    <mergeCell ref="A184:B184"/>
-    <mergeCell ref="C184:E184"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:B169"/>
-    <mergeCell ref="C169:E169"/>
-    <mergeCell ref="A163:E163"/>
-    <mergeCell ref="A164:B164"/>
-    <mergeCell ref="C164:E164"/>
-    <mergeCell ref="A158:E158"/>
-    <mergeCell ref="A159:B159"/>
-    <mergeCell ref="C159:E159"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C271:D271"/>
+    <mergeCell ref="A153:E153"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="C154:E154"/>
+    <mergeCell ref="A136:C136"/>
+    <mergeCell ref="C235:D235"/>
+    <mergeCell ref="A178:E178"/>
+    <mergeCell ref="A179:B179"/>
+    <mergeCell ref="C179:E179"/>
+    <mergeCell ref="A173:E173"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="C174:E174"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="68" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Meme Agile.xlsx
+++ b/Meme Agile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\github\kelompok_meme_laporan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11158B5E-12A5-46C9-A10C-B8DA74C69CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130932A1-7155-49AB-A65B-8319141208D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BD1CD595-25D7-451D-99CB-E4C06CA26580}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="176">
   <si>
     <t>Product Backlog &amp; User Story</t>
   </si>
@@ -553,9 +553,6 @@
   </si>
   <si>
     <t>ada daya tarik yang kuat</t>
-  </si>
-  <si>
-    <t>Strong</t>
   </si>
 </sst>
 </file>
@@ -1506,8 +1503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C4E763-3BF0-4DCE-A690-0A0674D041AB}">
   <dimension ref="A1:G279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A291" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I237" sqref="I237"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1949,7 +1946,7 @@
         <v>175</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>176</v>
+        <v>24</v>
       </c>
       <c r="G55" s="16">
         <v>5</v>

--- a/Meme Agile.xlsx
+++ b/Meme Agile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\github\kelompok_meme_laporan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130932A1-7155-49AB-A65B-8319141208D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DB3B59-8C40-47F8-B0B2-3A9F885E5C40}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BD1CD595-25D7-451D-99CB-E4C06CA26580}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{BD1CD595-25D7-451D-99CB-E4C06CA26580}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="179">
   <si>
     <t>Product Backlog &amp; User Story</t>
   </si>
@@ -553,6 +553,15 @@
   </si>
   <si>
     <t>ada daya tarik yang kuat</t>
+  </si>
+  <si>
+    <t>ada nya ruang percakapan dengan driver</t>
+  </si>
+  <si>
+    <t>Membantu customer untuk berkomunikasi dengan driver mengenai alamat tujuan pengantaran</t>
+  </si>
+  <si>
+    <t>Sebagai [Customer] memudahkan memberitahukan titik pengantaran</t>
   </si>
 </sst>
 </file>
@@ -766,7 +775,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -807,80 +816,89 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -905,13 +923,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>781049</xdr:colOff>
-      <xdr:row>188</xdr:row>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>206</xdr:row>
+      <xdr:row>207</xdr:row>
       <xdr:rowOff>27773</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -955,13 +973,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>207</xdr:row>
+      <xdr:row>208</xdr:row>
       <xdr:rowOff>161926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1371600</xdr:colOff>
-      <xdr:row>226</xdr:row>
+      <xdr:row>227</xdr:row>
       <xdr:rowOff>116122</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1005,13 +1023,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>428626</xdr:colOff>
-      <xdr:row>253</xdr:row>
+      <xdr:row>254</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>266701</xdr:colOff>
-      <xdr:row>267</xdr:row>
+      <xdr:row>268</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1055,13 +1073,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>668162</xdr:colOff>
-      <xdr:row>236</xdr:row>
+      <xdr:row>237</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>251</xdr:row>
+      <xdr:row>252</xdr:row>
       <xdr:rowOff>49184</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1105,13 +1123,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>236</xdr:row>
+      <xdr:row>237</xdr:row>
       <xdr:rowOff>147600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>251</xdr:row>
+      <xdr:row>252</xdr:row>
       <xdr:rowOff>43391</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1155,13 +1173,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>752476</xdr:colOff>
-      <xdr:row>253</xdr:row>
+      <xdr:row>254</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>268</xdr:row>
+      <xdr:row>269</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1501,182 +1519,182 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C4E763-3BF0-4DCE-A690-0A0674D041AB}">
-  <dimension ref="A1:G279"/>
+  <dimension ref="A1:G280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107:B107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" customWidth="1"/>
-    <col min="2" max="2" width="35.7265625" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" customWidth="1"/>
-    <col min="4" max="4" width="27.7265625" customWidth="1"/>
-    <col min="5" max="5" width="21.54296875" customWidth="1"/>
-    <col min="6" max="6" width="13.26953125" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:5" s="4" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="C1" s="31"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-    </row>
-    <row r="2" spans="3:5" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="24" t="s">
+    <row r="1" spans="3:5" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C1" s="40"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+    </row>
+    <row r="2" spans="3:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-    </row>
-    <row r="4" spans="3:5" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C4" s="39" t="s">
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+    </row>
+    <row r="4" spans="3:5" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C4" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-    </row>
-    <row r="6" spans="3:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+    </row>
+    <row r="6" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D6" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="3:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D7" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="3:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D8" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="3:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="3:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="D13" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="3:5" ht="21" x14ac:dyDescent="0.5">
+    <row r="14" spans="3:5" ht="21" x14ac:dyDescent="0.35">
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="3:5" ht="21" x14ac:dyDescent="0.5">
+    <row r="15" spans="3:5" ht="21" x14ac:dyDescent="0.35">
       <c r="D15" s="7">
         <v>2023</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="C18" s="24" t="s">
+    <row r="18" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C18" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-    </row>
-    <row r="20" spans="1:5" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="C20" s="42" t="s">
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+    </row>
+    <row r="20" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="C20" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-    </row>
-    <row r="22" spans="1:5" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+    </row>
+    <row r="22" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D22" s="9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
     </row>
-    <row r="26" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
     </row>
-    <row r="29" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
     </row>
-    <row r="42" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
     </row>
-    <row r="43" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A43" s="43" t="s">
+    <row r="43" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="43"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="44"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="28"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
         <v>8</v>
       </c>
@@ -1699,7 +1717,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>551</v>
       </c>
@@ -1722,7 +1740,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>552</v>
       </c>
@@ -1745,7 +1763,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>553</v>
       </c>
@@ -1768,7 +1786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>554</v>
       </c>
@@ -1791,7 +1809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>555</v>
       </c>
@@ -1814,7 +1832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>556</v>
       </c>
@@ -1837,7 +1855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>557</v>
       </c>
@@ -1860,7 +1878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>558</v>
       </c>
@@ -1883,7 +1901,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>559</v>
       </c>
@@ -1906,7 +1924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>560</v>
       </c>
@@ -1929,7 +1947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>561</v>
       </c>
@@ -1952,37 +1970,60 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A62" s="24" t="s">
+    <row r="56" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A56" s="46">
+        <v>562</v>
+      </c>
+      <c r="B56" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" s="47" t="s">
+        <v>176</v>
+      </c>
+      <c r="E56" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="F56" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G56" s="47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A62" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B62" s="24"/>
-    </row>
-    <row r="63" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A63" s="24" t="s">
+      <c r="B62" s="22"/>
+    </row>
+    <row r="63" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A63" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B63" s="24"/>
-    </row>
-    <row r="64" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A64" s="40" t="s">
+      <c r="B63" s="22"/>
+    </row>
+    <row r="64" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A64" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="B64" s="40"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="37" t="s">
+      <c r="B64" s="44"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="B65" s="35"/>
-    </row>
-    <row r="66" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A66" s="24" t="s">
+      <c r="B65" s="25"/>
+    </row>
+    <row r="66" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A66" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B66" s="24"/>
-    </row>
-    <row r="67" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B66" s="22"/>
+    </row>
+    <row r="67" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
         <v>8</v>
       </c>
@@ -1990,7 +2031,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A68" s="12">
         <v>551</v>
       </c>
@@ -1998,7 +2039,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A69" s="12">
         <v>552</v>
       </c>
@@ -2006,7 +2047,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="62" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A70" s="12">
         <v>553</v>
       </c>
@@ -2014,7 +2055,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="62" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A71" s="12">
         <v>554</v>
       </c>
@@ -2022,7 +2063,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A72" s="12">
         <v>555</v>
       </c>
@@ -2030,7 +2071,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A73" s="12">
         <v>557</v>
       </c>
@@ -2038,37 +2079,37 @@
         <v>51</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A75" s="24" t="s">
+    <row r="75" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A75" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B75" s="24"/>
-    </row>
-    <row r="76" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A76" s="24" t="s">
+      <c r="B75" s="22"/>
+    </row>
+    <row r="76" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A76" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B76" s="24"/>
-    </row>
-    <row r="77" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A77" s="33" t="s">
+      <c r="B76" s="22"/>
+    </row>
+    <row r="77" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A77" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B77" s="33"/>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" s="37" t="s">
+      <c r="B77" s="23"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="B78" s="35"/>
-    </row>
-    <row r="79" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A79" s="36" t="s">
+      <c r="B78" s="25"/>
+    </row>
+    <row r="79" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A79" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B79" s="36"/>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B79" s="21"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>8</v>
       </c>
@@ -2076,7 +2117,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>558</v>
       </c>
@@ -2084,37 +2125,37 @@
         <v>52</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A83" s="24" t="s">
+    <row r="83" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A83" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B83" s="24"/>
-    </row>
-    <row r="84" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A84" s="24" t="s">
+      <c r="B83" s="22"/>
+    </row>
+    <row r="84" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A84" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="B84" s="24"/>
-    </row>
-    <row r="85" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A85" s="33" t="s">
+      <c r="B84" s="22"/>
+    </row>
+    <row r="85" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A85" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B85" s="33"/>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" s="34" t="s">
+      <c r="B85" s="23"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B86" s="35"/>
-    </row>
-    <row r="87" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A87" s="36" t="s">
+      <c r="B86" s="25"/>
+    </row>
+    <row r="87" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A87" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B87" s="36"/>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B87" s="21"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>8</v>
       </c>
@@ -2122,7 +2163,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>556</v>
       </c>
@@ -2130,35 +2171,35 @@
         <v>57</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A91" s="24" t="s">
+    <row r="91" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A91" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B91" s="24"/>
-    </row>
-    <row r="92" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A92" s="24" t="s">
+      <c r="B91" s="22"/>
+    </row>
+    <row r="92" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A92" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="B92" s="24"/>
-    </row>
-    <row r="93" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A93" s="33" t="s">
+      <c r="B92" s="22"/>
+    </row>
+    <row r="93" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A93" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B93" s="33"/>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94" s="34"/>
-      <c r="B94" s="35"/>
-    </row>
-    <row r="95" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A95" s="36" t="s">
+      <c r="B93" s="23"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="24"/>
+      <c r="B94" s="25"/>
+    </row>
+    <row r="95" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A95" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B95" s="36"/>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B95" s="21"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>8</v>
       </c>
@@ -2166,7 +2207,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>559</v>
       </c>
@@ -2174,7 +2215,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>560</v>
       </c>
@@ -2182,35 +2223,35 @@
         <v>168</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A100" s="24" t="s">
+    <row r="100" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A100" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B100" s="24"/>
-    </row>
-    <row r="101" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A101" s="24" t="s">
+      <c r="B100" s="22"/>
+    </row>
+    <row r="101" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A101" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="B101" s="24"/>
-    </row>
-    <row r="102" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A102" s="33" t="s">
+      <c r="B101" s="22"/>
+    </row>
+    <row r="102" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A102" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B102" s="33"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A103" s="34"/>
-      <c r="B103" s="35"/>
-    </row>
-    <row r="104" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A104" s="36" t="s">
+      <c r="B102" s="23"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="24"/>
+      <c r="B103" s="25"/>
+    </row>
+    <row r="104" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A104" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B104" s="36"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B104" s="21"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>8</v>
       </c>
@@ -2218,7 +2259,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>561</v>
       </c>
@@ -2226,58 +2267,46 @@
         <v>173</v>
       </c>
     </row>
-    <row r="108" spans="1:6" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="C108" s="24" t="s">
+    <row r="107" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="20">
+        <v>562</v>
+      </c>
+      <c r="B107" s="20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C109" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="D108" s="24"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A109" s="1" t="s">
+      <c r="D109" s="22"/>
+    </row>
+    <row r="110" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B110" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C110" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="D110" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E109" s="1" t="s">
+      <c r="E110" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F109" s="1" t="s">
+      <c r="F110" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A110" s="1">
+    <row r="111" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
         <v>1</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B111" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D110" s="10">
-        <v>45039</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F110" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A111" s="1">
-        <v>2</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>75</v>
@@ -2286,866 +2315,860 @@
         <v>45039</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F111" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>75</v>
       </c>
       <c r="D112" s="10">
+        <v>45039</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F112" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>3</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D113" s="10">
         <v>45041</v>
       </c>
-      <c r="E112" s="1" t="s">
+      <c r="E113" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F112" s="1">
+      <c r="F113" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A113" s="1">
+    <row r="114" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
         <v>4</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B114" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C114" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D113" s="10">
+      <c r="D114" s="10">
         <v>45045</v>
       </c>
-      <c r="E113" s="1" t="s">
+      <c r="E114" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="F113" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A114" s="1">
-        <v>5</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D114" s="10">
-        <v>45048</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="F114" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
+        <v>5</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D115" s="10">
+        <v>45048</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F115" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
         <v>6</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D115" s="10">
-        <v>45079</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F115" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A116" s="1">
-        <v>7</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C116" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D116" s="10">
+        <v>45079</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F116" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>7</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D116" s="10">
+      <c r="D117" s="10">
         <v>45088</v>
       </c>
-      <c r="E116" s="1" t="s">
+      <c r="E117" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F116" s="1">
+      <c r="F117" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A117" s="1">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
         <v>8</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B118" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C118" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D117" s="10">
+      <c r="D118" s="10">
         <v>45095</v>
       </c>
-      <c r="E117" s="1" t="s">
+      <c r="E118" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="F117" s="1">
+      <c r="F118" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A118" s="1">
+    <row r="119" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
         <v>9</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D118" s="10">
-        <v>45098</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F118" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A119" s="1">
-        <v>10</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C119" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D119" s="10">
+        <v>45098</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F119" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>10</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D119" s="10">
+      <c r="D120" s="10">
         <v>45102</v>
       </c>
-      <c r="E119" s="1" t="s">
+      <c r="E120" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="F119" s="1">
+      <c r="F120" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A120" s="1">
+    <row r="121" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
         <v>11</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B121" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C121" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D120" s="10">
+      <c r="D121" s="10">
         <v>45112</v>
       </c>
-      <c r="E120" s="1" t="s">
+      <c r="E121" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F120" s="1">
+      <c r="F121" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:6" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="C122" s="24" t="s">
+    <row r="123" spans="1:6" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C123" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="D122" s="24"/>
-    </row>
-    <row r="123" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A123" s="41" t="s">
+      <c r="D123" s="22"/>
+    </row>
+    <row r="124" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A124" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="B123" s="41"/>
-      <c r="C123" s="41"/>
-    </row>
-    <row r="124" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A124" s="1" t="s">
+      <c r="B124" s="36"/>
+      <c r="C124" s="36"/>
+    </row>
+    <row r="125" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B125" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C125" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A125" s="1" t="s">
+    <row r="126" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B126" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C126" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A126" s="1" t="s">
+    <row r="127" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B127" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C126" s="1"/>
-    </row>
-    <row r="127" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A127" s="1" t="s">
+      <c r="C127" s="1"/>
+    </row>
+    <row r="128" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B127" s="1"/>
-      <c r="C127" s="1"/>
-    </row>
-    <row r="128" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A128" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
     </row>
-    <row r="129" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
     </row>
-    <row r="132" spans="1:3" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A132" s="23" t="s">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+    </row>
+    <row r="133" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A133" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="B132" s="23"/>
-      <c r="C132" s="23"/>
-    </row>
-    <row r="133" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A133" s="1" t="s">
+      <c r="B133" s="37"/>
+      <c r="C133" s="37"/>
+    </row>
+    <row r="134" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B134" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="C134" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A134" s="1" t="s">
+    <row r="135" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B135" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="C135" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A136" s="23" t="s">
+    <row r="137" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A137" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="B136" s="23"/>
-      <c r="C136" s="23"/>
-    </row>
-    <row r="137" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A137" s="1" t="s">
+      <c r="B137" s="37"/>
+      <c r="C137" s="37"/>
+    </row>
+    <row r="138" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="B138" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="C138" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A138" s="1" t="s">
+    <row r="139" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B138" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A139" s="1"/>
       <c r="B139" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C140" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A141" s="1"/>
+      <c r="B141" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C141" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="19"/>
-      <c r="B141" s="19"/>
-      <c r="C141" s="19"/>
-    </row>
-    <row r="142" spans="1:3" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A142" s="23" t="s">
+    <row r="142" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="19"/>
+      <c r="B142" s="19"/>
+      <c r="C142" s="19"/>
+    </row>
+    <row r="143" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A143" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="B142" s="23"/>
-      <c r="C142" s="23"/>
-    </row>
-    <row r="143" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A143" s="1" t="s">
+      <c r="B143" s="37"/>
+      <c r="C143" s="37"/>
+    </row>
+    <row r="144" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="B144" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="C144" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A144" s="1"/>
-      <c r="B144" s="1" t="s">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="1"/>
+      <c r="B145" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="C145" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="1:5" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="C147" s="24" t="s">
+    <row r="148" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C148" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="D147" s="24"/>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A148" s="21" t="s">
+      <c r="D148" s="22"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="B148" s="21"/>
-      <c r="C148" s="21"/>
-      <c r="D148" s="21"/>
-      <c r="E148" s="21"/>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A149" s="22" t="s">
+      <c r="B149" s="38"/>
+      <c r="C149" s="38"/>
+      <c r="D149" s="38"/>
+      <c r="E149" s="38"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="B149" s="22"/>
-      <c r="C149" s="22" t="s">
+      <c r="B150" s="39"/>
+      <c r="C150" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="D149" s="22"/>
-      <c r="E149" s="22"/>
-    </row>
-    <row r="150" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A150" s="1" t="s">
+      <c r="D150" s="39"/>
+      <c r="E150" s="39"/>
+    </row>
+    <row r="151" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="B151" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="C151" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D150" s="1" t="s">
+      <c r="D151" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E150" s="1" t="s">
+      <c r="E151" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A151" s="1" t="s">
+    <row r="152" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="B152" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="C152" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="D152" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E151" s="1" t="s">
+      <c r="E152" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A153" s="21" t="s">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="B153" s="21"/>
-      <c r="C153" s="21"/>
-      <c r="D153" s="21"/>
-      <c r="E153" s="21"/>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A154" s="22" t="s">
+      <c r="B154" s="38"/>
+      <c r="C154" s="38"/>
+      <c r="D154" s="38"/>
+      <c r="E154" s="38"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="B154" s="22"/>
-      <c r="C154" s="22" t="s">
+      <c r="B155" s="39"/>
+      <c r="C155" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="D154" s="22"/>
-      <c r="E154" s="22"/>
-    </row>
-    <row r="155" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A155" s="1" t="s">
+      <c r="D155" s="39"/>
+      <c r="E155" s="39"/>
+    </row>
+    <row r="156" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="B156" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="C156" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D155" s="1" t="s">
+      <c r="D156" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E155" s="1" t="s">
+      <c r="E156" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A156" s="1" t="s">
+    <row r="157" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="B157" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="C157" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D156" s="1" t="s">
+      <c r="D157" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E156" s="1" t="s">
+      <c r="E157" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A158" s="25" t="s">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="B158" s="26"/>
-      <c r="C158" s="26"/>
-      <c r="D158" s="26"/>
-      <c r="E158" s="27"/>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A159" s="28" t="s">
+      <c r="B159" s="33"/>
+      <c r="C159" s="33"/>
+      <c r="D159" s="33"/>
+      <c r="E159" s="34"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="B159" s="29"/>
-      <c r="C159" s="28" t="s">
+      <c r="B160" s="30"/>
+      <c r="C160" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="D159" s="30"/>
-      <c r="E159" s="29"/>
-    </row>
-    <row r="160" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A160" s="1" t="s">
+      <c r="D160" s="31"/>
+      <c r="E160" s="30"/>
+    </row>
+    <row r="161" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="B161" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="C161" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D160" s="1" t="s">
+      <c r="D161" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E160" s="1" t="s">
+      <c r="E161" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A161" s="1" t="s">
+    <row r="162" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="B162" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C161" s="1" t="s">
+      <c r="C162" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D161" s="1" t="s">
+      <c r="D162" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E161" s="1" t="s">
+      <c r="E162" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A163" s="25" t="s">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="B163" s="26"/>
-      <c r="C163" s="26"/>
-      <c r="D163" s="26"/>
-      <c r="E163" s="27"/>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A164" s="28" t="s">
+      <c r="B164" s="33"/>
+      <c r="C164" s="33"/>
+      <c r="D164" s="33"/>
+      <c r="E164" s="34"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="B164" s="29"/>
-      <c r="C164" s="28" t="s">
+      <c r="B165" s="30"/>
+      <c r="C165" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="D164" s="30"/>
-      <c r="E164" s="29"/>
-    </row>
-    <row r="165" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A165" s="1" t="s">
+      <c r="D165" s="31"/>
+      <c r="E165" s="30"/>
+    </row>
+    <row r="166" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="B166" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C165" s="1" t="s">
+      <c r="C166" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D165" s="1" t="s">
+      <c r="D166" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E165" s="1" t="s">
+      <c r="E166" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A166" s="1" t="s">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="B167" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C166" s="1" t="s">
+      <c r="C167" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D166" s="1" t="s">
+      <c r="D167" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E166" s="1" t="s">
+      <c r="E167" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A168" s="25" t="s">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="B168" s="26"/>
-      <c r="C168" s="26"/>
-      <c r="D168" s="26"/>
-      <c r="E168" s="27"/>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A169" s="28" t="s">
+      <c r="B169" s="33"/>
+      <c r="C169" s="33"/>
+      <c r="D169" s="33"/>
+      <c r="E169" s="34"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="B169" s="29"/>
-      <c r="C169" s="28" t="s">
+      <c r="B170" s="30"/>
+      <c r="C170" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="D169" s="30"/>
-      <c r="E169" s="29"/>
-    </row>
-    <row r="170" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A170" s="1" t="s">
+      <c r="D170" s="31"/>
+      <c r="E170" s="30"/>
+    </row>
+    <row r="171" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="B171" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="C171" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D170" s="1" t="s">
+      <c r="D171" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E170" s="1" t="s">
+      <c r="E171" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A171" s="1"/>
-      <c r="B171" s="1"/>
-      <c r="C171" s="1"/>
-      <c r="D171" s="1"/>
-      <c r="E171" s="1"/>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A173" s="25" t="s">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="1"/>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+      <c r="E172" s="1"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="B173" s="26"/>
-      <c r="C173" s="26"/>
-      <c r="D173" s="26"/>
-      <c r="E173" s="27"/>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A174" s="28" t="s">
+      <c r="B174" s="33"/>
+      <c r="C174" s="33"/>
+      <c r="D174" s="33"/>
+      <c r="E174" s="34"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="B174" s="29"/>
-      <c r="C174" s="28" t="s">
+      <c r="B175" s="30"/>
+      <c r="C175" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="D174" s="30"/>
-      <c r="E174" s="29"/>
-    </row>
-    <row r="175" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A175" s="1" t="s">
+      <c r="D175" s="31"/>
+      <c r="E175" s="30"/>
+    </row>
+    <row r="176" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B175" s="1" t="s">
+      <c r="B176" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C175" s="1" t="s">
+      <c r="C176" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D175" s="1" t="s">
+      <c r="D176" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E175" s="1" t="s">
+      <c r="E176" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A176" s="1"/>
-      <c r="B176" s="1"/>
-      <c r="C176" s="1"/>
-      <c r="D176" s="1"/>
-      <c r="E176" s="1"/>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A178" s="25" t="s">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="1"/>
+      <c r="B177" s="1"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+      <c r="E177" s="1"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="B178" s="26"/>
-      <c r="C178" s="26"/>
-      <c r="D178" s="26"/>
-      <c r="E178" s="27"/>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A179" s="28" t="s">
+      <c r="B179" s="33"/>
+      <c r="C179" s="33"/>
+      <c r="D179" s="33"/>
+      <c r="E179" s="34"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="B179" s="29"/>
-      <c r="C179" s="28" t="s">
+      <c r="B180" s="30"/>
+      <c r="C180" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="D179" s="30"/>
-      <c r="E179" s="29"/>
-    </row>
-    <row r="180" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A180" s="1" t="s">
+      <c r="D180" s="31"/>
+      <c r="E180" s="30"/>
+    </row>
+    <row r="181" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="B181" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C180" s="1" t="s">
+      <c r="C181" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D180" s="1" t="s">
+      <c r="D181" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E180" s="1" t="s">
+      <c r="E181" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A181" s="1"/>
-      <c r="B181" s="1"/>
-      <c r="C181" s="1"/>
-      <c r="D181" s="1"/>
-      <c r="E181" s="1"/>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A183" s="25" t="s">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="1"/>
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+      <c r="E182" s="1"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="B183" s="26"/>
-      <c r="C183" s="26"/>
-      <c r="D183" s="26"/>
-      <c r="E183" s="27"/>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A184" s="28" t="s">
+      <c r="B184" s="33"/>
+      <c r="C184" s="33"/>
+      <c r="D184" s="33"/>
+      <c r="E184" s="34"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="B184" s="29"/>
-      <c r="C184" s="28" t="s">
+      <c r="B185" s="30"/>
+      <c r="C185" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="D184" s="30"/>
-      <c r="E184" s="29"/>
-    </row>
-    <row r="185" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A185" s="1" t="s">
+      <c r="D185" s="31"/>
+      <c r="E185" s="30"/>
+    </row>
+    <row r="186" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="B186" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C185" s="1" t="s">
+      <c r="C186" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D185" s="1" t="s">
+      <c r="D186" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E185" s="1" t="s">
+      <c r="E186" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A186" s="1"/>
-      <c r="B186" s="1"/>
-      <c r="C186" s="1"/>
-      <c r="D186" s="1"/>
-      <c r="E186" s="1"/>
-    </row>
-    <row r="188" spans="1:5" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="C188" s="24" t="s">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="1"/>
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1"/>
+      <c r="E187" s="1"/>
+    </row>
+    <row r="189" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C189" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="D188" s="24"/>
-    </row>
-    <row r="229" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B229" s="18" t="s">
+      <c r="D189" s="22"/>
+    </row>
+    <row r="230" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B230" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C229" s="18"/>
-    </row>
-    <row r="231" spans="2:4" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="C231" s="24" t="s">
+      <c r="C230" s="18"/>
+    </row>
+    <row r="232" spans="2:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C232" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D231" s="24"/>
-    </row>
-    <row r="233" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B233" s="18" t="s">
+      <c r="D232" s="22"/>
+    </row>
+    <row r="234" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B234" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C233" s="18"/>
-    </row>
-    <row r="235" spans="2:4" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="C235" s="24" t="s">
+      <c r="C234" s="18"/>
+    </row>
+    <row r="236" spans="2:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C236" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D235" s="24"/>
-    </row>
-    <row r="271" spans="3:4" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C271" s="20" t="s">
+      <c r="D236" s="22"/>
+    </row>
+    <row r="272" spans="3:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C272" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="D271" s="20"/>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A273" t="s">
+      <c r="D272" s="45"/>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A275" t="s">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F278" t="s">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F279" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F279" t="s">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F280" t="s">
         <v>131</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="C188:D188"/>
-    <mergeCell ref="A184:B184"/>
-    <mergeCell ref="C184:E184"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:B169"/>
-    <mergeCell ref="C169:E169"/>
-    <mergeCell ref="A163:E163"/>
-    <mergeCell ref="A164:B164"/>
-    <mergeCell ref="C164:E164"/>
-    <mergeCell ref="A158:E158"/>
-    <mergeCell ref="A159:B159"/>
-    <mergeCell ref="C159:E159"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="C231:D231"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="A123:C123"/>
-    <mergeCell ref="A132:C132"/>
-    <mergeCell ref="A142:C142"/>
-    <mergeCell ref="A148:E148"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="C149:E149"/>
-    <mergeCell ref="A183:E183"/>
-    <mergeCell ref="C147:D147"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C272:D272"/>
+    <mergeCell ref="A154:E154"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="C155:E155"/>
+    <mergeCell ref="A137:C137"/>
+    <mergeCell ref="C236:D236"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="C180:E180"/>
+    <mergeCell ref="A174:E174"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="C175:E175"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A102:B102"/>
     <mergeCell ref="A103:B103"/>
@@ -3162,18 +3185,44 @@
     <mergeCell ref="A62:B62"/>
     <mergeCell ref="A63:B63"/>
     <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C271:D271"/>
-    <mergeCell ref="A153:E153"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="C154:E154"/>
-    <mergeCell ref="A136:C136"/>
-    <mergeCell ref="C235:D235"/>
-    <mergeCell ref="A178:E178"/>
-    <mergeCell ref="A179:B179"/>
-    <mergeCell ref="C179:E179"/>
-    <mergeCell ref="A173:E173"/>
-    <mergeCell ref="A174:B174"/>
-    <mergeCell ref="C174:E174"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C232:D232"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="A124:C124"/>
+    <mergeCell ref="A133:C133"/>
+    <mergeCell ref="A143:C143"/>
+    <mergeCell ref="A149:E149"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="C150:E150"/>
+    <mergeCell ref="A184:E184"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="C189:D189"/>
+    <mergeCell ref="A185:B185"/>
+    <mergeCell ref="C185:E185"/>
+    <mergeCell ref="A169:E169"/>
+    <mergeCell ref="A170:B170"/>
+    <mergeCell ref="C170:E170"/>
+    <mergeCell ref="A164:E164"/>
+    <mergeCell ref="A165:B165"/>
+    <mergeCell ref="C165:E165"/>
+    <mergeCell ref="A159:E159"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="C160:E160"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="68" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Meme Agile.xlsx
+++ b/Meme Agile.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13843d8ee8f93238/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DB3B59-8C40-47F8-B0B2-3A9F885E5C40}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{15DB3B59-8C40-47F8-B0B2-3A9F885E5C40}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAD49B3D-F185-4200-A13E-F5E99E53CCFF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{BD1CD595-25D7-451D-99CB-E4C06CA26580}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="180">
   <si>
     <t>Product Backlog &amp; User Story</t>
   </si>
@@ -562,6 +562,9 @@
   </si>
   <si>
     <t>Sebagai [Customer] memudahkan memberitahukan titik pengantaran</t>
+  </si>
+  <si>
+    <t>ada nya rating rekomdasi pembelian, sehingga membantu customer memilih produk yg banyak di pesan</t>
   </si>
 </sst>
 </file>
@@ -775,7 +778,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -819,19 +822,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -842,63 +905,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -923,13 +929,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>781049</xdr:colOff>
-      <xdr:row>189</xdr:row>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>207</xdr:row>
+      <xdr:row>208</xdr:row>
       <xdr:rowOff>27773</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -973,13 +979,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>208</xdr:row>
+      <xdr:row>209</xdr:row>
       <xdr:rowOff>161926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1371600</xdr:colOff>
-      <xdr:row>227</xdr:row>
+      <xdr:row>228</xdr:row>
       <xdr:rowOff>116122</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1023,13 +1029,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>428626</xdr:colOff>
-      <xdr:row>254</xdr:row>
+      <xdr:row>255</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>266701</xdr:colOff>
-      <xdr:row>268</xdr:row>
+      <xdr:row>269</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1073,13 +1079,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>668162</xdr:colOff>
-      <xdr:row>237</xdr:row>
+      <xdr:row>238</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>252</xdr:row>
+      <xdr:row>253</xdr:row>
       <xdr:rowOff>49184</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1123,13 +1129,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>237</xdr:row>
+      <xdr:row>238</xdr:row>
       <xdr:rowOff>147600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>252</xdr:row>
+      <xdr:row>253</xdr:row>
       <xdr:rowOff>43391</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1173,13 +1179,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>752476</xdr:colOff>
-      <xdr:row>254</xdr:row>
+      <xdr:row>255</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>269</xdr:row>
+      <xdr:row>270</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1519,10 +1525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C4E763-3BF0-4DCE-A690-0A0674D041AB}">
-  <dimension ref="A1:G280"/>
+  <dimension ref="A1:G281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A107" sqref="A107:B107"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90:B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1537,12 +1543,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:5" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C1" s="40"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="3:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="28" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="42"/>
@@ -1584,18 +1590,18 @@
       </c>
     </row>
     <row r="18" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
     </row>
     <row r="20" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
     </row>
     <row r="22" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D22" s="9" t="s">
@@ -1684,15 +1690,15 @@
       <c r="A42" s="11"/>
     </row>
     <row r="43" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="27" t="s">
+      <c r="A43" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="28"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="48"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
@@ -1971,39 +1977,39 @@
       </c>
     </row>
     <row r="56" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A56" s="46">
+      <c r="A56" s="22">
         <v>562</v>
       </c>
-      <c r="B56" s="46" t="s">
+      <c r="B56" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="46" t="s">
+      <c r="C56" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D56" s="47" t="s">
+      <c r="D56" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="E56" s="47" t="s">
+      <c r="E56" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="F56" s="47" t="s">
+      <c r="F56" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G56" s="47">
+      <c r="G56" s="23">
         <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A62" s="22" t="s">
+      <c r="A62" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="B62" s="22"/>
+      <c r="B62" s="28"/>
     </row>
     <row r="63" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A63" s="22" t="s">
+      <c r="A63" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B63" s="22"/>
+      <c r="B63" s="28"/>
     </row>
     <row r="64" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A64" s="44" t="s">
@@ -2012,16 +2018,16 @@
       <c r="B64" s="44"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="35" t="s">
+      <c r="A65" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="B65" s="25"/>
+      <c r="B65" s="39"/>
     </row>
     <row r="66" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A66" s="22" t="s">
+      <c r="A66" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B66" s="22"/>
+      <c r="B66" s="28"/>
     </row>
     <row r="67" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
@@ -2080,34 +2086,34 @@
       </c>
     </row>
     <row r="75" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A75" s="22" t="s">
+      <c r="A75" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="B75" s="22"/>
+      <c r="B75" s="28"/>
     </row>
     <row r="76" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A76" s="22" t="s">
+      <c r="A76" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B76" s="22"/>
+      <c r="B76" s="28"/>
     </row>
     <row r="77" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A77" s="23" t="s">
+      <c r="A77" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="B77" s="23"/>
+      <c r="B77" s="37"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="35" t="s">
+      <c r="A78" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="B78" s="25"/>
+      <c r="B78" s="39"/>
     </row>
     <row r="79" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A79" s="21" t="s">
+      <c r="A79" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="B79" s="21"/>
+      <c r="B79" s="40"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
@@ -2126,34 +2132,34 @@
       </c>
     </row>
     <row r="83" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A83" s="22" t="s">
+      <c r="A83" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="B83" s="22"/>
+      <c r="B83" s="28"/>
     </row>
     <row r="84" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A84" s="22" t="s">
+      <c r="A84" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="B84" s="22"/>
+      <c r="B84" s="28"/>
     </row>
     <row r="85" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A85" s="23" t="s">
+      <c r="A85" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="B85" s="23"/>
+      <c r="B85" s="37"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="24" t="s">
+      <c r="A86" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B86" s="25"/>
+      <c r="B86" s="39"/>
     </row>
     <row r="87" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A87" s="21" t="s">
+      <c r="A87" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="B87" s="21"/>
+      <c r="B87" s="40"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
@@ -2171,162 +2177,150 @@
         <v>57</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A91" s="22" t="s">
+    <row r="90" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A90" s="21">
+        <v>560</v>
+      </c>
+      <c r="B90" s="21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A92" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="B91" s="22"/>
-    </row>
-    <row r="92" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A92" s="22" t="s">
+      <c r="B92" s="28"/>
+    </row>
+    <row r="93" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A93" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="B92" s="22"/>
-    </row>
-    <row r="93" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A93" s="23" t="s">
+      <c r="B93" s="28"/>
+    </row>
+    <row r="94" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A94" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="B93" s="23"/>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="24"/>
-      <c r="B94" s="25"/>
-    </row>
-    <row r="95" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A95" s="21" t="s">
+      <c r="B94" s="37"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="38"/>
+      <c r="B95" s="39"/>
+    </row>
+    <row r="96" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A96" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="B95" s="21"/>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
+      <c r="B96" s="40"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B97" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
+    <row r="98" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
         <v>559</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B98" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
+    <row r="99" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
         <v>560</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B99" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A100" s="22" t="s">
+    <row r="101" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A101" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="B100" s="22"/>
-    </row>
-    <row r="101" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A101" s="22" t="s">
+      <c r="B101" s="28"/>
+    </row>
+    <row r="102" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A102" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="B101" s="22"/>
-    </row>
-    <row r="102" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A102" s="23" t="s">
+      <c r="B102" s="28"/>
+    </row>
+    <row r="103" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A103" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="B102" s="23"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="24"/>
-      <c r="B103" s="25"/>
-    </row>
-    <row r="104" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A104" s="21" t="s">
+      <c r="B103" s="37"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="38"/>
+      <c r="B104" s="39"/>
+    </row>
+    <row r="105" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A105" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="B104" s="21"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
+      <c r="B105" s="40"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B106" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A106" s="1">
+    <row r="107" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
         <v>561</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B107" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="20">
+    <row r="108" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A108" s="20">
         <v>562</v>
       </c>
-      <c r="B107" s="20" t="s">
+      <c r="B108" s="20" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="109" spans="1:6" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C109" s="22" t="s">
+    <row r="110" spans="1:6" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C110" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="D109" s="22"/>
-    </row>
-    <row r="110" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
+      <c r="D110" s="28"/>
+    </row>
+    <row r="111" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B111" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C111" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="D111" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E110" s="1" t="s">
+      <c r="E111" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F110" s="1" t="s">
+      <c r="F111" s="1" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A111" s="1">
-        <v>1</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D111" s="10">
-        <v>45039</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F111" s="1">
-        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>75</v>
@@ -2335,7 +2329,7 @@
         <v>45039</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F112" s="1">
         <v>2</v>
@@ -2343,59 +2337,59 @@
     </row>
     <row r="113" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>75</v>
       </c>
       <c r="D113" s="10">
-        <v>45041</v>
+        <v>45039</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F113" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D114" s="10">
-        <v>45045</v>
+        <v>45041</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F114" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D115" s="10">
-        <v>45048</v>
+        <v>45045</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F115" s="1">
         <v>5</v>
@@ -2403,261 +2397,272 @@
     </row>
     <row r="116" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="D116" s="10">
-        <v>45079</v>
+        <v>45048</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>152</v>
+        <v>82</v>
       </c>
       <c r="F116" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C117" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D117" s="10">
+        <v>45079</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F117" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>7</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D117" s="10">
+      <c r="D118" s="10">
         <v>45088</v>
       </c>
-      <c r="E117" s="1" t="s">
+      <c r="E118" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F117" s="1">
+      <c r="F118" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="1">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
         <v>8</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B119" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C119" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D118" s="10">
+      <c r="D119" s="10">
         <v>45095</v>
       </c>
-      <c r="E118" s="1" t="s">
+      <c r="E119" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="F118" s="1">
+      <c r="F119" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A119" s="1">
+    <row r="120" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
         <v>9</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D119" s="10">
-        <v>45098</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F119" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="1">
-        <v>10</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C120" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D120" s="10">
+        <v>45098</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F120" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>10</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C121" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D120" s="10">
+      <c r="D121" s="10">
         <v>45102</v>
       </c>
-      <c r="E120" s="1" t="s">
+      <c r="E121" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="F120" s="1">
+      <c r="F121" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A121" s="1">
+    <row r="122" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
         <v>11</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B122" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C122" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D121" s="10">
+      <c r="D122" s="10">
         <v>45112</v>
       </c>
-      <c r="E121" s="1" t="s">
+      <c r="E122" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F121" s="1">
+      <c r="F122" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:6" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C123" s="22" t="s">
+    <row r="124" spans="1:6" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C124" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="D123" s="22"/>
-    </row>
-    <row r="124" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A124" s="36" t="s">
+      <c r="D124" s="28"/>
+    </row>
+    <row r="125" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A125" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="B124" s="36"/>
-      <c r="C124" s="36"/>
-    </row>
-    <row r="125" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="B125" s="45"/>
+      <c r="C125" s="45"/>
     </row>
     <row r="126" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B127" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C127" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C127" s="1"/>
     </row>
     <row r="128" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C128" s="1"/>
+    </row>
+    <row r="129" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
-    </row>
-    <row r="129" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
     </row>
-    <row r="130" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
     </row>
-    <row r="133" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="37" t="s">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+    </row>
+    <row r="134" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A134" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="B133" s="37"/>
-      <c r="C133" s="37"/>
-    </row>
-    <row r="134" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
+      <c r="B134" s="27"/>
+      <c r="C134" s="27"/>
+    </row>
+    <row r="135" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B135" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="C135" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
+    <row r="136" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B136" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="C136" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A137" s="37" t="s">
+    <row r="138" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A138" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="B137" s="37"/>
-      <c r="C137" s="37"/>
-    </row>
-    <row r="138" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
+      <c r="B138" s="27"/>
+      <c r="C138" s="27"/>
+    </row>
+    <row r="139" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="B139" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="C139" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
+    <row r="140" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B139" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A140" s="1"/>
       <c r="B140" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2666,563 +2671,572 @@
         <v>100</v>
       </c>
       <c r="C141" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A142" s="1"/>
+      <c r="B142" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="19"/>
-      <c r="B142" s="19"/>
-      <c r="C142" s="19"/>
-    </row>
-    <row r="143" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A143" s="37" t="s">
+    <row r="143" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="19"/>
+      <c r="B143" s="19"/>
+      <c r="C143" s="19"/>
+    </row>
+    <row r="144" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A144" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="B143" s="37"/>
-      <c r="C143" s="37"/>
-    </row>
-    <row r="144" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
+      <c r="B144" s="27"/>
+      <c r="C144" s="27"/>
+    </row>
+    <row r="145" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B145" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="C145" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="1"/>
-      <c r="B145" s="1" t="s">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="1"/>
+      <c r="B146" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="C146" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="148" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C148" s="22" t="s">
+    <row r="149" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C149" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="D148" s="22"/>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="38" t="s">
+      <c r="D149" s="28"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="B149" s="38"/>
-      <c r="C149" s="38"/>
-      <c r="D149" s="38"/>
-      <c r="E149" s="38"/>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="39" t="s">
+      <c r="B150" s="25"/>
+      <c r="C150" s="25"/>
+      <c r="D150" s="25"/>
+      <c r="E150" s="25"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="B150" s="39"/>
-      <c r="C150" s="39" t="s">
+      <c r="B151" s="26"/>
+      <c r="C151" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="D150" s="39"/>
-      <c r="E150" s="39"/>
-    </row>
-    <row r="151" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
+      <c r="D151" s="26"/>
+      <c r="E151" s="26"/>
+    </row>
+    <row r="152" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="B152" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="C152" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="D152" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E151" s="1" t="s">
+      <c r="E152" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
+    <row r="153" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="B153" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C152" s="1" t="s">
+      <c r="C153" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D152" s="1" t="s">
+      <c r="D153" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E152" s="1" t="s">
+      <c r="E153" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="38" t="s">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="B154" s="38"/>
-      <c r="C154" s="38"/>
-      <c r="D154" s="38"/>
-      <c r="E154" s="38"/>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="39" t="s">
+      <c r="B155" s="25"/>
+      <c r="C155" s="25"/>
+      <c r="D155" s="25"/>
+      <c r="E155" s="25"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="B155" s="39"/>
-      <c r="C155" s="39" t="s">
+      <c r="B156" s="26"/>
+      <c r="C156" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="D155" s="39"/>
-      <c r="E155" s="39"/>
-    </row>
-    <row r="156" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>106</v>
-      </c>
+      <c r="D156" s="26"/>
+      <c r="E156" s="26"/>
     </row>
     <row r="157" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="B158" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C157" s="1" t="s">
+      <c r="C158" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D157" s="1" t="s">
+      <c r="D158" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E157" s="1" t="s">
+      <c r="E158" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="B159" s="33"/>
-      <c r="C159" s="33"/>
-      <c r="D159" s="33"/>
-      <c r="E159" s="34"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B160" s="30"/>
+      <c r="C160" s="30"/>
+      <c r="D160" s="30"/>
+      <c r="E160" s="31"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="B160" s="30"/>
-      <c r="C160" s="29" t="s">
+      <c r="B161" s="33"/>
+      <c r="C161" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="D160" s="31"/>
-      <c r="E160" s="30"/>
-    </row>
-    <row r="161" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>106</v>
-      </c>
+      <c r="D161" s="34"/>
+      <c r="E161" s="33"/>
     </row>
     <row r="162" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="B163" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C162" s="1" t="s">
+      <c r="C163" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D162" s="1" t="s">
+      <c r="D163" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E162" s="1" t="s">
+      <c r="E163" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="B164" s="33"/>
-      <c r="C164" s="33"/>
-      <c r="D164" s="33"/>
-      <c r="E164" s="34"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="B165" s="30"/>
+      <c r="C165" s="30"/>
+      <c r="D165" s="30"/>
+      <c r="E165" s="31"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="B165" s="30"/>
-      <c r="C165" s="29" t="s">
+      <c r="B166" s="33"/>
+      <c r="C166" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="D165" s="31"/>
-      <c r="E165" s="30"/>
-    </row>
-    <row r="166" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
+      <c r="D166" s="34"/>
+      <c r="E166" s="33"/>
+    </row>
+    <row r="167" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="B167" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C166" s="1" t="s">
+      <c r="C167" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D166" s="1" t="s">
+      <c r="D167" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E166" s="1" t="s">
+      <c r="E167" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="B168" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C167" s="1" t="s">
+      <c r="C168" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D167" s="1" t="s">
+      <c r="D168" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E167" s="1" t="s">
+      <c r="E168" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="B169" s="33"/>
-      <c r="C169" s="33"/>
-      <c r="D169" s="33"/>
-      <c r="E169" s="34"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="B170" s="30"/>
+      <c r="C170" s="30"/>
+      <c r="D170" s="30"/>
+      <c r="E170" s="31"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="B170" s="30"/>
-      <c r="C170" s="29" t="s">
+      <c r="B171" s="33"/>
+      <c r="C171" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="D170" s="31"/>
-      <c r="E170" s="30"/>
-    </row>
-    <row r="171" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
+      <c r="D171" s="34"/>
+      <c r="E171" s="33"/>
+    </row>
+    <row r="172" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="B172" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C171" s="1" t="s">
+      <c r="C172" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D171" s="1" t="s">
+      <c r="D172" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E171" s="1" t="s">
+      <c r="E172" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="1"/>
-      <c r="B172" s="1"/>
-      <c r="C172" s="1"/>
-      <c r="D172" s="1"/>
-      <c r="E172" s="1"/>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="B174" s="33"/>
-      <c r="C174" s="33"/>
-      <c r="D174" s="33"/>
-      <c r="E174" s="34"/>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="1"/>
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+      <c r="E173" s="1"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="B175" s="30"/>
+      <c r="C175" s="30"/>
+      <c r="D175" s="30"/>
+      <c r="E175" s="31"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="B175" s="30"/>
-      <c r="C175" s="29" t="s">
+      <c r="B176" s="33"/>
+      <c r="C176" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="D175" s="31"/>
-      <c r="E175" s="30"/>
-    </row>
-    <row r="176" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A176" s="1" t="s">
+      <c r="D176" s="34"/>
+      <c r="E176" s="33"/>
+    </row>
+    <row r="177" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B176" s="1" t="s">
+      <c r="B177" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C176" s="1" t="s">
+      <c r="C177" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D176" s="1" t="s">
+      <c r="D177" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E176" s="1" t="s">
+      <c r="E177" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="1"/>
-      <c r="B177" s="1"/>
-      <c r="C177" s="1"/>
-      <c r="D177" s="1"/>
-      <c r="E177" s="1"/>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="B179" s="33"/>
-      <c r="C179" s="33"/>
-      <c r="D179" s="33"/>
-      <c r="E179" s="34"/>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="1"/>
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+      <c r="E178" s="1"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="B180" s="30"/>
+      <c r="C180" s="30"/>
+      <c r="D180" s="30"/>
+      <c r="E180" s="31"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="B180" s="30"/>
-      <c r="C180" s="29" t="s">
+      <c r="B181" s="33"/>
+      <c r="C181" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="D180" s="31"/>
-      <c r="E180" s="30"/>
-    </row>
-    <row r="181" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A181" s="1" t="s">
+      <c r="D181" s="34"/>
+      <c r="E181" s="33"/>
+    </row>
+    <row r="182" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="B182" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C181" s="1" t="s">
+      <c r="C182" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D181" s="1" t="s">
+      <c r="D182" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E181" s="1" t="s">
+      <c r="E182" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="1"/>
-      <c r="B182" s="1"/>
-      <c r="C182" s="1"/>
-      <c r="D182" s="1"/>
-      <c r="E182" s="1"/>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="B184" s="33"/>
-      <c r="C184" s="33"/>
-      <c r="D184" s="33"/>
-      <c r="E184" s="34"/>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="1"/>
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
+      <c r="E183" s="1"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="B185" s="30"/>
+      <c r="C185" s="30"/>
+      <c r="D185" s="30"/>
+      <c r="E185" s="31"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="B185" s="30"/>
-      <c r="C185" s="29" t="s">
+      <c r="B186" s="33"/>
+      <c r="C186" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="D185" s="31"/>
-      <c r="E185" s="30"/>
-    </row>
-    <row r="186" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A186" s="1" t="s">
+      <c r="D186" s="34"/>
+      <c r="E186" s="33"/>
+    </row>
+    <row r="187" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="B187" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C186" s="1" t="s">
+      <c r="C187" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D186" s="1" t="s">
+      <c r="D187" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E186" s="1" t="s">
+      <c r="E187" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" s="1"/>
-      <c r="B187" s="1"/>
-      <c r="C187" s="1"/>
-      <c r="D187" s="1"/>
-      <c r="E187" s="1"/>
-    </row>
-    <row r="189" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C189" s="22" t="s">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="1"/>
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
+      <c r="D188" s="1"/>
+      <c r="E188" s="1"/>
+    </row>
+    <row r="190" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C190" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="D189" s="22"/>
-    </row>
-    <row r="230" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B230" s="18" t="s">
+      <c r="D190" s="28"/>
+    </row>
+    <row r="231" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B231" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C230" s="18"/>
-    </row>
-    <row r="232" spans="2:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C232" s="22" t="s">
+      <c r="C231" s="18"/>
+    </row>
+    <row r="233" spans="2:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C233" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="D232" s="22"/>
-    </row>
-    <row r="234" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B234" s="18" t="s">
+      <c r="D233" s="28"/>
+    </row>
+    <row r="235" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B235" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C234" s="18"/>
-    </row>
-    <row r="236" spans="2:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C236" s="22" t="s">
+      <c r="C235" s="18"/>
+    </row>
+    <row r="237" spans="2:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C237" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="D236" s="22"/>
-    </row>
-    <row r="272" spans="3:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C272" s="45" t="s">
+      <c r="D237" s="28"/>
+    </row>
+    <row r="273" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C273" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="D272" s="45"/>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
+      <c r="D273" s="24"/>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F279" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F280" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F281" t="s">
         <v>131</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="C272:D272"/>
-    <mergeCell ref="A154:E154"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="C155:E155"/>
-    <mergeCell ref="A137:C137"/>
-    <mergeCell ref="C236:D236"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A180:B180"/>
-    <mergeCell ref="C180:E180"/>
-    <mergeCell ref="A174:E174"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="C175:E175"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="C190:D190"/>
+    <mergeCell ref="A186:B186"/>
+    <mergeCell ref="C186:E186"/>
+    <mergeCell ref="A170:E170"/>
+    <mergeCell ref="A171:B171"/>
+    <mergeCell ref="C171:E171"/>
+    <mergeCell ref="A165:E165"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="C166:E166"/>
+    <mergeCell ref="A160:E160"/>
+    <mergeCell ref="A161:B161"/>
+    <mergeCell ref="C161:E161"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C233:D233"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="A134:C134"/>
+    <mergeCell ref="A144:C144"/>
+    <mergeCell ref="A150:E150"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="C151:E151"/>
+    <mergeCell ref="A185:E185"/>
+    <mergeCell ref="C149:D149"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A95:B95"/>
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A102:B102"/>
     <mergeCell ref="A103:B103"/>
     <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A105:B105"/>
     <mergeCell ref="A76:B76"/>
     <mergeCell ref="A77:B77"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A100:B100"/>
     <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A102:B102"/>
     <mergeCell ref="A75:B75"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="A62:B62"/>
     <mergeCell ref="A63:B63"/>
     <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C232:D232"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="A124:C124"/>
-    <mergeCell ref="A133:C133"/>
-    <mergeCell ref="A143:C143"/>
-    <mergeCell ref="A149:E149"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="C150:E150"/>
-    <mergeCell ref="A184:E184"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="C189:D189"/>
-    <mergeCell ref="A185:B185"/>
-    <mergeCell ref="C185:E185"/>
-    <mergeCell ref="A169:E169"/>
-    <mergeCell ref="A170:B170"/>
-    <mergeCell ref="C170:E170"/>
-    <mergeCell ref="A164:E164"/>
-    <mergeCell ref="A165:B165"/>
-    <mergeCell ref="C165:E165"/>
-    <mergeCell ref="A159:E159"/>
-    <mergeCell ref="A160:B160"/>
-    <mergeCell ref="C160:E160"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C273:D273"/>
+    <mergeCell ref="A155:E155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="C156:E156"/>
+    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="C237:D237"/>
+    <mergeCell ref="A180:E180"/>
+    <mergeCell ref="A181:B181"/>
+    <mergeCell ref="C181:E181"/>
+    <mergeCell ref="A175:E175"/>
+    <mergeCell ref="A176:B176"/>
+    <mergeCell ref="C176:E176"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="68" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Meme Agile.xlsx
+++ b/Meme Agile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13843d8ee8f93238/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{15DB3B59-8C40-47F8-B0B2-3A9F885E5C40}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAD49B3D-F185-4200-A13E-F5E99E53CCFF}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{15DB3B59-8C40-47F8-B0B2-3A9F885E5C40}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD07541C-8010-4BCD-A50F-292D21C04014}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{BD1CD595-25D7-451D-99CB-E4C06CA26580}"/>
   </bookViews>
@@ -564,7 +564,7 @@
     <t>Sebagai [Customer] memudahkan memberitahukan titik pengantaran</t>
   </si>
   <si>
-    <t>ada nya rating rekomdasi pembelian, sehingga membantu customer memilih produk yg banyak di pesan</t>
+    <t>Sebagai [CUSTOMER] ada nya rating rekomdasi pembelian, sehingga membantu customer memilih produk yg banyak di pesan</t>
   </si>
 </sst>
 </file>
@@ -831,8 +831,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -840,51 +888,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -894,16 +903,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1528,7 +1528,7 @@
   <dimension ref="A1:G281"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90:B90"/>
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1543,23 +1543,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:5" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C1" s="35"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="3:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
     </row>
     <row r="4" spans="3:5" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
     </row>
     <row r="6" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D6" s="6" t="s">
@@ -1590,18 +1590,18 @@
       </c>
     </row>
     <row r="18" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
     </row>
     <row r="20" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="C20" s="46" t="s">
+      <c r="C20" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
     </row>
     <row r="22" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D22" s="9" t="s">
@@ -1690,15 +1690,15 @@
       <c r="A42" s="11"/>
     </row>
     <row r="43" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="47" t="s">
+      <c r="A43" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="47"/>
-      <c r="C43" s="47"/>
-      <c r="D43" s="47"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="48"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="31"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
@@ -2000,34 +2000,34 @@
       </c>
     </row>
     <row r="62" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A62" s="28" t="s">
+      <c r="A62" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B62" s="28"/>
+      <c r="B62" s="25"/>
     </row>
     <row r="63" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A63" s="28" t="s">
+      <c r="A63" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B63" s="28"/>
+      <c r="B63" s="25"/>
     </row>
     <row r="64" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A64" s="44" t="s">
+      <c r="A64" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="B64" s="44"/>
+      <c r="B64" s="47"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="41" t="s">
+      <c r="A65" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B65" s="39"/>
+      <c r="B65" s="28"/>
     </row>
     <row r="66" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A66" s="28" t="s">
+      <c r="A66" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B66" s="28"/>
+      <c r="B66" s="25"/>
     </row>
     <row r="67" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
@@ -2086,34 +2086,34 @@
       </c>
     </row>
     <row r="75" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A75" s="28" t="s">
+      <c r="A75" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B75" s="28"/>
+      <c r="B75" s="25"/>
     </row>
     <row r="76" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A76" s="28" t="s">
+      <c r="A76" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B76" s="28"/>
+      <c r="B76" s="25"/>
     </row>
     <row r="77" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A77" s="37" t="s">
+      <c r="A77" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B77" s="37"/>
+      <c r="B77" s="26"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="41" t="s">
+      <c r="A78" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="B78" s="39"/>
+      <c r="B78" s="28"/>
     </row>
     <row r="79" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A79" s="40" t="s">
+      <c r="A79" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B79" s="40"/>
+      <c r="B79" s="24"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
@@ -2132,34 +2132,34 @@
       </c>
     </row>
     <row r="83" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A83" s="28" t="s">
+      <c r="A83" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B83" s="28"/>
+      <c r="B83" s="25"/>
     </row>
     <row r="84" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A84" s="28" t="s">
+      <c r="A84" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B84" s="28"/>
+      <c r="B84" s="25"/>
     </row>
     <row r="85" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A85" s="37" t="s">
+      <c r="A85" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B85" s="37"/>
+      <c r="B85" s="26"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="38" t="s">
+      <c r="A86" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="B86" s="39"/>
+      <c r="B86" s="28"/>
     </row>
     <row r="87" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A87" s="40" t="s">
+      <c r="A87" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B87" s="40"/>
+      <c r="B87" s="24"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
@@ -2177,7 +2177,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A90" s="21">
         <v>560</v>
       </c>
@@ -2186,32 +2186,32 @@
       </c>
     </row>
     <row r="92" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A92" s="28" t="s">
+      <c r="A92" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B92" s="28"/>
+      <c r="B92" s="25"/>
     </row>
     <row r="93" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A93" s="28" t="s">
+      <c r="A93" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="B93" s="28"/>
+      <c r="B93" s="25"/>
     </row>
     <row r="94" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A94" s="37" t="s">
+      <c r="A94" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B94" s="37"/>
+      <c r="B94" s="26"/>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="38"/>
-      <c r="B95" s="39"/>
+      <c r="A95" s="27"/>
+      <c r="B95" s="28"/>
     </row>
     <row r="96" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A96" s="40" t="s">
+      <c r="A96" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B96" s="40"/>
+      <c r="B96" s="24"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
@@ -2238,32 +2238,32 @@
       </c>
     </row>
     <row r="101" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A101" s="28" t="s">
+      <c r="A101" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B101" s="28"/>
+      <c r="B101" s="25"/>
     </row>
     <row r="102" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A102" s="28" t="s">
+      <c r="A102" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="B102" s="28"/>
+      <c r="B102" s="25"/>
     </row>
     <row r="103" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A103" s="37" t="s">
+      <c r="A103" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B103" s="37"/>
+      <c r="B103" s="26"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="38"/>
-      <c r="B104" s="39"/>
+      <c r="A104" s="27"/>
+      <c r="B104" s="28"/>
     </row>
     <row r="105" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A105" s="40" t="s">
+      <c r="A105" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B105" s="40"/>
+      <c r="B105" s="24"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
@@ -2290,10 +2290,10 @@
       </c>
     </row>
     <row r="110" spans="1:6" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C110" s="28" t="s">
+      <c r="C110" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="D110" s="28"/>
+      <c r="D110" s="25"/>
     </row>
     <row r="111" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
@@ -2536,17 +2536,17 @@
       </c>
     </row>
     <row r="124" spans="1:6" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C124" s="28" t="s">
+      <c r="C124" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D124" s="28"/>
+      <c r="D124" s="25"/>
     </row>
     <row r="125" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A125" s="45" t="s">
+      <c r="A125" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="B125" s="45"/>
-      <c r="C125" s="45"/>
+      <c r="B125" s="39"/>
+      <c r="C125" s="39"/>
     </row>
     <row r="126" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
@@ -2608,11 +2608,11 @@
       <c r="C132" s="1"/>
     </row>
     <row r="134" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A134" s="27" t="s">
+      <c r="A134" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="B134" s="27"/>
-      <c r="C134" s="27"/>
+      <c r="B134" s="40"/>
+      <c r="C134" s="40"/>
     </row>
     <row r="135" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
@@ -2637,11 +2637,11 @@
       </c>
     </row>
     <row r="138" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A138" s="27" t="s">
+      <c r="A138" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="B138" s="27"/>
-      <c r="C138" s="27"/>
+      <c r="B138" s="40"/>
+      <c r="C138" s="40"/>
     </row>
     <row r="139" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
@@ -2689,11 +2689,11 @@
       <c r="C143" s="19"/>
     </row>
     <row r="144" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A144" s="27" t="s">
+      <c r="A144" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="B144" s="27"/>
-      <c r="C144" s="27"/>
+      <c r="B144" s="40"/>
+      <c r="C144" s="40"/>
     </row>
     <row r="145" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
@@ -2716,30 +2716,30 @@
       </c>
     </row>
     <row r="149" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C149" s="28" t="s">
+      <c r="C149" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="D149" s="28"/>
+      <c r="D149" s="25"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="25" t="s">
+      <c r="A150" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="B150" s="25"/>
-      <c r="C150" s="25"/>
-      <c r="D150" s="25"/>
-      <c r="E150" s="25"/>
+      <c r="B150" s="41"/>
+      <c r="C150" s="41"/>
+      <c r="D150" s="41"/>
+      <c r="E150" s="41"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="26" t="s">
+      <c r="A151" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="B151" s="26"/>
-      <c r="C151" s="26" t="s">
+      <c r="B151" s="42"/>
+      <c r="C151" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="D151" s="26"/>
-      <c r="E151" s="26"/>
+      <c r="D151" s="42"/>
+      <c r="E151" s="42"/>
     </row>
     <row r="152" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
@@ -2776,24 +2776,24 @@
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="25" t="s">
+      <c r="A155" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="B155" s="25"/>
-      <c r="C155" s="25"/>
-      <c r="D155" s="25"/>
-      <c r="E155" s="25"/>
+      <c r="B155" s="41"/>
+      <c r="C155" s="41"/>
+      <c r="D155" s="41"/>
+      <c r="E155" s="41"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="26" t="s">
+      <c r="A156" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="B156" s="26"/>
-      <c r="C156" s="26" t="s">
+      <c r="B156" s="42"/>
+      <c r="C156" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="D156" s="26"/>
-      <c r="E156" s="26"/>
+      <c r="D156" s="42"/>
+      <c r="E156" s="42"/>
     </row>
     <row r="157" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
@@ -2830,13 +2830,13 @@
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="29" t="s">
+      <c r="A160" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="B160" s="30"/>
-      <c r="C160" s="30"/>
-      <c r="D160" s="30"/>
-      <c r="E160" s="31"/>
+      <c r="B160" s="36"/>
+      <c r="C160" s="36"/>
+      <c r="D160" s="36"/>
+      <c r="E160" s="37"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="32" t="s">
@@ -2884,13 +2884,13 @@
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="29" t="s">
+      <c r="A165" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="B165" s="30"/>
-      <c r="C165" s="30"/>
-      <c r="D165" s="30"/>
-      <c r="E165" s="31"/>
+      <c r="B165" s="36"/>
+      <c r="C165" s="36"/>
+      <c r="D165" s="36"/>
+      <c r="E165" s="37"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="32" t="s">
@@ -2938,13 +2938,13 @@
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="29" t="s">
+      <c r="A170" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="B170" s="30"/>
-      <c r="C170" s="30"/>
-      <c r="D170" s="30"/>
-      <c r="E170" s="31"/>
+      <c r="B170" s="36"/>
+      <c r="C170" s="36"/>
+      <c r="D170" s="36"/>
+      <c r="E170" s="37"/>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="32" t="s">
@@ -2982,13 +2982,13 @@
       <c r="E173" s="1"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="29" t="s">
+      <c r="A175" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="B175" s="30"/>
-      <c r="C175" s="30"/>
-      <c r="D175" s="30"/>
-      <c r="E175" s="31"/>
+      <c r="B175" s="36"/>
+      <c r="C175" s="36"/>
+      <c r="D175" s="36"/>
+      <c r="E175" s="37"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="32" t="s">
@@ -3026,13 +3026,13 @@
       <c r="E178" s="1"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="29" t="s">
+      <c r="A180" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="B180" s="30"/>
-      <c r="C180" s="30"/>
-      <c r="D180" s="30"/>
-      <c r="E180" s="31"/>
+      <c r="B180" s="36"/>
+      <c r="C180" s="36"/>
+      <c r="D180" s="36"/>
+      <c r="E180" s="37"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="32" t="s">
@@ -3070,13 +3070,13 @@
       <c r="E183" s="1"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="29" t="s">
+      <c r="A185" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="B185" s="30"/>
-      <c r="C185" s="30"/>
-      <c r="D185" s="30"/>
-      <c r="E185" s="31"/>
+      <c r="B185" s="36"/>
+      <c r="C185" s="36"/>
+      <c r="D185" s="36"/>
+      <c r="E185" s="37"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="32" t="s">
@@ -3114,10 +3114,10 @@
       <c r="E188" s="1"/>
     </row>
     <row r="190" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C190" s="28" t="s">
+      <c r="C190" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="D190" s="28"/>
+      <c r="D190" s="25"/>
     </row>
     <row r="231" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B231" s="18" t="s">
@@ -3126,10 +3126,10 @@
       <c r="C231" s="18"/>
     </row>
     <row r="233" spans="2:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C233" s="28" t="s">
+      <c r="C233" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D233" s="28"/>
+      <c r="D233" s="25"/>
     </row>
     <row r="235" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B235" s="18" t="s">
@@ -3138,16 +3138,16 @@
       <c r="C235" s="18"/>
     </row>
     <row r="237" spans="2:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C237" s="28" t="s">
+      <c r="C237" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="D237" s="28"/>
+      <c r="D237" s="25"/>
     </row>
     <row r="273" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C273" s="24" t="s">
+      <c r="C273" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="D273" s="24"/>
+      <c r="D273" s="48"/>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
@@ -3171,12 +3171,50 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C273:D273"/>
+    <mergeCell ref="A155:E155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="C156:E156"/>
+    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="C237:D237"/>
+    <mergeCell ref="A180:E180"/>
+    <mergeCell ref="A181:B181"/>
+    <mergeCell ref="C181:E181"/>
+    <mergeCell ref="A175:E175"/>
+    <mergeCell ref="A176:B176"/>
+    <mergeCell ref="C176:E176"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C233:D233"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="A134:C134"/>
+    <mergeCell ref="A144:C144"/>
+    <mergeCell ref="A150:E150"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="C151:E151"/>
+    <mergeCell ref="A185:E185"/>
+    <mergeCell ref="C149:D149"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A95:B95"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="A43:G43"/>
@@ -3193,50 +3231,12 @@
     <mergeCell ref="A161:B161"/>
     <mergeCell ref="C161:E161"/>
     <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="C233:D233"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="A125:C125"/>
-    <mergeCell ref="A134:C134"/>
-    <mergeCell ref="A144:C144"/>
-    <mergeCell ref="A150:E150"/>
-    <mergeCell ref="A151:B151"/>
-    <mergeCell ref="C151:E151"/>
-    <mergeCell ref="A185:E185"/>
-    <mergeCell ref="C149:D149"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C273:D273"/>
-    <mergeCell ref="A155:E155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="C156:E156"/>
-    <mergeCell ref="A138:C138"/>
-    <mergeCell ref="C237:D237"/>
-    <mergeCell ref="A180:E180"/>
-    <mergeCell ref="A181:B181"/>
-    <mergeCell ref="C181:E181"/>
-    <mergeCell ref="A175:E175"/>
-    <mergeCell ref="A176:B176"/>
-    <mergeCell ref="C176:E176"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="68" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Meme Agile.xlsx
+++ b/Meme Agile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D\Git Collab\kelompok_meme_laporan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DB3B59-8C40-47F8-B0B2-3A9F885E5C40}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC66285-5A18-431E-8B27-787E095A20D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{BD1CD595-25D7-451D-99CB-E4C06CA26580}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BD1CD595-25D7-451D-99CB-E4C06CA26580}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="191">
   <si>
     <t>Product Backlog &amp; User Story</t>
   </si>
@@ -562,6 +562,42 @@
   </si>
   <si>
     <t>Sebagai [Customer] memudahkan memberitahukan titik pengantaran</t>
+  </si>
+  <si>
+    <t>Discussion</t>
+  </si>
+  <si>
+    <t>programming</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Report</t>
+  </si>
+  <si>
+    <t>Vocabullary</t>
+  </si>
+  <si>
+    <t>Knowledge</t>
+  </si>
+  <si>
+    <t>deoptimize</t>
+  </si>
+  <si>
+    <t>Optimizing</t>
+  </si>
+  <si>
+    <t>learn More</t>
+  </si>
+  <si>
+    <t>Learn more</t>
+  </si>
+  <si>
+    <t>practice speeking</t>
+  </si>
+  <si>
+    <t>talk without bassis</t>
   </si>
 </sst>
 </file>
@@ -775,7 +811,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -816,22 +852,70 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -842,63 +926,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1521,8 +1548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C4E763-3BF0-4DCE-A690-0A0674D041AB}">
   <dimension ref="A1:G280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A107" sqref="A107:B107"/>
+    <sheetView tabSelected="1" topLeftCell="A175" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B182" sqref="B182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1537,23 +1564,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:5" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C1" s="40"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
     </row>
     <row r="2" spans="3:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="4" spans="3:5" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
     </row>
     <row r="6" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D6" s="6" t="s">
@@ -1584,18 +1611,18 @@
       </c>
     </row>
     <row r="18" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
     </row>
     <row r="20" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
     </row>
     <row r="22" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D22" s="9" t="s">
@@ -1684,15 +1711,15 @@
       <c r="A42" s="11"/>
     </row>
     <row r="43" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="27" t="s">
+      <c r="A43" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="28"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="44"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
@@ -1971,57 +1998,57 @@
       </c>
     </row>
     <row r="56" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A56" s="46">
+      <c r="A56" s="1">
         <v>562</v>
       </c>
-      <c r="B56" s="46" t="s">
+      <c r="B56" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="46" t="s">
+      <c r="C56" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D56" s="47" t="s">
+      <c r="D56" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="E56" s="47" t="s">
+      <c r="E56" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="F56" s="47" t="s">
+      <c r="F56" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G56" s="47">
+      <c r="G56" s="16">
         <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A62" s="22" t="s">
+      <c r="A62" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B62" s="22"/>
+      <c r="B62" s="24"/>
     </row>
     <row r="63" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A63" s="22" t="s">
+      <c r="A63" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B63" s="22"/>
+      <c r="B63" s="24"/>
     </row>
     <row r="64" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A64" s="44" t="s">
+      <c r="A64" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B64" s="44"/>
+      <c r="B64" s="40"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="35" t="s">
+      <c r="A65" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B65" s="25"/>
+      <c r="B65" s="35"/>
     </row>
     <row r="66" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A66" s="22" t="s">
+      <c r="A66" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B66" s="22"/>
+      <c r="B66" s="24"/>
     </row>
     <row r="67" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
@@ -2080,34 +2107,34 @@
       </c>
     </row>
     <row r="75" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A75" s="22" t="s">
+      <c r="A75" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B75" s="22"/>
+      <c r="B75" s="24"/>
     </row>
     <row r="76" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A76" s="22" t="s">
+      <c r="A76" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B76" s="22"/>
+      <c r="B76" s="24"/>
     </row>
     <row r="77" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A77" s="23" t="s">
+      <c r="A77" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B77" s="23"/>
+      <c r="B77" s="33"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="35" t="s">
+      <c r="A78" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="B78" s="25"/>
+      <c r="B78" s="35"/>
     </row>
     <row r="79" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A79" s="21" t="s">
+      <c r="A79" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B79" s="21"/>
+      <c r="B79" s="36"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
@@ -2126,34 +2153,34 @@
       </c>
     </row>
     <row r="83" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A83" s="22" t="s">
+      <c r="A83" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B83" s="22"/>
+      <c r="B83" s="24"/>
     </row>
     <row r="84" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A84" s="22" t="s">
+      <c r="A84" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B84" s="22"/>
+      <c r="B84" s="24"/>
     </row>
     <row r="85" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A85" s="23" t="s">
+      <c r="A85" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B85" s="23"/>
+      <c r="B85" s="33"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="24" t="s">
+      <c r="A86" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="B86" s="25"/>
+      <c r="B86" s="35"/>
     </row>
     <row r="87" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A87" s="21" t="s">
+      <c r="A87" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B87" s="21"/>
+      <c r="B87" s="36"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
@@ -2172,32 +2199,32 @@
       </c>
     </row>
     <row r="91" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A91" s="22" t="s">
+      <c r="A91" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B91" s="22"/>
+      <c r="B91" s="24"/>
     </row>
     <row r="92" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A92" s="22" t="s">
+      <c r="A92" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="B92" s="22"/>
+      <c r="B92" s="24"/>
     </row>
     <row r="93" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A93" s="23" t="s">
+      <c r="A93" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B93" s="23"/>
+      <c r="B93" s="33"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="24"/>
-      <c r="B94" s="25"/>
+      <c r="A94" s="34"/>
+      <c r="B94" s="35"/>
     </row>
     <row r="95" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A95" s="21" t="s">
+      <c r="A95" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B95" s="21"/>
+      <c r="B95" s="36"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
@@ -2224,32 +2251,32 @@
       </c>
     </row>
     <row r="100" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A100" s="22" t="s">
+      <c r="A100" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B100" s="22"/>
+      <c r="B100" s="24"/>
     </row>
     <row r="101" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A101" s="22" t="s">
+      <c r="A101" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="B101" s="22"/>
+      <c r="B101" s="24"/>
     </row>
     <row r="102" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A102" s="23" t="s">
+      <c r="A102" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B102" s="23"/>
+      <c r="B102" s="33"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="24"/>
-      <c r="B103" s="25"/>
+      <c r="A103" s="34"/>
+      <c r="B103" s="35"/>
     </row>
     <row r="104" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A104" s="21" t="s">
+      <c r="A104" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B104" s="21"/>
+      <c r="B104" s="36"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
@@ -2268,18 +2295,18 @@
       </c>
     </row>
     <row r="107" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="20">
+      <c r="A107" s="1">
         <v>562</v>
       </c>
-      <c r="B107" s="20" t="s">
+      <c r="B107" s="1" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="109" spans="1:6" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C109" s="22" t="s">
+      <c r="C109" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D109" s="22"/>
+      <c r="D109" s="24"/>
     </row>
     <row r="110" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
@@ -2522,17 +2549,17 @@
       </c>
     </row>
     <row r="123" spans="1:6" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C123" s="22" t="s">
+      <c r="C123" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="D123" s="22"/>
+      <c r="D123" s="24"/>
     </row>
     <row r="124" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A124" s="36" t="s">
+      <c r="A124" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="B124" s="36"/>
-      <c r="C124" s="36"/>
+      <c r="B124" s="41"/>
+      <c r="C124" s="41"/>
     </row>
     <row r="125" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
@@ -2594,11 +2621,11 @@
       <c r="C131" s="1"/>
     </row>
     <row r="133" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="37" t="s">
+      <c r="A133" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="B133" s="37"/>
-      <c r="C133" s="37"/>
+      <c r="B133" s="23"/>
+      <c r="C133" s="23"/>
     </row>
     <row r="134" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
@@ -2623,11 +2650,11 @@
       </c>
     </row>
     <row r="137" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A137" s="37" t="s">
+      <c r="A137" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="B137" s="37"/>
-      <c r="C137" s="37"/>
+      <c r="B137" s="23"/>
+      <c r="C137" s="23"/>
     </row>
     <row r="138" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
@@ -2675,11 +2702,11 @@
       <c r="C142" s="19"/>
     </row>
     <row r="143" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A143" s="37" t="s">
+      <c r="A143" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="B143" s="37"/>
-      <c r="C143" s="37"/>
+      <c r="B143" s="23"/>
+      <c r="C143" s="23"/>
     </row>
     <row r="144" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
@@ -2702,30 +2729,30 @@
       </c>
     </row>
     <row r="148" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C148" s="22" t="s">
+      <c r="C148" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="D148" s="22"/>
+      <c r="D148" s="24"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="38" t="s">
+      <c r="A149" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="B149" s="38"/>
-      <c r="C149" s="38"/>
-      <c r="D149" s="38"/>
-      <c r="E149" s="38"/>
+      <c r="B149" s="21"/>
+      <c r="C149" s="21"/>
+      <c r="D149" s="21"/>
+      <c r="E149" s="21"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="39" t="s">
+      <c r="A150" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="B150" s="39"/>
-      <c r="C150" s="39" t="s">
+      <c r="B150" s="22"/>
+      <c r="C150" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="D150" s="39"/>
-      <c r="E150" s="39"/>
+      <c r="D150" s="22"/>
+      <c r="E150" s="22"/>
     </row>
     <row r="151" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
@@ -2762,24 +2789,24 @@
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="38" t="s">
+      <c r="A154" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="B154" s="38"/>
-      <c r="C154" s="38"/>
-      <c r="D154" s="38"/>
-      <c r="E154" s="38"/>
+      <c r="B154" s="21"/>
+      <c r="C154" s="21"/>
+      <c r="D154" s="21"/>
+      <c r="E154" s="21"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="39" t="s">
+      <c r="A155" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="B155" s="39"/>
-      <c r="C155" s="39" t="s">
+      <c r="B155" s="22"/>
+      <c r="C155" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="D155" s="39"/>
-      <c r="E155" s="39"/>
+      <c r="D155" s="22"/>
+      <c r="E155" s="22"/>
     </row>
     <row r="156" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
@@ -2816,24 +2843,24 @@
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="32" t="s">
+      <c r="A159" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="B159" s="33"/>
-      <c r="C159" s="33"/>
-      <c r="D159" s="33"/>
-      <c r="E159" s="34"/>
+      <c r="B159" s="26"/>
+      <c r="C159" s="26"/>
+      <c r="D159" s="26"/>
+      <c r="E159" s="27"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="29" t="s">
+      <c r="A160" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="B160" s="30"/>
-      <c r="C160" s="29" t="s">
+      <c r="B160" s="29"/>
+      <c r="C160" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="D160" s="31"/>
-      <c r="E160" s="30"/>
+      <c r="D160" s="30"/>
+      <c r="E160" s="29"/>
     </row>
     <row r="161" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
@@ -2870,24 +2897,24 @@
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="32" t="s">
+      <c r="A164" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="B164" s="33"/>
-      <c r="C164" s="33"/>
-      <c r="D164" s="33"/>
-      <c r="E164" s="34"/>
+      <c r="B164" s="26"/>
+      <c r="C164" s="26"/>
+      <c r="D164" s="26"/>
+      <c r="E164" s="27"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="29" t="s">
+      <c r="A165" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="B165" s="30"/>
-      <c r="C165" s="29" t="s">
+      <c r="B165" s="29"/>
+      <c r="C165" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="D165" s="31"/>
-      <c r="E165" s="30"/>
+      <c r="D165" s="30"/>
+      <c r="E165" s="29"/>
     </row>
     <row r="166" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
@@ -2924,24 +2951,24 @@
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="32" t="s">
+      <c r="A169" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="B169" s="33"/>
-      <c r="C169" s="33"/>
-      <c r="D169" s="33"/>
-      <c r="E169" s="34"/>
+      <c r="B169" s="26"/>
+      <c r="C169" s="26"/>
+      <c r="D169" s="26"/>
+      <c r="E169" s="27"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="29" t="s">
+      <c r="A170" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="B170" s="30"/>
-      <c r="C170" s="29" t="s">
+      <c r="B170" s="29"/>
+      <c r="C170" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="D170" s="31"/>
-      <c r="E170" s="30"/>
+      <c r="D170" s="30"/>
+      <c r="E170" s="29"/>
     </row>
     <row r="171" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
@@ -2960,32 +2987,42 @@
         <v>106</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="1"/>
-      <c r="B172" s="1"/>
-      <c r="C172" s="1"/>
-      <c r="D172" s="1"/>
-      <c r="E172" s="1"/>
+    <row r="172" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="32" t="s">
+      <c r="A174" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="B174" s="33"/>
-      <c r="C174" s="33"/>
-      <c r="D174" s="33"/>
-      <c r="E174" s="34"/>
+      <c r="B174" s="26"/>
+      <c r="C174" s="26"/>
+      <c r="D174" s="26"/>
+      <c r="E174" s="27"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="29" t="s">
+      <c r="A175" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="B175" s="30"/>
-      <c r="C175" s="29" t="s">
+      <c r="B175" s="29"/>
+      <c r="C175" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="D175" s="31"/>
-      <c r="E175" s="30"/>
+      <c r="D175" s="30"/>
+      <c r="E175" s="29"/>
     </row>
     <row r="176" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
@@ -3004,32 +3041,42 @@
         <v>106</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="1"/>
-      <c r="B177" s="1"/>
-      <c r="C177" s="1"/>
-      <c r="D177" s="1"/>
-      <c r="E177" s="1"/>
+    <row r="177" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="32" t="s">
+      <c r="A179" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="B179" s="33"/>
-      <c r="C179" s="33"/>
-      <c r="D179" s="33"/>
-      <c r="E179" s="34"/>
+      <c r="B179" s="26"/>
+      <c r="C179" s="26"/>
+      <c r="D179" s="26"/>
+      <c r="E179" s="27"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="29" t="s">
+      <c r="A180" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="B180" s="30"/>
-      <c r="C180" s="29" t="s">
+      <c r="B180" s="29"/>
+      <c r="C180" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="D180" s="31"/>
-      <c r="E180" s="30"/>
+      <c r="D180" s="30"/>
+      <c r="E180" s="29"/>
     </row>
     <row r="181" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
@@ -3049,31 +3096,33 @@
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="1"/>
+      <c r="A182" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="32" t="s">
+      <c r="A184" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="B184" s="33"/>
-      <c r="C184" s="33"/>
-      <c r="D184" s="33"/>
-      <c r="E184" s="34"/>
+      <c r="B184" s="26"/>
+      <c r="C184" s="26"/>
+      <c r="D184" s="26"/>
+      <c r="E184" s="27"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="29" t="s">
+      <c r="A185" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="B185" s="30"/>
-      <c r="C185" s="29" t="s">
+      <c r="B185" s="29"/>
+      <c r="C185" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="D185" s="31"/>
-      <c r="E185" s="30"/>
+      <c r="D185" s="30"/>
+      <c r="E185" s="29"/>
     </row>
     <row r="186" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
@@ -3093,17 +3142,19 @@
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" s="1"/>
+      <c r="A187" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
     </row>
     <row r="189" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C189" s="22" t="s">
+      <c r="C189" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="D189" s="22"/>
+      <c r="D189" s="24"/>
     </row>
     <row r="230" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B230" s="18" t="s">
@@ -3112,10 +3163,10 @@
       <c r="C230" s="18"/>
     </row>
     <row r="232" spans="2:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C232" s="22" t="s">
+      <c r="C232" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D232" s="22"/>
+      <c r="D232" s="24"/>
     </row>
     <row r="234" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B234" s="18" t="s">
@@ -3124,16 +3175,16 @@
       <c r="C234" s="18"/>
     </row>
     <row r="236" spans="2:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C236" s="22" t="s">
+      <c r="C236" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D236" s="22"/>
+      <c r="D236" s="24"/>
     </row>
     <row r="272" spans="3:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C272" s="45" t="s">
+      <c r="C272" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="D272" s="45"/>
+      <c r="D272" s="20"/>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
@@ -3157,18 +3208,44 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="C272:D272"/>
-    <mergeCell ref="A154:E154"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="C155:E155"/>
-    <mergeCell ref="A137:C137"/>
-    <mergeCell ref="C236:D236"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A180:B180"/>
-    <mergeCell ref="C180:E180"/>
-    <mergeCell ref="A174:E174"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="C175:E175"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="C189:D189"/>
+    <mergeCell ref="A185:B185"/>
+    <mergeCell ref="C185:E185"/>
+    <mergeCell ref="A169:E169"/>
+    <mergeCell ref="A170:B170"/>
+    <mergeCell ref="C170:E170"/>
+    <mergeCell ref="A164:E164"/>
+    <mergeCell ref="A165:B165"/>
+    <mergeCell ref="C165:E165"/>
+    <mergeCell ref="A159:E159"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="C160:E160"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C232:D232"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="A124:C124"/>
+    <mergeCell ref="A133:C133"/>
+    <mergeCell ref="A143:C143"/>
+    <mergeCell ref="A149:E149"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="C150:E150"/>
+    <mergeCell ref="A184:E184"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:B94"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A102:B102"/>
     <mergeCell ref="A103:B103"/>
@@ -3185,44 +3262,18 @@
     <mergeCell ref="A62:B62"/>
     <mergeCell ref="A63:B63"/>
     <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C232:D232"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="A124:C124"/>
-    <mergeCell ref="A133:C133"/>
-    <mergeCell ref="A143:C143"/>
-    <mergeCell ref="A149:E149"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="C150:E150"/>
-    <mergeCell ref="A184:E184"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="C189:D189"/>
-    <mergeCell ref="A185:B185"/>
-    <mergeCell ref="C185:E185"/>
-    <mergeCell ref="A169:E169"/>
-    <mergeCell ref="A170:B170"/>
-    <mergeCell ref="C170:E170"/>
-    <mergeCell ref="A164:E164"/>
-    <mergeCell ref="A165:B165"/>
-    <mergeCell ref="C165:E165"/>
-    <mergeCell ref="A159:E159"/>
-    <mergeCell ref="A160:B160"/>
-    <mergeCell ref="C160:E160"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C272:D272"/>
+    <mergeCell ref="A154:E154"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="C155:E155"/>
+    <mergeCell ref="A137:C137"/>
+    <mergeCell ref="C236:D236"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="C180:E180"/>
+    <mergeCell ref="A174:E174"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="C175:E175"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="68" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Meme Agile.xlsx
+++ b/Meme Agile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D\Git Collab\kelompok_meme_laporan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC66285-5A18-431E-8B27-787E095A20D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BF8C31-2085-4907-8F95-DD70BE72FA07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BD1CD595-25D7-451D-99CB-E4C06CA26580}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="192">
   <si>
     <t>Product Backlog &amp; User Story</t>
   </si>
@@ -598,6 +598,9 @@
   </si>
   <si>
     <t>talk without bassis</t>
+  </si>
+  <si>
+    <t>Mendesain UI</t>
   </si>
 </sst>
 </file>
@@ -852,8 +855,56 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -861,51 +912,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -915,16 +927,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1548,8 +1551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C4E763-3BF0-4DCE-A690-0A0674D041AB}">
   <dimension ref="A1:G280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B182" sqref="B182"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D146" sqref="D146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1564,23 +1567,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:5" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C1" s="31"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="3:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
     </row>
     <row r="4" spans="3:5" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
     </row>
     <row r="6" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D6" s="6" t="s">
@@ -1611,18 +1614,18 @@
       </c>
     </row>
     <row r="18" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
     </row>
     <row r="20" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
     </row>
     <row r="22" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D22" s="9" t="s">
@@ -1711,15 +1714,15 @@
       <c r="A42" s="11"/>
     </row>
     <row r="43" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="43" t="s">
+      <c r="A43" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="43"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="44"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="27"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
@@ -2021,34 +2024,34 @@
       </c>
     </row>
     <row r="62" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A62" s="24" t="s">
+      <c r="A62" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B62" s="24"/>
+      <c r="B62" s="21"/>
     </row>
     <row r="63" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A63" s="24" t="s">
+      <c r="A63" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B63" s="24"/>
+      <c r="B63" s="21"/>
     </row>
     <row r="64" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A64" s="40" t="s">
+      <c r="A64" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="B64" s="40"/>
+      <c r="B64" s="43"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="37" t="s">
+      <c r="A65" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B65" s="35"/>
+      <c r="B65" s="24"/>
     </row>
     <row r="66" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A66" s="24" t="s">
+      <c r="A66" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B66" s="24"/>
+      <c r="B66" s="21"/>
     </row>
     <row r="67" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
@@ -2107,34 +2110,34 @@
       </c>
     </row>
     <row r="75" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A75" s="24" t="s">
+      <c r="A75" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B75" s="24"/>
+      <c r="B75" s="21"/>
     </row>
     <row r="76" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A76" s="24" t="s">
+      <c r="A76" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="B76" s="24"/>
+      <c r="B76" s="21"/>
     </row>
     <row r="77" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A77" s="33" t="s">
+      <c r="A77" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B77" s="33"/>
+      <c r="B77" s="22"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="37" t="s">
+      <c r="A78" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="B78" s="35"/>
+      <c r="B78" s="24"/>
     </row>
     <row r="79" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A79" s="36" t="s">
+      <c r="A79" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B79" s="36"/>
+      <c r="B79" s="20"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
@@ -2153,34 +2156,34 @@
       </c>
     </row>
     <row r="83" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A83" s="24" t="s">
+      <c r="A83" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B83" s="24"/>
+      <c r="B83" s="21"/>
     </row>
     <row r="84" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A84" s="24" t="s">
+      <c r="A84" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="B84" s="24"/>
+      <c r="B84" s="21"/>
     </row>
     <row r="85" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A85" s="33" t="s">
+      <c r="A85" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B85" s="33"/>
+      <c r="B85" s="22"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="34" t="s">
+      <c r="A86" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B86" s="35"/>
+      <c r="B86" s="24"/>
     </row>
     <row r="87" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A87" s="36" t="s">
+      <c r="A87" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B87" s="36"/>
+      <c r="B87" s="20"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
@@ -2199,32 +2202,32 @@
       </c>
     </row>
     <row r="91" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A91" s="24" t="s">
+      <c r="A91" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B91" s="24"/>
+      <c r="B91" s="21"/>
     </row>
     <row r="92" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A92" s="24" t="s">
+      <c r="A92" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="B92" s="24"/>
+      <c r="B92" s="21"/>
     </row>
     <row r="93" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A93" s="33" t="s">
+      <c r="A93" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B93" s="33"/>
+      <c r="B93" s="22"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="34"/>
-      <c r="B94" s="35"/>
+      <c r="A94" s="23"/>
+      <c r="B94" s="24"/>
     </row>
     <row r="95" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A95" s="36" t="s">
+      <c r="A95" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B95" s="36"/>
+      <c r="B95" s="20"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
@@ -2251,32 +2254,32 @@
       </c>
     </row>
     <row r="100" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A100" s="24" t="s">
+      <c r="A100" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B100" s="24"/>
+      <c r="B100" s="21"/>
     </row>
     <row r="101" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A101" s="24" t="s">
+      <c r="A101" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="B101" s="24"/>
+      <c r="B101" s="21"/>
     </row>
     <row r="102" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A102" s="33" t="s">
+      <c r="A102" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B102" s="33"/>
+      <c r="B102" s="22"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="34"/>
-      <c r="B103" s="35"/>
+      <c r="A103" s="23"/>
+      <c r="B103" s="24"/>
     </row>
     <row r="104" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A104" s="36" t="s">
+      <c r="A104" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B104" s="36"/>
+      <c r="B104" s="20"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
@@ -2303,10 +2306,10 @@
       </c>
     </row>
     <row r="109" spans="1:6" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C109" s="24" t="s">
+      <c r="C109" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D109" s="24"/>
+      <c r="D109" s="21"/>
     </row>
     <row r="110" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
@@ -2528,163 +2531,174 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
+        <v>10</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D121" s="10">
+        <v>45105</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F121" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
         <v>11</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B122" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C122" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D121" s="10">
+      <c r="D122" s="10">
         <v>45112</v>
       </c>
-      <c r="E121" s="1" t="s">
+      <c r="E122" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F121" s="1">
+      <c r="F122" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:6" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C123" s="24" t="s">
+    <row r="124" spans="1:6" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C124" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="D123" s="24"/>
-    </row>
-    <row r="124" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A124" s="41" t="s">
+      <c r="D124" s="21"/>
+    </row>
+    <row r="125" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A125" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="B124" s="41"/>
-      <c r="C124" s="41"/>
-    </row>
-    <row r="125" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="B125" s="35"/>
+      <c r="C125" s="35"/>
     </row>
     <row r="126" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B127" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C127" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C127" s="1"/>
     </row>
     <row r="128" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C128" s="1"/>
+    </row>
+    <row r="129" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
-    </row>
-    <row r="129" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
     </row>
-    <row r="130" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
     </row>
-    <row r="133" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="23" t="s">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+    </row>
+    <row r="134" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A134" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="B133" s="23"/>
-      <c r="C133" s="23"/>
-    </row>
-    <row r="134" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
+      <c r="B134" s="36"/>
+      <c r="C134" s="36"/>
+    </row>
+    <row r="135" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B135" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="C135" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
+    <row r="136" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B136" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="C136" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A137" s="23" t="s">
+    <row r="138" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A138" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="B137" s="23"/>
-      <c r="C137" s="23"/>
-    </row>
-    <row r="138" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
+      <c r="B138" s="36"/>
+      <c r="C138" s="36"/>
+    </row>
+    <row r="139" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="B139" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="C139" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
+    <row r="140" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B139" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C139" s="1" t="s">
+      <c r="B140" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A140" s="1"/>
-      <c r="B140" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2702,11 +2716,11 @@
       <c r="C142" s="19"/>
     </row>
     <row r="143" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A143" s="23" t="s">
+      <c r="A143" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="B143" s="23"/>
-      <c r="C143" s="23"/>
+      <c r="B143" s="36"/>
+      <c r="C143" s="36"/>
     </row>
     <row r="144" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
@@ -2719,8 +2733,10 @@
         <v>87</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="1"/>
+    <row r="145" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="B145" s="1" t="s">
         <v>100</v>
       </c>
@@ -2728,31 +2744,42 @@
         <v>100</v>
       </c>
     </row>
+    <row r="146" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
     <row r="148" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C148" s="24" t="s">
+      <c r="C148" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="D148" s="24"/>
+      <c r="D148" s="21"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="21" t="s">
+      <c r="A149" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="B149" s="21"/>
-      <c r="C149" s="21"/>
-      <c r="D149" s="21"/>
-      <c r="E149" s="21"/>
+      <c r="B149" s="37"/>
+      <c r="C149" s="37"/>
+      <c r="D149" s="37"/>
+      <c r="E149" s="37"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="22" t="s">
+      <c r="A150" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="B150" s="22"/>
-      <c r="C150" s="22" t="s">
+      <c r="B150" s="38"/>
+      <c r="C150" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="D150" s="22"/>
-      <c r="E150" s="22"/>
+      <c r="D150" s="38"/>
+      <c r="E150" s="38"/>
     </row>
     <row r="151" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
@@ -2789,24 +2816,24 @@
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="21" t="s">
+      <c r="A154" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="B154" s="21"/>
-      <c r="C154" s="21"/>
-      <c r="D154" s="21"/>
-      <c r="E154" s="21"/>
+      <c r="B154" s="37"/>
+      <c r="C154" s="37"/>
+      <c r="D154" s="37"/>
+      <c r="E154" s="37"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="22" t="s">
+      <c r="A155" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="B155" s="22"/>
-      <c r="C155" s="22" t="s">
+      <c r="B155" s="38"/>
+      <c r="C155" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="D155" s="22"/>
-      <c r="E155" s="22"/>
+      <c r="D155" s="38"/>
+      <c r="E155" s="38"/>
     </row>
     <row r="156" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
@@ -2843,13 +2870,13 @@
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="25" t="s">
+      <c r="A159" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="B159" s="26"/>
-      <c r="C159" s="26"/>
-      <c r="D159" s="26"/>
-      <c r="E159" s="27"/>
+      <c r="B159" s="32"/>
+      <c r="C159" s="32"/>
+      <c r="D159" s="32"/>
+      <c r="E159" s="33"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="28" t="s">
@@ -2897,13 +2924,13 @@
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="25" t="s">
+      <c r="A164" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="B164" s="26"/>
-      <c r="C164" s="26"/>
-      <c r="D164" s="26"/>
-      <c r="E164" s="27"/>
+      <c r="B164" s="32"/>
+      <c r="C164" s="32"/>
+      <c r="D164" s="32"/>
+      <c r="E164" s="33"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="28" t="s">
@@ -2951,13 +2978,13 @@
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="25" t="s">
+      <c r="A169" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="B169" s="26"/>
-      <c r="C169" s="26"/>
-      <c r="D169" s="26"/>
-      <c r="E169" s="27"/>
+      <c r="B169" s="32"/>
+      <c r="C169" s="32"/>
+      <c r="D169" s="32"/>
+      <c r="E169" s="33"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="28" t="s">
@@ -3005,13 +3032,13 @@
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="25" t="s">
+      <c r="A174" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="B174" s="26"/>
-      <c r="C174" s="26"/>
-      <c r="D174" s="26"/>
-      <c r="E174" s="27"/>
+      <c r="B174" s="32"/>
+      <c r="C174" s="32"/>
+      <c r="D174" s="32"/>
+      <c r="E174" s="33"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="28" t="s">
@@ -3059,13 +3086,13 @@
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="25" t="s">
+      <c r="A179" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="B179" s="26"/>
-      <c r="C179" s="26"/>
-      <c r="D179" s="26"/>
-      <c r="E179" s="27"/>
+      <c r="B179" s="32"/>
+      <c r="C179" s="32"/>
+      <c r="D179" s="32"/>
+      <c r="E179" s="33"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="28" t="s">
@@ -3105,13 +3132,13 @@
       <c r="E182" s="1"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="25" t="s">
+      <c r="A184" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="B184" s="26"/>
-      <c r="C184" s="26"/>
-      <c r="D184" s="26"/>
-      <c r="E184" s="27"/>
+      <c r="B184" s="32"/>
+      <c r="C184" s="32"/>
+      <c r="D184" s="32"/>
+      <c r="E184" s="33"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="28" t="s">
@@ -3151,10 +3178,10 @@
       <c r="E187" s="1"/>
     </row>
     <row r="189" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C189" s="24" t="s">
+      <c r="C189" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D189" s="24"/>
+      <c r="D189" s="21"/>
     </row>
     <row r="230" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B230" s="18" t="s">
@@ -3163,10 +3190,10 @@
       <c r="C230" s="18"/>
     </row>
     <row r="232" spans="2:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C232" s="24" t="s">
+      <c r="C232" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="D232" s="24"/>
+      <c r="D232" s="21"/>
     </row>
     <row r="234" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B234" s="18" t="s">
@@ -3175,16 +3202,16 @@
       <c r="C234" s="18"/>
     </row>
     <row r="236" spans="2:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C236" s="24" t="s">
+      <c r="C236" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D236" s="24"/>
+      <c r="D236" s="21"/>
     </row>
     <row r="272" spans="3:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C272" s="20" t="s">
+      <c r="C272" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="D272" s="20"/>
+      <c r="D272" s="44"/>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
@@ -3208,12 +3235,50 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C272:D272"/>
+    <mergeCell ref="A154:E154"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="C155:E155"/>
+    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="C236:D236"/>
+    <mergeCell ref="A179:E179"/>
+    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="C180:E180"/>
+    <mergeCell ref="A174:E174"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="C175:E175"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C232:D232"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="A134:C134"/>
+    <mergeCell ref="A143:C143"/>
+    <mergeCell ref="A149:E149"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="C150:E150"/>
+    <mergeCell ref="A184:E184"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:B94"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="A43:G43"/>
@@ -3230,50 +3295,12 @@
     <mergeCell ref="A160:B160"/>
     <mergeCell ref="C160:E160"/>
     <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C232:D232"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="A124:C124"/>
-    <mergeCell ref="A133:C133"/>
-    <mergeCell ref="A143:C143"/>
-    <mergeCell ref="A149:E149"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="C150:E150"/>
-    <mergeCell ref="A184:E184"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C272:D272"/>
-    <mergeCell ref="A154:E154"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="C155:E155"/>
-    <mergeCell ref="A137:C137"/>
-    <mergeCell ref="C236:D236"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A180:B180"/>
-    <mergeCell ref="C180:E180"/>
-    <mergeCell ref="A174:E174"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="C175:E175"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="68" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Meme Agile.xlsx
+++ b/Meme Agile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D\Git Collab\kelompok_meme_laporan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BF8C31-2085-4907-8F95-DD70BE72FA07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47086D1-F3FE-4053-B7A7-F817E280C975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BD1CD595-25D7-451D-99CB-E4C06CA26580}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="207">
   <si>
     <t>Product Backlog &amp; User Story</t>
   </si>
@@ -601,6 +601,51 @@
   </si>
   <si>
     <t>Mendesain UI</t>
+  </si>
+  <si>
+    <t>Task 12 : Membuat chat</t>
+  </si>
+  <si>
+    <t>SPRINT 9</t>
+  </si>
+  <si>
+    <t>SPRINT 10</t>
+  </si>
+  <si>
+    <t>SPRINT 11</t>
+  </si>
+  <si>
+    <t>SPRINT 12</t>
+  </si>
+  <si>
+    <t>Run well</t>
+  </si>
+  <si>
+    <t>Readable</t>
+  </si>
+  <si>
+    <t>Interval between chat message</t>
+  </si>
+  <si>
+    <t>add so many complicated code</t>
+  </si>
+  <si>
+    <t>optimizing</t>
+  </si>
+  <si>
+    <t>find bug</t>
+  </si>
+  <si>
+    <t>More option</t>
+  </si>
+  <si>
+    <t>Impression</t>
+  </si>
+  <si>
+    <t>A good UI</t>
+  </si>
+  <si>
+    <t>Finalize product</t>
   </si>
 </sst>
 </file>
@@ -698,7 +743,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -810,11 +855,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -852,22 +919,70 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -879,56 +994,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -953,13 +1029,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>781049</xdr:colOff>
-      <xdr:row>189</xdr:row>
+      <xdr:row>216</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>207</xdr:row>
+      <xdr:row>234</xdr:row>
       <xdr:rowOff>27773</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1003,13 +1079,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>208</xdr:row>
+      <xdr:row>235</xdr:row>
       <xdr:rowOff>161926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1371600</xdr:colOff>
-      <xdr:row>227</xdr:row>
+      <xdr:row>254</xdr:row>
       <xdr:rowOff>116122</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1053,13 +1129,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>428626</xdr:colOff>
-      <xdr:row>254</xdr:row>
+      <xdr:row>281</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>266701</xdr:colOff>
-      <xdr:row>268</xdr:row>
+      <xdr:row>295</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1103,13 +1179,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>668162</xdr:colOff>
-      <xdr:row>237</xdr:row>
+      <xdr:row>264</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>252</xdr:row>
+      <xdr:row>279</xdr:row>
       <xdr:rowOff>49184</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1153,13 +1229,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>237</xdr:row>
+      <xdr:row>264</xdr:row>
       <xdr:rowOff>147600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>252</xdr:row>
+      <xdr:row>279</xdr:row>
       <xdr:rowOff>43391</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1203,13 +1279,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>752476</xdr:colOff>
-      <xdr:row>254</xdr:row>
+      <xdr:row>281</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>269</xdr:row>
+      <xdr:row>296</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1549,10 +1625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C4E763-3BF0-4DCE-A690-0A0674D041AB}">
-  <dimension ref="A1:G280"/>
+  <dimension ref="A1:G307"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D146" sqref="D146"/>
+    <sheetView tabSelected="1" topLeftCell="A134" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1567,23 +1643,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:5" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C1" s="39"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="3:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="4" spans="3:5" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
     </row>
     <row r="6" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D6" s="6" t="s">
@@ -1614,18 +1690,18 @@
       </c>
     </row>
     <row r="18" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
     </row>
     <row r="20" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
     </row>
     <row r="22" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D22" s="9" t="s">
@@ -1714,15 +1790,15 @@
       <c r="A42" s="11"/>
     </row>
     <row r="43" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="26" t="s">
+      <c r="A43" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="27"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="43"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
@@ -2024,34 +2100,34 @@
       </c>
     </row>
     <row r="62" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A62" s="21" t="s">
+      <c r="A62" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="B62" s="21"/>
+      <c r="B62" s="23"/>
     </row>
     <row r="63" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A63" s="21" t="s">
+      <c r="A63" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B63" s="21"/>
+      <c r="B63" s="23"/>
     </row>
     <row r="64" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A64" s="43" t="s">
+      <c r="A64" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="B64" s="43"/>
+      <c r="B64" s="39"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="34" t="s">
+      <c r="A65" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B65" s="24"/>
+      <c r="B65" s="34"/>
     </row>
     <row r="66" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A66" s="21" t="s">
+      <c r="A66" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B66" s="21"/>
+      <c r="B66" s="23"/>
     </row>
     <row r="67" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
@@ -2110,34 +2186,34 @@
       </c>
     </row>
     <row r="75" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A75" s="21" t="s">
+      <c r="A75" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="B75" s="21"/>
+      <c r="B75" s="23"/>
     </row>
     <row r="76" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A76" s="21" t="s">
+      <c r="A76" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B76" s="21"/>
+      <c r="B76" s="23"/>
     </row>
     <row r="77" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A77" s="22" t="s">
+      <c r="A77" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B77" s="22"/>
+      <c r="B77" s="32"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="34" t="s">
+      <c r="A78" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B78" s="24"/>
+      <c r="B78" s="34"/>
     </row>
     <row r="79" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A79" s="20" t="s">
+      <c r="A79" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="B79" s="20"/>
+      <c r="B79" s="35"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
@@ -2156,34 +2232,34 @@
       </c>
     </row>
     <row r="83" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A83" s="21" t="s">
+      <c r="A83" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="B83" s="21"/>
+      <c r="B83" s="23"/>
     </row>
     <row r="84" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A84" s="21" t="s">
+      <c r="A84" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="B84" s="21"/>
+      <c r="B84" s="23"/>
     </row>
     <row r="85" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A85" s="22" t="s">
+      <c r="A85" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B85" s="22"/>
+      <c r="B85" s="32"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="23" t="s">
+      <c r="A86" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B86" s="24"/>
+      <c r="B86" s="34"/>
     </row>
     <row r="87" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A87" s="20" t="s">
+      <c r="A87" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="B87" s="20"/>
+      <c r="B87" s="35"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
@@ -2202,32 +2278,34 @@
       </c>
     </row>
     <row r="91" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A91" s="21" t="s">
+      <c r="A91" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="B91" s="21"/>
+      <c r="B91" s="23"/>
     </row>
     <row r="92" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A92" s="21" t="s">
+      <c r="A92" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="B92" s="21"/>
+      <c r="B92" s="23"/>
     </row>
     <row r="93" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A93" s="22" t="s">
+      <c r="A93" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B93" s="22"/>
+      <c r="B93" s="32"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="23"/>
-      <c r="B94" s="24"/>
+      <c r="A94" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="B94" s="34"/>
     </row>
     <row r="95" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A95" s="20" t="s">
+      <c r="A95" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="B95" s="20"/>
+      <c r="B95" s="35"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
@@ -2254,32 +2332,34 @@
       </c>
     </row>
     <row r="100" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A100" s="21" t="s">
+      <c r="A100" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="B100" s="21"/>
+      <c r="B100" s="23"/>
     </row>
     <row r="101" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A101" s="21" t="s">
+      <c r="A101" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="B101" s="21"/>
+      <c r="B101" s="23"/>
     </row>
     <row r="102" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A102" s="22" t="s">
+      <c r="A102" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B102" s="22"/>
+      <c r="B102" s="32"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="23"/>
-      <c r="B103" s="24"/>
+      <c r="A103" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="B103" s="34"/>
     </row>
     <row r="104" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A104" s="20" t="s">
+      <c r="A104" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="B104" s="20"/>
+      <c r="B104" s="35"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
@@ -2306,10 +2386,10 @@
       </c>
     </row>
     <row r="109" spans="1:6" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C109" s="21" t="s">
+      <c r="C109" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="D109" s="21"/>
+      <c r="D109" s="23"/>
     </row>
     <row r="110" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
@@ -2533,7 +2613,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>73</v>
@@ -2553,7 +2633,7 @@
     </row>
     <row r="122" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>74</v>
@@ -2572,17 +2652,17 @@
       </c>
     </row>
     <row r="124" spans="1:6" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C124" s="21" t="s">
+      <c r="C124" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="D124" s="21"/>
+      <c r="D124" s="23"/>
     </row>
     <row r="125" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A125" s="35" t="s">
+      <c r="A125" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="B125" s="35"/>
-      <c r="C125" s="35"/>
+      <c r="B125" s="40"/>
+      <c r="C125" s="40"/>
     </row>
     <row r="126" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
@@ -2644,11 +2724,11 @@
       <c r="C132" s="1"/>
     </row>
     <row r="134" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A134" s="36" t="s">
+      <c r="A134" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="B134" s="36"/>
-      <c r="C134" s="36"/>
+      <c r="B134" s="22"/>
+      <c r="C134" s="22"/>
     </row>
     <row r="135" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
@@ -2673,11 +2753,11 @@
       </c>
     </row>
     <row r="138" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A138" s="36" t="s">
+      <c r="A138" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="B138" s="36"/>
-      <c r="C138" s="36"/>
+      <c r="B138" s="22"/>
+      <c r="C138" s="22"/>
     </row>
     <row r="139" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
@@ -2698,29 +2778,29 @@
         <v>142</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>141</v>
+        <v>192</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="1" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="19"/>
-      <c r="B142" s="19"/>
-      <c r="C142" s="19"/>
-    </row>
-    <row r="143" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A143" s="36" t="s">
+      <c r="A142" s="44"/>
+      <c r="B142" s="44"/>
+      <c r="C142" s="44"/>
+    </row>
+    <row r="143" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="B143" s="36"/>
-      <c r="C143" s="36"/>
+      <c r="B143" s="46"/>
+      <c r="C143" s="47"/>
     </row>
     <row r="144" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
@@ -2738,515 +2818,803 @@
         <v>141</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>100</v>
+        <v>192</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="1"/>
+      <c r="B146" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="148" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C148" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="D148" s="21"/>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="B149" s="37"/>
-      <c r="C149" s="37"/>
-      <c r="D149" s="37"/>
-      <c r="E149" s="37"/>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="B150" s="38"/>
-      <c r="C150" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="D150" s="38"/>
-      <c r="E150" s="38"/>
-    </row>
-    <row r="151" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="1"/>
+      <c r="B147" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="44"/>
+      <c r="B148" s="44"/>
+      <c r="C148" s="44"/>
+    </row>
+    <row r="149" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="B149" s="46"/>
+      <c r="C149" s="47"/>
+    </row>
+    <row r="150" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>102</v>
+        <v>192</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="1"/>
+      <c r="B153" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C155" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="D155" s="23"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B156" s="20"/>
+      <c r="C156" s="20"/>
+      <c r="D156" s="20"/>
+      <c r="E156" s="20"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B157" s="21"/>
+      <c r="C157" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D157" s="21"/>
+      <c r="E157" s="21"/>
+    </row>
+    <row r="158" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="B159" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C152" s="1" t="s">
+      <c r="C159" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D152" s="1" t="s">
+      <c r="D159" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E152" s="1" t="s">
+      <c r="E159" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="37" t="s">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B154" s="37"/>
-      <c r="C154" s="37"/>
-      <c r="D154" s="37"/>
-      <c r="E154" s="37"/>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="38" t="s">
+      <c r="B161" s="20"/>
+      <c r="C161" s="20"/>
+      <c r="D161" s="20"/>
+      <c r="E161" s="20"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="B155" s="38"/>
-      <c r="C155" s="38" t="s">
+      <c r="B162" s="21"/>
+      <c r="C162" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="D155" s="38"/>
-      <c r="E155" s="38"/>
-    </row>
-    <row r="156" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
+      <c r="D162" s="21"/>
+      <c r="E162" s="21"/>
+    </row>
+    <row r="163" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="B163" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="C163" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D156" s="1" t="s">
+      <c r="D163" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E156" s="1" t="s">
+      <c r="E163" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
+    <row r="164" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="B164" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C157" s="1" t="s">
+      <c r="C164" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D157" s="1" t="s">
+      <c r="D164" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E157" s="1" t="s">
+      <c r="E164" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="31" t="s">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="B159" s="32"/>
-      <c r="C159" s="32"/>
-      <c r="D159" s="32"/>
-      <c r="E159" s="33"/>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="28" t="s">
+      <c r="B166" s="25"/>
+      <c r="C166" s="25"/>
+      <c r="D166" s="25"/>
+      <c r="E166" s="26"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="B160" s="29"/>
-      <c r="C160" s="28" t="s">
+      <c r="B167" s="28"/>
+      <c r="C167" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="D160" s="30"/>
-      <c r="E160" s="29"/>
-    </row>
-    <row r="161" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
+      <c r="D167" s="29"/>
+      <c r="E167" s="28"/>
+    </row>
+    <row r="168" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="B168" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C161" s="1" t="s">
+      <c r="C168" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D161" s="1" t="s">
+      <c r="D168" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E161" s="1" t="s">
+      <c r="E168" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
+    <row r="169" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="B169" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C162" s="1" t="s">
+      <c r="C169" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D162" s="1" t="s">
+      <c r="D169" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E162" s="1" t="s">
+      <c r="E169" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="31" t="s">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="B164" s="32"/>
-      <c r="C164" s="32"/>
-      <c r="D164" s="32"/>
-      <c r="E164" s="33"/>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="28" t="s">
+      <c r="B171" s="25"/>
+      <c r="C171" s="25"/>
+      <c r="D171" s="25"/>
+      <c r="E171" s="26"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="B165" s="29"/>
-      <c r="C165" s="28" t="s">
+      <c r="B172" s="28"/>
+      <c r="C172" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="D165" s="30"/>
-      <c r="E165" s="29"/>
-    </row>
-    <row r="166" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
+      <c r="D172" s="29"/>
+      <c r="E172" s="28"/>
+    </row>
+    <row r="173" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="B173" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C166" s="1" t="s">
+      <c r="C173" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D166" s="1" t="s">
+      <c r="D173" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E166" s="1" t="s">
+      <c r="E173" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="B174" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C167" s="1" t="s">
+      <c r="C174" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D167" s="1" t="s">
+      <c r="D174" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E167" s="1" t="s">
+      <c r="E174" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="31" t="s">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="B169" s="32"/>
-      <c r="C169" s="32"/>
-      <c r="D169" s="32"/>
-      <c r="E169" s="33"/>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="28" t="s">
+      <c r="B176" s="25"/>
+      <c r="C176" s="25"/>
+      <c r="D176" s="25"/>
+      <c r="E176" s="26"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="B170" s="29"/>
-      <c r="C170" s="28" t="s">
+      <c r="B177" s="28"/>
+      <c r="C177" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="D170" s="30"/>
-      <c r="E170" s="29"/>
-    </row>
-    <row r="171" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
+      <c r="D177" s="29"/>
+      <c r="E177" s="28"/>
+    </row>
+    <row r="178" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="B178" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C171" s="1" t="s">
+      <c r="C178" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D171" s="1" t="s">
+      <c r="D178" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E171" s="1" t="s">
+      <c r="E178" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
+    <row r="179" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="B179" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C172" s="1" t="s">
+      <c r="C179" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D172" s="1" t="s">
+      <c r="D179" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E172" s="1" t="s">
+      <c r="E179" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="31" t="s">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="B174" s="32"/>
-      <c r="C174" s="32"/>
-      <c r="D174" s="32"/>
-      <c r="E174" s="33"/>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="28" t="s">
+      <c r="B181" s="25"/>
+      <c r="C181" s="25"/>
+      <c r="D181" s="25"/>
+      <c r="E181" s="26"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="B175" s="29"/>
-      <c r="C175" s="28" t="s">
+      <c r="B182" s="28"/>
+      <c r="C182" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="D175" s="30"/>
-      <c r="E175" s="29"/>
-    </row>
-    <row r="176" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A176" s="1" t="s">
+      <c r="D182" s="29"/>
+      <c r="E182" s="28"/>
+    </row>
+    <row r="183" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B176" s="1" t="s">
+      <c r="B183" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C176" s="1" t="s">
+      <c r="C183" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D176" s="1" t="s">
+      <c r="D183" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E176" s="1" t="s">
+      <c r="E183" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A177" s="1" t="s">
+    <row r="184" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B177" s="1" t="s">
+      <c r="B184" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C177" s="1" t="s">
+      <c r="C184" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D177" s="1" t="s">
+      <c r="D184" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E177" s="1" t="s">
+      <c r="E184" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="31" t="s">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="B179" s="32"/>
-      <c r="C179" s="32"/>
-      <c r="D179" s="32"/>
-      <c r="E179" s="33"/>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="28" t="s">
+      <c r="B186" s="25"/>
+      <c r="C186" s="25"/>
+      <c r="D186" s="25"/>
+      <c r="E186" s="26"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="B180" s="29"/>
-      <c r="C180" s="28" t="s">
+      <c r="B187" s="28"/>
+      <c r="C187" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="D180" s="30"/>
-      <c r="E180" s="29"/>
-    </row>
-    <row r="181" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A181" s="1" t="s">
+      <c r="D187" s="29"/>
+      <c r="E187" s="28"/>
+    </row>
+    <row r="188" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="B188" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C181" s="1" t="s">
+      <c r="C188" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D181" s="1" t="s">
+      <c r="D188" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E181" s="1" t="s">
+      <c r="E188" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B182" s="1"/>
-      <c r="C182" s="1"/>
-      <c r="D182" s="1"/>
-      <c r="E182" s="1"/>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="31" t="s">
+      <c r="B189" s="1"/>
+      <c r="C189" s="1"/>
+      <c r="D189" s="1"/>
+      <c r="E189" s="1"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="B184" s="32"/>
-      <c r="C184" s="32"/>
-      <c r="D184" s="32"/>
-      <c r="E184" s="33"/>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="28" t="s">
+      <c r="B191" s="25"/>
+      <c r="C191" s="25"/>
+      <c r="D191" s="25"/>
+      <c r="E191" s="26"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="B185" s="29"/>
-      <c r="C185" s="28" t="s">
+      <c r="B192" s="28"/>
+      <c r="C192" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="D185" s="30"/>
-      <c r="E185" s="29"/>
-    </row>
-    <row r="186" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A186" s="1" t="s">
+      <c r="D192" s="29"/>
+      <c r="E192" s="28"/>
+    </row>
+    <row r="193" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="B193" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C186" s="1" t="s">
+      <c r="C193" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D186" s="1" t="s">
+      <c r="D193" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E186" s="1" t="s">
+      <c r="E193" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" s="1" t="s">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B187" s="1"/>
-      <c r="C187" s="1"/>
-      <c r="D187" s="1"/>
-      <c r="E187" s="1"/>
-    </row>
-    <row r="189" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C189" s="21" t="s">
+      <c r="B194" s="1"/>
+      <c r="C194" s="1"/>
+      <c r="D194" s="1"/>
+      <c r="E194" s="1"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="B196" s="25"/>
+      <c r="C196" s="25"/>
+      <c r="D196" s="25"/>
+      <c r="E196" s="26"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="B197" s="28"/>
+      <c r="C197" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="D197" s="29"/>
+      <c r="E197" s="28"/>
+    </row>
+    <row r="198" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B199" s="1"/>
+      <c r="C199" s="1"/>
+      <c r="D199" s="1"/>
+      <c r="E199" s="1"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="B201" s="25"/>
+      <c r="C201" s="25"/>
+      <c r="D201" s="25"/>
+      <c r="E201" s="26"/>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="B202" s="28"/>
+      <c r="C202" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="D202" s="29"/>
+      <c r="E202" s="28"/>
+    </row>
+    <row r="203" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B204" s="1"/>
+      <c r="C204" s="1"/>
+      <c r="D204" s="1"/>
+      <c r="E204" s="1"/>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="B206" s="25"/>
+      <c r="C206" s="25"/>
+      <c r="D206" s="25"/>
+      <c r="E206" s="26"/>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="B207" s="28"/>
+      <c r="C207" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="D207" s="29"/>
+      <c r="E207" s="28"/>
+    </row>
+    <row r="208" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B209" s="1"/>
+      <c r="C209" s="1"/>
+      <c r="D209" s="1"/>
+      <c r="E209" s="1"/>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="B211" s="25"/>
+      <c r="C211" s="25"/>
+      <c r="D211" s="25"/>
+      <c r="E211" s="26"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="B212" s="28"/>
+      <c r="C212" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="D212" s="29"/>
+      <c r="E212" s="28"/>
+    </row>
+    <row r="213" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C216" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="D189" s="21"/>
-    </row>
-    <row r="230" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B230" s="18" t="s">
+      <c r="D216" s="23"/>
+    </row>
+    <row r="257" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B257" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C230" s="18"/>
-    </row>
-    <row r="232" spans="2:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C232" s="21" t="s">
+      <c r="C257" s="18"/>
+    </row>
+    <row r="259" spans="2:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C259" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="D232" s="21"/>
-    </row>
-    <row r="234" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B234" s="18" t="s">
+      <c r="D259" s="23"/>
+    </row>
+    <row r="261" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B261" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C234" s="18"/>
-    </row>
-    <row r="236" spans="2:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C236" s="21" t="s">
+      <c r="C261" s="18"/>
+    </row>
+    <row r="263" spans="2:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C263" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="D236" s="21"/>
-    </row>
-    <row r="272" spans="3:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C272" s="44" t="s">
+      <c r="D263" s="23"/>
+    </row>
+    <row r="299" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C299" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="D272" s="44"/>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
+      <c r="D299" s="19"/>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F279" t="s">
+    <row r="306" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F306" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F280" t="s">
+    <row r="307" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F307" t="s">
         <v>131</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="66">
-    <mergeCell ref="C272:D272"/>
-    <mergeCell ref="A154:E154"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="C155:E155"/>
-    <mergeCell ref="A138:C138"/>
-    <mergeCell ref="C236:D236"/>
-    <mergeCell ref="A179:E179"/>
-    <mergeCell ref="A180:B180"/>
-    <mergeCell ref="C180:E180"/>
-    <mergeCell ref="A174:E174"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="C175:E175"/>
+  <mergeCells count="79">
+    <mergeCell ref="A206:E206"/>
+    <mergeCell ref="A207:B207"/>
+    <mergeCell ref="C207:E207"/>
+    <mergeCell ref="A143:C143"/>
+    <mergeCell ref="A197:B197"/>
+    <mergeCell ref="C197:E197"/>
+    <mergeCell ref="A191:E191"/>
+    <mergeCell ref="A192:B192"/>
+    <mergeCell ref="C192:E192"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="C216:D216"/>
+    <mergeCell ref="A212:B212"/>
+    <mergeCell ref="C212:E212"/>
+    <mergeCell ref="A176:E176"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="C177:E177"/>
+    <mergeCell ref="A171:E171"/>
+    <mergeCell ref="A172:B172"/>
+    <mergeCell ref="C172:E172"/>
+    <mergeCell ref="A166:E166"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="C167:E167"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C259:D259"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="A134:C134"/>
+    <mergeCell ref="A149:C149"/>
+    <mergeCell ref="A156:E156"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="C157:E157"/>
+    <mergeCell ref="A211:E211"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:B94"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A102:B102"/>
     <mergeCell ref="A103:B103"/>
@@ -3263,47 +3631,25 @@
     <mergeCell ref="A62:B62"/>
     <mergeCell ref="A63:B63"/>
     <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C232:D232"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="A125:C125"/>
-    <mergeCell ref="A134:C134"/>
-    <mergeCell ref="A143:C143"/>
-    <mergeCell ref="A149:E149"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="C150:E150"/>
-    <mergeCell ref="A184:E184"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="C189:D189"/>
-    <mergeCell ref="A185:B185"/>
-    <mergeCell ref="C185:E185"/>
-    <mergeCell ref="A169:E169"/>
-    <mergeCell ref="A170:B170"/>
-    <mergeCell ref="C170:E170"/>
-    <mergeCell ref="A164:E164"/>
-    <mergeCell ref="A165:B165"/>
-    <mergeCell ref="C165:E165"/>
-    <mergeCell ref="A159:E159"/>
-    <mergeCell ref="A160:B160"/>
-    <mergeCell ref="C160:E160"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C299:D299"/>
+    <mergeCell ref="A161:E161"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="C162:E162"/>
+    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="C263:D263"/>
+    <mergeCell ref="A186:E186"/>
+    <mergeCell ref="A187:B187"/>
+    <mergeCell ref="C187:E187"/>
+    <mergeCell ref="A181:E181"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="C182:E182"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A202:B202"/>
+    <mergeCell ref="C202:E202"/>
+    <mergeCell ref="A196:E196"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="68" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="68" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Meme Agile.xlsx
+++ b/Meme Agile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D\Git Collab\kelompok_meme_laporan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47086D1-F3FE-4053-B7A7-F817E280C975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1278CB-35B4-4F08-9902-6F5C0856B048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BD1CD595-25D7-451D-99CB-E4C06CA26580}"/>
   </bookViews>
@@ -919,92 +919,92 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1627,7 +1627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C4E763-3BF0-4DCE-A690-0A0674D041AB}">
   <dimension ref="A1:G307"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
@@ -1643,23 +1643,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:5" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C1" s="30"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
     </row>
     <row r="2" spans="3:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="4" spans="3:5" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
     </row>
     <row r="6" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D6" s="6" t="s">
@@ -1690,18 +1690,18 @@
       </c>
     </row>
     <row r="18" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
     </row>
     <row r="20" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
     </row>
     <row r="22" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D22" s="9" t="s">
@@ -1790,15 +1790,15 @@
       <c r="A42" s="11"/>
     </row>
     <row r="43" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="42" t="s">
+      <c r="A43" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="42"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="43"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="36"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
@@ -2100,34 +2100,34 @@
       </c>
     </row>
     <row r="62" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A62" s="23" t="s">
+      <c r="A62" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B62" s="23"/>
+      <c r="B62" s="30"/>
     </row>
     <row r="63" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A63" s="23" t="s">
+      <c r="A63" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="B63" s="23"/>
+      <c r="B63" s="30"/>
     </row>
     <row r="64" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A64" s="39" t="s">
+      <c r="A64" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="B64" s="39"/>
+      <c r="B64" s="46"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="36" t="s">
+      <c r="A65" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B65" s="34"/>
+      <c r="B65" s="33"/>
     </row>
     <row r="66" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A66" s="23" t="s">
+      <c r="A66" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="B66" s="23"/>
+      <c r="B66" s="30"/>
     </row>
     <row r="67" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
@@ -2186,34 +2186,34 @@
       </c>
     </row>
     <row r="75" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A75" s="23" t="s">
+      <c r="A75" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B75" s="23"/>
+      <c r="B75" s="30"/>
     </row>
     <row r="76" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A76" s="23" t="s">
+      <c r="A76" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="B76" s="23"/>
+      <c r="B76" s="30"/>
     </row>
     <row r="77" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A77" s="32" t="s">
+      <c r="A77" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B77" s="32"/>
+      <c r="B77" s="31"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="36" t="s">
+      <c r="A78" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="B78" s="34"/>
+      <c r="B78" s="33"/>
     </row>
     <row r="79" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A79" s="35" t="s">
+      <c r="A79" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B79" s="35"/>
+      <c r="B79" s="29"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
@@ -2232,34 +2232,34 @@
       </c>
     </row>
     <row r="83" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A83" s="23" t="s">
+      <c r="A83" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B83" s="23"/>
+      <c r="B83" s="30"/>
     </row>
     <row r="84" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A84" s="23" t="s">
+      <c r="A84" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="B84" s="23"/>
+      <c r="B84" s="30"/>
     </row>
     <row r="85" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A85" s="32" t="s">
+      <c r="A85" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B85" s="32"/>
+      <c r="B85" s="31"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="33" t="s">
+      <c r="A86" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="B86" s="34"/>
+      <c r="B86" s="33"/>
     </row>
     <row r="87" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A87" s="35" t="s">
+      <c r="A87" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B87" s="35"/>
+      <c r="B87" s="29"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
@@ -2278,34 +2278,34 @@
       </c>
     </row>
     <row r="91" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A91" s="23" t="s">
+      <c r="A91" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B91" s="23"/>
+      <c r="B91" s="30"/>
     </row>
     <row r="92" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A92" s="23" t="s">
+      <c r="A92" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="B92" s="23"/>
+      <c r="B92" s="30"/>
     </row>
     <row r="93" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A93" s="32" t="s">
+      <c r="A93" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B93" s="32"/>
+      <c r="B93" s="31"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="33" t="s">
+      <c r="A94" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="B94" s="34"/>
+      <c r="B94" s="33"/>
     </row>
     <row r="95" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A95" s="35" t="s">
+      <c r="A95" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B95" s="35"/>
+      <c r="B95" s="29"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
@@ -2332,34 +2332,34 @@
       </c>
     </row>
     <row r="100" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A100" s="23" t="s">
+      <c r="A100" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B100" s="23"/>
+      <c r="B100" s="30"/>
     </row>
     <row r="101" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A101" s="23" t="s">
+      <c r="A101" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="B101" s="23"/>
+      <c r="B101" s="30"/>
     </row>
     <row r="102" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A102" s="32" t="s">
+      <c r="A102" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B102" s="32"/>
+      <c r="B102" s="31"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="33" t="s">
+      <c r="A103" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="B103" s="34"/>
+      <c r="B103" s="33"/>
     </row>
     <row r="104" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A104" s="35" t="s">
+      <c r="A104" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B104" s="35"/>
+      <c r="B104" s="29"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
@@ -2386,10 +2386,10 @@
       </c>
     </row>
     <row r="109" spans="1:6" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C109" s="23" t="s">
+      <c r="C109" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="D109" s="23"/>
+      <c r="D109" s="30"/>
     </row>
     <row r="110" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
@@ -2652,17 +2652,17 @@
       </c>
     </row>
     <row r="124" spans="1:6" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C124" s="23" t="s">
+      <c r="C124" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="D124" s="23"/>
+      <c r="D124" s="30"/>
     </row>
     <row r="125" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A125" s="40" t="s">
+      <c r="A125" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="B125" s="40"/>
-      <c r="C125" s="40"/>
+      <c r="B125" s="38"/>
+      <c r="C125" s="38"/>
     </row>
     <row r="126" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
@@ -2724,11 +2724,11 @@
       <c r="C132" s="1"/>
     </row>
     <row r="134" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A134" s="22" t="s">
+      <c r="A134" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="B134" s="22"/>
-      <c r="C134" s="22"/>
+      <c r="B134" s="39"/>
+      <c r="C134" s="39"/>
     </row>
     <row r="135" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
@@ -2753,11 +2753,11 @@
       </c>
     </row>
     <row r="138" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A138" s="22" t="s">
+      <c r="A138" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="B138" s="22"/>
-      <c r="C138" s="22"/>
+      <c r="B138" s="39"/>
+      <c r="C138" s="39"/>
     </row>
     <row r="139" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
@@ -2791,16 +2791,16 @@
       </c>
     </row>
     <row r="142" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="44"/>
-      <c r="B142" s="44"/>
-      <c r="C142" s="44"/>
+      <c r="A142" s="19"/>
+      <c r="B142" s="19"/>
+      <c r="C142" s="19"/>
     </row>
     <row r="143" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="45" t="s">
+      <c r="A143" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="B143" s="46"/>
-      <c r="C143" s="47"/>
+      <c r="B143" s="27"/>
+      <c r="C143" s="28"/>
     </row>
     <row r="144" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
@@ -2843,16 +2843,16 @@
       </c>
     </row>
     <row r="148" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="44"/>
-      <c r="B148" s="44"/>
-      <c r="C148" s="44"/>
+      <c r="A148" s="19"/>
+      <c r="B148" s="19"/>
+      <c r="C148" s="19"/>
     </row>
     <row r="149" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="45" t="s">
+      <c r="A149" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="B149" s="46"/>
-      <c r="C149" s="47"/>
+      <c r="B149" s="27"/>
+      <c r="C149" s="28"/>
     </row>
     <row r="150" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
@@ -2897,30 +2897,30 @@
       </c>
     </row>
     <row r="155" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C155" s="23" t="s">
+      <c r="C155" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="D155" s="23"/>
+      <c r="D155" s="30"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="20" t="s">
+      <c r="A156" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="B156" s="20"/>
-      <c r="C156" s="20"/>
-      <c r="D156" s="20"/>
-      <c r="E156" s="20"/>
+      <c r="B156" s="40"/>
+      <c r="C156" s="40"/>
+      <c r="D156" s="40"/>
+      <c r="E156" s="40"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="21" t="s">
+      <c r="A157" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="B157" s="21"/>
-      <c r="C157" s="21" t="s">
+      <c r="B157" s="41"/>
+      <c r="C157" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="D157" s="21"/>
-      <c r="E157" s="21"/>
+      <c r="D157" s="41"/>
+      <c r="E157" s="41"/>
     </row>
     <row r="158" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
@@ -2957,24 +2957,24 @@
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="20" t="s">
+      <c r="A161" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="B161" s="20"/>
-      <c r="C161" s="20"/>
-      <c r="D161" s="20"/>
-      <c r="E161" s="20"/>
+      <c r="B161" s="40"/>
+      <c r="C161" s="40"/>
+      <c r="D161" s="40"/>
+      <c r="E161" s="40"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="21" t="s">
+      <c r="A162" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="B162" s="21"/>
-      <c r="C162" s="21" t="s">
+      <c r="B162" s="41"/>
+      <c r="C162" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="D162" s="21"/>
-      <c r="E162" s="21"/>
+      <c r="D162" s="41"/>
+      <c r="E162" s="41"/>
     </row>
     <row r="163" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
@@ -3011,24 +3011,24 @@
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="24" t="s">
+      <c r="A166" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="B166" s="25"/>
-      <c r="C166" s="25"/>
-      <c r="D166" s="25"/>
-      <c r="E166" s="26"/>
+      <c r="B166" s="21"/>
+      <c r="C166" s="21"/>
+      <c r="D166" s="21"/>
+      <c r="E166" s="22"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="27" t="s">
+      <c r="A167" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="B167" s="28"/>
-      <c r="C167" s="27" t="s">
+      <c r="B167" s="24"/>
+      <c r="C167" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="D167" s="29"/>
-      <c r="E167" s="28"/>
+      <c r="D167" s="25"/>
+      <c r="E167" s="24"/>
     </row>
     <row r="168" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
@@ -3065,24 +3065,24 @@
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="24" t="s">
+      <c r="A171" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="B171" s="25"/>
-      <c r="C171" s="25"/>
-      <c r="D171" s="25"/>
-      <c r="E171" s="26"/>
+      <c r="B171" s="21"/>
+      <c r="C171" s="21"/>
+      <c r="D171" s="21"/>
+      <c r="E171" s="22"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="27" t="s">
+      <c r="A172" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="B172" s="28"/>
-      <c r="C172" s="27" t="s">
+      <c r="B172" s="24"/>
+      <c r="C172" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="D172" s="29"/>
-      <c r="E172" s="28"/>
+      <c r="D172" s="25"/>
+      <c r="E172" s="24"/>
     </row>
     <row r="173" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
@@ -3119,24 +3119,24 @@
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="24" t="s">
+      <c r="A176" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="B176" s="25"/>
-      <c r="C176" s="25"/>
-      <c r="D176" s="25"/>
-      <c r="E176" s="26"/>
+      <c r="B176" s="21"/>
+      <c r="C176" s="21"/>
+      <c r="D176" s="21"/>
+      <c r="E176" s="22"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="27" t="s">
+      <c r="A177" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="B177" s="28"/>
-      <c r="C177" s="27" t="s">
+      <c r="B177" s="24"/>
+      <c r="C177" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="D177" s="29"/>
-      <c r="E177" s="28"/>
+      <c r="D177" s="25"/>
+      <c r="E177" s="24"/>
     </row>
     <row r="178" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
@@ -3173,24 +3173,24 @@
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" s="24" t="s">
+      <c r="A181" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="B181" s="25"/>
-      <c r="C181" s="25"/>
-      <c r="D181" s="25"/>
-      <c r="E181" s="26"/>
+      <c r="B181" s="21"/>
+      <c r="C181" s="21"/>
+      <c r="D181" s="21"/>
+      <c r="E181" s="22"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="27" t="s">
+      <c r="A182" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="B182" s="28"/>
-      <c r="C182" s="27" t="s">
+      <c r="B182" s="24"/>
+      <c r="C182" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="D182" s="29"/>
-      <c r="E182" s="28"/>
+      <c r="D182" s="25"/>
+      <c r="E182" s="24"/>
     </row>
     <row r="183" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
@@ -3227,24 +3227,24 @@
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="24" t="s">
+      <c r="A186" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="B186" s="25"/>
-      <c r="C186" s="25"/>
-      <c r="D186" s="25"/>
-      <c r="E186" s="26"/>
+      <c r="B186" s="21"/>
+      <c r="C186" s="21"/>
+      <c r="D186" s="21"/>
+      <c r="E186" s="22"/>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" s="27" t="s">
+      <c r="A187" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="B187" s="28"/>
-      <c r="C187" s="27" t="s">
+      <c r="B187" s="24"/>
+      <c r="C187" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="D187" s="29"/>
-      <c r="E187" s="28"/>
+      <c r="D187" s="25"/>
+      <c r="E187" s="24"/>
     </row>
     <row r="188" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
@@ -3273,24 +3273,24 @@
       <c r="E189" s="1"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="24" t="s">
+      <c r="A191" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="B191" s="25"/>
-      <c r="C191" s="25"/>
-      <c r="D191" s="25"/>
-      <c r="E191" s="26"/>
+      <c r="B191" s="21"/>
+      <c r="C191" s="21"/>
+      <c r="D191" s="21"/>
+      <c r="E191" s="22"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="27" t="s">
+      <c r="A192" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="B192" s="28"/>
-      <c r="C192" s="27" t="s">
+      <c r="B192" s="24"/>
+      <c r="C192" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="D192" s="29"/>
-      <c r="E192" s="28"/>
+      <c r="D192" s="25"/>
+      <c r="E192" s="24"/>
     </row>
     <row r="193" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
@@ -3319,24 +3319,24 @@
       <c r="E194" s="1"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" s="24" t="s">
+      <c r="A196" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="B196" s="25"/>
-      <c r="C196" s="25"/>
-      <c r="D196" s="25"/>
-      <c r="E196" s="26"/>
+      <c r="B196" s="21"/>
+      <c r="C196" s="21"/>
+      <c r="D196" s="21"/>
+      <c r="E196" s="22"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" s="27" t="s">
+      <c r="A197" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="B197" s="28"/>
-      <c r="C197" s="27" t="s">
+      <c r="B197" s="24"/>
+      <c r="C197" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="D197" s="29"/>
-      <c r="E197" s="28"/>
+      <c r="D197" s="25"/>
+      <c r="E197" s="24"/>
     </row>
     <row r="198" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
@@ -3365,24 +3365,24 @@
       <c r="E199" s="1"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="24" t="s">
+      <c r="A201" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="B201" s="25"/>
-      <c r="C201" s="25"/>
-      <c r="D201" s="25"/>
-      <c r="E201" s="26"/>
+      <c r="B201" s="21"/>
+      <c r="C201" s="21"/>
+      <c r="D201" s="21"/>
+      <c r="E201" s="22"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" s="27" t="s">
+      <c r="A202" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="B202" s="28"/>
-      <c r="C202" s="27" t="s">
+      <c r="B202" s="24"/>
+      <c r="C202" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="D202" s="29"/>
-      <c r="E202" s="28"/>
+      <c r="D202" s="25"/>
+      <c r="E202" s="24"/>
     </row>
     <row r="203" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
@@ -3411,24 +3411,24 @@
       <c r="E204" s="1"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" s="24" t="s">
+      <c r="A206" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="B206" s="25"/>
-      <c r="C206" s="25"/>
-      <c r="D206" s="25"/>
-      <c r="E206" s="26"/>
+      <c r="B206" s="21"/>
+      <c r="C206" s="21"/>
+      <c r="D206" s="21"/>
+      <c r="E206" s="22"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" s="27" t="s">
+      <c r="A207" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="B207" s="28"/>
-      <c r="C207" s="27" t="s">
+      <c r="B207" s="24"/>
+      <c r="C207" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="D207" s="29"/>
-      <c r="E207" s="28"/>
+      <c r="D207" s="25"/>
+      <c r="E207" s="24"/>
     </row>
     <row r="208" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
@@ -3457,24 +3457,24 @@
       <c r="E209" s="1"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" s="24" t="s">
+      <c r="A211" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="B211" s="25"/>
-      <c r="C211" s="25"/>
-      <c r="D211" s="25"/>
-      <c r="E211" s="26"/>
+      <c r="B211" s="21"/>
+      <c r="C211" s="21"/>
+      <c r="D211" s="21"/>
+      <c r="E211" s="22"/>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" s="27" t="s">
+      <c r="A212" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="B212" s="28"/>
-      <c r="C212" s="27" t="s">
+      <c r="B212" s="24"/>
+      <c r="C212" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="D212" s="29"/>
-      <c r="E212" s="28"/>
+      <c r="D212" s="25"/>
+      <c r="E212" s="24"/>
     </row>
     <row r="213" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
@@ -3511,10 +3511,10 @@
       </c>
     </row>
     <row r="216" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C216" s="23" t="s">
+      <c r="C216" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="D216" s="23"/>
+      <c r="D216" s="30"/>
     </row>
     <row r="257" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B257" s="18" t="s">
@@ -3523,10 +3523,10 @@
       <c r="C257" s="18"/>
     </row>
     <row r="259" spans="2:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C259" s="23" t="s">
+      <c r="C259" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="D259" s="23"/>
+      <c r="D259" s="30"/>
     </row>
     <row r="261" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B261" s="18" t="s">
@@ -3535,16 +3535,16 @@
       <c r="C261" s="18"/>
     </row>
     <row r="263" spans="2:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C263" s="23" t="s">
+      <c r="C263" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="D263" s="23"/>
+      <c r="D263" s="30"/>
     </row>
     <row r="299" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C299" s="19" t="s">
+      <c r="C299" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="D299" s="19"/>
+      <c r="D299" s="47"/>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
@@ -3568,21 +3568,54 @@
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="A206:E206"/>
-    <mergeCell ref="A207:B207"/>
-    <mergeCell ref="C207:E207"/>
-    <mergeCell ref="A143:C143"/>
-    <mergeCell ref="A197:B197"/>
-    <mergeCell ref="C197:E197"/>
-    <mergeCell ref="A191:E191"/>
-    <mergeCell ref="A192:B192"/>
-    <mergeCell ref="C192:E192"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C299:D299"/>
+    <mergeCell ref="A161:E161"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="C162:E162"/>
+    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="C263:D263"/>
+    <mergeCell ref="A186:E186"/>
+    <mergeCell ref="A187:B187"/>
+    <mergeCell ref="C187:E187"/>
+    <mergeCell ref="A181:E181"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="C182:E182"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A202:B202"/>
+    <mergeCell ref="C202:E202"/>
+    <mergeCell ref="A196:E196"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C259:D259"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="A134:C134"/>
+    <mergeCell ref="A149:C149"/>
+    <mergeCell ref="A156:E156"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="C157:E157"/>
+    <mergeCell ref="A211:E211"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:B94"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="A43:G43"/>
@@ -3599,54 +3632,21 @@
     <mergeCell ref="A167:B167"/>
     <mergeCell ref="C167:E167"/>
     <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C259:D259"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="A125:C125"/>
-    <mergeCell ref="A134:C134"/>
-    <mergeCell ref="A149:C149"/>
-    <mergeCell ref="A156:E156"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="C157:E157"/>
-    <mergeCell ref="A211:E211"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C299:D299"/>
-    <mergeCell ref="A161:E161"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="C162:E162"/>
-    <mergeCell ref="A138:C138"/>
-    <mergeCell ref="C263:D263"/>
-    <mergeCell ref="A186:E186"/>
-    <mergeCell ref="A187:B187"/>
-    <mergeCell ref="C187:E187"/>
-    <mergeCell ref="A181:E181"/>
-    <mergeCell ref="A182:B182"/>
-    <mergeCell ref="C182:E182"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="A202:B202"/>
-    <mergeCell ref="C202:E202"/>
-    <mergeCell ref="A196:E196"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A206:E206"/>
+    <mergeCell ref="A207:B207"/>
+    <mergeCell ref="C207:E207"/>
+    <mergeCell ref="A143:C143"/>
+    <mergeCell ref="A197:B197"/>
+    <mergeCell ref="C197:E197"/>
+    <mergeCell ref="A191:E191"/>
+    <mergeCell ref="A192:B192"/>
+    <mergeCell ref="C192:E192"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="68" orientation="portrait" r:id="rId1"/>

--- a/Meme Agile.xlsx
+++ b/Meme Agile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D\Git Collab\kelompok_meme_laporan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1278CB-35B4-4F08-9902-6F5C0856B048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45347DC-2E65-4F83-B666-86E4C0326CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BD1CD595-25D7-451D-99CB-E4C06CA26580}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="225">
   <si>
     <t>Product Backlog &amp; User Story</t>
   </si>
@@ -639,13 +639,67 @@
     <t>More option</t>
   </si>
   <si>
-    <t>Impression</t>
-  </si>
-  <si>
     <t>A good UI</t>
   </si>
   <si>
     <t>Finalize product</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>complicated</t>
+  </si>
+  <si>
+    <t>Simplified design</t>
+  </si>
+  <si>
+    <t>color theory</t>
+  </si>
+  <si>
+    <t>lag interval between location</t>
+  </si>
+  <si>
+    <t>burn the server</t>
+  </si>
+  <si>
+    <t>reduce server load</t>
+  </si>
+  <si>
+    <t>optimize server</t>
+  </si>
+  <si>
+    <t>important option</t>
+  </si>
+  <si>
+    <t>complicated option</t>
+  </si>
+  <si>
+    <t>design option</t>
+  </si>
+  <si>
+    <t>simplified option available</t>
+  </si>
+  <si>
+    <t>storage</t>
+  </si>
+  <si>
+    <t>dump memory</t>
+  </si>
+  <si>
+    <t>compressing</t>
+  </si>
+  <si>
+    <t>Weak to traffic attack</t>
+  </si>
+  <si>
+    <t>make more bait hole</t>
+  </si>
+  <si>
+    <t>upgrading security</t>
+  </si>
+  <si>
+    <t>Learning more security technique</t>
   </si>
 </sst>
 </file>
@@ -922,6 +976,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -940,19 +1009,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -964,34 +1024,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1003,7 +1039,25 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1627,8 +1681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C4E763-3BF0-4DCE-A690-0A0674D041AB}">
   <dimension ref="A1:G307"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D106" sqref="D106"/>
+    <sheetView tabSelected="1" topLeftCell="A194" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D205" sqref="D205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1643,23 +1697,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:5" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C1" s="42"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
     </row>
     <row r="2" spans="3:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="4" spans="3:5" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
     </row>
     <row r="6" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D6" s="6" t="s">
@@ -1690,18 +1744,18 @@
       </c>
     </row>
     <row r="18" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
     </row>
     <row r="20" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
     </row>
     <row r="22" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D22" s="9" t="s">
@@ -1790,15 +1844,15 @@
       <c r="A42" s="11"/>
     </row>
     <row r="43" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="35" t="s">
+      <c r="A43" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="35"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="36"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="47"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
@@ -2100,34 +2154,34 @@
       </c>
     </row>
     <row r="62" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A62" s="30" t="s">
+      <c r="A62" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B62" s="30"/>
+      <c r="B62" s="24"/>
     </row>
     <row r="63" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A63" s="30" t="s">
+      <c r="A63" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B63" s="30"/>
+      <c r="B63" s="24"/>
     </row>
     <row r="64" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A64" s="46" t="s">
+      <c r="A64" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B64" s="46"/>
+      <c r="B64" s="40"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B65" s="33"/>
+      <c r="B65" s="35"/>
     </row>
     <row r="66" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A66" s="30" t="s">
+      <c r="A66" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B66" s="30"/>
+      <c r="B66" s="24"/>
     </row>
     <row r="67" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
@@ -2186,34 +2240,34 @@
       </c>
     </row>
     <row r="75" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A75" s="30" t="s">
+      <c r="A75" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B75" s="30"/>
+      <c r="B75" s="24"/>
     </row>
     <row r="76" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A76" s="30" t="s">
+      <c r="A76" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B76" s="30"/>
+      <c r="B76" s="24"/>
     </row>
     <row r="77" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A77" s="31" t="s">
+      <c r="A77" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B77" s="31"/>
+      <c r="B77" s="33"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="B78" s="33"/>
+      <c r="B78" s="35"/>
     </row>
     <row r="79" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A79" s="29" t="s">
+      <c r="A79" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B79" s="29"/>
+      <c r="B79" s="36"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
@@ -2232,34 +2286,34 @@
       </c>
     </row>
     <row r="83" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A83" s="30" t="s">
+      <c r="A83" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B83" s="30"/>
+      <c r="B83" s="24"/>
     </row>
     <row r="84" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A84" s="30" t="s">
+      <c r="A84" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B84" s="30"/>
+      <c r="B84" s="24"/>
     </row>
     <row r="85" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A85" s="31" t="s">
+      <c r="A85" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B85" s="31"/>
+      <c r="B85" s="33"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="32" t="s">
+      <c r="A86" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="B86" s="33"/>
+      <c r="B86" s="35"/>
     </row>
     <row r="87" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A87" s="29" t="s">
+      <c r="A87" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B87" s="29"/>
+      <c r="B87" s="36"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
@@ -2278,34 +2332,34 @@
       </c>
     </row>
     <row r="91" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A91" s="30" t="s">
+      <c r="A91" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B91" s="30"/>
+      <c r="B91" s="24"/>
     </row>
     <row r="92" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A92" s="30" t="s">
+      <c r="A92" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="B92" s="30"/>
+      <c r="B92" s="24"/>
     </row>
     <row r="93" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A93" s="31" t="s">
+      <c r="A93" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B93" s="31"/>
+      <c r="B93" s="33"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="32" t="s">
-        <v>205</v>
-      </c>
-      <c r="B94" s="33"/>
+      <c r="A94" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="B94" s="35"/>
     </row>
     <row r="95" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A95" s="29" t="s">
+      <c r="A95" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B95" s="29"/>
+      <c r="B95" s="36"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
@@ -2332,34 +2386,34 @@
       </c>
     </row>
     <row r="100" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A100" s="30" t="s">
+      <c r="A100" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B100" s="30"/>
+      <c r="B100" s="24"/>
     </row>
     <row r="101" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A101" s="30" t="s">
+      <c r="A101" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="B101" s="30"/>
+      <c r="B101" s="24"/>
     </row>
     <row r="102" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A102" s="31" t="s">
+      <c r="A102" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B102" s="31"/>
+      <c r="B102" s="33"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="B103" s="33"/>
+      <c r="A103" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="B103" s="35"/>
     </row>
     <row r="104" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A104" s="29" t="s">
+      <c r="A104" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B104" s="29"/>
+      <c r="B104" s="36"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
@@ -2386,10 +2440,10 @@
       </c>
     </row>
     <row r="109" spans="1:6" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C109" s="30" t="s">
+      <c r="C109" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D109" s="30"/>
+      <c r="D109" s="24"/>
     </row>
     <row r="110" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
@@ -2652,17 +2706,17 @@
       </c>
     </row>
     <row r="124" spans="1:6" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C124" s="30" t="s">
+      <c r="C124" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="D124" s="30"/>
+      <c r="D124" s="24"/>
     </row>
     <row r="125" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A125" s="38" t="s">
+      <c r="A125" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="B125" s="38"/>
-      <c r="C125" s="38"/>
+      <c r="B125" s="41"/>
+      <c r="C125" s="41"/>
     </row>
     <row r="126" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
@@ -2724,11 +2778,11 @@
       <c r="C132" s="1"/>
     </row>
     <row r="134" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A134" s="39" t="s">
+      <c r="A134" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="B134" s="39"/>
-      <c r="C134" s="39"/>
+      <c r="B134" s="23"/>
+      <c r="C134" s="23"/>
     </row>
     <row r="135" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
@@ -2753,11 +2807,11 @@
       </c>
     </row>
     <row r="138" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A138" s="39" t="s">
+      <c r="A138" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="B138" s="39"/>
-      <c r="C138" s="39"/>
+      <c r="B138" s="23"/>
+      <c r="C138" s="23"/>
     </row>
     <row r="139" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
@@ -2796,11 +2850,11 @@
       <c r="C142" s="19"/>
     </row>
     <row r="143" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="26" t="s">
+      <c r="A143" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="B143" s="27"/>
-      <c r="C143" s="28"/>
+      <c r="B143" s="43"/>
+      <c r="C143" s="44"/>
     </row>
     <row r="144" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
@@ -2848,11 +2902,11 @@
       <c r="C148" s="19"/>
     </row>
     <row r="149" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="26" t="s">
+      <c r="A149" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="B149" s="27"/>
-      <c r="C149" s="28"/>
+      <c r="B149" s="43"/>
+      <c r="C149" s="44"/>
     </row>
     <row r="150" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
@@ -2897,30 +2951,30 @@
       </c>
     </row>
     <row r="155" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C155" s="30" t="s">
+      <c r="C155" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="D155" s="30"/>
+      <c r="D155" s="24"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="40" t="s">
+      <c r="A156" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="B156" s="40"/>
-      <c r="C156" s="40"/>
-      <c r="D156" s="40"/>
-      <c r="E156" s="40"/>
+      <c r="B156" s="21"/>
+      <c r="C156" s="21"/>
+      <c r="D156" s="21"/>
+      <c r="E156" s="21"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="41" t="s">
+      <c r="A157" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="B157" s="41"/>
-      <c r="C157" s="41" t="s">
+      <c r="B157" s="22"/>
+      <c r="C157" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="D157" s="41"/>
-      <c r="E157" s="41"/>
+      <c r="D157" s="22"/>
+      <c r="E157" s="22"/>
     </row>
     <row r="158" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
@@ -2957,24 +3011,24 @@
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="40" t="s">
+      <c r="A161" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="B161" s="40"/>
-      <c r="C161" s="40"/>
-      <c r="D161" s="40"/>
-      <c r="E161" s="40"/>
+      <c r="B161" s="21"/>
+      <c r="C161" s="21"/>
+      <c r="D161" s="21"/>
+      <c r="E161" s="21"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="41" t="s">
+      <c r="A162" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="B162" s="41"/>
-      <c r="C162" s="41" t="s">
+      <c r="B162" s="22"/>
+      <c r="C162" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="D162" s="41"/>
-      <c r="E162" s="41"/>
+      <c r="D162" s="22"/>
+      <c r="E162" s="22"/>
     </row>
     <row r="163" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
@@ -3011,24 +3065,24 @@
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="20" t="s">
+      <c r="A166" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="B166" s="21"/>
-      <c r="C166" s="21"/>
-      <c r="D166" s="21"/>
-      <c r="E166" s="22"/>
+      <c r="B166" s="26"/>
+      <c r="C166" s="26"/>
+      <c r="D166" s="26"/>
+      <c r="E166" s="27"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="23" t="s">
+      <c r="A167" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="B167" s="24"/>
-      <c r="C167" s="23" t="s">
+      <c r="B167" s="29"/>
+      <c r="C167" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="D167" s="25"/>
-      <c r="E167" s="24"/>
+      <c r="D167" s="30"/>
+      <c r="E167" s="29"/>
     </row>
     <row r="168" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
@@ -3065,24 +3119,24 @@
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="20" t="s">
+      <c r="A171" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="B171" s="21"/>
-      <c r="C171" s="21"/>
-      <c r="D171" s="21"/>
-      <c r="E171" s="22"/>
+      <c r="B171" s="26"/>
+      <c r="C171" s="26"/>
+      <c r="D171" s="26"/>
+      <c r="E171" s="27"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="23" t="s">
+      <c r="A172" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="B172" s="24"/>
-      <c r="C172" s="23" t="s">
+      <c r="B172" s="29"/>
+      <c r="C172" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="D172" s="25"/>
-      <c r="E172" s="24"/>
+      <c r="D172" s="30"/>
+      <c r="E172" s="29"/>
     </row>
     <row r="173" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
@@ -3119,24 +3173,24 @@
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="20" t="s">
+      <c r="A176" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="B176" s="21"/>
-      <c r="C176" s="21"/>
-      <c r="D176" s="21"/>
-      <c r="E176" s="22"/>
+      <c r="B176" s="26"/>
+      <c r="C176" s="26"/>
+      <c r="D176" s="26"/>
+      <c r="E176" s="27"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="23" t="s">
+      <c r="A177" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="B177" s="24"/>
-      <c r="C177" s="23" t="s">
+      <c r="B177" s="29"/>
+      <c r="C177" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="D177" s="25"/>
-      <c r="E177" s="24"/>
+      <c r="D177" s="30"/>
+      <c r="E177" s="29"/>
     </row>
     <row r="178" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
@@ -3173,24 +3227,24 @@
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" s="20" t="s">
+      <c r="A181" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="B181" s="21"/>
-      <c r="C181" s="21"/>
-      <c r="D181" s="21"/>
-      <c r="E181" s="22"/>
+      <c r="B181" s="26"/>
+      <c r="C181" s="26"/>
+      <c r="D181" s="26"/>
+      <c r="E181" s="27"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="23" t="s">
+      <c r="A182" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="B182" s="24"/>
-      <c r="C182" s="23" t="s">
+      <c r="B182" s="29"/>
+      <c r="C182" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="D182" s="25"/>
-      <c r="E182" s="24"/>
+      <c r="D182" s="30"/>
+      <c r="E182" s="29"/>
     </row>
     <row r="183" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
@@ -3227,24 +3281,24 @@
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="20" t="s">
+      <c r="A186" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="B186" s="21"/>
-      <c r="C186" s="21"/>
-      <c r="D186" s="21"/>
-      <c r="E186" s="22"/>
+      <c r="B186" s="26"/>
+      <c r="C186" s="26"/>
+      <c r="D186" s="26"/>
+      <c r="E186" s="27"/>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" s="23" t="s">
+      <c r="A187" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="B187" s="24"/>
-      <c r="C187" s="23" t="s">
+      <c r="B187" s="29"/>
+      <c r="C187" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="D187" s="25"/>
-      <c r="E187" s="24"/>
+      <c r="D187" s="30"/>
+      <c r="E187" s="29"/>
     </row>
     <row r="188" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
@@ -3267,30 +3321,38 @@
       <c r="A189" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B189" s="1"/>
-      <c r="C189" s="1"/>
-      <c r="D189" s="1"/>
-      <c r="E189" s="1"/>
+      <c r="B189" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="20" t="s">
+      <c r="A191" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="B191" s="21"/>
-      <c r="C191" s="21"/>
-      <c r="D191" s="21"/>
-      <c r="E191" s="22"/>
+      <c r="B191" s="26"/>
+      <c r="C191" s="26"/>
+      <c r="D191" s="26"/>
+      <c r="E191" s="27"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="23" t="s">
+      <c r="A192" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="B192" s="24"/>
-      <c r="C192" s="23" t="s">
+      <c r="B192" s="29"/>
+      <c r="C192" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="D192" s="25"/>
-      <c r="E192" s="24"/>
+      <c r="D192" s="30"/>
+      <c r="E192" s="29"/>
     </row>
     <row r="193" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
@@ -3313,30 +3375,38 @@
       <c r="A194" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B194" s="1"/>
-      <c r="C194" s="1"/>
-      <c r="D194" s="1"/>
-      <c r="E194" s="1"/>
+      <c r="B194" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" s="20" t="s">
+      <c r="A196" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="B196" s="21"/>
-      <c r="C196" s="21"/>
-      <c r="D196" s="21"/>
-      <c r="E196" s="22"/>
+      <c r="B196" s="26"/>
+      <c r="C196" s="26"/>
+      <c r="D196" s="26"/>
+      <c r="E196" s="27"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" s="23" t="s">
+      <c r="A197" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="B197" s="24"/>
-      <c r="C197" s="23" t="s">
+      <c r="B197" s="29"/>
+      <c r="C197" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="D197" s="25"/>
-      <c r="E197" s="24"/>
+      <c r="D197" s="30"/>
+      <c r="E197" s="29"/>
     </row>
     <row r="198" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
@@ -3359,30 +3429,38 @@
       <c r="A199" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B199" s="1"/>
-      <c r="C199" s="1"/>
-      <c r="D199" s="1"/>
-      <c r="E199" s="1"/>
+      <c r="B199" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="20" t="s">
+      <c r="A201" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="B201" s="21"/>
-      <c r="C201" s="21"/>
-      <c r="D201" s="21"/>
-      <c r="E201" s="22"/>
+      <c r="B201" s="26"/>
+      <c r="C201" s="26"/>
+      <c r="D201" s="26"/>
+      <c r="E201" s="27"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" s="23" t="s">
+      <c r="A202" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="B202" s="24"/>
-      <c r="C202" s="23" t="s">
+      <c r="B202" s="29"/>
+      <c r="C202" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="D202" s="25"/>
-      <c r="E202" s="24"/>
+      <c r="D202" s="30"/>
+      <c r="E202" s="29"/>
     </row>
     <row r="203" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
@@ -3401,34 +3479,42 @@
         <v>106</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B204" s="1"/>
-      <c r="C204" s="1"/>
-      <c r="D204" s="1"/>
-      <c r="E204" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" s="20" t="s">
+      <c r="A206" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="B206" s="21"/>
-      <c r="C206" s="21"/>
-      <c r="D206" s="21"/>
-      <c r="E206" s="22"/>
+      <c r="B206" s="26"/>
+      <c r="C206" s="26"/>
+      <c r="D206" s="26"/>
+      <c r="E206" s="27"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" s="23" t="s">
+      <c r="A207" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="B207" s="24"/>
-      <c r="C207" s="23" t="s">
+      <c r="B207" s="29"/>
+      <c r="C207" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="D207" s="25"/>
-      <c r="E207" s="24"/>
+      <c r="D207" s="30"/>
+      <c r="E207" s="29"/>
     </row>
     <row r="208" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
@@ -3451,30 +3537,38 @@
       <c r="A209" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B209" s="1"/>
-      <c r="C209" s="1"/>
-      <c r="D209" s="1"/>
-      <c r="E209" s="1"/>
+      <c r="B209" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" s="20" t="s">
+      <c r="A211" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="B211" s="21"/>
-      <c r="C211" s="21"/>
-      <c r="D211" s="21"/>
-      <c r="E211" s="22"/>
+      <c r="B211" s="26"/>
+      <c r="C211" s="26"/>
+      <c r="D211" s="26"/>
+      <c r="E211" s="27"/>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" s="23" t="s">
+      <c r="A212" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="B212" s="24"/>
-      <c r="C212" s="23" t="s">
+      <c r="B212" s="29"/>
+      <c r="C212" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="D212" s="25"/>
-      <c r="E212" s="24"/>
+      <c r="D212" s="30"/>
+      <c r="E212" s="29"/>
     </row>
     <row r="213" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
@@ -3511,10 +3605,10 @@
       </c>
     </row>
     <row r="216" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C216" s="30" t="s">
+      <c r="C216" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="D216" s="30"/>
+      <c r="D216" s="24"/>
     </row>
     <row r="257" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B257" s="18" t="s">
@@ -3523,10 +3617,10 @@
       <c r="C257" s="18"/>
     </row>
     <row r="259" spans="2:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C259" s="30" t="s">
+      <c r="C259" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D259" s="30"/>
+      <c r="D259" s="24"/>
     </row>
     <row r="261" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B261" s="18" t="s">
@@ -3535,16 +3629,16 @@
       <c r="C261" s="18"/>
     </row>
     <row r="263" spans="2:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C263" s="30" t="s">
+      <c r="C263" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D263" s="30"/>
+      <c r="D263" s="24"/>
     </row>
     <row r="299" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C299" s="47" t="s">
+      <c r="C299" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="D299" s="47"/>
+      <c r="D299" s="20"/>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
@@ -3568,6 +3662,69 @@
     </row>
   </sheetData>
   <mergeCells count="79">
+    <mergeCell ref="A206:E206"/>
+    <mergeCell ref="A207:B207"/>
+    <mergeCell ref="C207:E207"/>
+    <mergeCell ref="A143:C143"/>
+    <mergeCell ref="A197:B197"/>
+    <mergeCell ref="C197:E197"/>
+    <mergeCell ref="A191:E191"/>
+    <mergeCell ref="A192:B192"/>
+    <mergeCell ref="C192:E192"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="C216:D216"/>
+    <mergeCell ref="A212:B212"/>
+    <mergeCell ref="C212:E212"/>
+    <mergeCell ref="A176:E176"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="C177:E177"/>
+    <mergeCell ref="A171:E171"/>
+    <mergeCell ref="A172:B172"/>
+    <mergeCell ref="C172:E172"/>
+    <mergeCell ref="A166:E166"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="C167:E167"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C259:D259"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="A134:C134"/>
+    <mergeCell ref="A149:C149"/>
+    <mergeCell ref="A156:E156"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="C157:E157"/>
+    <mergeCell ref="A211:E211"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
     <mergeCell ref="C299:D299"/>
     <mergeCell ref="A161:E161"/>
     <mergeCell ref="A162:B162"/>
@@ -3584,69 +3741,6 @@
     <mergeCell ref="A202:B202"/>
     <mergeCell ref="C202:E202"/>
     <mergeCell ref="A196:E196"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C259:D259"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="A125:C125"/>
-    <mergeCell ref="A134:C134"/>
-    <mergeCell ref="A149:C149"/>
-    <mergeCell ref="A156:E156"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="C157:E157"/>
-    <mergeCell ref="A211:E211"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="C216:D216"/>
-    <mergeCell ref="A212:B212"/>
-    <mergeCell ref="C212:E212"/>
-    <mergeCell ref="A176:E176"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="C177:E177"/>
-    <mergeCell ref="A171:E171"/>
-    <mergeCell ref="A172:B172"/>
-    <mergeCell ref="C172:E172"/>
-    <mergeCell ref="A166:E166"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="C167:E167"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A206:E206"/>
-    <mergeCell ref="A207:B207"/>
-    <mergeCell ref="C207:E207"/>
-    <mergeCell ref="A143:C143"/>
-    <mergeCell ref="A197:B197"/>
-    <mergeCell ref="C197:E197"/>
-    <mergeCell ref="A191:E191"/>
-    <mergeCell ref="A192:B192"/>
-    <mergeCell ref="C192:E192"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="68" orientation="portrait" r:id="rId1"/>

--- a/Meme Agile.xlsx
+++ b/Meme Agile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D\Git Collab\kelompok_meme_laporan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45347DC-2E65-4F83-B666-86E4C0326CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF70146-1526-4F71-8D6B-63B9FDD77654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BD1CD595-25D7-451D-99CB-E4C06CA26580}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="226">
   <si>
     <t>Product Backlog &amp; User Story</t>
   </si>
@@ -700,13 +700,16 @@
   </si>
   <si>
     <t>Learning more security technique</t>
+  </si>
+  <si>
+    <t>https://www.figma.com/file/DOfXjIX0sDtTT138vuBkm6/Untitled?type=design&amp;mode=design&amp;t=JCj41vPfMqSEHQiK-1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -754,6 +757,14 @@
     <font>
       <sz val="18"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -932,10 +943,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -976,21 +988,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1009,10 +1006,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1024,10 +1030,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1039,29 +1069,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1081,16 +1095,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>781049</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>216</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>234</xdr:row>
-      <xdr:rowOff>27773</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1119,8 +1133,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1504949" y="24403049"/>
-          <a:ext cx="5829301" cy="3380574"/>
+          <a:off x="180975" y="64198500"/>
+          <a:ext cx="4295776" cy="2981326"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1131,16 +1145,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>235</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1371600</xdr:colOff>
-      <xdr:row>254</xdr:row>
-      <xdr:rowOff>116122</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>250</xdr:row>
+      <xdr:rowOff>123814</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1169,8 +1183,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1447800" y="28117801"/>
-          <a:ext cx="5991225" cy="3573696"/>
+          <a:off x="123826" y="67284601"/>
+          <a:ext cx="4362450" cy="3362313"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1183,13 +1197,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>428626</xdr:colOff>
-      <xdr:row>281</xdr:row>
+      <xdr:row>282</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>266701</xdr:colOff>
-      <xdr:row>295</xdr:row>
+      <xdr:row>296</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1233,13 +1247,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>668162</xdr:colOff>
-      <xdr:row>264</xdr:row>
+      <xdr:row>265</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>279</xdr:row>
+      <xdr:row>280</xdr:row>
       <xdr:rowOff>49184</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1283,13 +1297,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>264</xdr:row>
+      <xdr:row>265</xdr:row>
       <xdr:rowOff>147600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>279</xdr:row>
+      <xdr:row>280</xdr:row>
       <xdr:rowOff>43391</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1333,13 +1347,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>752476</xdr:colOff>
-      <xdr:row>281</xdr:row>
+      <xdr:row>282</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>296</xdr:row>
+      <xdr:row>297</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1371,6 +1385,94 @@
         <a:xfrm>
           <a:off x="4972051" y="36490276"/>
           <a:ext cx="4057649" cy="2819400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>519079</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4DB2B18-13CB-446E-8BC1-639963FAA189}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4724400" y="64227074"/>
+          <a:ext cx="4186204" cy="2924176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>521760</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>250</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2D1ACE0-9CB4-D9FB-DCC7-E55831A08A83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4741335" y="67313175"/>
+          <a:ext cx="4164540" cy="3257550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1679,10 +1781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C4E763-3BF0-4DCE-A690-0A0674D041AB}">
-  <dimension ref="A1:G307"/>
+  <dimension ref="A1:G308"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D205" sqref="D205"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1697,35 +1799,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:5" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C1" s="31"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
     </row>
     <row r="2" spans="3:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="4" spans="3:5" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-    </row>
-    <row r="6" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+    </row>
+    <row r="6" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D7" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D8" s="6" t="s">
         <v>5</v>
       </c>
@@ -1744,18 +1846,18 @@
       </c>
     </row>
     <row r="18" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
     </row>
     <row r="20" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="C20" s="45" t="s">
+      <c r="C20" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
     </row>
     <row r="22" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D22" s="9" t="s">
@@ -1844,15 +1946,15 @@
       <c r="A42" s="11"/>
     </row>
     <row r="43" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="46" t="s">
+      <c r="A43" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="46"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="47"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="36"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
@@ -2154,34 +2256,34 @@
       </c>
     </row>
     <row r="62" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A62" s="24" t="s">
+      <c r="A62" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B62" s="24"/>
+      <c r="B62" s="30"/>
     </row>
     <row r="63" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A63" s="24" t="s">
+      <c r="A63" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="B63" s="24"/>
+      <c r="B63" s="30"/>
     </row>
     <row r="64" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A64" s="40" t="s">
+      <c r="A64" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="B64" s="40"/>
+      <c r="B64" s="46"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B65" s="35"/>
+      <c r="B65" s="33"/>
     </row>
     <row r="66" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A66" s="24" t="s">
+      <c r="A66" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="B66" s="24"/>
+      <c r="B66" s="30"/>
     </row>
     <row r="67" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
@@ -2240,34 +2342,34 @@
       </c>
     </row>
     <row r="75" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A75" s="24" t="s">
+      <c r="A75" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B75" s="24"/>
+      <c r="B75" s="30"/>
     </row>
     <row r="76" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A76" s="24" t="s">
+      <c r="A76" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="B76" s="24"/>
+      <c r="B76" s="30"/>
     </row>
     <row r="77" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A77" s="33" t="s">
+      <c r="A77" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B77" s="33"/>
+      <c r="B77" s="31"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="B78" s="35"/>
+      <c r="B78" s="33"/>
     </row>
     <row r="79" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A79" s="36" t="s">
+      <c r="A79" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B79" s="36"/>
+      <c r="B79" s="29"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
@@ -2286,34 +2388,34 @@
       </c>
     </row>
     <row r="83" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A83" s="24" t="s">
+      <c r="A83" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B83" s="24"/>
+      <c r="B83" s="30"/>
     </row>
     <row r="84" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A84" s="24" t="s">
+      <c r="A84" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="B84" s="24"/>
+      <c r="B84" s="30"/>
     </row>
     <row r="85" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A85" s="33" t="s">
+      <c r="A85" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B85" s="33"/>
+      <c r="B85" s="31"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="34" t="s">
+      <c r="A86" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="B86" s="35"/>
+      <c r="B86" s="33"/>
     </row>
     <row r="87" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A87" s="36" t="s">
+      <c r="A87" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B87" s="36"/>
+      <c r="B87" s="29"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
@@ -2332,34 +2434,34 @@
       </c>
     </row>
     <row r="91" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A91" s="24" t="s">
+      <c r="A91" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B91" s="24"/>
+      <c r="B91" s="30"/>
     </row>
     <row r="92" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A92" s="24" t="s">
+      <c r="A92" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="B92" s="24"/>
+      <c r="B92" s="30"/>
     </row>
     <row r="93" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A93" s="33" t="s">
+      <c r="A93" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B93" s="33"/>
+      <c r="B93" s="31"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="34" t="s">
+      <c r="A94" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="B94" s="35"/>
+      <c r="B94" s="33"/>
     </row>
     <row r="95" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A95" s="36" t="s">
+      <c r="A95" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B95" s="36"/>
+      <c r="B95" s="29"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
@@ -2386,34 +2488,34 @@
       </c>
     </row>
     <row r="100" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A100" s="24" t="s">
+      <c r="A100" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B100" s="24"/>
+      <c r="B100" s="30"/>
     </row>
     <row r="101" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A101" s="24" t="s">
+      <c r="A101" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="B101" s="24"/>
+      <c r="B101" s="30"/>
     </row>
     <row r="102" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A102" s="33" t="s">
+      <c r="A102" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B102" s="33"/>
+      <c r="B102" s="31"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="34" t="s">
+      <c r="A103" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="B103" s="35"/>
+      <c r="B103" s="33"/>
     </row>
     <row r="104" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A104" s="36" t="s">
+      <c r="A104" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B104" s="36"/>
+      <c r="B104" s="29"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
@@ -2440,10 +2542,10 @@
       </c>
     </row>
     <row r="109" spans="1:6" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C109" s="24" t="s">
+      <c r="C109" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="D109" s="24"/>
+      <c r="D109" s="30"/>
     </row>
     <row r="110" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
@@ -2706,17 +2808,17 @@
       </c>
     </row>
     <row r="124" spans="1:6" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C124" s="24" t="s">
+      <c r="C124" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="D124" s="24"/>
+      <c r="D124" s="30"/>
     </row>
     <row r="125" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A125" s="41" t="s">
+      <c r="A125" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="B125" s="41"/>
-      <c r="C125" s="41"/>
+      <c r="B125" s="38"/>
+      <c r="C125" s="38"/>
     </row>
     <row r="126" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
@@ -2778,11 +2880,11 @@
       <c r="C132" s="1"/>
     </row>
     <row r="134" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A134" s="23" t="s">
+      <c r="A134" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="B134" s="23"/>
-      <c r="C134" s="23"/>
+      <c r="B134" s="39"/>
+      <c r="C134" s="39"/>
     </row>
     <row r="135" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
@@ -2807,11 +2909,11 @@
       </c>
     </row>
     <row r="138" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A138" s="23" t="s">
+      <c r="A138" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="B138" s="23"/>
-      <c r="C138" s="23"/>
+      <c r="B138" s="39"/>
+      <c r="C138" s="39"/>
     </row>
     <row r="139" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
@@ -2850,11 +2952,11 @@
       <c r="C142" s="19"/>
     </row>
     <row r="143" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="42" t="s">
+      <c r="A143" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="B143" s="43"/>
-      <c r="C143" s="44"/>
+      <c r="B143" s="27"/>
+      <c r="C143" s="28"/>
     </row>
     <row r="144" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
@@ -2902,11 +3004,11 @@
       <c r="C148" s="19"/>
     </row>
     <row r="149" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="42" t="s">
+      <c r="A149" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="B149" s="43"/>
-      <c r="C149" s="44"/>
+      <c r="B149" s="27"/>
+      <c r="C149" s="28"/>
     </row>
     <row r="150" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
@@ -2951,30 +3053,30 @@
       </c>
     </row>
     <row r="155" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C155" s="24" t="s">
+      <c r="C155" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="D155" s="24"/>
+      <c r="D155" s="30"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="21" t="s">
+      <c r="A156" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="B156" s="21"/>
-      <c r="C156" s="21"/>
-      <c r="D156" s="21"/>
-      <c r="E156" s="21"/>
+      <c r="B156" s="40"/>
+      <c r="C156" s="40"/>
+      <c r="D156" s="40"/>
+      <c r="E156" s="40"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="22" t="s">
+      <c r="A157" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="B157" s="22"/>
-      <c r="C157" s="22" t="s">
+      <c r="B157" s="41"/>
+      <c r="C157" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="D157" s="22"/>
-      <c r="E157" s="22"/>
+      <c r="D157" s="41"/>
+      <c r="E157" s="41"/>
     </row>
     <row r="158" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
@@ -3011,24 +3113,24 @@
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="21" t="s">
+      <c r="A161" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="B161" s="21"/>
-      <c r="C161" s="21"/>
-      <c r="D161" s="21"/>
-      <c r="E161" s="21"/>
+      <c r="B161" s="40"/>
+      <c r="C161" s="40"/>
+      <c r="D161" s="40"/>
+      <c r="E161" s="40"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="22" t="s">
+      <c r="A162" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="B162" s="22"/>
-      <c r="C162" s="22" t="s">
+      <c r="B162" s="41"/>
+      <c r="C162" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="D162" s="22"/>
-      <c r="E162" s="22"/>
+      <c r="D162" s="41"/>
+      <c r="E162" s="41"/>
     </row>
     <row r="163" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
@@ -3065,24 +3167,24 @@
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="25" t="s">
+      <c r="A166" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="B166" s="26"/>
-      <c r="C166" s="26"/>
-      <c r="D166" s="26"/>
-      <c r="E166" s="27"/>
+      <c r="B166" s="21"/>
+      <c r="C166" s="21"/>
+      <c r="D166" s="21"/>
+      <c r="E166" s="22"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="28" t="s">
+      <c r="A167" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="B167" s="29"/>
-      <c r="C167" s="28" t="s">
+      <c r="B167" s="24"/>
+      <c r="C167" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="D167" s="30"/>
-      <c r="E167" s="29"/>
+      <c r="D167" s="25"/>
+      <c r="E167" s="24"/>
     </row>
     <row r="168" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
@@ -3119,24 +3221,24 @@
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="25" t="s">
+      <c r="A171" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="B171" s="26"/>
-      <c r="C171" s="26"/>
-      <c r="D171" s="26"/>
-      <c r="E171" s="27"/>
+      <c r="B171" s="21"/>
+      <c r="C171" s="21"/>
+      <c r="D171" s="21"/>
+      <c r="E171" s="22"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="28" t="s">
+      <c r="A172" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="B172" s="29"/>
-      <c r="C172" s="28" t="s">
+      <c r="B172" s="24"/>
+      <c r="C172" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="D172" s="30"/>
-      <c r="E172" s="29"/>
+      <c r="D172" s="25"/>
+      <c r="E172" s="24"/>
     </row>
     <row r="173" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
@@ -3173,24 +3275,24 @@
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="25" t="s">
+      <c r="A176" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="B176" s="26"/>
-      <c r="C176" s="26"/>
-      <c r="D176" s="26"/>
-      <c r="E176" s="27"/>
+      <c r="B176" s="21"/>
+      <c r="C176" s="21"/>
+      <c r="D176" s="21"/>
+      <c r="E176" s="22"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="28" t="s">
+      <c r="A177" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="B177" s="29"/>
-      <c r="C177" s="28" t="s">
+      <c r="B177" s="24"/>
+      <c r="C177" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="D177" s="30"/>
-      <c r="E177" s="29"/>
+      <c r="D177" s="25"/>
+      <c r="E177" s="24"/>
     </row>
     <row r="178" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
@@ -3227,24 +3329,24 @@
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" s="25" t="s">
+      <c r="A181" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="B181" s="26"/>
-      <c r="C181" s="26"/>
-      <c r="D181" s="26"/>
-      <c r="E181" s="27"/>
+      <c r="B181" s="21"/>
+      <c r="C181" s="21"/>
+      <c r="D181" s="21"/>
+      <c r="E181" s="22"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="28" t="s">
+      <c r="A182" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="B182" s="29"/>
-      <c r="C182" s="28" t="s">
+      <c r="B182" s="24"/>
+      <c r="C182" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="D182" s="30"/>
-      <c r="E182" s="29"/>
+      <c r="D182" s="25"/>
+      <c r="E182" s="24"/>
     </row>
     <row r="183" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
@@ -3281,24 +3383,24 @@
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="25" t="s">
+      <c r="A186" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="B186" s="26"/>
-      <c r="C186" s="26"/>
-      <c r="D186" s="26"/>
-      <c r="E186" s="27"/>
+      <c r="B186" s="21"/>
+      <c r="C186" s="21"/>
+      <c r="D186" s="21"/>
+      <c r="E186" s="22"/>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" s="28" t="s">
+      <c r="A187" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="B187" s="29"/>
-      <c r="C187" s="28" t="s">
+      <c r="B187" s="24"/>
+      <c r="C187" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="D187" s="30"/>
-      <c r="E187" s="29"/>
+      <c r="D187" s="25"/>
+      <c r="E187" s="24"/>
     </row>
     <row r="188" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
@@ -3335,24 +3437,24 @@
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="25" t="s">
+      <c r="A191" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="B191" s="26"/>
-      <c r="C191" s="26"/>
-      <c r="D191" s="26"/>
-      <c r="E191" s="27"/>
+      <c r="B191" s="21"/>
+      <c r="C191" s="21"/>
+      <c r="D191" s="21"/>
+      <c r="E191" s="22"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="28" t="s">
+      <c r="A192" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="B192" s="29"/>
-      <c r="C192" s="28" t="s">
+      <c r="B192" s="24"/>
+      <c r="C192" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="D192" s="30"/>
-      <c r="E192" s="29"/>
+      <c r="D192" s="25"/>
+      <c r="E192" s="24"/>
     </row>
     <row r="193" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
@@ -3389,24 +3491,24 @@
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" s="25" t="s">
+      <c r="A196" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="B196" s="26"/>
-      <c r="C196" s="26"/>
-      <c r="D196" s="26"/>
-      <c r="E196" s="27"/>
+      <c r="B196" s="21"/>
+      <c r="C196" s="21"/>
+      <c r="D196" s="21"/>
+      <c r="E196" s="22"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" s="28" t="s">
+      <c r="A197" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="B197" s="29"/>
-      <c r="C197" s="28" t="s">
+      <c r="B197" s="24"/>
+      <c r="C197" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="D197" s="30"/>
-      <c r="E197" s="29"/>
+      <c r="D197" s="25"/>
+      <c r="E197" s="24"/>
     </row>
     <row r="198" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
@@ -3443,24 +3545,24 @@
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="25" t="s">
+      <c r="A201" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="B201" s="26"/>
-      <c r="C201" s="26"/>
-      <c r="D201" s="26"/>
-      <c r="E201" s="27"/>
+      <c r="B201" s="21"/>
+      <c r="C201" s="21"/>
+      <c r="D201" s="21"/>
+      <c r="E201" s="22"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" s="28" t="s">
+      <c r="A202" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="B202" s="29"/>
-      <c r="C202" s="28" t="s">
+      <c r="B202" s="24"/>
+      <c r="C202" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="D202" s="30"/>
-      <c r="E202" s="29"/>
+      <c r="D202" s="25"/>
+      <c r="E202" s="24"/>
     </row>
     <row r="203" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
@@ -3497,24 +3599,24 @@
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" s="25" t="s">
+      <c r="A206" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="B206" s="26"/>
-      <c r="C206" s="26"/>
-      <c r="D206" s="26"/>
-      <c r="E206" s="27"/>
+      <c r="B206" s="21"/>
+      <c r="C206" s="21"/>
+      <c r="D206" s="21"/>
+      <c r="E206" s="22"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" s="28" t="s">
+      <c r="A207" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="B207" s="29"/>
-      <c r="C207" s="28" t="s">
+      <c r="B207" s="24"/>
+      <c r="C207" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="D207" s="30"/>
-      <c r="E207" s="29"/>
+      <c r="D207" s="25"/>
+      <c r="E207" s="24"/>
     </row>
     <row r="208" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
@@ -3551,24 +3653,24 @@
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" s="25" t="s">
+      <c r="A211" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="B211" s="26"/>
-      <c r="C211" s="26"/>
-      <c r="D211" s="26"/>
-      <c r="E211" s="27"/>
+      <c r="B211" s="21"/>
+      <c r="C211" s="21"/>
+      <c r="D211" s="21"/>
+      <c r="E211" s="22"/>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" s="28" t="s">
+      <c r="A212" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="B212" s="29"/>
-      <c r="C212" s="28" t="s">
+      <c r="B212" s="24"/>
+      <c r="C212" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="D212" s="30"/>
-      <c r="E212" s="29"/>
+      <c r="D212" s="25"/>
+      <c r="E212" s="24"/>
     </row>
     <row r="213" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
@@ -3605,10 +3707,10 @@
       </c>
     </row>
     <row r="216" spans="1:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C216" s="24" t="s">
+      <c r="C216" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="D216" s="24"/>
+      <c r="D216" s="30"/>
     </row>
     <row r="257" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B257" s="18" t="s">
@@ -3617,10 +3719,10 @@
       <c r="C257" s="18"/>
     </row>
     <row r="259" spans="2:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C259" s="24" t="s">
+      <c r="C259" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="D259" s="24"/>
+      <c r="D259" s="30"/>
     </row>
     <row r="261" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B261" s="18" t="s">
@@ -3629,54 +3731,92 @@
       <c r="C261" s="18"/>
     </row>
     <row r="263" spans="2:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C263" s="24" t="s">
+      <c r="C263" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="D263" s="24"/>
-    </row>
-    <row r="299" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C299" s="20" t="s">
+      <c r="D263" s="30"/>
+    </row>
+    <row r="264" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B264" s="48" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C300" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="D299" s="20"/>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
+      <c r="D300" s="47"/>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="306" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F306" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="307" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F307" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="308" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F308" t="s">
         <v>131</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="A206:E206"/>
-    <mergeCell ref="A207:B207"/>
-    <mergeCell ref="C207:E207"/>
-    <mergeCell ref="A143:C143"/>
-    <mergeCell ref="A197:B197"/>
-    <mergeCell ref="C197:E197"/>
-    <mergeCell ref="A191:E191"/>
-    <mergeCell ref="A192:B192"/>
-    <mergeCell ref="C192:E192"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C300:D300"/>
+    <mergeCell ref="A161:E161"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="C162:E162"/>
+    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="C263:D263"/>
+    <mergeCell ref="A186:E186"/>
+    <mergeCell ref="A187:B187"/>
+    <mergeCell ref="C187:E187"/>
+    <mergeCell ref="A181:E181"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="C182:E182"/>
+    <mergeCell ref="A201:E201"/>
+    <mergeCell ref="A202:B202"/>
+    <mergeCell ref="C202:E202"/>
+    <mergeCell ref="A196:E196"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C259:D259"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="A134:C134"/>
+    <mergeCell ref="A149:C149"/>
+    <mergeCell ref="A156:E156"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="C157:E157"/>
+    <mergeCell ref="A211:E211"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:B94"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="A43:G43"/>
@@ -3693,57 +3833,27 @@
     <mergeCell ref="A167:B167"/>
     <mergeCell ref="C167:E167"/>
     <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C259:D259"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="A125:C125"/>
-    <mergeCell ref="A134:C134"/>
-    <mergeCell ref="A149:C149"/>
-    <mergeCell ref="A156:E156"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="C157:E157"/>
-    <mergeCell ref="A211:E211"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C299:D299"/>
-    <mergeCell ref="A161:E161"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="C162:E162"/>
-    <mergeCell ref="A138:C138"/>
-    <mergeCell ref="C263:D263"/>
-    <mergeCell ref="A186:E186"/>
-    <mergeCell ref="A187:B187"/>
-    <mergeCell ref="C187:E187"/>
-    <mergeCell ref="A181:E181"/>
-    <mergeCell ref="A182:B182"/>
-    <mergeCell ref="C182:E182"/>
-    <mergeCell ref="A201:E201"/>
-    <mergeCell ref="A202:B202"/>
-    <mergeCell ref="C202:E202"/>
-    <mergeCell ref="A196:E196"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A206:E206"/>
+    <mergeCell ref="A207:B207"/>
+    <mergeCell ref="C207:E207"/>
+    <mergeCell ref="A143:C143"/>
+    <mergeCell ref="A197:B197"/>
+    <mergeCell ref="C197:E197"/>
+    <mergeCell ref="A191:E191"/>
+    <mergeCell ref="A192:B192"/>
+    <mergeCell ref="C192:E192"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B264" r:id="rId1" tooltip="https://www.figma.com/file/DOfXjIX0sDtTT138vuBkm6/Untitled?type=design&amp;mode=design&amp;t=JCj41vPfMqSEHQiK-1" xr:uid="{D223D7A4-C623-4729-B01C-3464D4F22F0C}"/>
+  </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="68" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" scale="68" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>